--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>NBFC</t>
   </si>
@@ -228,16 +228,88 @@
     <t xml:space="preserve">Dividend income</t>
   </si>
   <si>
-    <t xml:space="preserve">Income Statemennt</t>
-  </si>
-  <si>
-    <t>Standalone</t>
+    <t xml:space="preserve">Consolidated Balance Sheet</t>
+  </si>
+  <si>
+    <t>FY24</t>
   </si>
   <si>
     <t>FY23</t>
   </si>
   <si>
-    <t>FY24</t>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash and cash eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add. Bank Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade receivables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other receivables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loans </t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other financial assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current tax assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred tax assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment property</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right to use Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodwill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other intangible assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intangible assets under development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other non-financial assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Statement</t>
+  </si>
+  <si>
+    <t>Consolidated</t>
+  </si>
+  <si>
+    <t>https://cdn.muthootfinance.com/sites/default/files/files/2024-09/ANNUAL+REPORT+FOR+FY+2023-24.pdf</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY21 </t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY18</t>
   </si>
   <si>
     <t xml:space="preserve">Interest income </t>
@@ -249,6 +321,9 @@
     <t xml:space="preserve">Net gain on fair value changes </t>
   </si>
   <si>
+    <t xml:space="preserve">Net gain on derecognition of financial instruments</t>
+  </si>
+  <si>
     <t xml:space="preserve">After sales? (extended warranty)</t>
   </si>
   <si>
@@ -261,6 +336,9 @@
     <t xml:space="preserve">Total revenue from operations</t>
   </si>
   <si>
+    <t xml:space="preserve">Operating income</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other income</t>
   </si>
   <si>
@@ -312,33 +390,51 @@
     <t xml:space="preserve">Profit attributed to owners</t>
   </si>
   <si>
+    <t xml:space="preserve">Book value </t>
+  </si>
+  <si>
     <t xml:space="preserve">Weighted no. of shares</t>
   </si>
   <si>
     <t>EPS(basic)</t>
   </si>
   <si>
+    <t xml:space="preserve">Gross Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cogs / revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross margin ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpEx YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COGS YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS YoY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bajaj finance</t>
   </si>
   <si>
     <t>https://cms-assets.bajajfinserv.in/is/content/bajajfinance/bajaj-finance-q4-fy-25-earnings-conference-call-transcriptpdf?scl=1&amp;fmt=pdf</t>
   </si>
   <si>
-    <t>FY18</t>
-  </si>
-  <si>
-    <t>FY19</t>
-  </si>
-  <si>
-    <t>FY20</t>
-  </si>
-  <si>
     <t>FY21</t>
   </si>
   <si>
-    <t>FY22</t>
-  </si>
-  <si>
     <t>FY25</t>
   </si>
   <si>
@@ -375,18 +471,9 @@
     <t xml:space="preserve">Profit after tax</t>
   </si>
   <si>
-    <t xml:space="preserve">Profit YoY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax YoY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debt Interest YoY</t>
   </si>
   <si>
-    <t xml:space="preserve">OpEx YoY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Net margin </t>
   </si>
   <si>
@@ -523,9 +610,6 @@
   </si>
   <si>
     <t xml:space="preserve">funds set aside for bad-debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating income</t>
   </si>
   <si>
     <t xml:space="preserve">credit provisioning</t>
@@ -634,10 +718,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* &quot;(&quot;#,##0.0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* &quot;(&quot;#,##0.00&quot;)&quot;;_(* &quot;-&quot;??.0_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* &quot;(&quot;#,##0.0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -763,34 +849,46 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="39">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="168" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1498,10 +1596,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1531,7 +1629,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1539,7 +1637,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1555,43 +1653,43 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1604,10 +1702,10 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="5"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="5"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38">
       <c r="B38" t="s">
@@ -1668,91 +1766,221 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="6" width="18.7109375"/>
-    <col min="3" max="7" style="6" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" style="6" width="22.8515625"/>
-    <col customWidth="1" min="9" max="9" style="6" width="29.57421875"/>
-    <col min="10" max="16384" style="6" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="3" width="11.00390625"/>
+    <col customWidth="1" min="2" max="2" style="3" width="14.421875"/>
+    <col customWidth="1" min="3" max="3" style="3" width="20.140625"/>
+    <col customWidth="1" min="4" max="4" style="3" width="18.00390625"/>
+    <col min="5" max="6" style="3" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" style="3" width="22.8515625"/>
+    <col customWidth="1" min="8" max="8" style="3" width="29.57421875"/>
+    <col min="9" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" ht="16.5">
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" ht="16.5">
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="6">
+      <c r="H3" s="3">
         <v>2088.9000000000001</v>
       </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="6">
+      <c r="H4" s="3">
         <v>401461676</v>
       </c>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="7"/>
-      <c r="H5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="8">
-        <f>I3*I4/1000000</f>
+      <c r="H5" s="5">
+        <f>H3*H4/1000000</f>
         <v>838613.29499640001</v>
       </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="B6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="6">
+      <c r="H6" s="3">
         <f>50365.46+93.14</f>
         <v>50458.599999999999</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="6">
+      <c r="H7" s="3">
         <f>163714.7+423613.13</f>
         <v>587327.83000000007</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="B8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="A8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="8">
-        <f>I5+I7-I6</f>
+      <c r="H8" s="5">
+        <f>H5+H7-H6</f>
         <v>1375482.5249963999</v>
       </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="11" ht="16.5">
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" ht="16.5">
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="B29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="B33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="B35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -1770,317 +1998,475 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="6" width="17.7109375"/>
-    <col customWidth="1" min="2" max="2" style="6" width="36.421875"/>
-    <col customWidth="1" min="3" max="4" style="6" width="15.28125"/>
-    <col min="5" max="16384" style="6" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="3" width="13.57421875"/>
+    <col customWidth="1" min="2" max="2" style="3" width="30.421875"/>
+    <col customWidth="1" min="3" max="3" style="3" width="19.00390625"/>
+    <col customWidth="1" min="4" max="4" style="3" width="20.00390625"/>
+    <col min="5" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="16.5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="16.5">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="9">
-        <v>103686.11</v>
-      </c>
-      <c r="D5" s="9">
-        <v>124475.66</v>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7">
+        <v>145457.01000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>115555.35000000001</v>
       </c>
     </row>
     <row r="6" ht="16.5">
-      <c r="A6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="9">
-        <v>23.77</v>
-      </c>
-      <c r="D6" s="9">
-        <v>70.739999999999995</v>
+      <c r="C6" s="7">
+        <v>48.100000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9.4100000000000001</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="9">
-        <v>672.70000000000005</v>
-      </c>
-      <c r="D7" s="9">
-        <v>820.87</v>
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="7">
+        <v>640.05999999999995</v>
+      </c>
+      <c r="D7" s="8">
+        <v>524.13999999999999</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1723.3399999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1403.1199999999999</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7">
+        <v>88.870000000000005</v>
+      </c>
+      <c r="D9" s="8">
         <v>90.700000000000003</v>
       </c>
-      <c r="D8" s="9">
-        <v>88.870000000000005</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="9">
-        <v>675.21000000000004</v>
-      </c>
-      <c r="D9" s="9">
-        <v>893.94000000000005</v>
-      </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="9">
-        <f>SUM(C5:C9)</f>
-        <v>105148.49000000001</v>
-      </c>
-      <c r="D10" s="9">
-        <f>SUM(D5:D9)</f>
-        <v>126350.08</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="B11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="9">
-        <v>288.99000000000001</v>
-      </c>
-      <c r="D11" s="9">
-        <v>590.36000000000001</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="B12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="9">
-        <f>C10+C11</f>
-        <v>105437.48000000001</v>
-      </c>
-      <c r="D12" s="9">
-        <f>D10+D11</f>
-        <v>126940.44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" ht="16.5">
-      <c r="A14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="9">
-        <v>36991.400000000001</v>
-      </c>
-      <c r="D14" s="9">
-        <v>46547.620000000003</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5">
-      <c r="A15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="9">
-        <v>605.26999999999998</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1977.71</v>
-      </c>
+        <v>2659.1900000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1393.9100000000001</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="16.5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="10">
+        <f>SUM(C5:C10)</f>
+        <v>150616.57000000001</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(D5:D10)</f>
+        <v>118976.63</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="16.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C5+C9+C10</f>
+        <v>148205.07000000001</v>
+      </c>
+      <c r="D12" s="10">
+        <f>D5+D9+D10</f>
+        <v>117039.96000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1010.85</v>
+      </c>
+      <c r="D13" s="13">
+        <v>773.41999999999996</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="16.5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="14">
+        <f>SUM(C11:C13)</f>
+        <v>299832.48999999999</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUM(D11:D13)</f>
+        <v>236790.01000000004</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" ht="16.5">
-      <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="9">
-        <v>11994.41</v>
-      </c>
-      <c r="D16" s="9">
-        <v>13869.16</v>
+      <c r="A16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="13">
+        <v>54300.779999999999</v>
+      </c>
+      <c r="D16" s="13">
+        <v>42091.779999999999</v>
       </c>
     </row>
     <row r="17" ht="16.5">
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="9">
-        <v>583.13999999999999</v>
-      </c>
-      <c r="D17" s="9">
-        <v>656.25</v>
+      <c r="A17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5538.21</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2432.2199999999998</v>
       </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="9">
-        <v>8599</v>
-      </c>
-      <c r="D18" s="9">
-        <v>9401.8700000000008</v>
+      <c r="B18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="13">
+        <v>18282.060000000001</v>
+      </c>
+      <c r="D18" s="13">
+        <v>14882.68</v>
       </c>
     </row>
     <row r="19" ht="16.5">
-      <c r="B19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="9">
-        <f>SUM(C14:C18)</f>
-        <v>58773.220000000001</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D14:D18)</f>
-        <v>72452.610000000001</v>
+      <c r="B19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="13">
+        <v>921.05999999999995</v>
+      </c>
+      <c r="D19" s="13">
+        <v>781.61000000000001</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="B20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="9">
-        <f>C12-C19</f>
-        <v>46664.260000000009</v>
-      </c>
-      <c r="D20" s="9">
-        <f>D12-D19</f>
-        <v>54487.830000000002</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5">
-      <c r="B21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="9">
-        <f>12069.87-58.47-82.45</f>
-        <v>11928.950000000001</v>
-      </c>
-      <c r="D21" s="9">
-        <f>14109.62-118.44</f>
-        <v>13991.18</v>
+      <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="13">
+        <v>12620.27</v>
+      </c>
+      <c r="D20" s="13">
+        <v>10333.959999999999</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="16.5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="14">
+        <f>SUM(C16:C20)</f>
+        <v>91662.380000000005</v>
+      </c>
+      <c r="D21" s="14">
+        <f>SUM(D16:D20)</f>
+        <v>70522.25</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="9">
-        <f>C20-C21</f>
-        <v>34735.310000000012</v>
-      </c>
-      <c r="D22" s="9">
-        <f>D20-D21</f>
-        <v>40496.650000000001</v>
+      <c r="B22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="13">
+        <f>C14-C21</f>
+        <v>208170.10999999999</v>
+      </c>
+      <c r="D22" s="13">
+        <f>D14-D21</f>
+        <v>166267.76000000004</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="A23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="9">
-        <v>460</v>
-      </c>
-      <c r="D23" s="9">
-        <v>618.13999999999999</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5">
-      <c r="B24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="13">
+        <f>512.3+5.84-15807.24</f>
+        <v>-15289.1</v>
+      </c>
+      <c r="D23" s="13">
+        <f>-294.47+105.52-12341.19</f>
+        <v>-12530.140000000001</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="16.5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="14">
         <f>C22+C23</f>
-        <v>35195.310000000012</v>
-      </c>
-      <c r="D24" s="10">
+        <v>192881.00999999998</v>
+      </c>
+      <c r="D24" s="14">
         <f>D22+D23</f>
-        <v>41114.790000000001</v>
-      </c>
+        <v>153737.62000000002</v>
+      </c>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" ht="16.5">
-      <c r="B25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="A25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="13">
+        <v>704.13</v>
+      </c>
+      <c r="D25" s="13">
+        <v>428.67000000000002</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="15">
+        <f>SUM(C24:C25)</f>
+        <v>193585.13999999998</v>
+      </c>
+      <c r="D26" s="15">
+        <f>SUM(D24:D25)</f>
+        <v>154166.29000000004</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="B27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43242.879999999997</v>
+      </c>
+      <c r="D27" s="15">
         <v>36122.980000000003</v>
       </c>
-      <c r="D25" s="11">
-        <v>43242.879999999997</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" ht="16.5">
-      <c r="B27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="6">
+    </row>
+    <row r="28" ht="16.5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="B30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="15">
+        <v>251072.07000000001</v>
+      </c>
+      <c r="D30" s="17">
+        <v>216657.51999999999</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="B31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="13">
+        <v>401453679</v>
+      </c>
+      <c r="D31" s="13">
         <v>401397883</v>
       </c>
-      <c r="D27" s="6">
-        <v>401453679</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5">
-      <c r="B28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6">
-        <f>((C22+C23)*1000000)/C27</f>
-        <v>87.681852572202075</v>
-      </c>
-      <c r="D28" s="6">
-        <f>((D22+D23)*1000000)/D27</f>
-        <v>102.41477946450703</v>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="3">
+        <f>C27*1000000/D31</f>
+        <v>107.73071267045023</v>
+      </c>
+      <c r="D32" s="3">
+        <f>D27*1000000/C31</f>
+        <v>89.980443297917816</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="B34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="15">
+        <f>C14-C16</f>
+        <v>245531.70999999999</v>
+      </c>
+      <c r="D34" s="15">
+        <f>D14-D16</f>
+        <v>194698.23000000004</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="A35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="18">
+        <f>C16/C14</f>
+        <v>0.18110372228173138</v>
+      </c>
+      <c r="D35" s="18">
+        <f>D16/D14</f>
+        <v>0.17775994857215469</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="B36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="18">
+        <f>C27/D27-1</f>
+        <v>0.19710167876515161</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="B37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="18">
+        <f>C23/D23-1</f>
+        <v>0.22018588778736703</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="B38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="18">
+        <f>C20/D20-1</f>
+        <v>0.2212423891712374</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="B39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="18">
+        <f>C16/D16-1</f>
+        <v>0.29005663338542576</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5">
+      <c r="B40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="18">
+        <f>C26/D26-1</f>
+        <v>0.25569046255183236</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="B41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="18">
+        <f>C32/D32-1</f>
+        <v>0.19726808095135451</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2105,557 +2491,557 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>99</v>
+        <v>134</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="13">
+        <v>138</v>
+      </c>
+      <c r="C3" s="19">
         <v>15.300000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="19">
         <v>23.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="19">
         <v>27.399999999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="19">
         <v>16.899999999999999</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="19">
         <v>24.699999999999999</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="19">
         <v>29.600000000000001</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="19">
         <v>36.200000000000003</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="19">
         <v>43.399999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="13">
+        <v>139</v>
+      </c>
+      <c r="C4" s="19">
         <v>82400</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="19">
         <v>115900</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="19">
         <v>147200</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="19">
         <v>152900</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="19">
         <v>197500</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="19">
         <v>247400</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="19">
         <v>330600</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="19">
         <v>416700</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1">
-      <c r="B5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="15">
+    <row r="5" s="20" customFormat="1">
+      <c r="B5" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="21">
         <v>12757</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="21">
         <v>18500</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="21">
         <v>26386</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="21">
         <v>26683</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="21">
         <v>31648</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="21">
         <v>41418</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="21">
         <v>54983</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="21">
         <v>69725</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="13">
+        <v>140</v>
+      </c>
+      <c r="C6" s="19">
         <v>4614</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="19">
         <v>6623</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="19">
         <v>9473</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="19">
         <v>9414</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="19">
         <v>9754</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="19">
         <v>12560</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="19">
         <v>18725</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="19">
         <v>24771</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="15">
+    <row r="7" s="20" customFormat="1">
+      <c r="A7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="21">
         <f>C5-C6</f>
         <v>8143</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="21">
         <f>D5-D6</f>
         <v>11877</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="21">
         <f>E5-E6</f>
         <v>16913</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="21">
         <f>F5-F6</f>
         <v>17269</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="21">
         <f>G5-G6</f>
         <v>21894</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="21">
         <f>H5-H6</f>
         <v>28858</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="21">
         <f>I5-I6</f>
         <v>36258</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="21">
         <f>J5-J6</f>
         <v>44954</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="13">
+        <v>143</v>
+      </c>
+      <c r="C8" s="19">
         <v>3270</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="19">
         <v>4197</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="19">
         <v>5662</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="19">
         <v>5308</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="19">
         <v>7587</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="19">
         <v>10142</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="19">
         <v>12325</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="19">
         <v>14926</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1">
-      <c r="B9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="15">
+    <row r="9" s="20" customFormat="1">
+      <c r="B9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="21">
         <f>C7-C8</f>
         <v>4873</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="22">
         <f>D7-D8</f>
         <v>7680</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="22">
         <f>E7-E8</f>
         <v>11251</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="22">
         <f>F7-F8</f>
         <v>11961</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="22">
         <f>G7-G8</f>
         <v>14307</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="22">
         <f>H7-H8</f>
         <v>18716</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="22">
         <f>I7-I8</f>
         <v>23933</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="22">
         <f>J7-J8</f>
         <v>30028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="13">
+        <v>146</v>
+      </c>
+      <c r="C10" s="19">
         <v>1030</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="19">
         <v>1501</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="19">
         <v>3929</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="19">
         <v>5969</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="19">
         <v>4803</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="19">
         <v>3190</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="19">
         <v>4631</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="19">
         <v>7966</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="13">
+        <v>147</v>
+      </c>
+      <c r="C11" s="19">
         <f>C9-C10</f>
         <v>3843</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="23">
         <f>D9-D10</f>
         <v>6179</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="23">
         <f>E9-E10</f>
         <v>7322</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="23">
         <f>F9-F10</f>
         <v>5992</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="23">
         <f>G9-G10</f>
         <v>9504</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="23">
         <f>H9-H10</f>
         <v>15526</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="23">
         <f>I9-I10</f>
         <v>19302</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="23">
         <f>J9-J10</f>
         <v>22062</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="13">
+        <v>116</v>
+      </c>
+      <c r="C12" s="19">
         <f>C11-C13</f>
         <v>1347</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="23">
         <f>D11-D13</f>
         <v>2184</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="23">
         <f>E11-E13</f>
         <v>2058</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="23">
         <f>F11-F13</f>
         <v>1572</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="23">
         <f>G11-G13</f>
         <v>2476</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="23">
         <f>H11-H13</f>
         <v>4018</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="23">
         <f>I11-I13</f>
         <v>4851</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="23">
         <f>J11-J13</f>
         <v>5283</v>
       </c>
     </row>
-    <row r="13" s="14" customFormat="1">
-      <c r="B13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="15">
+    <row r="13" s="20" customFormat="1">
+      <c r="B13" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="21">
         <v>2496</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="21">
         <v>3995</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="21">
         <v>5264</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="21">
         <v>4420</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="21">
         <v>7028</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="21">
         <v>11508</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="21">
         <v>14451</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="21">
         <v>16779</v>
       </c>
     </row>
     <row r="14"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="18">
+        <v>128</v>
+      </c>
+      <c r="D17" s="24">
         <f>D13/C13-1</f>
         <v>0.60056089743589736</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="24">
         <f>E13/D13-1</f>
         <v>0.31764705882352939</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="24">
         <f>F13/E13-1</f>
         <v>-0.16033434650455924</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="24">
         <f>G13/F13-1</f>
         <v>0.59004524886877818</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="24">
         <f>H13/G13-1</f>
         <v>0.63745019920318735</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="24">
         <f>I13/H13-1</f>
         <v>0.25573514077163706</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="24">
         <f>J13/I13-1</f>
         <v>0.1610961179157151</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="18">
+        <v>129</v>
+      </c>
+      <c r="D18" s="24">
         <f>D12/C12-1</f>
         <v>0.6213808463251671</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="24">
         <f>E12/D12-1</f>
         <v>-0.057692307692307709</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="24">
         <f>F12/E12-1</f>
         <v>-0.23615160349854225</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="24">
         <f>G12/F12-1</f>
         <v>0.57506361323155208</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="24">
         <f>H12/G12-1</f>
         <v>0.62277867528271402</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="24">
         <f>I12/H12-1</f>
         <v>0.20731707317073167</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="24">
         <f>J12/I12-1</f>
         <v>0.089053803339517623</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="18">
+        <v>149</v>
+      </c>
+      <c r="D19" s="24">
         <f>D6/C6-1</f>
         <v>0.43541395752058953</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="24">
         <f>E6/D6-1</f>
         <v>0.43031858674316781</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="24">
         <f>F6/E6-1</f>
         <v>-0.0062282275942151522</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="24">
         <f>G6/F6-1</f>
         <v>0.036116422349691923</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="24">
         <f>H6/G6-1</f>
         <v>0.2876768505228624</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="24">
         <f>I6/H6-1</f>
         <v>0.49084394904458595</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="24">
         <f>J6/I6-1</f>
         <v>0.32288384512683588</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="18">
+        <v>130</v>
+      </c>
+      <c r="D20" s="24">
         <f>D8/C8-1</f>
         <v>0.28348623853211019</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="24">
         <f>E8/D8-1</f>
         <v>0.34905885156063854</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="24">
         <f>F8/E8-1</f>
         <v>-0.062522077004592003</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="24">
         <f>G8/F8-1</f>
         <v>0.42935192162773173</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="24">
         <f>H8/G8-1</f>
         <v>0.3367602477922762</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="24">
         <f>I8/H8-1</f>
         <v>0.21524354170774984</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="24">
         <f>J8/I8-1</f>
         <v>0.2110344827586208</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="18">
+        <v>150</v>
+      </c>
+      <c r="D21" s="24">
         <f>D13/D5</f>
         <v>0.21594594594594593</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="24">
         <f>E13/E5</f>
         <v>0.19949973470779958</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="24">
         <f>F13/F5</f>
         <v>0.16564854026908518</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="24">
         <f>G13/G5</f>
         <v>0.22206774519716885</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="24">
         <f>H13/H5</f>
         <v>0.27785021005359989</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="24">
         <f>I13/I5</f>
         <v>0.26282669188658314</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="24">
         <f>J13/J5</f>
         <v>0.24064539261384008</v>
       </c>
@@ -2680,373 +3066,373 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="6" width="50.421875"/>
-    <col customWidth="1" min="3" max="3" style="6" width="24.00390625"/>
-    <col min="4" max="16384" style="6" width="9.140625"/>
+    <col min="1" max="1" style="3" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="3" width="50.421875"/>
+    <col customWidth="1" min="3" max="3" style="3" width="24.00390625"/>
+    <col min="4" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="12" t="s">
-        <v>122</v>
+      <c r="B2" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="6"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>124</v>
+      <c r="A5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="25">
         <v>0.39000000000000001</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="A8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="26">
         <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="A9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.51000000000000001</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="20"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="C11" s="20"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="C12" s="20"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" ht="16.5">
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="4" t="str">
         <f>B7</f>
         <v xml:space="preserve">Bajaj finserv ltd</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" ht="16.5">
-      <c r="A14" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="A14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="26">
         <v>0.51390000000000002</v>
       </c>
     </row>
     <row r="15" ht="16.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="26">
         <v>0.73999999999999999</v>
       </c>
     </row>
     <row r="16" ht="16.5">
-      <c r="B16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="26">
         <v>0.73999999999999999</v>
       </c>
     </row>
     <row r="17" ht="16.5">
-      <c r="B17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="B17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="26">
         <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="B18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="20"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="20"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" ht="16.5">
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="4" t="str">
         <f>B14</f>
         <v xml:space="preserve">Bajaj Finance Ltd</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" ht="16.5">
-      <c r="A22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="A22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="26">
         <v>0.88749999999999996</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="19"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="27" ht="16.5">
-      <c r="B27" s="7" t="s">
-        <v>136</v>
+      <c r="B27" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" ht="16.5">
-      <c r="B29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="B29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="27">
         <v>49500</v>
       </c>
     </row>
     <row r="30" ht="16.5">
-      <c r="A30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="A30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="27">
         <v>62700</v>
       </c>
     </row>
     <row r="31" ht="16.5">
-      <c r="B31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="B31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="27">
         <v>46250</v>
       </c>
     </row>
     <row r="32" ht="16.5">
-      <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="21">
+      <c r="B32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="27">
         <v>21250</v>
       </c>
     </row>
     <row r="33" ht="16.5">
-      <c r="B33" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="B33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="27">
         <v>30700</v>
       </c>
     </row>
     <row r="34" ht="16.5">
-      <c r="B34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="B34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="27">
         <v>550</v>
       </c>
     </row>
     <row r="35" ht="16.5">
-      <c r="B35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="27">
         <v>8900</v>
       </c>
     </row>
     <row r="36" ht="16.5">
-      <c r="B36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="B36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="27">
         <v>2300</v>
       </c>
     </row>
     <row r="37" ht="16.5">
-      <c r="B37" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="21">
+      <c r="B37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="38" ht="16.5">
-      <c r="B38" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="21">
+      <c r="B38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="27">
         <v>850</v>
       </c>
     </row>
     <row r="39" ht="16.5">
-      <c r="B39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="21">
+      <c r="B39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="27">
         <v>9200</v>
       </c>
     </row>
     <row r="40" ht="16.5">
-      <c r="B40" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="B40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="27">
         <v>232200</v>
       </c>
     </row>
     <row r="41" ht="16.5">
-      <c r="B41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="B41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="27">
         <v>7500</v>
       </c>
     </row>
     <row r="44" ht="16.5">
-      <c r="B44" s="7" t="s">
-        <v>151</v>
+      <c r="B44" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="45" ht="16.5">
-      <c r="B45" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="B45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="27">
         <v>17319</v>
       </c>
     </row>
     <row r="46" ht="16.5">
-      <c r="B46" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="21">
+      <c r="B46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="27">
         <v>29109</v>
       </c>
     </row>
     <row r="47" ht="16.5">
-      <c r="B47" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="21">
+      <c r="B47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="27">
         <v>87696</v>
       </c>
     </row>
     <row r="48" ht="16.5">
-      <c r="B48" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="21">
+      <c r="B48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="27">
         <v>7944</v>
       </c>
     </row>
     <row r="49" ht="16.5">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="21">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="27">
         <v>21467</v>
       </c>
     </row>
     <row r="50" ht="16.5">
-      <c r="B50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="21">
+      <c r="B50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="27">
         <v>8307</v>
       </c>
     </row>
     <row r="51" ht="16.5">
-      <c r="B51" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="21">
+      <c r="B51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="27">
         <v>50345</v>
       </c>
     </row>
     <row r="52" ht="16.5">
-      <c r="B52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="21">
+      <c r="B52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="27">
         <v>11876</v>
       </c>
     </row>
     <row r="53" ht="16.5">
-      <c r="B53" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="21">
+      <c r="B53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="27">
         <v>27760</v>
       </c>
     </row>
     <row r="54" ht="16.5">
-      <c r="B54" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="21">
+      <c r="B54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="27">
         <v>25377</v>
       </c>
     </row>
     <row r="55" ht="16.5">
-      <c r="B55" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="21">
+      <c r="B55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="27">
         <v>129461</v>
       </c>
     </row>
     <row r="56" ht="16.5">
-      <c r="B56" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="22">
+      <c r="B56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="28">
         <f>SUM(C45:C55)</f>
         <v>416661</v>
       </c>
     </row>
     <row r="57" ht="16.5">
-      <c r="B57" s="6"/>
+      <c r="B57" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3077,191 +3463,191 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>71</v>
+      <c r="D3" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="13">
+        <v>142</v>
+      </c>
+      <c r="C4" s="19">
         <v>4410</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="19">
         <v>6296</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="13">
+        <v>194</v>
+      </c>
+      <c r="C5" s="19">
         <v>1417</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="19">
         <v>1957</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="14.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+    <row r="6" s="20" customFormat="1" ht="14.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="15">
+        <v>195</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="21">
         <f>C4-C5</f>
         <v>2993</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="21">
         <f>D4-D5</f>
         <v>4339</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="13">
+        <v>196</v>
+      </c>
+      <c r="C8" s="19">
         <v>903</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="19">
         <v>1352</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="21">
         <f>C4-C5-C8</f>
         <v>2090</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="21">
         <f>D4-D5-D8</f>
         <v>2987</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="13">
+        <v>116</v>
+      </c>
+      <c r="C10" s="19">
         <v>536</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="19">
         <v>766</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="21">
         <f>C9-C10</f>
         <v>1554</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="21">
         <f>D9-D10</f>
         <v>2221</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="13">
+        <v>197</v>
+      </c>
+      <c r="C12" s="19">
         <v>11426</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="19">
         <v>15224</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="13">
+        <v>198</v>
+      </c>
+      <c r="C13" s="19">
         <v>70771</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="19">
         <v>92292</v>
       </c>
     </row>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="18">
+        <v>199</v>
+      </c>
+      <c r="C15" s="24">
         <f>C11/C12</f>
         <v>0.13600560126028358</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="29">
         <f>D11/D12</f>
         <v>0.14588807146610616</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="24">
+        <v>200</v>
+      </c>
+      <c r="C16" s="30">
         <f>C13/C12</f>
         <v>6.1938561176264662</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="31">
         <f>D13/D12</f>
         <v>6.0622700998423538</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="18">
+        <v>201</v>
+      </c>
+      <c r="C17" s="24">
         <f>C5/C4</f>
         <v>0.32131519274376419</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="29">
         <f>D5/D4</f>
         <v>0.31083227445997458</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="18">
+        <v>202</v>
+      </c>
+      <c r="C18" s="24">
         <f>C8/C7</f>
         <v>0.30170397594386905</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="29">
         <f>D8/D7</f>
         <v>0.3115925328416686</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3281,240 +3667,240 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="6" width="46.8515625"/>
-    <col min="3" max="16384" style="6" width="9.140625"/>
+    <col min="1" max="1" style="3" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="3" width="46.8515625"/>
+    <col min="3" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="A4" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="38">
         <v>52.700000000000003</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="32"/>
+      <c r="B5" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="38">
         <v>16.300000000000001</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="A6" s="32"/>
+      <c r="B6" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="38">
         <v>31</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="A10" s="32"/>
+      <c r="B10" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="38">
         <v>100</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="A11" s="32"/>
+      <c r="B11" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="38">
         <v>100</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="A12" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="38">
         <v>74</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="32">
+      <c r="A13" s="32"/>
+      <c r="B13" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="38">
         <v>50</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="32">
+      <c r="A14" s="32"/>
+      <c r="B14" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="38">
         <v>51</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="D14" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="32">
+      <c r="A15" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="38">
         <v>45</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="D15" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="A16" s="32"/>
+      <c r="B16" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="38">
         <v>46</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="32">
+      <c r="A17" s="32"/>
+      <c r="B17" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="38">
         <v>100</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="D17" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>NBFC</t>
   </si>
@@ -231,6 +231,9 @@
     <t xml:space="preserve">Consolidated Balance Sheet</t>
   </si>
   <si>
+    <t>https://cdn.muthootfinance.com/sites/default/files/files/2024-09/ANNUAL+REPORT+FOR+FY+2023-24.pdf</t>
+  </si>
+  <si>
     <t>FY24</t>
   </si>
   <si>
@@ -246,15 +249,24 @@
     <t xml:space="preserve">Add. Bank Balance</t>
   </si>
   <si>
+    <t xml:space="preserve">to be received</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trade receivables</t>
   </si>
   <si>
     <t xml:space="preserve">Other receivables</t>
   </si>
   <si>
+    <t xml:space="preserve">given to others</t>
+  </si>
+  <si>
     <t xml:space="preserve">loans </t>
   </si>
   <si>
+    <t>IPO</t>
+  </si>
+  <si>
     <t>Investments</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t xml:space="preserve">Right to use Assets</t>
   </si>
   <si>
+    <t xml:space="preserve">Capital work in progress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goodwill </t>
   </si>
   <si>
@@ -285,16 +300,82 @@
     <t xml:space="preserve">Intangible assets under development </t>
   </si>
   <si>
+    <t xml:space="preserve">leases, tax </t>
+  </si>
+  <si>
     <t xml:space="preserve">Other non-financial assets</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cant determine .. </t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>LIABILITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derivatives , futures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derivative financial instruments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outstanding  money to pay to creditros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade payables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other payables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt securities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrowing </t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subordinated liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lease liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other financial liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current tax liabilities</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other non-financial liabilities</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Income Statement</t>
   </si>
   <si>
     <t>Consolidated</t>
-  </si>
-  <si>
-    <t>https://cdn.muthootfinance.com/sites/default/files/files/2024-09/ANNUAL+REPORT+FOR+FY+2023-24.pdf</t>
   </si>
   <si>
     <t>FY22</t>
@@ -857,17 +938,17 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1766,14 +1847,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="3" width="11.00390625"/>
-    <col customWidth="1" min="2" max="2" style="3" width="14.421875"/>
+    <col customWidth="1" min="2" max="2" style="3" width="23.57421875"/>
     <col customWidth="1" min="3" max="3" style="3" width="20.140625"/>
     <col customWidth="1" min="4" max="4" style="3" width="18.00390625"/>
     <col min="5" max="6" style="3" width="9.140625"/>
@@ -1870,119 +1951,417 @@
       </c>
       <c r="B16" s="3"/>
     </row>
+    <row r="17" ht="14.25">
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="18" ht="16.5">
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" ht="16.5">
-      <c r="B19" s="3" t="s">
-        <v>71</v>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="16.5">
       <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C20" s="7">
+        <v>60373.449999999997</v>
+      </c>
+      <c r="D20" s="7">
+        <v>77701.830000000002</v>
+      </c>
     </row>
     <row r="21" ht="16.5">
       <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2346.5700000000002</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2654.7600000000002</v>
+      </c>
     </row>
     <row r="22" ht="16.5">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C22" s="7">
+        <v>178.36000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>98.950000000000003</v>
+      </c>
     </row>
     <row r="23" ht="16.5">
+      <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="16.5">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C24" s="7">
+        <v>881871.70999999996</v>
+      </c>
+      <c r="D24" s="7">
+        <v>705543.83999999997</v>
+      </c>
     </row>
     <row r="25" ht="16.5">
+      <c r="A25" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7124.7200000000003</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5457.1199999999999</v>
+      </c>
     </row>
     <row r="26" ht="16.5">
       <c r="B26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4136.1199999999999</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" ht="16.5">
       <c r="B28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="7">
+        <v>724.86000000000001</v>
+      </c>
+      <c r="D28" s="7">
+        <v>474.56999999999999</v>
+      </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C29" s="7">
+        <v>975.77999999999997</v>
+      </c>
+      <c r="D29" s="7">
+        <v>640.98000000000002</v>
+      </c>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="C30" s="7">
+        <v>91.069999999999993</v>
+      </c>
+      <c r="D30" s="7">
+        <v>82.019999999999996</v>
+      </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4255.2399999999998</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3272.3699999999999</v>
+      </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C32" s="7">
+        <v>111.11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>142.22999999999999</v>
+      </c>
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="C33" s="7">
+        <v>883.15999999999997</v>
+      </c>
+      <c r="D33" s="7">
+        <v>674.26999999999998</v>
+      </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C34" s="7">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="D34" s="7">
+        <v>299.95999999999998</v>
+      </c>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="7">
+        <v>58.350000000000001</v>
+      </c>
+      <c r="D35" s="7">
+        <v>58.850000000000001</v>
+      </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3.6499999999999999</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="A37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1260.0899999999999</v>
+      </c>
+      <c r="D37" s="7">
+        <v>934.00999999999999</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" s="4" customFormat="1" ht="16.5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="8">
+        <f>SUM(C20:C37)</f>
+        <v>964694.19999999984</v>
+      </c>
+      <c r="D39" s="8">
+        <f>SUM(D20:D37)</f>
+        <v>801489.19999999984</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5">
+      <c r="B42" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5">
+      <c r="B45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5">
+      <c r="A46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
+        <v>138.86000000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1921.73</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5">
+      <c r="A47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="3">
+        <f>7.68+1381.23</f>
+        <v>1388.9100000000001</v>
+      </c>
+      <c r="D47" s="3">
+        <f>7.2+871.23</f>
+        <v>878.43000000000006</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3">
+        <f>1280.7</f>
+        <v>1280.7</v>
+      </c>
+      <c r="D48" s="3">
+        <f>871.23</f>
+        <v>871.23000000000002</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3">
+        <v>174762.20000000001</v>
+      </c>
+      <c r="D49" s="3">
+        <v>146045.79000000001</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3">
+        <v>500519.53000000003</v>
+      </c>
+      <c r="D50" s="3">
+        <v>405974.58000000002</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4018.2600000000002</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3314.7600000000002</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3309.73</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2546.5500000000002</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5">
+      <c r="B53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3">
+        <v>125.91</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="B54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="3">
+        <v>16014.9</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5">
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="3">
+        <v>551.67999999999995</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5">
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3733.27</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5">
+      <c r="B58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="3">
+        <v>167.62</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5">
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="3">
+        <v>11142.16</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="B61" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D17"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2009,124 +2388,124 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="16.5">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="7">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>115555.35000000001</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>9.4100000000000001</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="7">
+        <v>125</v>
+      </c>
+      <c r="C7" s="9">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>524.13999999999999</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="7">
+        <v>126</v>
+      </c>
+      <c r="C8" s="9">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1403.1199999999999</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="7">
+        <v>128</v>
+      </c>
+      <c r="C9" s="9">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>90.700000000000003</v>
       </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="9">
+        <v>129</v>
+      </c>
+      <c r="C10" s="10">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1393.9100000000001</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="16.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="10">
+        <v>130</v>
+      </c>
+      <c r="C11" s="11">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
@@ -2134,20 +2513,20 @@
     <row r="12" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="10">
+        <v>131</v>
+      </c>
+      <c r="C12" s="11">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
     </row>
     <row r="13" ht="16.5">
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C13" s="13">
         <v>1010.85</v>
@@ -2159,7 +2538,7 @@
     <row r="14" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C14" s="14">
         <f>SUM(C11:C13)</f>
@@ -2176,10 +2555,10 @@
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C16" s="13">
         <v>54300.779999999999</v>
@@ -2190,10 +2569,10 @@
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C17" s="13">
         <v>5538.21</v>
@@ -2204,7 +2583,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C18" s="13">
         <v>18282.060000000001</v>
@@ -2215,7 +2594,7 @@
     </row>
     <row r="19" ht="16.5">
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C19" s="13">
         <v>921.05999999999995</v>
@@ -2226,7 +2605,7 @@
     </row>
     <row r="20" ht="16.5">
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C20" s="13">
         <v>12620.27</v>
@@ -2238,7 +2617,7 @@
     <row r="21" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C21" s="14">
         <f>SUM(C16:C20)</f>
@@ -2251,7 +2630,7 @@
     </row>
     <row r="22" ht="16.5">
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C22" s="13">
         <f>C14-C21</f>
@@ -2264,7 +2643,7 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C23" s="13">
         <f>512.3+5.84-15807.24</f>
@@ -2279,7 +2658,7 @@
     <row r="24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C24" s="14">
         <f>C22+C23</f>
@@ -2293,10 +2672,10 @@
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C25" s="13">
         <v>704.13</v>
@@ -2307,7 +2686,7 @@
     </row>
     <row r="26" ht="16.5">
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C26" s="15">
         <f>SUM(C24:C25)</f>
@@ -2320,7 +2699,7 @@
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C27" s="15">
         <v>43242.879999999997</v>
@@ -2341,7 +2720,7 @@
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C30" s="15">
         <v>251072.07000000001</v>
@@ -2352,7 +2731,7 @@
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C31" s="13">
         <v>401453679</v>
@@ -2364,7 +2743,7 @@
     <row r="32" ht="16.5">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3">
         <f>C27*1000000/D31</f>
@@ -2382,7 +2761,7 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C34" s="15">
         <f>C14-C16</f>
@@ -2395,10 +2774,10 @@
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C35" s="18">
         <f>C16/C14</f>
@@ -2411,7 +2790,7 @@
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D36" s="18">
         <f>C27/D27-1</f>
@@ -2420,7 +2799,7 @@
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D37" s="18">
         <f>C23/D23-1</f>
@@ -2429,7 +2808,7 @@
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D38" s="18">
         <f>C20/D20-1</f>
@@ -2438,7 +2817,7 @@
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D39" s="18">
         <f>C16/D16-1</f>
@@ -2447,7 +2826,7 @@
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="3" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D40" s="18">
         <f>C26/D26-1</f>
@@ -2456,7 +2835,7 @@
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="3" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D41" s="18">
         <f>C32/D32-1</f>
@@ -2491,41 +2870,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
-        <v>69</v>
-      </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C3" s="19">
         <v>15.300000000000001</v>
@@ -2554,7 +2933,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C4" s="19">
         <v>82400</v>
@@ -2583,7 +2962,7 @@
     </row>
     <row r="5" s="20" customFormat="1">
       <c r="B5" s="20" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C5" s="21">
         <v>12757</v>
@@ -2612,7 +2991,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C6" s="19">
         <v>4614</v>
@@ -2641,10 +3020,10 @@
     </row>
     <row r="7" s="20" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C7" s="21">
         <f>C5-C6</f>
@@ -2681,7 +3060,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C8" s="19">
         <v>3270</v>
@@ -2710,7 +3089,7 @@
     </row>
     <row r="9" s="20" customFormat="1">
       <c r="B9" s="20" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C9" s="21">
         <f>C7-C8</f>
@@ -2747,10 +3126,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C10" s="19">
         <v>1030</v>
@@ -2779,7 +3158,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C11" s="19">
         <f>C9-C10</f>
@@ -2816,7 +3195,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C12" s="19">
         <f>C11-C13</f>
@@ -2853,7 +3232,7 @@
     </row>
     <row r="13" s="20" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C13" s="21">
         <v>2496</v>
@@ -2883,7 +3262,7 @@
     <row r="14"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D17" s="24">
         <f>D13/C13-1</f>
@@ -2916,7 +3295,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D18" s="24">
         <f>D12/C12-1</f>
@@ -2949,7 +3328,7 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="D19" s="24">
         <f>D6/C6-1</f>
@@ -2982,7 +3361,7 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D20" s="24">
         <f>D8/C8-1</f>
@@ -3015,7 +3394,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D21" s="24">
         <f>D13/D5</f>
@@ -3074,7 +3453,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="6" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -3082,18 +3461,18 @@
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C7" s="25">
         <v>0.39000000000000001</v>
@@ -3101,10 +3480,10 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C8" s="26">
         <v>0.34000000000000002</v>
@@ -3112,10 +3491,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C9" s="26">
         <v>0.51000000000000001</v>
@@ -3139,10 +3518,10 @@
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C14" s="26">
         <v>0.51390000000000002</v>
@@ -3151,7 +3530,7 @@
     <row r="15" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C15" s="26">
         <v>0.73999999999999999</v>
@@ -3159,7 +3538,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C16" s="26">
         <v>0.73999999999999999</v>
@@ -3167,7 +3546,7 @@
     </row>
     <row r="17" ht="16.5">
       <c r="B17" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C17" s="26">
         <v>0.80100000000000005</v>
@@ -3175,7 +3554,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
@@ -3196,10 +3575,10 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C22" s="26">
         <v>0.88749999999999996</v>
@@ -3207,7 +3586,7 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C23" s="26">
         <v>1</v>
@@ -3218,12 +3597,12 @@
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="3" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C29" s="27">
         <v>49500</v>
@@ -3231,10 +3610,10 @@
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="3" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C30" s="27">
         <v>62700</v>
@@ -3242,7 +3621,7 @@
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C31" s="27">
         <v>46250</v>
@@ -3250,7 +3629,7 @@
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C32" s="27">
         <v>21250</v>
@@ -3258,7 +3637,7 @@
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C33" s="27">
         <v>30700</v>
@@ -3266,7 +3645,7 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C34" s="27">
         <v>550</v>
@@ -3274,7 +3653,7 @@
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="3" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C35" s="27">
         <v>8900</v>
@@ -3282,7 +3661,7 @@
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C36" s="27">
         <v>2300</v>
@@ -3290,7 +3669,7 @@
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C37" s="27">
         <v>100</v>
@@ -3298,7 +3677,7 @@
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C38" s="27">
         <v>850</v>
@@ -3306,7 +3685,7 @@
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="3" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C39" s="27">
         <v>9200</v>
@@ -3314,7 +3693,7 @@
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C40" s="27">
         <v>232200</v>
@@ -3322,7 +3701,7 @@
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C41" s="27">
         <v>7500</v>
@@ -3330,12 +3709,12 @@
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="4" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C45" s="27">
         <v>17319</v>
@@ -3343,7 +3722,7 @@
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="3" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C46" s="27">
         <v>29109</v>
@@ -3351,7 +3730,7 @@
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C47" s="27">
         <v>87696</v>
@@ -3359,7 +3738,7 @@
     </row>
     <row r="48" ht="16.5">
       <c r="B48" s="3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C48" s="27">
         <v>7944</v>
@@ -3368,7 +3747,7 @@
     <row r="49" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C49" s="27">
         <v>21467</v>
@@ -3376,7 +3755,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="3" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C50" s="27">
         <v>8307</v>
@@ -3384,7 +3763,7 @@
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="3" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C51" s="27">
         <v>50345</v>
@@ -3392,7 +3771,7 @@
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="3" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C52" s="27">
         <v>11876</v>
@@ -3400,7 +3779,7 @@
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="3" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C53" s="27">
         <v>27760</v>
@@ -3408,7 +3787,7 @@
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="3" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C54" s="27">
         <v>25377</v>
@@ -3416,7 +3795,7 @@
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="3" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C55" s="27">
         <v>129461</v>
@@ -3424,7 +3803,7 @@
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="4" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="C56" s="28">
         <f>SUM(C45:C55)</f>
@@ -3463,21 +3842,21 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
       <c r="C3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C4" s="19">
         <v>4410</v>
@@ -3488,7 +3867,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C5" s="19">
         <v>1417</v>
@@ -3505,10 +3884,10 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21">
         <f>C4-C5</f>
@@ -3521,7 +3900,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C8" s="19">
         <v>903</v>
@@ -3532,7 +3911,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="20" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C9" s="21">
         <f>C4-C5-C8</f>
@@ -3545,7 +3924,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C10" s="19">
         <v>536</v>
@@ -3556,7 +3935,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="20" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C11" s="21">
         <f>C9-C10</f>
@@ -3569,7 +3948,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C12" s="19">
         <v>11426</v>
@@ -3580,7 +3959,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C13" s="19">
         <v>70771</v>
@@ -3592,7 +3971,7 @@
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C15" s="24">
         <f>C11/C12</f>
@@ -3605,7 +3984,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C16" s="30">
         <f>C13/C12</f>
@@ -3618,7 +3997,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="C17" s="24">
         <f>C5/C4</f>
@@ -3631,7 +4010,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C18" s="24">
         <f>C8/C7</f>
@@ -3644,10 +4023,10 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +4054,7 @@
     <row r="1" ht="16.5">
       <c r="A1" s="32"/>
       <c r="B1" s="33" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -3693,10 +4072,10 @@
     <row r="3" ht="15">
       <c r="A3" s="32"/>
       <c r="B3" s="35" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -3704,10 +4083,10 @@
     </row>
     <row r="4" ht="15">
       <c r="A4" s="37" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C4" s="38">
         <v>52.700000000000003</v>
@@ -3719,7 +4098,7 @@
     <row r="5" ht="15">
       <c r="A5" s="32"/>
       <c r="B5" s="37" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C5" s="38">
         <v>16.300000000000001</v>
@@ -3731,7 +4110,7 @@
     <row r="6" ht="15">
       <c r="A6" s="32"/>
       <c r="B6" s="37" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C6" s="38">
         <v>31</v>
@@ -3759,13 +4138,13 @@
     <row r="9" ht="15">
       <c r="A9" s="32"/>
       <c r="B9" s="35" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -3773,7 +4152,7 @@
     <row r="10" ht="15">
       <c r="A10" s="32"/>
       <c r="B10" s="37" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C10" s="38">
         <v>100</v>
@@ -3787,29 +4166,29 @@
     <row r="11" ht="15">
       <c r="A11" s="32"/>
       <c r="B11" s="37" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C11" s="38">
         <v>100</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="37" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C12" s="38">
         <v>74</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="32"/>
@@ -3817,13 +4196,13 @@
     <row r="13" ht="15">
       <c r="A13" s="32"/>
       <c r="B13" s="37" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C13" s="38">
         <v>50</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -3831,29 +4210,29 @@
     <row r="14" ht="15">
       <c r="A14" s="32"/>
       <c r="B14" s="37" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C14" s="38">
         <v>51</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="37" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C15" s="38">
         <v>45</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -3861,13 +4240,13 @@
     <row r="16" ht="15">
       <c r="A16" s="32"/>
       <c r="B16" s="37" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C16" s="38">
         <v>46</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -3875,13 +4254,13 @@
     <row r="17" ht="15">
       <c r="A17" s="32"/>
       <c r="B17" s="37" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C17" s="38">
         <v>100</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>NBFC</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t xml:space="preserve">Other payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCD's </t>
   </si>
   <si>
     <t xml:space="preserve">Debt securities </t>
@@ -2259,11 +2256,9 @@
       </c>
     </row>
     <row r="49" ht="16.5">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="3">
         <v>174762.20000000001</v>
@@ -2274,7 +2269,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3">
         <v>500519.53000000003</v>
@@ -2285,7 +2280,7 @@
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3">
         <v>4018.2600000000002</v>
@@ -2296,7 +2291,7 @@
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="3">
         <v>3309.73</v>
@@ -2307,55 +2302,73 @@
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3">
         <v>125.91</v>
       </c>
+      <c r="D53" s="3">
+        <v>155.56999999999999</v>
+      </c>
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3">
         <v>16014.9</v>
       </c>
+      <c r="D54" s="3">
+        <v>12638.76</v>
+      </c>
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3">
         <v>551.67999999999995</v>
       </c>
+      <c r="D56" s="3">
+        <v>811.91999999999996</v>
+      </c>
     </row>
     <row r="57" ht="16.5">
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="3">
         <v>3733.27</v>
       </c>
+      <c r="D57" s="3">
+        <v>3618.9200000000001</v>
+      </c>
     </row>
     <row r="58" ht="16.5">
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="3">
         <v>167.62</v>
       </c>
+      <c r="D58" s="3">
+        <v>152.86000000000001</v>
+      </c>
     </row>
     <row r="59" ht="16.5">
       <c r="B59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="3">
         <v>11142.16</v>
       </c>
+      <c r="D59" s="3">
+        <v>781.58000000000004</v>
+      </c>
     </row>
     <row r="61" ht="16.5">
       <c r="B61" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2388,10 +2401,10 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -2408,24 +2421,24 @@
         <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="9">
         <v>145457.01000000001</v>
@@ -2436,7 +2449,7 @@
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
@@ -2450,7 +2463,7 @@
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="9">
         <v>640.05999999999995</v>
@@ -2461,7 +2474,7 @@
     </row>
     <row r="8" ht="16.5">
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="9">
         <v>1723.3399999999999</v>
@@ -2472,10 +2485,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C9" s="9">
         <v>88.870000000000005</v>
@@ -2487,7 +2500,7 @@
     <row r="10" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="10">
         <v>2659.1900000000001</v>
@@ -2499,7 +2512,7 @@
     <row r="11" s="4" customFormat="1" ht="16.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11">
         <f>SUM(C5:C10)</f>
@@ -2513,7 +2526,7 @@
     <row r="12" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="11">
         <f>C5+C9+C10</f>
@@ -2526,7 +2539,7 @@
     </row>
     <row r="13" ht="16.5">
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="13">
         <v>1010.85</v>
@@ -2538,7 +2551,7 @@
     <row r="14" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="14">
         <f>SUM(C11:C13)</f>
@@ -2555,10 +2568,10 @@
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C16" s="13">
         <v>54300.779999999999</v>
@@ -2569,10 +2582,10 @@
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C17" s="13">
         <v>5538.21</v>
@@ -2583,7 +2596,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="13">
         <v>18282.060000000001</v>
@@ -2594,7 +2607,7 @@
     </row>
     <row r="19" ht="16.5">
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="13">
         <v>921.05999999999995</v>
@@ -2605,7 +2618,7 @@
     </row>
     <row r="20" ht="16.5">
       <c r="B20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="13">
         <v>12620.27</v>
@@ -2617,7 +2630,7 @@
     <row r="21" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="14">
         <f>SUM(C16:C20)</f>
@@ -2630,7 +2643,7 @@
     </row>
     <row r="22" ht="16.5">
       <c r="B22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="13">
         <f>C14-C21</f>
@@ -2643,7 +2656,7 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="13">
         <f>512.3+5.84-15807.24</f>
@@ -2658,7 +2671,7 @@
     <row r="24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="14">
         <f>C22+C23</f>
@@ -2672,10 +2685,10 @@
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C25" s="13">
         <v>704.13</v>
@@ -2686,7 +2699,7 @@
     </row>
     <row r="26" ht="16.5">
       <c r="B26" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="15">
         <f>SUM(C24:C25)</f>
@@ -2699,7 +2712,7 @@
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="15">
         <v>43242.879999999997</v>
@@ -2720,7 +2733,7 @@
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="15">
         <v>251072.07000000001</v>
@@ -2731,7 +2744,7 @@
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="13">
         <v>401453679</v>
@@ -2743,7 +2756,7 @@
     <row r="32" ht="16.5">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="3">
         <f>C27*1000000/D31</f>
@@ -2761,7 +2774,7 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="15">
         <f>C14-C16</f>
@@ -2774,10 +2787,10 @@
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C35" s="18">
         <f>C16/C14</f>
@@ -2790,7 +2803,7 @@
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="18">
         <f>C27/D27-1</f>
@@ -2799,7 +2812,7 @@
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="18">
         <f>C23/D23-1</f>
@@ -2808,7 +2821,7 @@
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="18">
         <f>C20/D20-1</f>
@@ -2817,7 +2830,7 @@
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="18">
         <f>C16/D16-1</f>
@@ -2826,7 +2839,7 @@
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="18">
         <f>C26/D26-1</f>
@@ -2835,7 +2848,7 @@
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="18">
         <f>C32/D32-1</f>
@@ -2870,27 +2883,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>71</v>
@@ -2899,12 +2912,12 @@
         <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="19">
         <v>15.300000000000001</v>
@@ -2933,7 +2946,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="19">
         <v>82400</v>
@@ -2962,7 +2975,7 @@
     </row>
     <row r="5" s="20" customFormat="1">
       <c r="B5" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="21">
         <v>12757</v>
@@ -2991,7 +3004,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="19">
         <v>4614</v>
@@ -3020,10 +3033,10 @@
     </row>
     <row r="7" s="20" customFormat="1">
       <c r="A7" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="C7" s="21">
         <f>C5-C6</f>
@@ -3060,7 +3073,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="19">
         <v>3270</v>
@@ -3089,7 +3102,7 @@
     </row>
     <row r="9" s="20" customFormat="1">
       <c r="B9" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="21">
         <f>C7-C8</f>
@@ -3126,10 +3139,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
         <v>172</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
       </c>
       <c r="C10" s="19">
         <v>1030</v>
@@ -3158,7 +3171,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="19">
         <f>C9-C10</f>
@@ -3195,7 +3208,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="19">
         <f>C11-C13</f>
@@ -3232,7 +3245,7 @@
     </row>
     <row r="13" s="20" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="21">
         <v>2496</v>
@@ -3262,7 +3275,7 @@
     <row r="14"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="24">
         <f>D13/C13-1</f>
@@ -3295,7 +3308,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="24">
         <f>D12/C12-1</f>
@@ -3328,7 +3341,7 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="24">
         <f>D6/C6-1</f>
@@ -3361,7 +3374,7 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="24">
         <f>D8/C8-1</f>
@@ -3394,7 +3407,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="24">
         <f>D13/D5</f>
@@ -3453,7 +3466,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -3461,18 +3474,18 @@
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C7" s="25">
         <v>0.39000000000000001</v>
@@ -3480,10 +3493,10 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="26">
         <v>0.34000000000000002</v>
@@ -3491,10 +3504,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="26">
         <v>0.51000000000000001</v>
@@ -3518,10 +3531,10 @@
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="26">
         <v>0.51390000000000002</v>
@@ -3530,7 +3543,7 @@
     <row r="15" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="26">
         <v>0.73999999999999999</v>
@@ -3538,7 +3551,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="26">
         <v>0.73999999999999999</v>
@@ -3546,7 +3559,7 @@
     </row>
     <row r="17" ht="16.5">
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="26">
         <v>0.80100000000000005</v>
@@ -3554,7 +3567,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
@@ -3575,10 +3588,10 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="26">
         <v>0.88749999999999996</v>
@@ -3586,7 +3599,7 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="26">
         <v>1</v>
@@ -3597,12 +3610,12 @@
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" s="27">
         <v>49500</v>
@@ -3610,10 +3623,10 @@
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C30" s="27">
         <v>62700</v>
@@ -3621,7 +3634,7 @@
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="27">
         <v>46250</v>
@@ -3629,7 +3642,7 @@
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" s="27">
         <v>21250</v>
@@ -3637,7 +3650,7 @@
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="27">
         <v>30700</v>
@@ -3645,7 +3658,7 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" s="27">
         <v>550</v>
@@ -3653,7 +3666,7 @@
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="27">
         <v>8900</v>
@@ -3661,7 +3674,7 @@
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="27">
         <v>2300</v>
@@ -3669,7 +3682,7 @@
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="27">
         <v>100</v>
@@ -3677,7 +3690,7 @@
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="27">
         <v>850</v>
@@ -3685,7 +3698,7 @@
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="27">
         <v>9200</v>
@@ -3693,7 +3706,7 @@
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" s="27">
         <v>232200</v>
@@ -3701,7 +3714,7 @@
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="27">
         <v>7500</v>
@@ -3709,12 +3722,12 @@
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="27">
         <v>17319</v>
@@ -3722,7 +3735,7 @@
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="27">
         <v>29109</v>
@@ -3730,7 +3743,7 @@
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="27">
         <v>87696</v>
@@ -3738,7 +3751,7 @@
     </row>
     <row r="48" ht="16.5">
       <c r="B48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C48" s="27">
         <v>7944</v>
@@ -3747,7 +3760,7 @@
     <row r="49" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="27">
         <v>21467</v>
@@ -3755,7 +3768,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="27">
         <v>8307</v>
@@ -3763,7 +3776,7 @@
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="27">
         <v>50345</v>
@@ -3771,7 +3784,7 @@
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="27">
         <v>11876</v>
@@ -3779,7 +3792,7 @@
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" s="27">
         <v>27760</v>
@@ -3787,7 +3800,7 @@
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="27">
         <v>25377</v>
@@ -3795,7 +3808,7 @@
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="27">
         <v>129461</v>
@@ -3803,7 +3816,7 @@
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C56" s="28">
         <f>SUM(C45:C55)</f>
@@ -3842,7 +3855,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
@@ -3856,7 +3869,7 @@
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="19">
         <v>4410</v>
@@ -3867,7 +3880,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="19">
         <v>1417</v>
@@ -3884,10 +3897,10 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="21">
         <f>C4-C5</f>
@@ -3900,7 +3913,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="19">
         <v>903</v>
@@ -3911,7 +3924,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="21">
         <f>C4-C5-C8</f>
@@ -3924,7 +3937,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="19">
         <v>536</v>
@@ -3935,7 +3948,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="21">
         <f>C9-C10</f>
@@ -3948,7 +3961,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="19">
         <v>11426</v>
@@ -3959,7 +3972,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="19">
         <v>70771</v>
@@ -3971,7 +3984,7 @@
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="24">
         <f>C11/C12</f>
@@ -3984,7 +3997,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="30">
         <f>C13/C12</f>
@@ -3997,7 +4010,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="24">
         <f>C5/C4</f>
@@ -4010,7 +4023,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="24">
         <f>C8/C7</f>
@@ -4023,10 +4036,10 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" t="s">
         <v>230</v>
-      </c>
-      <c r="B19" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4067,7 @@
     <row r="1" ht="16.5">
       <c r="A1" s="32"/>
       <c r="B1" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -4072,10 +4085,10 @@
     <row r="3" ht="15">
       <c r="A3" s="32"/>
       <c r="B3" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>233</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>234</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -4083,10 +4096,10 @@
     </row>
     <row r="4" ht="15">
       <c r="A4" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>236</v>
       </c>
       <c r="C4" s="38">
         <v>52.700000000000003</v>
@@ -4098,7 +4111,7 @@
     <row r="5" ht="15">
       <c r="A5" s="32"/>
       <c r="B5" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="38">
         <v>16.300000000000001</v>
@@ -4110,7 +4123,7 @@
     <row r="6" ht="15">
       <c r="A6" s="32"/>
       <c r="B6" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="38">
         <v>31</v>
@@ -4138,13 +4151,13 @@
     <row r="9" ht="15">
       <c r="A9" s="32"/>
       <c r="B9" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>240</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>241</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -4152,7 +4165,7 @@
     <row r="10" ht="15">
       <c r="A10" s="32"/>
       <c r="B10" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="38">
         <v>100</v>
@@ -4166,29 +4179,29 @@
     <row r="11" ht="15">
       <c r="A11" s="32"/>
       <c r="B11" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="38">
         <v>100</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="38">
         <v>74</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="32"/>
@@ -4196,13 +4209,13 @@
     <row r="13" ht="15">
       <c r="A13" s="32"/>
       <c r="B13" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="38">
         <v>50</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -4210,29 +4223,29 @@
     <row r="14" ht="15">
       <c r="A14" s="32"/>
       <c r="B14" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="38">
         <v>51</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="38">
         <v>45</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -4240,13 +4253,13 @@
     <row r="16" ht="15">
       <c r="A16" s="32"/>
       <c r="B16" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="38">
         <v>46</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -4254,13 +4267,13 @@
     <row r="17" ht="15">
       <c r="A17" s="32"/>
       <c r="B17" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="38">
         <v>100</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>NBFC</t>
   </si>
@@ -90,6 +90,12 @@
     <t xml:space="preserve">Junior debt, gets paid at last after all debts are paid </t>
   </si>
   <si>
+    <t xml:space="preserve">Other Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security premium reserve , retained earnings, general reserve , capital reserve</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRAR  (capital adequacy)</t>
   </si>
   <si>
@@ -201,6 +207,12 @@
     <t xml:space="preserve">Mahindra finance</t>
   </si>
   <si>
+    <t xml:space="preserve">Top player in gold finance loans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takes deposits from muthooth capital and part of that gets invested in muthooth finance as deposits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cash Inputs </t>
   </si>
   <si>
@@ -213,6 +225,9 @@
     <t xml:space="preserve">Total No of Shares</t>
   </si>
   <si>
+    <t xml:space="preserve">Muthooth finance </t>
+  </si>
+  <si>
     <t xml:space="preserve">Market Cap</t>
   </si>
   <si>
@@ -366,9 +381,24 @@
     <t xml:space="preserve">Other non-financial liabilities</t>
   </si>
   <si>
+    <t xml:space="preserve">Total liabilities</t>
+  </si>
+  <si>
     <t>EQUITY</t>
   </si>
   <si>
+    <t xml:space="preserve">Share holders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity share capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity for owners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total equity + liability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Income Statement</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t xml:space="preserve">Impairment on financial instruments </t>
   </si>
   <si>
+    <t xml:space="preserve">benefits + salary</t>
+  </si>
+  <si>
     <t>EBE</t>
   </si>
   <si>
@@ -502,6 +535,96 @@
   </si>
   <si>
     <t xml:space="preserve">EPS YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH FLOWS</t>
+  </si>
+  <si>
+    <t>operating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit before tax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-cash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPA -&gt; (not got this money back  )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impairement on financial instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in reality this amount didnt got out .. ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not an operating income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">profit on sale of PPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provision for gratuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid compensation for leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provision for compensated absence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-operating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest income on investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit on sale of mutual fund </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Gain / Loss on investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjust for working capital </t>
+  </si>
+  <si>
+    <t>non-cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank balance other than cash and cash eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID other financial assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID other non financial asssets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID trade payables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID other payables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID in provisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The difference between the finance cost above and below is due to cash accounting and accural accountinng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINANCING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTING </t>
   </si>
   <si>
     <t xml:space="preserve">Bajaj finance</t>
@@ -803,7 +926,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -825,6 +948,13 @@
       <b/>
       <sz val="12.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -935,6 +1065,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -946,17 +1077,16 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1">
@@ -977,22 +1107,22 @@
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1649,36 +1779,45 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1692,47 +1831,47 @@
     <row r="23"/>
     <row r="24">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -1746,37 +1885,37 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -1787,48 +1926,48 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="C42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="C43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="C44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="C45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51"/>
@@ -1844,7 +1983,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1860,520 +1999,631 @@
     <col min="9" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3"/>
+    <row r="1" ht="16.5">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3">
         <v>2088.9000000000001</v>
       </c>
     </row>
-    <row r="4" ht="16.5">
-      <c r="G4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="3">
+    <row r="6" ht="16.5">
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3">
         <v>401461676</v>
       </c>
     </row>
-    <row r="5" ht="16.5">
-      <c r="A5" s="4"/>
-      <c r="G5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="5">
-        <f>H3*H4/1000000</f>
+    <row r="7" ht="16.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="5">
+        <f>H5*H6/1000000</f>
         <v>838613.29499640001</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="3">
-        <f>50365.46+93.14</f>
-        <v>50458.599999999999</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5">
-      <c r="A7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="3">
-        <f>163714.7+423613.13</f>
-        <v>587327.83000000007</v>
-      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="5">
-        <f>H5+H7-H6</f>
+        <v>69</v>
+      </c>
+      <c r="H8" s="3">
+        <f>50365.46+93.14</f>
+        <v>50458.599999999999</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3">
+        <f>163714.7+423613.13</f>
+        <v>587327.83000000007</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <f>H7+H9-H8</f>
         <v>1375482.5249963999</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="16" ht="16.5">
-      <c r="A16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="D17" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="C18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" ht="16.5">
-      <c r="B19" s="4" t="s">
-        <v>72</v>
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="D19" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="8">
         <v>60373.449999999997</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D22" s="8">
         <v>77701.830000000002</v>
       </c>
     </row>
-    <row r="21" ht="16.5">
-      <c r="B21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="7">
+    <row r="23" ht="16.5">
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="8">
         <v>2346.5700000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D23" s="8">
         <v>2654.7600000000002</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5">
-      <c r="A22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="7">
-        <v>178.36000000000001</v>
-      </c>
-      <c r="D22" s="7">
-        <v>98.950000000000003</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="24" ht="16.5">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="7">
+        <v>81</v>
+      </c>
+      <c r="C24" s="8">
+        <v>178.36000000000001</v>
+      </c>
+      <c r="D24" s="8">
+        <v>98.950000000000003</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="8">
         <v>881871.70999999996</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="8">
         <v>705543.83999999997</v>
       </c>
     </row>
-    <row r="25" ht="16.5">
-      <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="7">
+    <row r="27" ht="16.5">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="8">
         <v>7124.7200000000003</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D27" s="8">
         <v>5457.1199999999999</v>
       </c>
-    </row>
-    <row r="26" ht="16.5">
-      <c r="B26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="7">
-        <v>4136.1199999999999</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
     </row>
     <row r="28" ht="16.5">
       <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="7">
-        <v>724.86000000000001</v>
-      </c>
-      <c r="D28" s="7">
-        <v>474.56999999999999</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="B29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="7">
-        <v>975.77999999999997</v>
-      </c>
-      <c r="D29" s="7">
-        <v>640.98000000000002</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4136.1199999999999</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="7">
-        <v>91.069999999999993</v>
-      </c>
-      <c r="D30" s="7">
-        <v>82.019999999999996</v>
+        <v>88</v>
+      </c>
+      <c r="C30" s="8">
+        <v>724.86000000000001</v>
+      </c>
+      <c r="D30" s="8">
+        <v>474.56999999999999</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4255.2399999999998</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3272.3699999999999</v>
+        <v>89</v>
+      </c>
+      <c r="C31" s="8">
+        <v>975.77999999999997</v>
+      </c>
+      <c r="D31" s="8">
+        <v>640.98000000000002</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="7">
-        <v>111.11</v>
-      </c>
-      <c r="D32" s="7">
-        <v>142.22999999999999</v>
+        <v>90</v>
+      </c>
+      <c r="C32" s="8">
+        <v>91.069999999999993</v>
+      </c>
+      <c r="D32" s="8">
+        <v>82.019999999999996</v>
       </c>
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="7">
-        <v>883.15999999999997</v>
-      </c>
-      <c r="D33" s="7">
-        <v>674.26999999999998</v>
+        <v>91</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4255.2399999999998</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3272.3699999999999</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="7">
-        <v>299.95999999999998</v>
-      </c>
-      <c r="D34" s="7">
-        <v>299.95999999999998</v>
+        <v>92</v>
+      </c>
+      <c r="C34" s="8">
+        <v>111.11</v>
+      </c>
+      <c r="D34" s="8">
+        <v>142.22999999999999</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="7">
-        <v>58.350000000000001</v>
-      </c>
-      <c r="D35" s="7">
-        <v>58.850000000000001</v>
+        <v>93</v>
+      </c>
+      <c r="C35" s="8">
+        <v>883.15999999999997</v>
+      </c>
+      <c r="D35" s="8">
+        <v>674.26999999999998</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="7">
+        <v>94</v>
+      </c>
+      <c r="C36" s="8">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="D36" s="8">
+        <v>299.95999999999998</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="B37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="8">
+        <v>58.350000000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <v>58.850000000000001</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="8">
         <v>3.6499999999999999</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D38" s="8">
         <v>0.44</v>
       </c>
     </row>
-    <row r="37" ht="16.5">
-      <c r="A37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="7">
+    <row r="39" ht="16.5">
+      <c r="A39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="8">
         <v>1260.0899999999999</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D39" s="8">
         <v>934.00999999999999</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" s="4" customFormat="1" ht="16.5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="8">
-        <f>SUM(C20:C37)</f>
+    <row r="40" ht="14.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="16.5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="9">
+        <f>SUM(C22:C39)</f>
         <v>964694.19999999984</v>
       </c>
-      <c r="D39" s="8">
-        <f>SUM(D20:D37)</f>
+      <c r="D41" s="9">
+        <f>SUM(D22:D39)</f>
         <v>801489.19999999984</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="41" ht="16.5">
-      <c r="A41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5">
-      <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5">
-      <c r="B45" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5">
-      <c r="A46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="E41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="3">
+      <c r="B43" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="B44" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5">
+      <c r="B47" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="A48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="3">
         <v>138.86000000000001</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D48" s="3">
         <v>1921.73</v>
       </c>
     </row>
-    <row r="47" ht="16.5">
-      <c r="A47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="3">
+    <row r="49" ht="16.5">
+      <c r="A49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="3">
         <f>7.68+1381.23</f>
         <v>1388.9100000000001</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D49" s="3">
         <f>7.2+871.23</f>
         <v>878.43000000000006</v>
       </c>
     </row>
-    <row r="48" ht="16.5">
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3">
+    <row r="50" ht="16.5">
+      <c r="B50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="3">
         <f>1280.7</f>
         <v>1280.7</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D50" s="3">
         <f>871.23</f>
         <v>871.23000000000002</v>
       </c>
     </row>
-    <row r="49" ht="16.5">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="3">
+    <row r="51" ht="16.5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3">
         <v>174762.20000000001</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D51" s="3">
         <v>146045.79000000001</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5">
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="3">
-        <v>500519.53000000003</v>
-      </c>
-      <c r="D50" s="3">
-        <v>405974.58000000002</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5">
-      <c r="B51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="3">
-        <v>4018.2600000000002</v>
-      </c>
-      <c r="D51" s="3">
-        <v>3314.7600000000002</v>
       </c>
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3">
-        <v>3309.73</v>
+        <v>500519.53000000003</v>
       </c>
       <c r="D52" s="3">
-        <v>2546.5500000000002</v>
+        <v>405974.58000000002</v>
       </c>
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C53" s="3">
-        <v>125.91</v>
+        <v>4018.2600000000002</v>
       </c>
       <c r="D53" s="3">
-        <v>155.56999999999999</v>
+        <v>3314.7600000000002</v>
       </c>
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3">
-        <v>16014.9</v>
+        <v>3309.73</v>
       </c>
       <c r="D54" s="3">
-        <v>12638.76</v>
+        <v>2546.5500000000002</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5">
+      <c r="B55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="3">
+        <v>125.91</v>
+      </c>
+      <c r="D55" s="3">
+        <v>155.56999999999999</v>
       </c>
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3">
-        <v>551.67999999999995</v>
+        <v>16014.9</v>
       </c>
       <c r="D56" s="3">
-        <v>811.91999999999996</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5">
-      <c r="B57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="3">
-        <v>3733.27</v>
-      </c>
-      <c r="D57" s="3">
-        <v>3618.9200000000001</v>
+        <v>12638.76</v>
       </c>
     </row>
     <row r="58" ht="16.5">
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C58" s="3">
-        <v>167.62</v>
+        <v>551.67999999999995</v>
       </c>
       <c r="D58" s="3">
-        <v>152.86000000000001</v>
+        <v>811.91999999999996</v>
       </c>
     </row>
     <row r="59" ht="16.5">
       <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C59" s="3">
-        <v>11142.16</v>
+        <v>3733.27</v>
       </c>
       <c r="D59" s="3">
-        <v>781.58000000000004</v>
+        <v>3618.9200000000001</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5">
+      <c r="B60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="3">
+        <v>167.62</v>
+      </c>
+      <c r="D60" s="3">
+        <v>152.86000000000001</v>
       </c>
     </row>
     <row r="61" ht="16.5">
       <c r="B61" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C61" s="3">
+        <v>11142.16</v>
+      </c>
+      <c r="D61" s="3">
+        <v>781.58000000000004</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="1" ht="16.5">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="4">
+        <f>SUM(C48:C61)</f>
+        <v>717153.73000000021</v>
+      </c>
+      <c r="D62" s="4">
+        <f>SUM(D48:D61)</f>
+        <v>579712.68000000005</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" ht="16.5">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" ht="16.5">
+      <c r="B65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4014.6199999999999</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4014.48</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="B67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="3">
+        <v>247057.45000000001</v>
+      </c>
+      <c r="D67" s="3">
+        <v>212643.04000000001</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" ht="14.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="4">
+        <f>SUM(C66:C67)</f>
+        <v>251072.07000000001</v>
+      </c>
+      <c r="D68" s="4">
+        <f>SUM(D66:D67)</f>
+        <v>216657.52000000002</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="14.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="4">
+        <f>C68+C62</f>
+        <v>968225.80000000028</v>
+      </c>
+      <c r="D70" s="4">
+        <f>D68+D62</f>
+        <v>796370.20000000007</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="B73" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D17"/>
+    <hyperlink r:id="rId1" ref="D19"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2393,7 +2643,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="3" width="13.57421875"/>
-    <col customWidth="1" min="2" max="2" style="3" width="30.421875"/>
+    <col customWidth="1" min="2" max="2" style="3" width="28.8515625"/>
     <col customWidth="1" min="3" max="3" style="3" width="19.00390625"/>
     <col customWidth="1" min="4" max="4" style="3" width="20.00390625"/>
     <col min="5" max="16384" style="3" width="9.140625"/>
@@ -2401,145 +2651,145 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="C2" s="6" t="s">
-        <v>69</v>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="16.5">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="B5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="9">
+        <v>132</v>
+      </c>
+      <c r="C5" s="10">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>115555.35000000001</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="9">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>9.4100000000000001</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="9">
+        <v>134</v>
+      </c>
+      <c r="C7" s="10">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>524.13999999999999</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="B8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="9">
+        <v>135</v>
+      </c>
+      <c r="C8" s="10">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>1403.1199999999999</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="9">
+        <v>137</v>
+      </c>
+      <c r="C9" s="10">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>90.700000000000003</v>
       </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="10">
+        <v>138</v>
+      </c>
+      <c r="C10" s="11">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>1393.9100000000001</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="16.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="11">
+        <v>139</v>
+      </c>
+      <c r="C11" s="12">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="16.5">
-      <c r="A12" s="12"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="11">
+        <v>140</v>
+      </c>
+      <c r="C12" s="12">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
     </row>
     <row r="13" ht="16.5">
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C13" s="13">
         <v>1010.85</v>
@@ -2551,15 +2801,15 @@
     <row r="14" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C14" s="14">
-        <f>SUM(C11:C13)</f>
-        <v>299832.48999999999</v>
+        <f>C11+C13</f>
+        <v>151627.42000000001</v>
       </c>
       <c r="D14" s="14">
-        <f>SUM(D11:D13)</f>
-        <v>236790.01000000004</v>
+        <f>D11+D13</f>
+        <v>119750.05</v>
       </c>
     </row>
     <row r="15">
@@ -2568,10 +2818,10 @@
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C16" s="13">
         <v>54300.779999999999</v>
@@ -2582,10 +2832,10 @@
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C17" s="13">
         <v>5538.21</v>
@@ -2595,8 +2845,11 @@
       </c>
     </row>
     <row r="18" ht="16.5">
+      <c r="A18" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C18" s="13">
         <v>18282.060000000001</v>
@@ -2607,7 +2860,7 @@
     </row>
     <row r="19" ht="16.5">
       <c r="B19" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C19" s="13">
         <v>921.05999999999995</v>
@@ -2618,7 +2871,7 @@
     </row>
     <row r="20" ht="16.5">
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C20" s="13">
         <v>12620.27</v>
@@ -2630,7 +2883,7 @@
     <row r="21" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C21" s="14">
         <f>SUM(C16:C20)</f>
@@ -2643,20 +2896,20 @@
     </row>
     <row r="22" ht="16.5">
       <c r="B22" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C22" s="13">
         <f>C14-C21</f>
-        <v>208170.10999999999</v>
+        <v>59965.040000000008</v>
       </c>
       <c r="D22" s="13">
         <f>D14-D21</f>
-        <v>166267.76000000004</v>
+        <v>49227.800000000003</v>
       </c>
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C23" s="13">
         <f>512.3+5.84-15807.24</f>
@@ -2671,24 +2924,24 @@
     <row r="24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C24" s="14">
         <f>C22+C23</f>
-        <v>192881.00999999998</v>
+        <v>44675.94000000001</v>
       </c>
       <c r="D24" s="14">
         <f>D22+D23</f>
-        <v>153737.62000000002</v>
+        <v>36697.660000000003</v>
       </c>
       <c r="H24" s="14"/>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C25" s="13">
         <v>704.13</v>
@@ -2699,20 +2952,20 @@
     </row>
     <row r="26" ht="16.5">
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C26" s="15">
         <f>SUM(C24:C25)</f>
-        <v>193585.13999999998</v>
+        <v>45380.070000000007</v>
       </c>
       <c r="D26" s="15">
         <f>SUM(D24:D25)</f>
-        <v>154166.29000000004</v>
+        <v>37126.330000000002</v>
       </c>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C27" s="15">
         <v>43242.879999999997</v>
@@ -2724,27 +2977,27 @@
     <row r="28" ht="16.5">
       <c r="B28" s="3"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="3"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C30" s="15">
         <v>251072.07000000001</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>216657.51999999999</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C31" s="13">
         <v>401453679</v>
@@ -2756,7 +3009,7 @@
     <row r="32" ht="16.5">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C32" s="3">
         <f>C27*1000000/D31</f>
@@ -2774,85 +3027,319 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C34" s="15">
         <f>C14-C16</f>
-        <v>245531.70999999999</v>
+        <v>97326.640000000014</v>
       </c>
       <c r="D34" s="15">
         <f>D14-D16</f>
-        <v>194698.23000000004</v>
+        <v>77658.270000000004</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="18">
+        <v>164</v>
+      </c>
+      <c r="C35" s="17">
         <f>C16/C14</f>
-        <v>0.18110372228173138</v>
-      </c>
-      <c r="D35" s="18">
+        <v>0.35811979126202897</v>
+      </c>
+      <c r="D35" s="17">
         <f>D16/D14</f>
-        <v>0.17775994857215469</v>
+        <v>0.35149697223508464</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="18">
+        <v>165</v>
+      </c>
+      <c r="D36" s="17">
         <f>C27/D27-1</f>
         <v>0.19710167876515161</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="18">
+        <v>166</v>
+      </c>
+      <c r="D37" s="17">
         <f>C23/D23-1</f>
         <v>0.22018588778736703</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="18">
+        <v>167</v>
+      </c>
+      <c r="D38" s="17">
         <f>C20/D20-1</f>
         <v>0.2212423891712374</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="18">
+        <v>168</v>
+      </c>
+      <c r="D39" s="17">
         <f>C16/D16-1</f>
         <v>0.29005663338542576</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="18">
+        <v>169</v>
+      </c>
+      <c r="D40" s="17">
         <f>C26/D26-1</f>
-        <v>0.25569046255183236</v>
+        <v>0.22231499854685355</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="18">
+        <v>170</v>
+      </c>
+      <c r="D41" s="17">
         <f>C32/D32-1</f>
         <v>0.19726808095135451</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="A51" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="B52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="15">
+        <f>C22</f>
+        <v>59965.040000000008</v>
+      </c>
+      <c r="D52" s="15">
+        <f>D22</f>
+        <v>49227.800000000003</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5">
+      <c r="A53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="15">
+        <f>C19</f>
+        <v>921.05999999999995</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="A54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="15">
+        <f>C17</f>
+        <v>5538.21</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5">
+      <c r="A55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="15">
+        <f>C16</f>
+        <v>54300.779999999999</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5">
+      <c r="A56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-6.3899999999999997</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5">
+      <c r="B57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="3">
+        <v>161.02000000000001</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5">
+      <c r="A58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-13.550000000000001</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5">
+      <c r="A59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-3369.0799999999999</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5">
+      <c r="A60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-48.100000000000001</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="B61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-1022.58</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5">
+      <c r="B62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="3">
+        <v>388.77999999999997</v>
+      </c>
+    </row>
+    <row r="63" s="4" customFormat="1" ht="16.5">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="18">
+        <f>SUM(C52:C62)</f>
+        <v>116815.19</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="16.5">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-79.409999999999997</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="3">
+        <v>307.81</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="B68" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-179256.51000000001</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="B69" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="B70" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="B71" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="B72" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="B73" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2883,41 +3370,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>161</v>
+        <v>201</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C3" s="19">
         <v>15.300000000000001</v>
@@ -2946,7 +3433,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C4" s="19">
         <v>82400</v>
@@ -2975,7 +3462,7 @@
     </row>
     <row r="5" s="20" customFormat="1">
       <c r="B5" s="20" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C5" s="21">
         <v>12757</v>
@@ -3004,7 +3491,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C6" s="19">
         <v>4614</v>
@@ -3033,10 +3520,10 @@
     </row>
     <row r="7" s="20" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C7" s="21">
         <f>C5-C6</f>
@@ -3073,7 +3560,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C8" s="19">
         <v>3270</v>
@@ -3102,7 +3589,7 @@
     </row>
     <row r="9" s="20" customFormat="1">
       <c r="B9" s="20" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C9" s="21">
         <f>C7-C8</f>
@@ -3139,10 +3626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C10" s="19">
         <v>1030</v>
@@ -3171,7 +3658,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C11" s="19">
         <f>C9-C10</f>
@@ -3208,7 +3695,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C12" s="19">
         <f>C11-C13</f>
@@ -3245,7 +3732,7 @@
     </row>
     <row r="13" s="20" customFormat="1">
       <c r="B13" s="20" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C13" s="21">
         <v>2496</v>
@@ -3275,7 +3762,7 @@
     <row r="14"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D17" s="24">
         <f>D13/C13-1</f>
@@ -3308,7 +3795,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D18" s="24">
         <f>D12/C12-1</f>
@@ -3341,7 +3828,7 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="D19" s="24">
         <f>D6/C6-1</f>
@@ -3374,7 +3861,7 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D20" s="24">
         <f>D8/C8-1</f>
@@ -3407,7 +3894,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="D21" s="24">
         <f>D13/D5</f>
@@ -3465,8 +3952,8 @@
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="6" t="s">
-        <v>177</v>
+      <c r="B2" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -3474,18 +3961,18 @@
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="C7" s="25">
         <v>0.39000000000000001</v>
@@ -3493,10 +3980,10 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C8" s="26">
         <v>0.34000000000000002</v>
@@ -3504,10 +3991,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C9" s="26">
         <v>0.51000000000000001</v>
@@ -3531,10 +4018,10 @@
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="3" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C14" s="26">
         <v>0.51390000000000002</v>
@@ -3543,7 +4030,7 @@
     <row r="15" ht="16.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C15" s="26">
         <v>0.73999999999999999</v>
@@ -3551,7 +4038,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="B16" s="3" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C16" s="26">
         <v>0.73999999999999999</v>
@@ -3559,7 +4046,7 @@
     </row>
     <row r="17" ht="16.5">
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C17" s="26">
         <v>0.80100000000000005</v>
@@ -3567,7 +4054,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C18" s="26">
         <v>1</v>
@@ -3588,10 +4075,10 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="3" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C22" s="26">
         <v>0.88749999999999996</v>
@@ -3599,7 +4086,7 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="3" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="C23" s="26">
         <v>1</v>
@@ -3610,12 +4097,12 @@
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="4" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="3" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C29" s="27">
         <v>49500</v>
@@ -3623,10 +4110,10 @@
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="3" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="C30" s="27">
         <v>62700</v>
@@ -3634,7 +4121,7 @@
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="3" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C31" s="27">
         <v>46250</v>
@@ -3642,7 +4129,7 @@
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="3" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C32" s="27">
         <v>21250</v>
@@ -3650,7 +4137,7 @@
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="3" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C33" s="27">
         <v>30700</v>
@@ -3658,7 +4145,7 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="C34" s="27">
         <v>550</v>
@@ -3666,7 +4153,7 @@
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C35" s="27">
         <v>8900</v>
@@ -3674,7 +4161,7 @@
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C36" s="27">
         <v>2300</v>
@@ -3682,7 +4169,7 @@
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="3" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C37" s="27">
         <v>100</v>
@@ -3690,7 +4177,7 @@
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C38" s="27">
         <v>850</v>
@@ -3698,7 +4185,7 @@
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C39" s="27">
         <v>9200</v>
@@ -3706,7 +4193,7 @@
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C40" s="27">
         <v>232200</v>
@@ -3714,7 +4201,7 @@
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C41" s="27">
         <v>7500</v>
@@ -3722,12 +4209,12 @@
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="4" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="3" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C45" s="27">
         <v>17319</v>
@@ -3735,7 +4222,7 @@
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="3" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C46" s="27">
         <v>29109</v>
@@ -3743,7 +4230,7 @@
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C47" s="27">
         <v>87696</v>
@@ -3751,7 +4238,7 @@
     </row>
     <row r="48" ht="16.5">
       <c r="B48" s="3" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C48" s="27">
         <v>7944</v>
@@ -3760,7 +4247,7 @@
     <row r="49" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C49" s="27">
         <v>21467</v>
@@ -3768,7 +4255,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="3" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="C50" s="27">
         <v>8307</v>
@@ -3776,7 +4263,7 @@
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="3" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C51" s="27">
         <v>50345</v>
@@ -3784,7 +4271,7 @@
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="3" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C52" s="27">
         <v>11876</v>
@@ -3792,7 +4279,7 @@
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="3" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C53" s="27">
         <v>27760</v>
@@ -3800,7 +4287,7 @@
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="3" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C54" s="27">
         <v>25377</v>
@@ -3808,7 +4295,7 @@
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="3" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C55" s="27">
         <v>129461</v>
@@ -3816,7 +4303,7 @@
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="4" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="C56" s="28">
         <f>SUM(C45:C55)</f>
@@ -3855,21 +4342,21 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
       <c r="C3" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C4" s="19">
         <v>4410</v>
@@ -3880,7 +4367,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="C5" s="19">
         <v>1417</v>
@@ -3897,10 +4384,10 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C7" s="21">
         <f>C4-C5</f>
@@ -3913,7 +4400,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C8" s="19">
         <v>903</v>
@@ -3924,7 +4411,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="20" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C9" s="21">
         <f>C4-C5-C8</f>
@@ -3937,7 +4424,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C10" s="19">
         <v>536</v>
@@ -3948,7 +4435,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="20" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C11" s="21">
         <f>C9-C10</f>
@@ -3961,7 +4448,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="C12" s="19">
         <v>11426</v>
@@ -3972,7 +4459,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="C13" s="19">
         <v>70771</v>
@@ -3984,7 +4471,7 @@
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C15" s="24">
         <f>C11/C12</f>
@@ -3997,7 +4484,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="C16" s="30">
         <f>C13/C12</f>
@@ -4010,7 +4497,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C17" s="24">
         <f>C5/C4</f>
@@ -4023,7 +4510,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C18" s="24">
         <f>C8/C7</f>
@@ -4036,10 +4523,10 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4554,7 @@
     <row r="1" ht="16.5">
       <c r="A1" s="32"/>
       <c r="B1" s="33" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -4085,10 +4572,10 @@
     <row r="3" ht="15">
       <c r="A3" s="32"/>
       <c r="B3" s="35" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -4096,10 +4583,10 @@
     </row>
     <row r="4" ht="15">
       <c r="A4" s="37" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="C4" s="38">
         <v>52.700000000000003</v>
@@ -4111,7 +4598,7 @@
     <row r="5" ht="15">
       <c r="A5" s="32"/>
       <c r="B5" s="37" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C5" s="38">
         <v>16.300000000000001</v>
@@ -4123,7 +4610,7 @@
     <row r="6" ht="15">
       <c r="A6" s="32"/>
       <c r="B6" s="37" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C6" s="38">
         <v>31</v>
@@ -4151,13 +4638,13 @@
     <row r="9" ht="15">
       <c r="A9" s="32"/>
       <c r="B9" s="35" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -4165,7 +4652,7 @@
     <row r="10" ht="15">
       <c r="A10" s="32"/>
       <c r="B10" s="37" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C10" s="38">
         <v>100</v>
@@ -4179,29 +4666,29 @@
     <row r="11" ht="15">
       <c r="A11" s="32"/>
       <c r="B11" s="37" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C11" s="38">
         <v>100</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="37" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C12" s="38">
         <v>74</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="32"/>
@@ -4209,13 +4696,13 @@
     <row r="13" ht="15">
       <c r="A13" s="32"/>
       <c r="B13" s="37" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="C13" s="38">
         <v>50</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -4223,29 +4710,29 @@
     <row r="14" ht="15">
       <c r="A14" s="32"/>
       <c r="B14" s="37" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="C14" s="38">
         <v>51</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="37" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="C15" s="38">
         <v>45</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -4253,13 +4740,13 @@
     <row r="16" ht="15">
       <c r="A16" s="32"/>
       <c r="B16" s="37" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="C16" s="38">
         <v>46</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="32"/>
@@ -4267,13 +4754,13 @@
     <row r="17" ht="15">
       <c r="A17" s="32"/>
       <c r="B17" s="37" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C17" s="38">
         <v>100</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="muthoot-6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="muthoot-finance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="bajaj-finance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="bajaj-6" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="birla finance" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="birla-6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Jio financial - 6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Jio Financial " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="muthoot-6" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="muthoot-finance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bajaj-finance" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bajaj-6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="birla finance" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="birla-6" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>NBFC</t>
   </si>
@@ -207,6 +209,267 @@
     <t xml:space="preserve">Mahindra finance</t>
   </si>
   <si>
+    <t xml:space="preserve">Private limited company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited no. of shareholders , usually with a max of 200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio financial services Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer Lending , Corporate and MSME lending </t>
+  </si>
+  <si>
+    <t>JIOFIN</t>
+  </si>
+  <si>
+    <t>https://jep-asset.akamaized.net/cms/assets/jfs/investor-relations/financials/annual-reports/fy2023-2024/annual-report-2023-2024.pdf</t>
+  </si>
+  <si>
+    <t>JV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Ventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance strategic investments private limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance strategic investments limited</t>
+  </si>
+  <si>
+    <t>JFSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio financial services limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before listing it was a part of RIL  and we can get Standalone financials from there  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FY 24</t>
+  </si>
+  <si>
+    <t>JFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio finance limited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share price</t>
+  </si>
+  <si>
+    <t>JLSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio leasing services limited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer and businesses through a device as a service (DAAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of shares</t>
+  </si>
+  <si>
+    <t>JIBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio insurance broking limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Cap</t>
+  </si>
+  <si>
+    <t>JPSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio payment solutions limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash </t>
+  </si>
+  <si>
+    <t>RIIHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance industrial investments and holding limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt </t>
+  </si>
+  <si>
+    <t>JVBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVs with BlackRock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic partnership, 50:50, consumer access to top-tier investment solutions across india, shared vision , shared investments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV (enterprise valuation)</t>
+  </si>
+  <si>
+    <t>JBPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio Payment Bank limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JFL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio finance limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer lendings , corporates , MSME lending </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPBL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jio payment bank limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JV btw company and SBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital banking solutions to consumers and small businesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio Payment Solution Limited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment gateway and UPI ( unified payment gateway ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance broking, direct broker license from IRDAI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio Blackrock combined strength and scale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rising affluences , favourable demographics and digital transformation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Statement</t>
+  </si>
+  <si>
+    <t>https://www.ril.com/sites/default/files/2023-02/Reliance%20Strategic%20Investments%20Limited1.pdf</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>oprt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividend income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fees , commission and other services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thought invested extra money , gained some interest so yes this is operational income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Gain on fair value changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total income </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impairement on financial instruments</t>
+  </si>
+  <si>
+    <t>EBE</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit Before share in profit in JV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of profit of associates and JV</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax expense</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fair value through other comprehensive income</t>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be full as we dont have any borrowings / finance costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributable to equity investor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weighted no of shares</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance cost / Interest Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAT YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses YoY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income YoY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top player in gold finance loans </t>
   </si>
   <si>
@@ -219,18 +482,12 @@
     <t xml:space="preserve">Capital funding for lending anf operations </t>
   </si>
   <si>
-    <t xml:space="preserve">Share price</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total No of Shares</t>
   </si>
   <si>
     <t xml:space="preserve">Muthooth finance </t>
   </si>
   <si>
-    <t xml:space="preserve">Market Cap</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -240,21 +497,12 @@
     <t xml:space="preserve">Enterprise Valuation </t>
   </si>
   <si>
-    <t xml:space="preserve">Dividend income</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consolidated Balance Sheet</t>
   </si>
   <si>
     <t>https://cdn.muthootfinance.com/sites/default/files/files/2024-09/ANNUAL+REPORT+FOR+FY+2023-24.pdf</t>
   </si>
   <si>
-    <t>FY24</t>
-  </si>
-  <si>
-    <t>FY23</t>
-  </si>
-  <si>
     <t>ASSETS</t>
   </si>
   <si>
@@ -399,30 +647,18 @@
     <t xml:space="preserve">Total equity + liability</t>
   </si>
   <si>
-    <t xml:space="preserve">Income Statement</t>
-  </si>
-  <si>
     <t>Consolidated</t>
   </si>
   <si>
-    <t>FY22</t>
-  </si>
-  <si>
     <t xml:space="preserve">FY21 </t>
   </si>
   <si>
-    <t>FY20</t>
-  </si>
-  <si>
     <t>FY19</t>
   </si>
   <si>
     <t>FY18</t>
   </si>
   <si>
-    <t xml:space="preserve">Interest income </t>
-  </si>
-  <si>
     <t xml:space="preserve">not an operating expense ( but curious to know , aisa kaha paisa lga diya )</t>
   </si>
   <si>
@@ -447,9 +683,6 @@
     <t xml:space="preserve">Operating income</t>
   </si>
   <si>
-    <t xml:space="preserve">Other income</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Income</t>
   </si>
   <si>
@@ -468,33 +701,18 @@
     <t xml:space="preserve">benefits + salary</t>
   </si>
   <si>
-    <t>EBE</t>
-  </si>
-  <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other expense</t>
   </si>
   <si>
     <t xml:space="preserve">Total expenses</t>
   </si>
   <si>
-    <t>PBT</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
-    <t>PAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">not operating cost</t>
   </si>
   <si>
-    <t>OCI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Net profit </t>
   </si>
   <si>
@@ -531,7 +749,7 @@
     <t xml:space="preserve">COGS YoY</t>
   </si>
   <si>
-    <t xml:space="preserve">Income YoY</t>
+    <t xml:space="preserve">ML / regression / core-ml</t>
   </si>
   <si>
     <t xml:space="preserve">EPS YoY</t>
@@ -552,9 +770,6 @@
     <t xml:space="preserve">NPA -&gt; (not got this money back  )</t>
   </si>
   <si>
-    <t xml:space="preserve">Impairement on financial instruments</t>
-  </si>
-  <si>
     <t xml:space="preserve">in reality this amount didnt got out .. ? </t>
   </si>
   <si>
@@ -631,12 +846,6 @@
   </si>
   <si>
     <t>https://cms-assets.bajajfinserv.in/is/content/bajajfinance/bajaj-finance-q4-fy-25-earnings-conference-call-transcriptpdf?scl=1&amp;fmt=pdf</t>
-  </si>
-  <si>
-    <t>FY21</t>
-  </si>
-  <si>
-    <t>FY25</t>
   </si>
   <si>
     <t xml:space="preserve">No. of Loans booked (MM)</t>
@@ -919,15 +1128,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* &quot;(&quot;#,##0.00&quot;)&quot;;_(* &quot;-&quot;??.0_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* &quot;(&quot;#,##0.0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$INR]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* &quot;(&quot;#,##0.00&quot;)&quot;;_(* &quot;-&quot;??.0_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -952,13 +1169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.000000"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.000000"/>
       <color theme="10"/>
@@ -966,8 +1176,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
-      <color theme="1"/>
+      <sz val="12.000000"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1057,46 +1267,51 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="168" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="168" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="168" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="168" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="168" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1104,13 +1319,13 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1684,10 +1899,10 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1711,7 +1926,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -1720,7 +1935,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1944,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1738,8 +1953,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
@@ -1747,8 +1962,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
@@ -1813,20 +2028,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23"/>
     <row r="24">
@@ -1838,75 +2053,75 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1919,10 +2134,10 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38">
       <c r="B38" t="s">
@@ -1983,647 +2198,308 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="3" width="11.00390625"/>
-    <col customWidth="1" min="2" max="2" style="3" width="23.57421875"/>
-    <col customWidth="1" min="3" max="3" style="3" width="20.140625"/>
-    <col customWidth="1" min="4" max="4" style="3" width="18.00390625"/>
-    <col min="5" max="6" style="3" width="9.140625"/>
-    <col customWidth="1" min="7" max="7" style="3" width="22.8515625"/>
-    <col customWidth="1" min="8" max="8" style="3" width="29.57421875"/>
-    <col min="9" max="16384" style="3" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="4" width="14.8515625"/>
+    <col customWidth="1" min="2" max="2" style="4" width="10.421875"/>
+    <col min="3" max="9" style="4" width="9.140625"/>
+    <col customWidth="1" min="10" max="10" style="4" width="14.421875"/>
+    <col customWidth="1" min="11" max="11" style="4" width="15.421875"/>
+    <col customWidth="1" min="12" max="12" style="4" width="17.421875"/>
+    <col min="13" max="16384" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" ht="16.5">
-      <c r="A4" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2088.9000000000001</v>
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2002</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2023</v>
       </c>
     </row>
     <row r="6" ht="16.5">
-      <c r="G6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="3">
-        <v>401461676</v>
+      <c r="A6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="5">
-        <f>H5*H6/1000000</f>
-        <v>838613.29499640001</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="3">
-        <f>50365.46+93.14</f>
-        <v>50458.599999999999</v>
+      <c r="A8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="8">
+        <v>288.39999999999998</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="3">
-        <f>163714.7+423613.13</f>
-        <v>587327.83000000007</v>
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="8">
+        <v>6353284188</v>
       </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="5">
-        <f>H7+H9-H8</f>
-        <v>1375482.5249963999</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="9">
+        <f>(L8*L9)/10000000</f>
+        <v>183228.71598191999</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="10">
+        <f>67.18+10892.59</f>
+        <v>10959.77</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="16.5">
-      <c r="A13" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="11">
+        <f>L10+L12-L11</f>
+        <v>172268.94598192</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="A14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="A17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="A18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="D19" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" ht="16.5">
-      <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" ht="16.5">
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="8">
-        <v>60373.449999999997</v>
-      </c>
-      <c r="D22" s="8">
-        <v>77701.830000000002</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2346.5700000000002</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2654.7600000000002</v>
-      </c>
+      <c r="B22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" ht="16.5">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="8">
-        <v>178.36000000000001</v>
-      </c>
-      <c r="D24" s="8">
-        <v>98.950000000000003</v>
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="16.5">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="8">
-        <v>881871.70999999996</v>
-      </c>
-      <c r="D26" s="8">
-        <v>705543.83999999997</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5">
-      <c r="A27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7124.7200000000003</v>
-      </c>
-      <c r="D27" s="8">
-        <v>5457.1199999999999</v>
-      </c>
     </row>
     <row r="28" ht="16.5">
-      <c r="B28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="8">
-        <v>4136.1199999999999</v>
-      </c>
-      <c r="D28" s="8">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="B30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="8">
-        <v>724.86000000000001</v>
-      </c>
-      <c r="D30" s="8">
-        <v>474.56999999999999</v>
-      </c>
+      <c r="B28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" ht="16.5">
-      <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="8">
-        <v>975.77999999999997</v>
-      </c>
-      <c r="D31" s="8">
-        <v>640.98000000000002</v>
+      <c r="A31" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" ht="16.5">
-      <c r="B32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="8">
-        <v>91.069999999999993</v>
-      </c>
-      <c r="D32" s="8">
-        <v>82.019999999999996</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5">
-      <c r="B33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="8">
-        <v>4255.2399999999998</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3272.3699999999999</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5">
-      <c r="B34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="8">
-        <v>111.11</v>
-      </c>
-      <c r="D34" s="8">
-        <v>142.22999999999999</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5">
-      <c r="B35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="8">
-        <v>883.15999999999997</v>
-      </c>
-      <c r="D35" s="8">
-        <v>674.26999999999998</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5">
-      <c r="B36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="8">
-        <v>299.95999999999998</v>
-      </c>
-      <c r="D36" s="8">
-        <v>299.95999999999998</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5">
-      <c r="B37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="8">
-        <v>58.350000000000001</v>
-      </c>
-      <c r="D37" s="8">
-        <v>58.850000000000001</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5">
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="8">
-        <v>3.6499999999999999</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5">
-      <c r="A39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1260.0899999999999</v>
-      </c>
-      <c r="D39" s="8">
-        <v>934.00999999999999</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="16.5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="9">
-        <f>SUM(C22:C39)</f>
-        <v>964694.19999999984</v>
-      </c>
-      <c r="D41" s="9">
-        <f>SUM(D22:D39)</f>
-        <v>801489.19999999984</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="43" ht="16.5">
-      <c r="A43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5">
-      <c r="B44" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5">
-      <c r="B47" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5">
-      <c r="A48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="3">
-        <v>138.86000000000001</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1921.73</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5">
-      <c r="A49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="3">
-        <f>7.68+1381.23</f>
-        <v>1388.9100000000001</v>
-      </c>
-      <c r="D49" s="3">
-        <f>7.2+871.23</f>
-        <v>878.43000000000006</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5">
-      <c r="B50" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="3">
-        <f>1280.7</f>
-        <v>1280.7</v>
-      </c>
-      <c r="D50" s="3">
-        <f>871.23</f>
-        <v>871.23000000000002</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="3">
-        <v>174762.20000000001</v>
-      </c>
-      <c r="D51" s="3">
-        <v>146045.79000000001</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5">
-      <c r="B52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="3">
-        <v>500519.53000000003</v>
-      </c>
-      <c r="D52" s="3">
-        <v>405974.58000000002</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5">
-      <c r="B53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="3">
-        <v>4018.2600000000002</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3314.7600000000002</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5">
-      <c r="B54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="3">
-        <v>3309.73</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2546.5500000000002</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5">
-      <c r="B55" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="3">
-        <v>125.91</v>
-      </c>
-      <c r="D55" s="3">
-        <v>155.56999999999999</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5">
-      <c r="B56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="3">
-        <v>16014.9</v>
-      </c>
-      <c r="D56" s="3">
-        <v>12638.76</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5">
-      <c r="B58" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="3">
-        <v>551.67999999999995</v>
-      </c>
-      <c r="D58" s="3">
-        <v>811.91999999999996</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5">
-      <c r="B59" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="3">
-        <v>3733.27</v>
-      </c>
-      <c r="D59" s="3">
-        <v>3618.9200000000001</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5">
-      <c r="B60" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="3">
-        <v>167.62</v>
-      </c>
-      <c r="D60" s="3">
-        <v>152.86000000000001</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5">
-      <c r="B61" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="3">
-        <v>11142.16</v>
-      </c>
-      <c r="D61" s="3">
-        <v>781.58000000000004</v>
-      </c>
-    </row>
-    <row r="62" s="4" customFormat="1" ht="16.5">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="4">
-        <f>SUM(C48:C61)</f>
-        <v>717153.73000000021</v>
-      </c>
-      <c r="D62" s="4">
-        <f>SUM(D48:D61)</f>
-        <v>579712.68000000005</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" ht="16.5">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" ht="16.5">
-      <c r="B65" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="3">
-        <v>4014.6199999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>4014.48</v>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="B67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="3">
-        <v>247057.45000000001</v>
-      </c>
-      <c r="D67" s="3">
-        <v>212643.04000000001</v>
-      </c>
-    </row>
-    <row r="68" s="4" customFormat="1" ht="14.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="4">
-        <f>SUM(C66:C67)</f>
-        <v>251072.07000000001</v>
-      </c>
-      <c r="D68" s="4">
-        <f>SUM(D66:D67)</f>
-        <v>216657.52000000002</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="70" s="4" customFormat="1" ht="14.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="4">
-        <f>C68+C62</f>
-        <v>968225.80000000028</v>
-      </c>
-      <c r="D70" s="4">
-        <f>D68+D62</f>
-        <v>796370.20000000007</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="B73" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D19"/>
+    <hyperlink r:id="rId1" ref="B3"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2636,710 +2512,2006 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="9.140625"/>
+    <col customWidth="1" min="2" max="5" style="4" width="22.7109375"/>
+    <col customWidth="1" min="6" max="6" style="4" width="14.8515625"/>
+    <col customWidth="1" min="7" max="7" style="4" width="17.7109375"/>
+    <col customWidth="1" min="8" max="8" style="4" width="15.00390625"/>
+    <col min="9" max="16384" style="4" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5">
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="16.5">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="4">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>295.18000000000001</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="G3" s="4">
+        <v>937.74000000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="A4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.27000000000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>216.84999999999999</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>151.66</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="4">
+        <v>52.369999999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="G6" s="4">
+        <v>547.63</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="16.5">
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C3+C4+C5+C6</f>
+        <v>349.25</v>
+      </c>
+      <c r="D7" s="5">
+        <f>D3+D4+D5+D6</f>
+        <v>295.18000000000001</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <f>F3+F4+F5+F6</f>
+        <v>41.63000000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <f>SUM(G3:G6)</f>
+        <v>1853.8800000000001</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="B8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15.630000000000001</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="16.5">
+      <c r="B9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="5">
+        <f>C7+C8</f>
+        <v>349.25</v>
+      </c>
+      <c r="D9" s="5">
+        <f>D7+D8</f>
+        <v>310.81</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <f>F7+F8</f>
+        <v>44.840000000000011</v>
+      </c>
+      <c r="G9" s="5">
+        <f>G7+G8</f>
+        <v>1854.6800000000001</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4">
+        <v>127.76000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>110.56999999999999</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>-10.06</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>116.04000000000001</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4">
+        <v>27.649999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>5.5599999999999996</v>
+      </c>
+      <c r="G15" s="4">
+        <v>177.43000000000001</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="16.5">
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C11:C15)</f>
+        <v>155.41</v>
+      </c>
+      <c r="D16" s="5">
+        <f>SUM(D11:D15)</f>
+        <v>192.75</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <f>SUM(F11:F15)</f>
+        <v>-4.5000000000000009</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(G11:G15)</f>
+        <v>327.31000000000006</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="B18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4">
+        <f>C9-C16</f>
+        <v>193.84</v>
+      </c>
+      <c r="D18" s="4">
+        <f>D9-D16</f>
+        <v>118.06</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <f>F9-F16</f>
+        <v>49.340000000000011</v>
+      </c>
+      <c r="G18" s="4">
+        <f>G9-G16</f>
+        <v>1527.3699999999999</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5">
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>428.51999999999998</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="B20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="4">
+        <f>C18+C19</f>
+        <v>193.84</v>
+      </c>
+      <c r="D20" s="4">
+        <f>D18+D19</f>
+        <v>118.06</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <f>F18+F19</f>
+        <v>49.340000000000011</v>
+      </c>
+      <c r="G20" s="4">
+        <f>G18+G19</f>
+        <v>1955.8899999999999</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="B22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="4">
+        <f>12.9+0-49.01</f>
+        <v>-36.109999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <f>3.4+0.31-8.71</f>
+        <v>-5.0000000000000009</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <f>8.7+9.39</f>
+        <v>18.09</v>
+      </c>
+      <c r="G22" s="4">
+        <f>333.2+18.14</f>
+        <v>351.33999999999997</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="16.5">
+      <c r="B23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C20-C22</f>
+        <v>229.94999999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <f>D20-D22</f>
+        <v>123.06</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <f>F20-F22</f>
+        <v>31.250000000000011</v>
+      </c>
+      <c r="G23" s="5">
+        <f>G20-G22</f>
+        <v>1604.55</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="A24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f>23423.62</f>
+        <v>23423.619999999999</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="16.5">
+      <c r="B25" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="12">
+        <f>C24+C23</f>
+        <v>229.94999999999999</v>
+      </c>
+      <c r="D25" s="12">
+        <f>D24+D23</f>
+        <v>123.06</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <f>F24+F23</f>
+        <v>31.250000000000011</v>
+      </c>
+      <c r="G25" s="12">
+        <f>G24+G23</f>
+        <v>25028.169999999998</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="16.5">
+      <c r="A26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="12">
+        <f>C25</f>
+        <v>229.94999999999999</v>
+      </c>
+      <c r="D26" s="12">
+        <f>D25</f>
+        <v>123.06</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12">
+        <f>F25</f>
+        <v>31.250000000000011</v>
+      </c>
+      <c r="G26" s="12">
+        <f>G23</f>
+        <v>1604.55</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="14.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="B29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5168355</v>
+      </c>
+      <c r="D29" s="13">
+        <v>5168355</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="13">
+        <v>5168355</v>
+      </c>
+      <c r="G29" s="13">
+        <v>6353284188</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="B30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="4">
+        <f>C25*10000000/C29</f>
+        <v>444.91912803977283</v>
+      </c>
+      <c r="D30" s="4">
+        <f>D25*10000000/D29</f>
+        <v>238.10283929799715</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <f>F25*10000000/F29</f>
+        <v>60.464112856024812</v>
+      </c>
+      <c r="G30" s="14">
+        <f>G26*10000000/G29</f>
+        <v>2.5255441949703008</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="15">
+        <f>D11/D3</f>
+        <v>0.37458499898367092</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="15">
+        <f>F11/F3</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <f>G11/G3</f>
+        <v>0.010951862989741292</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="15">
+        <f>G23/F23</f>
+        <v>51.345599999999983</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="B34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="15">
+        <f>G16/100</f>
+        <v>3.2731000000000008</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="B35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="15">
+        <f>G9/F9</f>
+        <v>41.362176628010694</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D1"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="4" width="11.00390625"/>
+    <col customWidth="1" min="2" max="2" style="4" width="23.57421875"/>
+    <col customWidth="1" min="3" max="3" style="4" width="20.140625"/>
+    <col customWidth="1" min="4" max="4" style="4" width="18.00390625"/>
+    <col min="5" max="6" style="4" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" style="4" width="22.8515625"/>
+    <col customWidth="1" min="8" max="8" style="4" width="29.57421875"/>
+    <col min="9" max="16384" style="4" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5">
+      <c r="A1" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5">
+      <c r="A2" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2088.9000000000001</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="G6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="4">
+        <v>401461676</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="14">
+        <f>H5*H6/1000000</f>
+        <v>838613.29499640001</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="A8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="4">
+        <f>50365.46+93.14</f>
+        <v>50458.599999999999</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="4">
+        <f>163714.7+423613.13</f>
+        <v>587327.83000000007</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="14">
+        <f>H7+H9-H8</f>
+        <v>1375482.5249963999</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="A18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="D19" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="C20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="B21" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="B22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="18">
+        <v>60373.449999999997</v>
+      </c>
+      <c r="D22" s="18">
+        <v>77701.830000000002</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="B23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="18">
+        <v>2346.5700000000002</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2654.7600000000002</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="A24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="18">
+        <v>178.36000000000001</v>
+      </c>
+      <c r="D24" s="18">
+        <v>98.950000000000003</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="A26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="18">
+        <v>881871.70999999996</v>
+      </c>
+      <c r="D26" s="18">
+        <v>705543.83999999997</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="A27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7124.7200000000003</v>
+      </c>
+      <c r="D27" s="18">
+        <v>5457.1199999999999</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="B28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4136.1199999999999</v>
+      </c>
+      <c r="D28" s="18">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="B30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="18">
+        <v>724.86000000000001</v>
+      </c>
+      <c r="D30" s="18">
+        <v>474.56999999999999</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="B31" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="18">
+        <v>975.77999999999997</v>
+      </c>
+      <c r="D31" s="18">
+        <v>640.98000000000002</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="B32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="18">
+        <v>91.069999999999993</v>
+      </c>
+      <c r="D32" s="18">
+        <v>82.019999999999996</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="B33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="18">
+        <v>4255.2399999999998</v>
+      </c>
+      <c r="D33" s="18">
+        <v>3272.3699999999999</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="B34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="18">
+        <v>111.11</v>
+      </c>
+      <c r="D34" s="18">
+        <v>142.22999999999999</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="B35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="18">
+        <v>883.15999999999997</v>
+      </c>
+      <c r="D35" s="18">
+        <v>674.26999999999998</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="B36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="18">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="D36" s="18">
+        <v>299.95999999999998</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="B37" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="18">
+        <v>58.350000000000001</v>
+      </c>
+      <c r="D37" s="18">
+        <v>58.850000000000001</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="B38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="18">
+        <v>3.6499999999999999</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="A39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1260.0899999999999</v>
+      </c>
+      <c r="D39" s="18">
+        <v>934.00999999999999</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" s="5" customFormat="1" ht="16.5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="19">
+        <f>SUM(C22:C39)</f>
+        <v>964694.19999999984</v>
+      </c>
+      <c r="D41" s="19">
+        <f>SUM(D22:D39)</f>
+        <v>801489.19999999984</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="A43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="B44" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5">
+      <c r="B47" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="A48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="4">
+        <v>138.86000000000001</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1921.73</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="A49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="4">
+        <f>7.68+1381.23</f>
+        <v>1388.9100000000001</v>
+      </c>
+      <c r="D49" s="4">
+        <f>7.2+871.23</f>
+        <v>878.43000000000006</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="B50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="4">
+        <f>1280.7</f>
+        <v>1280.7</v>
+      </c>
+      <c r="D50" s="4">
+        <f>871.23</f>
+        <v>871.23000000000002</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="4">
+        <v>174762.20000000001</v>
+      </c>
+      <c r="D51" s="4">
+        <v>146045.79000000001</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="B52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="4">
+        <v>500519.53000000003</v>
+      </c>
+      <c r="D52" s="4">
+        <v>405974.58000000002</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5">
+      <c r="B53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4018.2600000000002</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3314.7600000000002</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="B54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3309.73</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2546.5500000000002</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5">
+      <c r="B55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="4">
+        <v>125.91</v>
+      </c>
+      <c r="D55" s="4">
+        <v>155.56999999999999</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5">
+      <c r="B56" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="4">
+        <v>16014.9</v>
+      </c>
+      <c r="D56" s="4">
+        <v>12638.76</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5">
+      <c r="B58" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="4">
+        <v>551.67999999999995</v>
+      </c>
+      <c r="D58" s="4">
+        <v>811.91999999999996</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5">
+      <c r="B59" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3733.27</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3618.9200000000001</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5">
+      <c r="B60" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="4">
+        <v>167.62</v>
+      </c>
+      <c r="D60" s="4">
+        <v>152.86000000000001</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="B61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="4">
+        <v>11142.16</v>
+      </c>
+      <c r="D61" s="4">
+        <v>781.58000000000004</v>
+      </c>
+    </row>
+    <row r="62" s="5" customFormat="1" ht="16.5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="5">
+        <f>SUM(C48:C61)</f>
+        <v>717153.73000000021</v>
+      </c>
+      <c r="D62" s="5">
+        <f>SUM(D48:D61)</f>
+        <v>579712.68000000005</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" ht="16.5">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" ht="16.5">
+      <c r="B65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4014.6199999999999</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4014.48</v>
+      </c>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="B67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="4">
+        <v>247057.45000000001</v>
+      </c>
+      <c r="D67" s="4">
+        <v>212643.04000000001</v>
+      </c>
+    </row>
+    <row r="68" s="5" customFormat="1" ht="14.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="5">
+        <f>SUM(C66:C67)</f>
+        <v>251072.07000000001</v>
+      </c>
+      <c r="D68" s="5">
+        <f>SUM(D66:D67)</f>
+        <v>216657.52000000002</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="70" s="5" customFormat="1" ht="14.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="5">
+        <f>C68+C62</f>
+        <v>968225.80000000028</v>
+      </c>
+      <c r="D70" s="5">
+        <f>D68+D62</f>
+        <v>796370.20000000007</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="B73" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D19"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="3" width="13.57421875"/>
-    <col customWidth="1" min="2" max="2" style="3" width="28.8515625"/>
-    <col customWidth="1" min="3" max="3" style="3" width="19.00390625"/>
-    <col customWidth="1" min="4" max="4" style="3" width="20.00390625"/>
-    <col min="5" max="16384" style="3" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="4" width="13.57421875"/>
+    <col customWidth="1" min="2" max="2" style="4" width="26.140625"/>
+    <col customWidth="1" min="3" max="3" style="4" width="19.00390625"/>
+    <col customWidth="1" min="4" max="4" style="4" width="20.00390625"/>
+    <col min="5" max="16384" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>126</v>
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="C2" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="16.5">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>131</v>
+      <c r="C2" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="16.5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="20">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="18">
         <v>115555.35000000001</v>
       </c>
     </row>
     <row r="6" ht="16.5">
-      <c r="A6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="A6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="20">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="18">
         <v>9.4100000000000001</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="20">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="18">
         <v>524.13999999999999</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="B8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="20">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="18">
         <v>1403.1199999999999</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="A9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="20">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="18">
         <v>90.700000000000003</v>
       </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="21">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="18">
         <v>1393.9100000000001</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="16.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="12">
+    <row r="11" s="5" customFormat="1" ht="16.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="22">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="19">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="16.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="12">
+    <row r="12" s="5" customFormat="1" ht="16.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="22">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="22">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
     </row>
     <row r="13" ht="16.5">
-      <c r="B13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="8">
         <v>1010.85</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>773.41999999999996</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="16.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="14">
+    <row r="14" s="5" customFormat="1" ht="16.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="23">
         <f>C11+C13</f>
         <v>151627.42000000001</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="23">
         <f>D11+D13</f>
         <v>119750.05</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" ht="16.5">
-      <c r="A16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="A16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="8">
         <v>54300.779999999999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="8">
         <v>42091.779999999999</v>
       </c>
     </row>
     <row r="17" ht="16.5">
-      <c r="A17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="A17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="8">
         <v>5538.21</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>2432.2199999999998</v>
       </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="A18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="A18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="8">
         <v>18282.060000000001</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>14882.68</v>
       </c>
     </row>
     <row r="19" ht="16.5">
-      <c r="B19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="8">
         <v>921.05999999999995</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>781.61000000000001</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="B20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="8">
         <v>12620.27</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="8">
         <v>10333.959999999999</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="16.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="14">
+    <row r="21" s="5" customFormat="1" ht="16.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="23">
         <f>SUM(C16:C20)</f>
         <v>91662.380000000005</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="23">
         <f>SUM(D16:D20)</f>
         <v>70522.25</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="8">
         <f>C14-C21</f>
         <v>59965.040000000008</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <f>D14-D21</f>
         <v>49227.800000000003</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="8">
         <f>512.3+5.84-15807.24</f>
         <v>-15289.1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="8">
         <f>-294.47+105.52-12341.19</f>
         <v>-12530.140000000001</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="16.5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="16.5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="23">
         <f>C22+C23</f>
         <v>44675.94000000001</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="23">
         <f>D22+D23</f>
         <v>36697.660000000003</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" ht="16.5">
-      <c r="A25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="A25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="8">
         <v>704.13</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>428.67000000000002</v>
       </c>
     </row>
     <row r="26" ht="16.5">
-      <c r="B26" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="24">
         <f>SUM(C24:C25)</f>
         <v>45380.070000000007</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="24">
         <f>SUM(D24:D25)</f>
         <v>37126.330000000002</v>
       </c>
     </row>
     <row r="27" ht="16.5">
-      <c r="B27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="15">
+      <c r="B27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="24">
         <v>43242.879999999997</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="24">
         <v>36122.980000000003</v>
       </c>
     </row>
     <row r="28" ht="16.5">
-      <c r="B28" s="3"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" ht="16.5">
-      <c r="B29" s="3"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" ht="16.5">
-      <c r="B30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="15">
+      <c r="B30" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="24">
         <v>251072.07000000001</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="10">
         <v>216657.51999999999</v>
       </c>
     </row>
     <row r="31" ht="16.5">
-      <c r="B31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="8">
         <v>401453679</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="8">
         <v>401397883</v>
       </c>
     </row>
     <row r="32" ht="16.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="4">
         <f>C27*1000000/D31</f>
         <v>107.73071267045023</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <f>D27*1000000/C31</f>
         <v>89.980443297917816</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" ht="16.5">
-      <c r="B34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="24">
         <f>C14-C16</f>
         <v>97326.640000000014</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="24">
         <f>D14-D16</f>
         <v>77658.270000000004</v>
       </c>
     </row>
     <row r="35" ht="16.5">
-      <c r="A35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="A35" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="15">
         <f>C16/C14</f>
         <v>0.35811979126202897</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="15">
         <f>D16/D14</f>
         <v>0.35149697223508464</v>
       </c>
     </row>
     <row r="36" ht="16.5">
-      <c r="B36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="B36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="15">
         <f>C27/D27-1</f>
         <v>0.19710167876515161</v>
       </c>
     </row>
     <row r="37" ht="16.5">
-      <c r="B37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="B37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="15">
         <f>C23/D23-1</f>
         <v>0.22018588778736703</v>
       </c>
     </row>
     <row r="38" ht="16.5">
-      <c r="B38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="B38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="15">
         <f>C20/D20-1</f>
         <v>0.2212423891712374</v>
       </c>
     </row>
     <row r="39" ht="16.5">
-      <c r="B39" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="B39" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="15">
         <f>C16/D16-1</f>
         <v>0.29005663338542576</v>
       </c>
     </row>
     <row r="40" ht="16.5">
-      <c r="B40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="17">
+      <c r="A40" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="15">
         <f>C26/D26-1</f>
         <v>0.22231499854685355</v>
       </c>
     </row>
     <row r="41" ht="16.5">
-      <c r="B41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="B41" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="15">
         <f>C32/D32-1</f>
         <v>0.19726808095135451</v>
       </c>
     </row>
     <row r="50" ht="16.5">
-      <c r="A50" s="3" t="s">
-        <v>171</v>
+      <c r="A50" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="51" ht="16.5">
-      <c r="A51" s="4" t="s">
-        <v>172</v>
+      <c r="A51" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="52" ht="16.5">
-      <c r="B52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="15">
+      <c r="B52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="24">
         <f>C22</f>
         <v>59965.040000000008</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="24">
         <f>D22</f>
         <v>49227.800000000003</v>
       </c>
     </row>
     <row r="53" ht="16.5">
-      <c r="A53" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="15">
+      <c r="A53" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="24">
         <f>C19</f>
         <v>921.05999999999995</v>
       </c>
     </row>
     <row r="54" ht="16.5">
-      <c r="A54" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="15">
+      <c r="A54" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="24">
         <f>C17</f>
         <v>5538.21</v>
       </c>
     </row>
     <row r="55" ht="16.5">
-      <c r="A55" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="15">
+      <c r="A55" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="24">
         <f>C16</f>
         <v>54300.779999999999</v>
       </c>
     </row>
     <row r="56" ht="16.5">
-      <c r="A56" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="A56" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="4">
         <v>-6.3899999999999997</v>
       </c>
     </row>
     <row r="57" ht="16.5">
-      <c r="B57" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="4">
         <v>161.02000000000001</v>
       </c>
     </row>
     <row r="58" ht="16.5">
-      <c r="A58" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="A58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="4">
         <v>-13.550000000000001</v>
       </c>
     </row>
     <row r="59" ht="16.5">
-      <c r="A59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="A59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="4">
         <v>-3369.0799999999999</v>
       </c>
     </row>
     <row r="60" ht="16.5">
-      <c r="A60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="A60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="4">
         <v>-48.100000000000001</v>
       </c>
     </row>
     <row r="61" ht="16.5">
-      <c r="B61" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="4">
         <v>-1022.58</v>
       </c>
     </row>
     <row r="62" ht="16.5">
-      <c r="B62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="4">
         <v>388.77999999999997</v>
       </c>
     </row>
-    <row r="63" s="4" customFormat="1" ht="16.5">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="18">
+    <row r="63" s="5" customFormat="1" ht="16.5">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="25">
         <f>SUM(C52:C62)</f>
         <v>116815.19</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" s="4" customFormat="1" ht="16.5">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="4"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" s="5" customFormat="1" ht="16.5">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="3"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="3">
+      <c r="A66" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="4">
         <v>-79.409999999999997</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="A67" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="4">
         <v>307.81</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="B68" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="B68" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="4">
         <v>-179256.51000000001</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="B69" s="3" t="s">
-        <v>193</v>
+      <c r="B69" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="B70" s="3" t="s">
-        <v>194</v>
+      <c r="B70" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="B71" s="3" t="s">
-        <v>195</v>
+      <c r="B71" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="B72" s="3" t="s">
-        <v>196</v>
+      <c r="B72" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="B73" s="3" t="s">
-        <v>197</v>
+      <c r="B73" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>178</v>
+      <c r="A76" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="4" t="s">
-        <v>199</v>
+      <c r="A80" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="4" t="s">
-        <v>200</v>
+      <c r="A86" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +4525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -3370,557 +4542,557 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>202</v>
+        <v>272</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="19">
+        <v>274</v>
+      </c>
+      <c r="C3" s="26">
         <v>15.300000000000001</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="26">
         <v>23.5</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="26">
         <v>27.399999999999999</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="26">
         <v>16.899999999999999</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="26">
         <v>24.699999999999999</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="26">
         <v>29.600000000000001</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="26">
         <v>36.200000000000003</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="26">
         <v>43.399999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="19">
+        <v>275</v>
+      </c>
+      <c r="C4" s="26">
         <v>82400</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="26">
         <v>115900</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="26">
         <v>147200</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="26">
         <v>152900</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="26">
         <v>197500</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="26">
         <v>247400</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="26">
         <v>330600</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="26">
         <v>416700</v>
       </c>
     </row>
-    <row r="5" s="20" customFormat="1">
-      <c r="B5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="21">
+    <row r="5" s="1" customFormat="1">
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="27">
         <v>12757</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="27">
         <v>18500</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="27">
         <v>26386</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="27">
         <v>26683</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="27">
         <v>31648</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="27">
         <v>41418</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="27">
         <v>54983</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="27">
         <v>69725</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="19">
+        <v>276</v>
+      </c>
+      <c r="C6" s="26">
         <v>4614</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="26">
         <v>6623</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="26">
         <v>9473</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="26">
         <v>9414</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="26">
         <v>9754</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="26">
         <v>12560</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="26">
         <v>18725</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="26">
         <v>24771</v>
       </c>
     </row>
-    <row r="7" s="20" customFormat="1">
-      <c r="A7" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="21">
+    <row r="7" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="27">
         <f>C5-C6</f>
         <v>8143</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="27">
         <f>D5-D6</f>
         <v>11877</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="27">
         <f>E5-E6</f>
         <v>16913</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="27">
         <f>F5-F6</f>
         <v>17269</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="27">
         <f>G5-G6</f>
         <v>21894</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="27">
         <f>H5-H6</f>
         <v>28858</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="27">
         <f>I5-I6</f>
         <v>36258</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="27">
         <f>J5-J6</f>
         <v>44954</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="19">
+        <v>279</v>
+      </c>
+      <c r="C8" s="26">
         <v>3270</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="26">
         <v>4197</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="26">
         <v>5662</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="26">
         <v>5308</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="26">
         <v>7587</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="26">
         <v>10142</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="26">
         <v>12325</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="26">
         <v>14926</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1">
-      <c r="B9" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="21">
+    <row r="9" s="1" customFormat="1">
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="27">
         <f>C7-C8</f>
         <v>4873</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="28">
         <f>D7-D8</f>
         <v>7680</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="28">
         <f>E7-E8</f>
         <v>11251</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="28">
         <f>F7-F8</f>
         <v>11961</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="28">
         <f>G7-G8</f>
         <v>14307</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="28">
         <f>H7-H8</f>
         <v>18716</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="28">
         <f>I7-I8</f>
         <v>23933</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="28">
         <f>J7-J8</f>
         <v>30028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="19">
+        <v>282</v>
+      </c>
+      <c r="C10" s="26">
         <v>1030</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="26">
         <v>1501</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="26">
         <v>3929</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="26">
         <v>5969</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="26">
         <v>4803</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="26">
         <v>3190</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="26">
         <v>4631</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="26">
         <v>7966</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="19">
+        <v>283</v>
+      </c>
+      <c r="C11" s="26">
         <f>C9-C10</f>
         <v>3843</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="29">
         <f>D9-D10</f>
         <v>6179</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="29">
         <f>E9-E10</f>
         <v>7322</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="29">
         <f>F9-F10</f>
         <v>5992</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="29">
         <f>G9-G10</f>
         <v>9504</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="29">
         <f>H9-H10</f>
         <v>15526</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="29">
         <f>I9-I10</f>
         <v>19302</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="29">
         <f>J9-J10</f>
         <v>22062</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="19">
+        <v>227</v>
+      </c>
+      <c r="C12" s="26">
         <f>C11-C13</f>
         <v>1347</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="29">
         <f>D11-D13</f>
         <v>2184</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="29">
         <f>E11-E13</f>
         <v>2058</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="29">
         <f>F11-F13</f>
         <v>1572</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="29">
         <f>G11-G13</f>
         <v>2476</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="29">
         <f>H11-H13</f>
         <v>4018</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="29">
         <f>I11-I13</f>
         <v>4851</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="29">
         <f>J11-J13</f>
         <v>5283</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1">
-      <c r="B13" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="21">
+    <row r="13" s="1" customFormat="1">
+      <c r="B13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="27">
         <v>2496</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="27">
         <v>3995</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="27">
         <v>5264</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="27">
         <v>4420</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="27">
         <v>7028</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="27">
         <v>11508</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="27">
         <v>14451</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="27">
         <v>16779</v>
       </c>
     </row>
     <row r="14"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="24">
+        <v>237</v>
+      </c>
+      <c r="D17" s="30">
         <f>D13/C13-1</f>
         <v>0.60056089743589736</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="30">
         <f>E13/D13-1</f>
         <v>0.31764705882352939</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="30">
         <f>F13/E13-1</f>
         <v>-0.16033434650455924</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="30">
         <f>G13/F13-1</f>
         <v>0.59004524886877818</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="30">
         <f>H13/G13-1</f>
         <v>0.63745019920318735</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="30">
         <f>I13/H13-1</f>
         <v>0.25573514077163706</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="30">
         <f>J13/I13-1</f>
         <v>0.1610961179157151</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="24">
+        <v>238</v>
+      </c>
+      <c r="D18" s="30">
         <f>D12/C12-1</f>
         <v>0.6213808463251671</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="30">
         <f>E12/D12-1</f>
         <v>-0.057692307692307709</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="30">
         <f>F12/E12-1</f>
         <v>-0.23615160349854225</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="30">
         <f>G12/F12-1</f>
         <v>0.57506361323155208</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="30">
         <f>H12/G12-1</f>
         <v>0.62277867528271402</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="30">
         <f>I12/H12-1</f>
         <v>0.20731707317073167</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="30">
         <f>J12/I12-1</f>
         <v>0.089053803339517623</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="24">
+        <v>285</v>
+      </c>
+      <c r="D19" s="30">
         <f>D6/C6-1</f>
         <v>0.43541395752058953</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="30">
         <f>E6/D6-1</f>
         <v>0.43031858674316781</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="30">
         <f>F6/E6-1</f>
         <v>-0.0062282275942151522</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="30">
         <f>G6/F6-1</f>
         <v>0.036116422349691923</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="30">
         <f>H6/G6-1</f>
         <v>0.2876768505228624</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="30">
         <f>I6/H6-1</f>
         <v>0.49084394904458595</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="30">
         <f>J6/I6-1</f>
         <v>0.32288384512683588</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="24">
+        <v>239</v>
+      </c>
+      <c r="D20" s="30">
         <f>D8/C8-1</f>
         <v>0.28348623853211019</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="30">
         <f>E8/D8-1</f>
         <v>0.34905885156063854</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="30">
         <f>F8/E8-1</f>
         <v>-0.062522077004592003</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="30">
         <f>G8/F8-1</f>
         <v>0.42935192162773173</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="30">
         <f>H8/G8-1</f>
         <v>0.3367602477922762</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="30">
         <f>I8/H8-1</f>
         <v>0.21524354170774984</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="30">
         <f>J8/I8-1</f>
         <v>0.2110344827586208</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="24">
+        <v>286</v>
+      </c>
+      <c r="D21" s="30">
         <f>D13/D5</f>
         <v>0.21594594594594593</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="30">
         <f>E13/E5</f>
         <v>0.19949973470779958</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="30">
         <f>F13/F5</f>
         <v>0.16564854026908518</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="30">
         <f>G13/G5</f>
         <v>0.22206774519716885</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="30">
         <f>H13/H5</f>
         <v>0.27785021005359989</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="30">
         <f>I13/I5</f>
         <v>0.26282669188658314</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="30">
         <f>J13/J5</f>
         <v>0.24064539261384008</v>
       </c>
@@ -3936,7 +5108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="100" workbookViewId="0">
@@ -3945,373 +5117,373 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="3" width="50.421875"/>
-    <col customWidth="1" min="3" max="3" style="3" width="24.00390625"/>
-    <col min="4" max="16384" style="3" width="9.140625"/>
+    <col min="1" max="1" style="4" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="4" width="50.421875"/>
+    <col customWidth="1" min="3" max="3" style="4" width="24.00390625"/>
+    <col min="4" max="16384" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="B2" s="7" t="s">
-        <v>218</v>
+      <c r="B2" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>220</v>
+      <c r="A5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="A7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="31">
         <v>0.39000000000000001</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="A8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="7">
         <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="A9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.51000000000000001</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="26"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="C11" s="26"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="C12" s="26"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="16.5">
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="5" t="str">
         <f>B7</f>
         <v xml:space="preserve">Bajaj finserv ltd</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="16.5">
-      <c r="A14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="A14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.51390000000000002</v>
       </c>
     </row>
     <row r="15" ht="16.5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.73999999999999999</v>
       </c>
     </row>
     <row r="16" ht="16.5">
-      <c r="B16" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="7">
         <v>0.73999999999999999</v>
       </c>
     </row>
     <row r="17" ht="16.5">
-      <c r="B17" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="7">
         <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="26"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" ht="16.5">
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="5" t="str">
         <f>B14</f>
         <v xml:space="preserve">Bajaj Finance Ltd</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" ht="16.5">
-      <c r="A22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="26">
+      <c r="A22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="7">
         <v>0.88749999999999996</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="25"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="27" ht="16.5">
-      <c r="B27" s="4" t="s">
-        <v>232</v>
+      <c r="B27" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="29" ht="16.5">
-      <c r="B29" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="27">
+      <c r="B29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" s="32">
         <v>49500</v>
       </c>
     </row>
     <row r="30" ht="16.5">
-      <c r="A30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="27">
+      <c r="A30" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="32">
         <v>62700</v>
       </c>
     </row>
     <row r="31" ht="16.5">
-      <c r="B31" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="27">
+      <c r="B31" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="32">
         <v>46250</v>
       </c>
     </row>
     <row r="32" ht="16.5">
-      <c r="B32" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="27">
+      <c r="B32" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="32">
         <v>21250</v>
       </c>
     </row>
     <row r="33" ht="16.5">
-      <c r="B33" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="27">
+      <c r="B33" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="32">
         <v>30700</v>
       </c>
     </row>
     <row r="34" ht="16.5">
-      <c r="B34" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="27">
+      <c r="B34" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" s="32">
         <v>550</v>
       </c>
     </row>
     <row r="35" ht="16.5">
-      <c r="B35" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="27">
+      <c r="B35" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="32">
         <v>8900</v>
       </c>
     </row>
     <row r="36" ht="16.5">
-      <c r="B36" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="27">
+      <c r="B36" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="32">
         <v>2300</v>
       </c>
     </row>
     <row r="37" ht="16.5">
-      <c r="B37" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="27">
+      <c r="B37" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="38" ht="16.5">
-      <c r="B38" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="27">
+      <c r="B38" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="32">
         <v>850</v>
       </c>
     </row>
     <row r="39" ht="16.5">
-      <c r="B39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="B39" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="32">
         <v>9200</v>
       </c>
     </row>
     <row r="40" ht="16.5">
-      <c r="B40" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="27">
+      <c r="B40" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="32">
         <v>232200</v>
       </c>
     </row>
     <row r="41" ht="16.5">
-      <c r="B41" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="27">
+      <c r="B41" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="32">
         <v>7500</v>
       </c>
     </row>
     <row r="44" ht="16.5">
-      <c r="B44" s="4" t="s">
-        <v>247</v>
+      <c r="B44" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="45" ht="16.5">
-      <c r="B45" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" s="27">
+      <c r="B45" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" s="32">
         <v>17319</v>
       </c>
     </row>
     <row r="46" ht="16.5">
-      <c r="B46" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="27">
+      <c r="B46" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46" s="32">
         <v>29109</v>
       </c>
     </row>
     <row r="47" ht="16.5">
-      <c r="B47" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="27">
+      <c r="B47" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="32">
         <v>87696</v>
       </c>
     </row>
     <row r="48" ht="16.5">
-      <c r="B48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="27">
+      <c r="B48" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="32">
         <v>7944</v>
       </c>
     </row>
     <row r="49" ht="16.5">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="27">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="32">
         <v>21467</v>
       </c>
     </row>
     <row r="50" ht="16.5">
-      <c r="B50" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="27">
+      <c r="B50" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="32">
         <v>8307</v>
       </c>
     </row>
     <row r="51" ht="16.5">
-      <c r="B51" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="27">
+      <c r="B51" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="32">
         <v>50345</v>
       </c>
     </row>
     <row r="52" ht="16.5">
-      <c r="B52" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="27">
+      <c r="B52" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="32">
         <v>11876</v>
       </c>
     </row>
     <row r="53" ht="16.5">
-      <c r="B53" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C53" s="27">
+      <c r="B53" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="32">
         <v>27760</v>
       </c>
     </row>
     <row r="54" ht="16.5">
-      <c r="B54" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54" s="27">
+      <c r="B54" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="32">
         <v>25377</v>
       </c>
     </row>
     <row r="55" ht="16.5">
-      <c r="B55" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" s="27">
+      <c r="B55" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="32">
         <v>129461</v>
       </c>
     </row>
     <row r="56" ht="16.5">
-      <c r="B56" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" s="28">
+      <c r="B56" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="33">
         <f>SUM(C45:C55)</f>
         <v>416661</v>
       </c>
     </row>
     <row r="57" ht="16.5">
-      <c r="B57" s="3"/>
+      <c r="B57" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4325,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -4342,191 +5514,191 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
-      <c r="C3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>75</v>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="19">
+        <v>278</v>
+      </c>
+      <c r="C4" s="26">
         <v>4410</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="26">
         <v>6296</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="19">
+        <v>330</v>
+      </c>
+      <c r="C5" s="26">
         <v>1417</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="26">
         <v>1957</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="1" ht="14.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+    <row r="6" s="1" customFormat="1" ht="14.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="21">
+        <v>331</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="27">
         <f>C4-C5</f>
         <v>2993</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="27">
         <f>D4-D5</f>
         <v>4339</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="19">
+        <v>332</v>
+      </c>
+      <c r="C8" s="26">
         <v>903</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="26">
         <v>1352</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="27">
         <f>C4-C5-C8</f>
         <v>2090</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="27">
         <f>D4-D5-D8</f>
         <v>2987</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="19">
+        <v>227</v>
+      </c>
+      <c r="C10" s="26">
         <v>536</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="26">
         <v>766</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="27">
         <f>C9-C10</f>
         <v>1554</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="27">
         <f>D9-D10</f>
         <v>2221</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="19">
+        <v>333</v>
+      </c>
+      <c r="C12" s="26">
         <v>11426</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="26">
         <v>15224</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="19">
+        <v>334</v>
+      </c>
+      <c r="C13" s="26">
         <v>70771</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="26">
         <v>92292</v>
       </c>
     </row>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="24">
+        <v>335</v>
+      </c>
+      <c r="C15" s="30">
         <f>C11/C12</f>
         <v>0.13600560126028358</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="34">
         <f>D11/D12</f>
         <v>0.14588807146610616</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="30">
+        <v>336</v>
+      </c>
+      <c r="C16" s="35">
         <f>C13/C12</f>
         <v>6.1938561176264662</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="36">
         <f>D13/D12</f>
         <v>6.0622700998423538</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="24">
+        <v>337</v>
+      </c>
+      <c r="C17" s="30">
         <f>C5/C4</f>
         <v>0.32131519274376419</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="34">
         <f>D5/D4</f>
         <v>0.31083227445997458</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="24">
+        <v>338</v>
+      </c>
+      <c r="C18" s="30">
         <f>C8/C7</f>
         <v>0.30170397594386905</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="34">
         <f>D8/D7</f>
         <v>0.3115925328416686</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4537,7 +5709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -4546,240 +5718,240 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="3" width="46.8515625"/>
-    <col min="3" max="16384" style="3" width="9.140625"/>
+    <col min="1" max="1" style="4" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="4" width="46.8515625"/>
+    <col min="3" max="16384" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="38">
+      <c r="A4" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="43">
         <v>52.700000000000003</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="38">
+      <c r="A5" s="37"/>
+      <c r="B5" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="43">
         <v>16.300000000000001</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="A6" s="37"/>
+      <c r="B6" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="43">
         <v>31</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="38">
+      <c r="A10" s="37"/>
+      <c r="B10" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="43">
         <v>100</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="38">
+      <c r="A11" s="37"/>
+      <c r="B11" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="43">
         <v>100</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="38">
+      <c r="A12" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="43">
         <v>74</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
+      <c r="D12" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="38">
+      <c r="A13" s="37"/>
+      <c r="B13" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="43">
         <v>50</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="38">
+      <c r="A14" s="37"/>
+      <c r="B14" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="43">
         <v>51</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" ht="15">
+      <c r="A15" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" ht="15">
-      <c r="A15" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" s="38">
+      <c r="B15" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="43">
         <v>45</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="D15" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="38">
+      <c r="A16" s="37"/>
+      <c r="B16" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="43">
         <v>46</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
+      <c r="D16" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="38">
+      <c r="A17" s="37"/>
+      <c r="B17" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="43">
         <v>100</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="D17" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -1267,7 +1267,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -1280,11 +1280,9 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="168" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="168" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2963,23 +2961,23 @@
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="16.5">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <f>C24+C23</f>
         <v>229.94999999999999</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="5">
         <f>D24+D23</f>
         <v>123.06</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <f>F24+F23</f>
         <v>31.250000000000011</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="5">
         <f>G24+G23</f>
         <v>25028.169999999998</v>
       </c>
@@ -2990,38 +2988,38 @@
       <c r="A26" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="5">
         <f>C25</f>
         <v>229.94999999999999</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="5">
         <f>D25</f>
         <v>123.06</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <f>F25</f>
         <v>31.250000000000011</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="5">
         <f>G23</f>
         <v>1604.55</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="14.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" ht="14.25">
       <c r="C28" s="4"/>
@@ -3033,17 +3031,17 @@
       <c r="B29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>5168355</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>5168355</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>5168355</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <v>6353284188</v>
       </c>
     </row>
@@ -3064,7 +3062,7 @@
         <f>F25*10000000/F29</f>
         <v>60.464112856024812</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <f>G26*10000000/G29</f>
         <v>2.5255441949703008</v>
       </c>
@@ -3079,16 +3077,16 @@
         <v>144</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <f>D11/D3</f>
         <v>0.37458499898367092</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <f>F11/F3</f>
         <v>0</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f>G11/G3</f>
         <v>0.010951862989741292</v>
       </c>
@@ -3097,11 +3095,14 @@
       <c r="B33" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="14">
+        <f>D23/C23</f>
+        <v>0.53515981735159823</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f>G23/F23</f>
         <v>51.345599999999983</v>
       </c>
@@ -3110,11 +3111,14 @@
       <c r="B34" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14">
+        <f>D16/100</f>
+        <v>1.9275</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <f>G16/100</f>
         <v>3.2731000000000008</v>
       </c>
@@ -3123,11 +3127,14 @@
       <c r="B35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="14">
+        <f>D9/C9</f>
+        <v>0.88993557623478881</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <f>G9/F9</f>
         <v>41.362176628010694</v>
       </c>
@@ -3214,7 +3221,7 @@
       <c r="G7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <f>H5*H6/1000000</f>
         <v>838613.29499640001</v>
       </c>
@@ -3245,7 +3252,7 @@
       <c r="G10" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>H7+H9-H8</f>
         <v>1375482.5249963999</v>
       </c>
@@ -3265,7 +3272,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B18" s="4"/>
@@ -3295,10 +3302,10 @@
       <c r="B22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <v>60373.449999999997</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <v>77701.830000000002</v>
       </c>
     </row>
@@ -3306,10 +3313,10 @@
       <c r="B23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>2346.5700000000002</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <v>2654.7600000000002</v>
       </c>
     </row>
@@ -3320,10 +3327,10 @@
       <c r="B24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>178.36000000000001</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <v>98.950000000000003</v>
       </c>
     </row>
@@ -3332,10 +3339,10 @@
       <c r="B25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>0</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3346,10 +3353,10 @@
       <c r="B26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>881871.70999999996</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="16">
         <v>705543.83999999997</v>
       </c>
     </row>
@@ -3360,10 +3367,10 @@
       <c r="B27" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>7124.7200000000003</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <v>5457.1199999999999</v>
       </c>
     </row>
@@ -3371,25 +3378,25 @@
       <c r="B28" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>4136.1199999999999</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>3453</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <v>724.86000000000001</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>474.56999999999999</v>
       </c>
     </row>
@@ -3397,10 +3404,10 @@
       <c r="B31" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>975.77999999999997</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <v>640.98000000000002</v>
       </c>
     </row>
@@ -3408,10 +3415,10 @@
       <c r="B32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <v>91.069999999999993</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="16">
         <v>82.019999999999996</v>
       </c>
     </row>
@@ -3419,10 +3426,10 @@
       <c r="B33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>4255.2399999999998</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="16">
         <v>3272.3699999999999</v>
       </c>
     </row>
@@ -3430,10 +3437,10 @@
       <c r="B34" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <v>111.11</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="16">
         <v>142.22999999999999</v>
       </c>
     </row>
@@ -3441,10 +3448,10 @@
       <c r="B35" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>883.15999999999997</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="16">
         <v>674.26999999999998</v>
       </c>
     </row>
@@ -3452,10 +3459,10 @@
       <c r="B36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <v>299.95999999999998</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <v>299.95999999999998</v>
       </c>
     </row>
@@ -3463,10 +3470,10 @@
       <c r="B37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>58.350000000000001</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <v>58.850000000000001</v>
       </c>
     </row>
@@ -3474,10 +3481,10 @@
       <c r="B38" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <v>3.6499999999999999</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="16">
         <v>0.44</v>
       </c>
     </row>
@@ -3488,27 +3495,27 @@
       <c r="B39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <v>1260.0899999999999</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="16">
         <v>934.00999999999999</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" s="5" customFormat="1" ht="16.5">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="17">
         <f>SUM(C22:C39)</f>
         <v>964694.19999999984</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="17">
         <f>SUM(D22:D39)</f>
         <v>801489.19999999984</v>
       </c>
@@ -3859,10 +3866,10 @@
       <c r="B5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>115555.35000000001</v>
       </c>
     </row>
@@ -3873,10 +3880,10 @@
       <c r="B6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>9.4100000000000001</v>
       </c>
     </row>
@@ -3884,10 +3891,10 @@
       <c r="B7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>524.13999999999999</v>
       </c>
     </row>
@@ -3895,10 +3902,10 @@
       <c r="B8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>1403.1199999999999</v>
       </c>
     </row>
@@ -3909,10 +3916,10 @@
       <c r="B9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>90.700000000000003</v>
       </c>
     </row>
@@ -3921,10 +3928,10 @@
       <c r="B10" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>1393.9100000000001</v>
       </c>
     </row>
@@ -3933,11 +3940,11 @@
       <c r="B11" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
@@ -3947,11 +3954,11 @@
       <c r="B12" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
@@ -3972,11 +3979,11 @@
       <c r="B14" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <f>C11+C13</f>
         <v>151627.42000000001</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <f>D11+D13</f>
         <v>119750.05</v>
       </c>
@@ -4054,11 +4061,11 @@
       <c r="B21" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <f>SUM(C16:C20)</f>
         <v>91662.380000000005</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <f>SUM(D16:D20)</f>
         <v>70522.25</v>
       </c>
@@ -4095,15 +4102,15 @@
       <c r="B24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="21">
         <f>C22+C23</f>
         <v>44675.94000000001</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="21">
         <f>D22+D23</f>
         <v>36697.660000000003</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="4" t="s">
@@ -4123,11 +4130,11 @@
       <c r="B26" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <f>SUM(C24:C25)</f>
         <v>45380.070000000007</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="22">
         <f>SUM(D24:D25)</f>
         <v>37126.330000000002</v>
       </c>
@@ -4136,28 +4143,28 @@
       <c r="B27" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>43242.879999999997</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="22">
         <v>36122.980000000003</v>
       </c>
     </row>
     <row r="28" ht="16.5">
       <c r="B28" s="4"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>251072.07000000001</v>
       </c>
       <c r="D30" s="10">
@@ -4198,11 +4205,11 @@
       <c r="B34" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <f>C14-C16</f>
         <v>97326.640000000014</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="22">
         <f>D14-D16</f>
         <v>77658.270000000004</v>
       </c>
@@ -4214,11 +4221,11 @@
       <c r="B35" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <f>C16/C14</f>
         <v>0.35811979126202897</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <f>D16/D14</f>
         <v>0.35149697223508464</v>
       </c>
@@ -4227,7 +4234,7 @@
       <c r="B36" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <f>C27/D27-1</f>
         <v>0.19710167876515161</v>
       </c>
@@ -4236,7 +4243,7 @@
       <c r="B37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <f>C23/D23-1</f>
         <v>0.22018588778736703</v>
       </c>
@@ -4245,7 +4252,7 @@
       <c r="B38" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <f>C20/D20-1</f>
         <v>0.2212423891712374</v>
       </c>
@@ -4254,7 +4261,7 @@
       <c r="B39" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <f>C16/D16-1</f>
         <v>0.29005663338542576</v>
       </c>
@@ -4266,7 +4273,7 @@
       <c r="B40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <f>C26/D26-1</f>
         <v>0.22231499854685355</v>
       </c>
@@ -4275,7 +4282,7 @@
       <c r="B41" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <f>C32/D32-1</f>
         <v>0.19726808095135451</v>
       </c>
@@ -4294,11 +4301,11 @@
       <c r="B52" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="22">
         <f>C22</f>
         <v>59965.040000000008</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="22">
         <f>D22</f>
         <v>49227.800000000003</v>
       </c>
@@ -4310,7 +4317,7 @@
       <c r="B53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="22">
         <f>C19</f>
         <v>921.05999999999995</v>
       </c>
@@ -4322,7 +4329,7 @@
       <c r="B54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="22">
         <f>C17</f>
         <v>5538.21</v>
       </c>
@@ -4334,7 +4341,7 @@
       <c r="B55" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="22">
         <f>C16</f>
         <v>54300.779999999999</v>
       </c>
@@ -4412,7 +4419,7 @@
       <c r="B63" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="23">
         <f>SUM(C52:C62)</f>
         <v>116815.19</v>
       </c>
@@ -4421,7 +4428,7 @@
     <row r="64" s="5" customFormat="1" ht="16.5">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="25"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" ht="14.25">
@@ -4578,28 +4585,28 @@
       <c r="B3" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>15.300000000000001</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>23.5</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>27.399999999999999</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>16.899999999999999</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>24.699999999999999</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>29.600000000000001</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>36.200000000000003</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>43.399999999999999</v>
       </c>
     </row>
@@ -4607,28 +4614,28 @@
       <c r="B4" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>82400</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>115900</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>147200</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>152900</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>197500</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>247400</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>330600</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>416700</v>
       </c>
     </row>
@@ -4636,28 +4643,28 @@
       <c r="B5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>12757</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>18500</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>26386</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>26683</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>31648</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>41418</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="25">
         <v>54983</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <v>69725</v>
       </c>
     </row>
@@ -4665,28 +4672,28 @@
       <c r="B6" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>4614</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>6623</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>9473</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <v>9414</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>9754</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>12560</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>18725</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>24771</v>
       </c>
     </row>
@@ -4697,35 +4704,35 @@
       <c r="B7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <f>C5-C6</f>
         <v>8143</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>D5-D6</f>
         <v>11877</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <f>E5-E6</f>
         <v>16913</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f>F5-F6</f>
         <v>17269</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <f>G5-G6</f>
         <v>21894</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <f>H5-H6</f>
         <v>28858</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="25">
         <f>I5-I6</f>
         <v>36258</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="25">
         <f>J5-J6</f>
         <v>44954</v>
       </c>
@@ -4734,28 +4741,28 @@
       <c r="B8" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>3270</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>4197</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>5662</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>5308</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>7587</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>10142</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>12325</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <v>14926</v>
       </c>
     </row>
@@ -4763,35 +4770,35 @@
       <c r="B9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <f>C7-C8</f>
         <v>4873</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f>D7-D8</f>
         <v>7680</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <f>E7-E8</f>
         <v>11251</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <f>F7-F8</f>
         <v>11961</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f>G7-G8</f>
         <v>14307</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <f>H7-H8</f>
         <v>18716</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <f>I7-I8</f>
         <v>23933</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <f>J7-J8</f>
         <v>30028</v>
       </c>
@@ -4803,28 +4810,28 @@
       <c r="B10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>1030</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>1501</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>3929</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>5969</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>4803</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>3190</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>4631</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <v>7966</v>
       </c>
     </row>
@@ -4832,35 +4839,35 @@
       <c r="B11" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <f>C9-C10</f>
         <v>3843</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <f>D9-D10</f>
         <v>6179</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="27">
         <f>E9-E10</f>
         <v>7322</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <f>F9-F10</f>
         <v>5992</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <f>G9-G10</f>
         <v>9504</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <f>H9-H10</f>
         <v>15526</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <f>I9-I10</f>
         <v>19302</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <f>J9-J10</f>
         <v>22062</v>
       </c>
@@ -4869,35 +4876,35 @@
       <c r="B12" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <f>C11-C13</f>
         <v>1347</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <f>D11-D13</f>
         <v>2184</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <f>E11-E13</f>
         <v>2058</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <f>F11-F13</f>
         <v>1572</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <f>G11-G13</f>
         <v>2476</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <f>H11-H13</f>
         <v>4018</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <f>I11-I13</f>
         <v>4851</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <f>J11-J13</f>
         <v>5283</v>
       </c>
@@ -4906,28 +4913,28 @@
       <c r="B13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>2496</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>3995</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>5264</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <v>4420</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>7028</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>11508</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>14451</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="25">
         <v>16779</v>
       </c>
     </row>
@@ -4936,31 +4943,31 @@
       <c r="B17" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <f>D13/C13-1</f>
         <v>0.60056089743589736</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="28">
         <f>E13/D13-1</f>
         <v>0.31764705882352939</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="28">
         <f>F13/E13-1</f>
         <v>-0.16033434650455924</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="28">
         <f>G13/F13-1</f>
         <v>0.59004524886877818</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="28">
         <f>H13/G13-1</f>
         <v>0.63745019920318735</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="28">
         <f>I13/H13-1</f>
         <v>0.25573514077163706</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <f>J13/I13-1</f>
         <v>0.1610961179157151</v>
       </c>
@@ -4969,31 +4976,31 @@
       <c r="B18" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <f>D12/C12-1</f>
         <v>0.6213808463251671</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <f>E12/D12-1</f>
         <v>-0.057692307692307709</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <f>F12/E12-1</f>
         <v>-0.23615160349854225</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f>G12/F12-1</f>
         <v>0.57506361323155208</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <f>H12/G12-1</f>
         <v>0.62277867528271402</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f>I12/H12-1</f>
         <v>0.20731707317073167</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <f>J12/I12-1</f>
         <v>0.089053803339517623</v>
       </c>
@@ -5002,31 +5009,31 @@
       <c r="B19" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <f>D6/C6-1</f>
         <v>0.43541395752058953</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <f>E6/D6-1</f>
         <v>0.43031858674316781</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <f>F6/E6-1</f>
         <v>-0.0062282275942151522</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="28">
         <f>G6/F6-1</f>
         <v>0.036116422349691923</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <f>H6/G6-1</f>
         <v>0.2876768505228624</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f>I6/H6-1</f>
         <v>0.49084394904458595</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="28">
         <f>J6/I6-1</f>
         <v>0.32288384512683588</v>
       </c>
@@ -5035,31 +5042,31 @@
       <c r="B20" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <f>D8/C8-1</f>
         <v>0.28348623853211019</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <f>E8/D8-1</f>
         <v>0.34905885156063854</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="28">
         <f>F8/E8-1</f>
         <v>-0.062522077004592003</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="28">
         <f>G8/F8-1</f>
         <v>0.42935192162773173</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="28">
         <f>H8/G8-1</f>
         <v>0.3367602477922762</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <f>I8/H8-1</f>
         <v>0.21524354170774984</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="28">
         <f>J8/I8-1</f>
         <v>0.2110344827586208</v>
       </c>
@@ -5068,31 +5075,31 @@
       <c r="B21" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <f>D13/D5</f>
         <v>0.21594594594594593</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <f>E13/E5</f>
         <v>0.19949973470779958</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f>F13/F5</f>
         <v>0.16564854026908518</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="28">
         <f>G13/G5</f>
         <v>0.22206774519716885</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="28">
         <f>H13/H5</f>
         <v>0.27785021005359989</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <f>I13/I5</f>
         <v>0.26282669188658314</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="28">
         <f>J13/J5</f>
         <v>0.24064539261384008</v>
       </c>
@@ -5146,7 +5153,7 @@
       <c r="B7" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>0.39000000000000001</v>
       </c>
     </row>
@@ -5265,7 +5272,7 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="31"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="5" t="s">
@@ -5276,7 +5283,7 @@
       <c r="B29" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="30">
         <v>49500</v>
       </c>
     </row>
@@ -5287,7 +5294,7 @@
       <c r="B30" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="30">
         <v>62700</v>
       </c>
     </row>
@@ -5295,7 +5302,7 @@
       <c r="B31" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="30">
         <v>46250</v>
       </c>
     </row>
@@ -5303,7 +5310,7 @@
       <c r="B32" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="30">
         <v>21250</v>
       </c>
     </row>
@@ -5311,7 +5318,7 @@
       <c r="B33" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="30">
         <v>30700</v>
       </c>
     </row>
@@ -5319,7 +5326,7 @@
       <c r="B34" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="30">
         <v>550</v>
       </c>
     </row>
@@ -5327,7 +5334,7 @@
       <c r="B35" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="30">
         <v>8900</v>
       </c>
     </row>
@@ -5335,7 +5342,7 @@
       <c r="B36" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="30">
         <v>2300</v>
       </c>
     </row>
@@ -5343,7 +5350,7 @@
       <c r="B37" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="30">
         <v>100</v>
       </c>
     </row>
@@ -5351,7 +5358,7 @@
       <c r="B38" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="30">
         <v>850</v>
       </c>
     </row>
@@ -5359,7 +5366,7 @@
       <c r="B39" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="30">
         <v>9200</v>
       </c>
     </row>
@@ -5367,7 +5374,7 @@
       <c r="B40" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="30">
         <v>232200</v>
       </c>
     </row>
@@ -5375,7 +5382,7 @@
       <c r="B41" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="30">
         <v>7500</v>
       </c>
     </row>
@@ -5388,7 +5395,7 @@
       <c r="B45" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="30">
         <v>17319</v>
       </c>
     </row>
@@ -5396,7 +5403,7 @@
       <c r="B46" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="30">
         <v>29109</v>
       </c>
     </row>
@@ -5404,7 +5411,7 @@
       <c r="B47" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="30">
         <v>87696</v>
       </c>
     </row>
@@ -5412,7 +5419,7 @@
       <c r="B48" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="30">
         <v>7944</v>
       </c>
     </row>
@@ -5421,7 +5428,7 @@
       <c r="B49" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="30">
         <v>21467</v>
       </c>
     </row>
@@ -5429,7 +5436,7 @@
       <c r="B50" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="30">
         <v>8307</v>
       </c>
     </row>
@@ -5437,7 +5444,7 @@
       <c r="B51" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="30">
         <v>50345</v>
       </c>
     </row>
@@ -5445,7 +5452,7 @@
       <c r="B52" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="30">
         <v>11876</v>
       </c>
     </row>
@@ -5453,7 +5460,7 @@
       <c r="B53" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="30">
         <v>27760</v>
       </c>
     </row>
@@ -5461,7 +5468,7 @@
       <c r="B54" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="30">
         <v>25377</v>
       </c>
     </row>
@@ -5469,7 +5476,7 @@
       <c r="B55" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="30">
         <v>129461</v>
       </c>
     </row>
@@ -5477,7 +5484,7 @@
       <c r="B56" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="31">
         <f>SUM(C45:C55)</f>
         <v>416661</v>
       </c>
@@ -5530,10 +5537,10 @@
       <c r="B4" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>4410</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>6296</v>
       </c>
     </row>
@@ -5541,10 +5548,10 @@
       <c r="B5" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>1417</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>1957</v>
       </c>
     </row>
@@ -5561,11 +5568,11 @@
       <c r="B7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <f>C4-C5</f>
         <v>2993</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>D4-D5</f>
         <v>4339</v>
       </c>
@@ -5574,10 +5581,10 @@
       <c r="B8" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>903</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>1352</v>
       </c>
     </row>
@@ -5585,11 +5592,11 @@
       <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <f>C4-C5-C8</f>
         <v>2090</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f>D4-D5-D8</f>
         <v>2987</v>
       </c>
@@ -5598,10 +5605,10 @@
       <c r="B10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>536</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>766</v>
       </c>
     </row>
@@ -5609,11 +5616,11 @@
       <c r="B11" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <f>C9-C10</f>
         <v>1554</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <f>D9-D10</f>
         <v>2221</v>
       </c>
@@ -5622,10 +5629,10 @@
       <c r="B12" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>11426</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>15224</v>
       </c>
     </row>
@@ -5633,10 +5640,10 @@
       <c r="B13" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>70771</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>92292</v>
       </c>
     </row>
@@ -5645,11 +5652,11 @@
       <c r="B15" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <f>C11/C12</f>
         <v>0.13600560126028358</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <f>D11/D12</f>
         <v>0.14588807146610616</v>
       </c>
@@ -5658,11 +5665,11 @@
       <c r="B16" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <f>C13/C12</f>
         <v>6.1938561176264662</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <f>D13/D12</f>
         <v>6.0622700998423538</v>
       </c>
@@ -5671,11 +5678,11 @@
       <c r="B17" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="28">
         <f>C5/C4</f>
         <v>0.32131519274376419</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <f>D5/D4</f>
         <v>0.31083227445997458</v>
       </c>
@@ -5684,11 +5691,11 @@
       <c r="B18" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="28">
         <f>C8/C7</f>
         <v>0.30170397594386905</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <f>D8/D7</f>
         <v>0.3115925328416686</v>
       </c>
@@ -5724,234 +5731,234 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>52.700000000000003</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>16.300000000000001</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>100</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>100</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>74</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>50</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>51</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>45</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>46</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>100</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
     <t>NBFC</t>
   </si>
@@ -452,6 +452,9 @@
     <t xml:space="preserve">Attributable to equity investor</t>
   </si>
   <si>
+    <t xml:space="preserve">Equity share capital </t>
+  </si>
+  <si>
     <t xml:space="preserve">weighted no of shares</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
     <t xml:space="preserve">Finance cost / Interest Income</t>
   </si>
   <si>
+    <t>ROI</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAT YoY</t>
   </si>
   <si>
@@ -636,9 +642,6 @@
   </si>
   <si>
     <t xml:space="preserve">Share holders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity share capital </t>
   </si>
   <si>
     <t xml:space="preserve">Equity for owners</t>
@@ -1267,7 +1270,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -1280,6 +1283,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="166" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="167" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -3021,129 +3025,175 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" ht="14.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="B29" s="4" t="s">
+    <row r="28" s="5" customFormat="1" ht="14.25">
+      <c r="B28" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="14.25">
+      <c r="B29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <f>892.96+881.17</f>
+        <v>1774.1300000000001</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="B31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="13">
         <v>5168355</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D31" s="13">
         <v>5168355</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="12">
+      <c r="E31" s="4"/>
+      <c r="F31" s="13">
         <v>5168355</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G31" s="13">
         <v>6353284188</v>
       </c>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="B30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="4">
-        <f>C25*10000000/C29</f>
-        <v>444.91912803977283</v>
-      </c>
-      <c r="D30" s="4">
-        <f>D25*10000000/D29</f>
-        <v>238.10283929799715</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
-        <f>F25*10000000/F29</f>
-        <v>60.464112856024812</v>
-      </c>
-      <c r="G30" s="13">
-        <f>G26*10000000/G29</f>
-        <v>2.5255441949703008</v>
-      </c>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="14">
+      <c r="C32" s="4">
+        <f>C25*10000000/C31</f>
+        <v>444.91912803977283</v>
+      </c>
+      <c r="D32" s="4">
+        <f>D25*10000000/D31</f>
+        <v>238.10283929799715</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <f>F25*10000000/F31</f>
+        <v>60.464112856024812</v>
+      </c>
+      <c r="G32" s="14">
+        <f>G26*10000000/G31</f>
+        <v>2.5255441949703008</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="B34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="15">
         <f>D11/D3</f>
         <v>0.37458499898367092</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="14">
+      <c r="E34" s="4"/>
+      <c r="F34" s="15">
         <f>F11/F3</f>
         <v>0</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G34" s="15">
         <f>G11/G3</f>
         <v>0.010951862989741292</v>
       </c>
     </row>
-    <row r="33" ht="16.5">
-      <c r="B33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="14">
+    <row r="35" ht="16.5">
+      <c r="B35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="15">
+        <f>D26/(D29+D28)</f>
+        <v>0.069284688793176244</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="B36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="15">
         <f>D23/C23</f>
         <v>0.53515981735159823</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="14">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="15">
         <f>G23/F23</f>
         <v>51.345599999999983</v>
       </c>
     </row>
-    <row r="34" ht="16.5">
-      <c r="B34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14">
+    <row r="37" ht="16.5">
+      <c r="B37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="15">
         <f>D16/100</f>
         <v>1.9275</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="14">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="15">
         <f>G16/100</f>
         <v>3.2731000000000008</v>
       </c>
     </row>
-    <row r="35" ht="16.5">
-      <c r="B35" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="14">
+    <row r="38" ht="16.5">
+      <c r="B38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15">
         <f>D9/C9</f>
         <v>0.88993557623478881</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="14">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="15">
         <f>G9/F9</f>
         <v>41.362176628010694</v>
       </c>
     </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="4"/>
+    <row r="44" ht="14.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3177,12 +3227,12 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -3190,12 +3240,12 @@
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -3207,7 +3257,7 @@
     </row>
     <row r="6" ht="16.5">
       <c r="G6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H6" s="4">
         <v>401461676</v>
@@ -3216,12 +3266,12 @@
     <row r="7" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <f>H5*H6/1000000</f>
         <v>838613.29499640001</v>
       </c>
@@ -3230,7 +3280,7 @@
     <row r="8" ht="16.5">
       <c r="A8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="4">
         <f>50365.46+93.14</f>
@@ -3240,7 +3290,7 @@
     <row r="9" ht="16.5">
       <c r="A9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H9" s="4">
         <f>163714.7+423613.13</f>
@@ -3250,9 +3300,9 @@
     <row r="10" ht="16.5">
       <c r="A10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="13">
+        <v>158</v>
+      </c>
+      <c r="H10" s="14">
         <f>H7+H9-H8</f>
         <v>1375482.5249963999</v>
       </c>
@@ -3272,14 +3322,14 @@
       <c r="H16" s="4"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="A18" s="15" t="s">
-        <v>157</v>
+      <c r="A18" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" ht="14.25">
       <c r="D19" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" ht="16.5">
@@ -3295,227 +3345,227 @@
     </row>
     <row r="21" ht="16.5">
       <c r="B21" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" ht="16.5">
       <c r="B22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="16">
+        <v>162</v>
+      </c>
+      <c r="C22" s="17">
         <v>60373.449999999997</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="17">
         <v>77701.830000000002</v>
       </c>
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="16">
+        <v>163</v>
+      </c>
+      <c r="C23" s="17">
         <v>2346.5700000000002</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="17">
         <v>2654.7600000000002</v>
       </c>
     </row>
     <row r="24" ht="16.5">
       <c r="A24" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="16">
+        <v>165</v>
+      </c>
+      <c r="C24" s="17">
         <v>178.36000000000001</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="17">
         <v>98.950000000000003</v>
       </c>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="16">
+        <v>166</v>
+      </c>
+      <c r="C25" s="17">
         <v>0</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="16">
+        <v>168</v>
+      </c>
+      <c r="C26" s="17">
         <v>881871.70999999996</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="17">
         <v>705543.83999999997</v>
       </c>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="16">
+        <v>170</v>
+      </c>
+      <c r="C27" s="17">
         <v>7124.7200000000003</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="17">
         <v>5457.1199999999999</v>
       </c>
     </row>
     <row r="28" ht="16.5">
       <c r="B28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="16">
+        <v>171</v>
+      </c>
+      <c r="C28" s="17">
         <v>4136.1199999999999</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="17">
         <v>3453</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="16">
+        <v>172</v>
+      </c>
+      <c r="C30" s="17">
         <v>724.86000000000001</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="17">
         <v>474.56999999999999</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="16">
+        <v>173</v>
+      </c>
+      <c r="C31" s="17">
         <v>975.77999999999997</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="17">
         <v>640.98000000000002</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="16">
+        <v>174</v>
+      </c>
+      <c r="C32" s="17">
         <v>91.069999999999993</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="17">
         <v>82.019999999999996</v>
       </c>
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="16">
+        <v>175</v>
+      </c>
+      <c r="C33" s="17">
         <v>4255.2399999999998</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="17">
         <v>3272.3699999999999</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="16">
+        <v>176</v>
+      </c>
+      <c r="C34" s="17">
         <v>111.11</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="17">
         <v>142.22999999999999</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="16">
+        <v>177</v>
+      </c>
+      <c r="C35" s="17">
         <v>883.15999999999997</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="17">
         <v>674.26999999999998</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="16">
+        <v>178</v>
+      </c>
+      <c r="C36" s="17">
         <v>299.95999999999998</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="17">
         <v>299.95999999999998</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="16">
+        <v>179</v>
+      </c>
+      <c r="C37" s="17">
         <v>58.350000000000001</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="17">
         <v>58.850000000000001</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="16">
+        <v>180</v>
+      </c>
+      <c r="C38" s="17">
         <v>3.6499999999999999</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="17">
         <v>0.44</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="16">
+        <v>182</v>
+      </c>
+      <c r="C39" s="17">
         <v>1260.0899999999999</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="17">
         <v>934.00999999999999</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" s="5" customFormat="1" ht="16.5">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="17">
+        <v>183</v>
+      </c>
+      <c r="C41" s="18">
         <f>SUM(C22:C39)</f>
         <v>964694.19999999984</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="18">
         <f>SUM(D22:D39)</f>
         <v>801489.19999999984</v>
       </c>
@@ -3525,28 +3575,28 @@
     </row>
     <row r="43" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" ht="16.5">
       <c r="A48" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C48" s="4">
         <v>138.86000000000001</v>
@@ -3557,10 +3607,10 @@
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C49" s="4">
         <f>7.68+1381.23</f>
@@ -3573,7 +3623,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C50" s="4">
         <f>1280.7</f>
@@ -3587,7 +3637,7 @@
     <row r="51" ht="16.5">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C51" s="4">
         <v>174762.20000000001</v>
@@ -3598,7 +3648,7 @@
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C52" s="4">
         <v>500519.53000000003</v>
@@ -3609,7 +3659,7 @@
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C53" s="4">
         <v>4018.2600000000002</v>
@@ -3620,7 +3670,7 @@
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C54" s="4">
         <v>3309.73</v>
@@ -3631,7 +3681,7 @@
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C55" s="4">
         <v>125.91</v>
@@ -3642,7 +3692,7 @@
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C56" s="4">
         <v>16014.9</v>
@@ -3653,7 +3703,7 @@
     </row>
     <row r="58" ht="16.5">
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C58" s="4">
         <v>551.67999999999995</v>
@@ -3664,7 +3714,7 @@
     </row>
     <row r="59" ht="16.5">
       <c r="B59" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C59" s="4">
         <v>3733.27</v>
@@ -3675,7 +3725,7 @@
     </row>
     <row r="60" ht="16.5">
       <c r="B60" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C60" s="4">
         <v>167.62</v>
@@ -3686,7 +3736,7 @@
     </row>
     <row r="61" ht="16.5">
       <c r="B61" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C61" s="4">
         <v>11142.16</v>
@@ -3698,7 +3748,7 @@
     <row r="62" s="5" customFormat="1" ht="16.5">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C62" s="5">
         <f>SUM(C48:C61)</f>
@@ -3721,17 +3771,17 @@
     </row>
     <row r="65" ht="16.5">
       <c r="B65" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="C66" s="4">
         <v>4014.6199999999999</v>
@@ -3755,7 +3805,7 @@
     <row r="68" s="5" customFormat="1" ht="14.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C68" s="5">
         <f>SUM(C66:C67)</f>
@@ -3772,7 +3822,7 @@
     <row r="70" s="5" customFormat="1" ht="14.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C70" s="5">
         <f>C68+C62</f>
@@ -3830,12 +3880,12 @@
         <v>109</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="C2" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="16.5">
@@ -3850,101 +3900,101 @@
         <v>113</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="B5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>115555.35000000001</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>9.4100000000000001</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="18">
+        <v>213</v>
+      </c>
+      <c r="C7" s="19">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>524.13999999999999</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="B8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="18">
+        <v>214</v>
+      </c>
+      <c r="C8" s="19">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>1403.1199999999999</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="18">
+        <v>216</v>
+      </c>
+      <c r="C9" s="19">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>90.700000000000003</v>
       </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="19">
+        <v>217</v>
+      </c>
+      <c r="C10" s="20">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>1393.9100000000001</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="20">
+        <v>218</v>
+      </c>
+      <c r="C11" s="21">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
@@ -3952,13 +4002,13 @@
     <row r="12" s="5" customFormat="1" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="20">
+        <v>219</v>
+      </c>
+      <c r="C12" s="21">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
@@ -3977,13 +4027,13 @@
     <row r="14" s="5" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="21">
+        <v>220</v>
+      </c>
+      <c r="C14" s="22">
         <f>C11+C13</f>
         <v>151627.42000000001</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <f>D11+D13</f>
         <v>119750.05</v>
       </c>
@@ -3994,10 +4044,10 @@
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C16" s="8">
         <v>54300.779999999999</v>
@@ -4008,10 +4058,10 @@
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C17" s="8">
         <v>5538.21</v>
@@ -4022,7 +4072,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>128</v>
@@ -4047,7 +4097,7 @@
     </row>
     <row r="20" ht="16.5">
       <c r="B20" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C20" s="8">
         <v>12620.27</v>
@@ -4059,13 +4109,13 @@
     <row r="21" s="5" customFormat="1" ht="16.5">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="21">
+        <v>227</v>
+      </c>
+      <c r="C21" s="22">
         <f>SUM(C16:C20)</f>
         <v>91662.380000000005</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <f>SUM(D16:D20)</f>
         <v>70522.25</v>
       </c>
@@ -4085,7 +4135,7 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="8">
         <f>512.3+5.84-15807.24</f>
@@ -4102,19 +4152,19 @@
       <c r="B24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="22">
         <f>C22+C23</f>
         <v>44675.94000000001</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <f>D22+D23</f>
         <v>36697.660000000003</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>138</v>
@@ -4128,43 +4178,43 @@
     </row>
     <row r="26" ht="16.5">
       <c r="B26" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="22">
+        <v>230</v>
+      </c>
+      <c r="C26" s="23">
         <f>SUM(C24:C25)</f>
         <v>45380.070000000007</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="23">
         <f>SUM(D24:D25)</f>
         <v>37126.330000000002</v>
       </c>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="22">
+        <v>231</v>
+      </c>
+      <c r="C27" s="23">
         <v>43242.879999999997</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="23">
         <v>36122.980000000003</v>
       </c>
     </row>
     <row r="28" ht="16.5">
       <c r="B28" s="4"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="22">
+        <v>232</v>
+      </c>
+      <c r="C30" s="23">
         <v>251072.07000000001</v>
       </c>
       <c r="D30" s="10">
@@ -4173,7 +4223,7 @@
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C31" s="8">
         <v>401453679</v>
@@ -4185,7 +4235,7 @@
     <row r="32" ht="16.5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="4">
         <f>C27*1000000/D31</f>
@@ -4203,155 +4253,155 @@
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="22">
+        <v>235</v>
+      </c>
+      <c r="C34" s="23">
         <f>C14-C16</f>
         <v>97326.640000000014</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="23">
         <f>D14-D16</f>
         <v>77658.270000000004</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" s="14">
+        <v>237</v>
+      </c>
+      <c r="C35" s="15">
         <f>C16/C14</f>
         <v>0.35811979126202897</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="15">
         <f>D16/D14</f>
         <v>0.35149697223508464</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="14">
+        <v>238</v>
+      </c>
+      <c r="D36" s="15">
         <f>C27/D27-1</f>
         <v>0.19710167876515161</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="14">
+        <v>239</v>
+      </c>
+      <c r="D37" s="15">
         <f>C23/D23-1</f>
         <v>0.22018588778736703</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="14">
+        <v>240</v>
+      </c>
+      <c r="D38" s="15">
         <f>C20/D20-1</f>
         <v>0.2212423891712374</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" s="14">
+        <v>241</v>
+      </c>
+      <c r="D39" s="15">
         <f>C16/D16-1</f>
         <v>0.29005663338542576</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="A40" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="14">
+        <v>149</v>
+      </c>
+      <c r="D40" s="15">
         <f>C26/D26-1</f>
         <v>0.22231499854685355</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="14">
+        <v>243</v>
+      </c>
+      <c r="D41" s="15">
         <f>C32/D32-1</f>
         <v>0.19726808095135451</v>
       </c>
     </row>
     <row r="50" ht="16.5">
       <c r="A50" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="A51" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="22">
+        <v>246</v>
+      </c>
+      <c r="C52" s="23">
         <f>C22</f>
         <v>59965.040000000008</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="23">
         <f>D22</f>
         <v>49227.800000000003</v>
       </c>
     </row>
     <row r="53" ht="16.5">
       <c r="A53" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="23">
         <f>C19</f>
         <v>921.05999999999995</v>
       </c>
     </row>
     <row r="54" ht="16.5">
       <c r="A54" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="23">
         <f>C17</f>
         <v>5538.21</v>
       </c>
     </row>
     <row r="55" ht="16.5">
       <c r="A55" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="22">
+        <v>250</v>
+      </c>
+      <c r="C55" s="23">
         <f>C16</f>
         <v>54300.779999999999</v>
       </c>
     </row>
     <row r="56" ht="16.5">
       <c r="A56" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C56" s="4">
         <v>-6.3899999999999997</v>
@@ -4359,7 +4409,7 @@
     </row>
     <row r="57" ht="16.5">
       <c r="B57" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C57" s="4">
         <v>161.02000000000001</v>
@@ -4367,10 +4417,10 @@
     </row>
     <row r="58" ht="16.5">
       <c r="A58" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C58" s="4">
         <v>-13.550000000000001</v>
@@ -4378,10 +4428,10 @@
     </row>
     <row r="59" ht="16.5">
       <c r="A59" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C59" s="4">
         <v>-3369.0799999999999</v>
@@ -4389,7 +4439,7 @@
     </row>
     <row r="60" ht="16.5">
       <c r="A60" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>119</v>
@@ -4400,7 +4450,7 @@
     </row>
     <row r="61" ht="16.5">
       <c r="B61" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C61" s="4">
         <v>-1022.58</v>
@@ -4408,7 +4458,7 @@
     </row>
     <row r="62" ht="16.5">
       <c r="B62" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C62" s="4">
         <v>388.77999999999997</v>
@@ -4417,9 +4467,9 @@
     <row r="63" s="5" customFormat="1" ht="16.5">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="23">
+        <v>260</v>
+      </c>
+      <c r="C63" s="24">
         <f>SUM(C52:C62)</f>
         <v>116815.19</v>
       </c>
@@ -4428,22 +4478,22 @@
     <row r="64" s="5" customFormat="1" ht="16.5">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4">
         <v>-79.409999999999997</v>
@@ -4451,10 +4501,10 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" s="4">
         <v>307.81</v>
@@ -4462,7 +4512,7 @@
     </row>
     <row r="68" ht="14.25">
       <c r="B68" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C68" s="4">
         <v>-179256.51000000001</v>
@@ -4470,27 +4520,27 @@
     </row>
     <row r="69" ht="14.25">
       <c r="B69" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="B70" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="B71" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="B72" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="B73" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" ht="14.25">
@@ -4502,15 +4552,15 @@
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" ht="14.25">
@@ -4518,7 +4568,7 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4549,18 +4599,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
         <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>209</v>
       </c>
       <c r="E2" t="s">
         <v>111</v>
@@ -4583,523 +4633,523 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="24">
+        <v>275</v>
+      </c>
+      <c r="C3" s="25">
         <v>15.300000000000001</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="25">
         <v>23.5</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="25">
         <v>27.399999999999999</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="25">
         <v>16.899999999999999</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <v>24.699999999999999</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="25">
         <v>29.600000000000001</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="25">
         <v>36.200000000000003</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <v>43.399999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="24">
+        <v>276</v>
+      </c>
+      <c r="C4" s="25">
         <v>82400</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="25">
         <v>115900</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="25">
         <v>147200</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="25">
         <v>152900</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="25">
         <v>197500</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="25">
         <v>247400</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="25">
         <v>330600</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <v>416700</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="25">
+        <v>220</v>
+      </c>
+      <c r="C5" s="26">
         <v>12757</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="26">
         <v>18500</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="26">
         <v>26386</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="26">
         <v>26683</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="26">
         <v>31648</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>41418</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="26">
         <v>54983</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="26">
         <v>69725</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="24">
+        <v>277</v>
+      </c>
+      <c r="C6" s="25">
         <v>4614</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="25">
         <v>6623</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="25">
         <v>9473</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="25">
         <v>9414</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="25">
         <v>9754</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="25">
         <v>12560</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="25">
         <v>18725</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <v>24771</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="25">
+        <v>279</v>
+      </c>
+      <c r="C7" s="26">
         <f>C5-C6</f>
         <v>8143</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="26">
         <f>D5-D6</f>
         <v>11877</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <f>E5-E6</f>
         <v>16913</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="26">
         <f>F5-F6</f>
         <v>17269</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="26">
         <f>G5-G6</f>
         <v>21894</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <f>H5-H6</f>
         <v>28858</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <f>I5-I6</f>
         <v>36258</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <f>J5-J6</f>
         <v>44954</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="24">
+        <v>280</v>
+      </c>
+      <c r="C8" s="25">
         <v>3270</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>4197</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="25">
         <v>5662</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="25">
         <v>5308</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>7587</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="25">
         <v>10142</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="25">
         <v>12325</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>14926</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="25">
+        <v>281</v>
+      </c>
+      <c r="C9" s="26">
         <f>C7-C8</f>
         <v>4873</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="27">
         <f>D7-D8</f>
         <v>7680</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="27">
         <f>E7-E8</f>
         <v>11251</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="27">
         <f>F7-F8</f>
         <v>11961</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="27">
         <f>G7-G8</f>
         <v>14307</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="27">
         <f>H7-H8</f>
         <v>18716</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="27">
         <f>I7-I8</f>
         <v>23933</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="27">
         <f>J7-J8</f>
         <v>30028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="24">
+        <v>283</v>
+      </c>
+      <c r="C10" s="25">
         <v>1030</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>1501</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>3929</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="25">
         <v>5969</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="25">
         <v>4803</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="25">
         <v>3190</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="25">
         <v>4631</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="25">
         <v>7966</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="24">
+        <v>284</v>
+      </c>
+      <c r="C11" s="25">
         <f>C9-C10</f>
         <v>3843</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="28">
         <f>D9-D10</f>
         <v>6179</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <f>E9-E10</f>
         <v>7322</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <f>F9-F10</f>
         <v>5992</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <f>G9-G10</f>
         <v>9504</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <f>H9-H10</f>
         <v>15526</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="28">
         <f>I9-I10</f>
         <v>19302</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="28">
         <f>J9-J10</f>
         <v>22062</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="24">
+        <v>228</v>
+      </c>
+      <c r="C12" s="25">
         <f>C11-C13</f>
         <v>1347</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="28">
         <f>D11-D13</f>
         <v>2184</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="28">
         <f>E11-E13</f>
         <v>2058</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <f>F11-F13</f>
         <v>1572</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="28">
         <f>G11-G13</f>
         <v>2476</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="28">
         <f>H11-H13</f>
         <v>4018</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="28">
         <f>I11-I13</f>
         <v>4851</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="28">
         <f>J11-J13</f>
         <v>5283</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="B13" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="25">
+        <v>285</v>
+      </c>
+      <c r="C13" s="26">
         <v>2496</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="26">
         <v>3995</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="26">
         <v>5264</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <v>4420</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="26">
         <v>7028</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <v>11508</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="26">
         <v>14451</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="26">
         <v>16779</v>
       </c>
     </row>
     <row r="14"/>
     <row r="17">
       <c r="B17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="28">
+        <v>238</v>
+      </c>
+      <c r="D17" s="29">
         <f>D13/C13-1</f>
         <v>0.60056089743589736</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <f>E13/D13-1</f>
         <v>0.31764705882352939</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <f>F13/E13-1</f>
         <v>-0.16033434650455924</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <f>G13/F13-1</f>
         <v>0.59004524886877818</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="29">
         <f>H13/G13-1</f>
         <v>0.63745019920318735</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="29">
         <f>I13/H13-1</f>
         <v>0.25573514077163706</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="29">
         <f>J13/I13-1</f>
         <v>0.1610961179157151</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="28">
+        <v>239</v>
+      </c>
+      <c r="D18" s="29">
         <f>D12/C12-1</f>
         <v>0.6213808463251671</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <f>E12/D12-1</f>
         <v>-0.057692307692307709</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="29">
         <f>F12/E12-1</f>
         <v>-0.23615160349854225</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <f>G12/F12-1</f>
         <v>0.57506361323155208</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="29">
         <f>H12/G12-1</f>
         <v>0.62277867528271402</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="29">
         <f>I12/H12-1</f>
         <v>0.20731707317073167</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="29">
         <f>J12/I12-1</f>
         <v>0.089053803339517623</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="28">
+        <v>286</v>
+      </c>
+      <c r="D19" s="29">
         <f>D6/C6-1</f>
         <v>0.43541395752058953</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="29">
         <f>E6/D6-1</f>
         <v>0.43031858674316781</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="29">
         <f>F6/E6-1</f>
         <v>-0.0062282275942151522</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <f>G6/F6-1</f>
         <v>0.036116422349691923</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="29">
         <f>H6/G6-1</f>
         <v>0.2876768505228624</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="29">
         <f>I6/H6-1</f>
         <v>0.49084394904458595</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="29">
         <f>J6/I6-1</f>
         <v>0.32288384512683588</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="28">
+        <v>240</v>
+      </c>
+      <c r="D20" s="29">
         <f>D8/C8-1</f>
         <v>0.28348623853211019</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="29">
         <f>E8/D8-1</f>
         <v>0.34905885156063854</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="29">
         <f>F8/E8-1</f>
         <v>-0.062522077004592003</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="29">
         <f>G8/F8-1</f>
         <v>0.42935192162773173</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="29">
         <f>H8/G8-1</f>
         <v>0.3367602477922762</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="29">
         <f>I8/H8-1</f>
         <v>0.21524354170774984</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="29">
         <f>J8/I8-1</f>
         <v>0.2110344827586208</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="28">
+        <v>287</v>
+      </c>
+      <c r="D21" s="29">
         <f>D13/D5</f>
         <v>0.21594594594594593</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="29">
         <f>E13/E5</f>
         <v>0.19949973470779958</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="29">
         <f>F13/F5</f>
         <v>0.16564854026908518</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <f>G13/G5</f>
         <v>0.22206774519716885</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="29">
         <f>H13/H5</f>
         <v>0.27785021005359989</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="29">
         <f>I13/I5</f>
         <v>0.26282669188658314</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="29">
         <f>J13/J5</f>
         <v>0.24064539261384008</v>
       </c>
@@ -5132,7 +5182,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -5140,29 +5190,29 @@
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="29">
+        <v>292</v>
+      </c>
+      <c r="C7" s="30">
         <v>0.39000000000000001</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C8" s="7">
         <v>0.34000000000000002</v>
@@ -5170,10 +5220,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C9" s="7">
         <v>0.51000000000000001</v>
@@ -5197,10 +5247,10 @@
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C14" s="7">
         <v>0.51390000000000002</v>
@@ -5209,7 +5259,7 @@
     <row r="15" ht="16.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C15" s="7">
         <v>0.73999999999999999</v>
@@ -5217,7 +5267,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="B16" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C16" s="7">
         <v>0.73999999999999999</v>
@@ -5225,7 +5275,7 @@
     </row>
     <row r="17" ht="16.5">
       <c r="B17" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C17" s="7">
         <v>0.80100000000000005</v>
@@ -5233,7 +5283,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -5254,10 +5304,10 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="7">
         <v>0.88749999999999996</v>
@@ -5265,226 +5315,226 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C29" s="30">
+        <v>303</v>
+      </c>
+      <c r="C29" s="31">
         <v>49500</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="30">
+        <v>305</v>
+      </c>
+      <c r="C30" s="31">
         <v>62700</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C31" s="30">
+        <v>306</v>
+      </c>
+      <c r="C31" s="31">
         <v>46250</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C32" s="30">
+        <v>307</v>
+      </c>
+      <c r="C32" s="31">
         <v>21250</v>
       </c>
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C33" s="30">
+        <v>308</v>
+      </c>
+      <c r="C33" s="31">
         <v>30700</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C34" s="30">
+        <v>309</v>
+      </c>
+      <c r="C34" s="31">
         <v>550</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C35" s="30">
+        <v>310</v>
+      </c>
+      <c r="C35" s="31">
         <v>8900</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C36" s="30">
+        <v>311</v>
+      </c>
+      <c r="C36" s="31">
         <v>2300</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C37" s="30">
+        <v>312</v>
+      </c>
+      <c r="C37" s="31">
         <v>100</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C38" s="30">
+        <v>313</v>
+      </c>
+      <c r="C38" s="31">
         <v>850</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="30">
+        <v>314</v>
+      </c>
+      <c r="C39" s="31">
         <v>9200</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C40" s="30">
+        <v>315</v>
+      </c>
+      <c r="C40" s="31">
         <v>232200</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="30">
+        <v>316</v>
+      </c>
+      <c r="C41" s="31">
         <v>7500</v>
       </c>
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C45" s="30">
+        <v>318</v>
+      </c>
+      <c r="C45" s="31">
         <v>17319</v>
       </c>
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C46" s="30">
+        <v>319</v>
+      </c>
+      <c r="C46" s="31">
         <v>29109</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="30">
+        <v>320</v>
+      </c>
+      <c r="C47" s="31">
         <v>87696</v>
       </c>
     </row>
     <row r="48" ht="16.5">
       <c r="B48" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="30">
+        <v>321</v>
+      </c>
+      <c r="C48" s="31">
         <v>7944</v>
       </c>
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="30">
+        <v>322</v>
+      </c>
+      <c r="C49" s="31">
         <v>21467</v>
       </c>
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C50" s="30">
+        <v>323</v>
+      </c>
+      <c r="C50" s="31">
         <v>8307</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C51" s="30">
+        <v>324</v>
+      </c>
+      <c r="C51" s="31">
         <v>50345</v>
       </c>
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C52" s="30">
+        <v>325</v>
+      </c>
+      <c r="C52" s="31">
         <v>11876</v>
       </c>
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C53" s="30">
+        <v>326</v>
+      </c>
+      <c r="C53" s="31">
         <v>27760</v>
       </c>
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C54" s="30">
+        <v>327</v>
+      </c>
+      <c r="C54" s="31">
         <v>25377</v>
       </c>
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C55" s="30">
+        <v>328</v>
+      </c>
+      <c r="C55" s="31">
         <v>129461</v>
       </c>
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C56" s="31">
+        <v>329</v>
+      </c>
+      <c r="C56" s="32">
         <f>SUM(C45:C55)</f>
         <v>416661</v>
       </c>
@@ -5521,7 +5571,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
@@ -5535,23 +5585,23 @@
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="24">
+        <v>279</v>
+      </c>
+      <c r="C4" s="25">
         <v>4410</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="25">
         <v>6296</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="24">
+        <v>331</v>
+      </c>
+      <c r="C5" s="25">
         <v>1417</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <v>1957</v>
       </c>
     </row>
@@ -5563,28 +5613,28 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="25">
+        <v>219</v>
+      </c>
+      <c r="C7" s="26">
         <f>C4-C5</f>
         <v>2993</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="26">
         <f>D4-D5</f>
         <v>4339</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="24">
+        <v>333</v>
+      </c>
+      <c r="C8" s="25">
         <v>903</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>1352</v>
       </c>
     </row>
@@ -5592,120 +5642,120 @@
       <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="26">
         <f>C4-C5-C8</f>
         <v>2090</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="26">
         <f>D4-D5-D8</f>
         <v>2987</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="24">
+        <v>228</v>
+      </c>
+      <c r="C10" s="25">
         <v>536</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>766</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="25">
+        <v>285</v>
+      </c>
+      <c r="C11" s="26">
         <f>C9-C10</f>
         <v>1554</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="26">
         <f>D9-D10</f>
         <v>2221</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="24">
+        <v>334</v>
+      </c>
+      <c r="C12" s="25">
         <v>11426</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>15224</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="24">
+        <v>335</v>
+      </c>
+      <c r="C13" s="25">
         <v>70771</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="25">
         <v>92292</v>
       </c>
     </row>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="28">
+        <v>336</v>
+      </c>
+      <c r="C15" s="29">
         <f>C11/C12</f>
         <v>0.13600560126028358</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="33">
         <f>D11/D12</f>
         <v>0.14588807146610616</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C16" s="33">
+        <v>337</v>
+      </c>
+      <c r="C16" s="34">
         <f>C13/C12</f>
         <v>6.1938561176264662</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="35">
         <f>D13/D12</f>
         <v>6.0622700998423538</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="28">
+        <v>338</v>
+      </c>
+      <c r="C17" s="29">
         <f>C5/C4</f>
         <v>0.32131519274376419</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="33">
         <f>D5/D4</f>
         <v>0.31083227445997458</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C18" s="28">
+        <v>339</v>
+      </c>
+      <c r="C18" s="29">
         <f>C8/C7</f>
         <v>0.30170397594386905</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="33">
         <f>D8/D7</f>
         <v>0.3115925328416686</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5731,234 +5781,234 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="41">
+      <c r="B4" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="42">
         <v>52.700000000000003</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="41">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="42">
         <v>16.300000000000001</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="A6" s="36"/>
+      <c r="B6" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="42">
         <v>31</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="41">
+      <c r="A10" s="36"/>
+      <c r="B10" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="42">
         <v>100</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" s="41">
+      <c r="A11" s="36"/>
+      <c r="B11" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="42">
         <v>100</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="41">
+      <c r="A12" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="42">
         <v>74</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="41">
+      <c r="A13" s="36"/>
+      <c r="B13" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="42">
         <v>50</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="41">
+      <c r="A14" s="36"/>
+      <c r="B14" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="42">
         <v>51</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="C15" s="41">
+      <c r="A15" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="42">
         <v>45</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="D15" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" s="41">
+      <c r="A16" s="36"/>
+      <c r="B16" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="42">
         <v>46</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="35"/>
+      <c r="D16" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="41">
+      <c r="A17" s="36"/>
+      <c r="B17" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="42">
         <v>100</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="D17" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
   <si>
     <t>NBFC</t>
   </si>
@@ -676,7 +676,16 @@
     <t xml:space="preserve">Top player in gold finance loans </t>
   </si>
   <si>
+    <t xml:space="preserve">so it is one of the largest reserve of gold , so when the gold price increase .. the total collateral increases + more people come to pledge gold and get loan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Takes deposits from muthooth capital and part of that gets invested in muthooth finance as deposits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan to value</t>
   </si>
   <si>
     <t xml:space="preserve">Cash Inputs </t>
@@ -1758,7 +1767,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -1784,6 +1793,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2779,234 +2789,234 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89" t="s">
-        <v>473</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="90" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="88"/>
-      <c r="B3" s="91" t="s">
-        <v>474</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>475</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="92" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="93" t="s">
-        <v>476</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>477</v>
-      </c>
-      <c r="C4" s="94">
+      <c r="A4" s="94" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="95">
         <v>52.700000000000003</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
     </row>
     <row r="5" ht="15">
-      <c r="A5" s="88"/>
-      <c r="B5" s="93" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" s="94">
+      <c r="A5" s="89"/>
+      <c r="B5" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="95">
         <v>16.300000000000001</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="93" t="s">
-        <v>479</v>
-      </c>
-      <c r="C6" s="94">
+      <c r="A6" s="89"/>
+      <c r="B6" s="94" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="95">
         <v>31</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
     </row>
     <row r="7">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>482</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="93" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" s="94">
+      <c r="A10" s="89"/>
+      <c r="B10" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="95">
         <v>100</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="88"/>
-      <c r="B11" s="93" t="s">
-        <v>484</v>
-      </c>
-      <c r="C11" s="94">
+      <c r="A11" s="89"/>
+      <c r="B11" s="94" t="s">
+        <v>487</v>
+      </c>
+      <c r="C11" s="95">
         <v>100</v>
       </c>
-      <c r="D11" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" ht="15">
-      <c r="A12" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" s="94">
+      <c r="A12" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="95">
         <v>74</v>
       </c>
-      <c r="D12" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="88"/>
+      <c r="D12" s="93" t="s">
+        <v>490</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="89"/>
     </row>
     <row r="13" ht="15">
-      <c r="A13" s="88"/>
-      <c r="B13" s="93" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" s="94">
+      <c r="A13" s="89"/>
+      <c r="B13" s="94" t="s">
+        <v>491</v>
+      </c>
+      <c r="C13" s="95">
         <v>50</v>
       </c>
-      <c r="D13" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="D13" s="93" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="88"/>
-      <c r="B14" s="93" t="s">
-        <v>490</v>
-      </c>
-      <c r="C14" s="94">
+      <c r="A14" s="89"/>
+      <c r="B14" s="94" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="95">
         <v>51</v>
       </c>
-      <c r="D14" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="D14" s="93" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
     </row>
     <row r="15" ht="15">
-      <c r="A15" s="93" t="s">
-        <v>386</v>
-      </c>
-      <c r="B15" s="93" t="s">
-        <v>492</v>
-      </c>
-      <c r="C15" s="94">
+      <c r="A15" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="95">
         <v>45</v>
       </c>
-      <c r="D15" s="92" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="D15" s="93" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="88"/>
-      <c r="B16" s="93" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="94">
+      <c r="A16" s="89"/>
+      <c r="B16" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="C16" s="95">
         <v>46</v>
       </c>
-      <c r="D16" s="92" t="s">
-        <v>495</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="88"/>
+      <c r="D16" s="93" t="s">
+        <v>498</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="89"/>
     </row>
     <row r="17" ht="15">
-      <c r="A17" s="88"/>
-      <c r="B17" s="93" t="s">
-        <v>496</v>
-      </c>
-      <c r="C17" s="94">
+      <c r="A17" s="89"/>
+      <c r="B17" s="94" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="95">
         <v>100</v>
       </c>
-      <c r="D17" s="92" t="s">
-        <v>497</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
+      <c r="D17" s="93" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
     </row>
     <row r="19">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3036,7 +3046,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
@@ -3050,23 +3060,23 @@
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" s="52">
+        <v>502</v>
+      </c>
+      <c r="C4" s="53">
         <v>4410</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="53">
         <v>6296</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C5" s="52">
+        <v>503</v>
+      </c>
+      <c r="C5" s="53">
         <v>1417</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="53">
         <v>1957</v>
       </c>
     </row>
@@ -3078,28 +3088,28 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="56">
+        <v>306</v>
+      </c>
+      <c r="C7" s="57">
         <f>C4-C5</f>
         <v>2993</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="57">
         <f>D4-D5</f>
         <v>4339</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="52">
+        <v>505</v>
+      </c>
+      <c r="C8" s="53">
         <v>903</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="53">
         <v>1352</v>
       </c>
     </row>
@@ -3107,11 +3117,11 @@
       <c r="B9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="57">
         <f>C4-C5-C8</f>
         <v>2090</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="57">
         <f>D4-D5-D8</f>
         <v>2987</v>
       </c>
@@ -3120,107 +3130,107 @@
       <c r="B10" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="53">
         <v>536</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="53">
         <v>766</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C11" s="56">
+        <v>506</v>
+      </c>
+      <c r="C11" s="57">
         <f>C9-C10</f>
         <v>1554</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="57">
         <f>D9-D10</f>
         <v>2221</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="52">
+        <v>507</v>
+      </c>
+      <c r="C12" s="53">
         <v>11426</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="53">
         <v>15224</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" s="52">
+        <v>508</v>
+      </c>
+      <c r="C13" s="53">
         <v>70771</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="53">
         <v>92292</v>
       </c>
     </row>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" s="73">
+        <v>509</v>
+      </c>
+      <c r="C15" s="74">
         <f>C11/C12</f>
         <v>0.13600560126028358</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="88">
         <f>D11/D12</f>
         <v>0.14588807146610616</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>507</v>
-      </c>
-      <c r="C16" s="79">
+        <v>510</v>
+      </c>
+      <c r="C16" s="80">
         <f>C13/C12</f>
         <v>6.1938561176264662</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="96">
         <f>D13/D12</f>
         <v>6.0622700998423538</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>508</v>
-      </c>
-      <c r="C17" s="73">
+        <v>511</v>
+      </c>
+      <c r="C17" s="74">
         <f>C5/C4</f>
         <v>0.32131519274376419</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="88">
         <f>D5/D4</f>
         <v>0.31083227445997458</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>509</v>
-      </c>
-      <c r="C18" s="73">
+        <v>512</v>
+      </c>
+      <c r="C18" s="74">
         <f>C8/C7</f>
         <v>0.30170397594386905</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="88">
         <f>D8/D7</f>
         <v>0.3115925328416686</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5697,463 +5707,454 @@
       <c r="A1" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="25"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H9" s="4">
         <v>2088.9000000000001</v>
       </c>
     </row>
-    <row r="6" ht="16.5">
-      <c r="G6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="4">
+    <row r="10" ht="16.5">
+      <c r="G10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="4">
         <v>401461676</v>
       </c>
     </row>
-    <row r="7" ht="16.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="4" t="s">
+    <row r="11" ht="16.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="23">
-        <f>H5*H6/1000000</f>
+      <c r="H11" s="23">
+        <f>H9*H10/1000000</f>
         <v>838613.29499640001</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" ht="16.5">
-      <c r="A8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="4">
         <f>50365.46+93.14</f>
         <v>50458.599999999999</v>
       </c>
     </row>
-    <row r="9" ht="16.5">
-      <c r="A9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="4">
+    <row r="13" ht="16.5">
+      <c r="A13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="4">
         <f>163714.7+423613.13</f>
         <v>587327.83000000007</v>
       </c>
     </row>
-    <row r="10" ht="16.5">
-      <c r="A10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="23">
-        <f>H7+H9-H8</f>
+    <row r="14" ht="16.5">
+      <c r="A14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="23">
+        <f>H11+H13-H12</f>
         <v>1375482.5249963999</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="13" ht="16.5">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="18" ht="16.5">
-      <c r="A18" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="A17" s="4"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="D19" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5">
-      <c r="C20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" ht="14.25">
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" ht="16.5">
-      <c r="B21" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="5" t="s">
+    <row r="22" ht="16.5">
+      <c r="A22" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="D23" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" ht="16.5">
-      <c r="B22" s="4" t="s">
+    <row r="24" ht="16.5">
+      <c r="C24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="B25" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="26">
+      <c r="G25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="B26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="27">
         <v>60373.449999999997</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D26" s="27">
         <v>77701.830000000002</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G26" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="B23" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="H26" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="B27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="27">
         <v>2346.5700000000002</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D27" s="27">
         <v>2654.7600000000002</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H23" s="28">
+      <c r="G27" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="29">
         <v>599079.01000000001</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I27" s="29">
         <v>599079.01000000001</v>
       </c>
     </row>
-    <row r="24" ht="16.5">
-      <c r="A24" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="26">
+    <row r="28" ht="16.5">
+      <c r="A28" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="27">
         <v>178.36000000000001</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D28" s="27">
         <v>98.950000000000003</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" s="28">
+      <c r="G28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="29">
         <v>206.81</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I28" s="29">
         <v>206.81</v>
       </c>
     </row>
-    <row r="25" ht="16.5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="26">
+    <row r="29" ht="16.5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="27">
         <v>0</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D29" s="27">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H25" s="28">
+      <c r="G29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="29">
         <v>3745.7600000000002</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" ht="16.5">
-      <c r="A26" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="A30" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="27">
         <v>881871.70999999996</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D30" s="27">
         <v>705543.83999999997</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H26" s="28">
+      <c r="G30" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="29">
         <v>26.379999999999999</v>
       </c>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" ht="16.5">
-      <c r="A27" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="A31" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="27">
         <v>7124.7200000000003</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D31" s="27">
         <v>5457.1199999999999</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H27" s="28">
+      <c r="G31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="29">
         <v>9202.5699999999997</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I31" s="29">
         <v>9202.5699999999997</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5">
-      <c r="B28" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="26">
-        <v>4136.1199999999999</v>
-      </c>
-      <c r="D28" s="26">
-        <v>3453</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="28">
-        <v>1.0600000000000001</v>
-      </c>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" ht="16.5">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="G29" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H29" s="28">
-        <v>371.29000000000002</v>
-      </c>
-      <c r="I29" s="28">
-        <v>371.29000000000002</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="B30" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="26">
-        <v>724.86000000000001</v>
-      </c>
-      <c r="D30" s="26">
-        <v>474.56999999999999</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H30" s="28">
-        <v>27.059999999999999</v>
-      </c>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" ht="16.5">
-      <c r="B31" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="26">
-        <v>975.77999999999997</v>
-      </c>
-      <c r="D31" s="26">
-        <v>640.98000000000002</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H31" s="28">
-        <v>1058.5699999999999</v>
-      </c>
-      <c r="I31" s="4">
-        <v>31.75</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="26">
-        <v>91.069999999999993</v>
-      </c>
-      <c r="D32" s="26">
-        <v>82.019999999999996</v>
+        <v>248</v>
+      </c>
+      <c r="C32" s="27">
+        <v>4136.1199999999999</v>
+      </c>
+      <c r="D32" s="27">
+        <v>3453</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H32" s="28">
-        <v>1868.26</v>
-      </c>
-      <c r="I32" s="28">
-        <v>1868.26</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1.0600000000000001</v>
+      </c>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" ht="16.5">
-      <c r="B33" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="26">
-        <v>4255.2399999999998</v>
-      </c>
-      <c r="D33" s="26">
-        <v>3272.3699999999999</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="G33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="28">
-        <v>37963.510000000002</v>
-      </c>
-      <c r="I33" s="28">
-        <v>12.06</v>
+        <v>250</v>
+      </c>
+      <c r="H33" s="29">
+        <v>371.29000000000002</v>
+      </c>
+      <c r="I33" s="29">
+        <v>371.29000000000002</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="26">
-        <v>111.11</v>
-      </c>
-      <c r="D34" s="26">
-        <v>142.22999999999999</v>
+        <v>251</v>
+      </c>
+      <c r="C34" s="27">
+        <v>724.86000000000001</v>
+      </c>
+      <c r="D34" s="27">
+        <v>474.56999999999999</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" s="28">
-        <v>1894.0899999999999</v>
-      </c>
-      <c r="I34" s="28"/>
+        <v>252</v>
+      </c>
+      <c r="H34" s="29">
+        <v>27.059999999999999</v>
+      </c>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C35" s="26">
-        <v>883.15999999999997</v>
-      </c>
-      <c r="D35" s="26">
-        <v>674.26999999999998</v>
+        <v>253</v>
+      </c>
+      <c r="C35" s="27">
+        <v>975.77999999999997</v>
+      </c>
+      <c r="D35" s="27">
+        <v>640.98000000000002</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="29">
+        <v>1058.5699999999999</v>
+      </c>
+      <c r="I35" s="4">
+        <v>31.75</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="26">
-        <v>299.95999999999998</v>
-      </c>
-      <c r="D36" s="26">
-        <v>299.95999999999998</v>
+        <v>255</v>
+      </c>
+      <c r="C36" s="27">
+        <v>91.069999999999993</v>
+      </c>
+      <c r="D36" s="27">
+        <v>82.019999999999996</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="29">
+        <v>1868.26</v>
+      </c>
+      <c r="I36" s="29">
+        <v>1868.26</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="26">
-        <v>58.350000000000001</v>
-      </c>
-      <c r="D37" s="26">
-        <v>58.850000000000001</v>
+        <v>257</v>
+      </c>
+      <c r="C37" s="27">
+        <v>4255.2399999999998</v>
+      </c>
+      <c r="D37" s="27">
+        <v>3272.3699999999999</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H37" s="29">
+        <v>37963.510000000002</v>
+      </c>
+      <c r="I37" s="29">
+        <v>12.06</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="27">
+        <v>111.11</v>
+      </c>
+      <c r="D38" s="27">
+        <v>142.22999999999999</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="29">
+        <v>1894.0899999999999</v>
+      </c>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="B39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C39" s="27">
+        <v>883.15999999999997</v>
+      </c>
+      <c r="D39" s="27">
+        <v>674.26999999999998</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5">
+      <c r="B40" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="27">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="D40" s="27">
+        <v>299.95999999999998</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="B41" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="27">
+        <v>58.350000000000001</v>
+      </c>
+      <c r="D41" s="27">
+        <v>58.850000000000001</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5">
+      <c r="B42" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="27">
         <v>3.6499999999999999</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D42" s="27">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="39" ht="16.5">
-      <c r="A39" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C39" s="26">
-        <v>1260.0899999999999</v>
-      </c>
-      <c r="D39" s="26">
-        <v>934.00999999999999</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" s="5" customFormat="1" ht="16.5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C41" s="29">
-        <f>SUM(C22:C39)</f>
-        <v>964694.19999999984</v>
-      </c>
-      <c r="D41" s="29">
-        <f>SUM(D22:D39)</f>
-        <v>801489.19999999984</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
     </row>
     <row r="43" ht="16.5">
       <c r="A43" s="4" t="s">
@@ -6162,125 +6163,133 @@
       <c r="B43" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" ht="16.5">
-      <c r="B44" s="4" t="s">
+      <c r="C43" s="27">
+        <v>1260.0899999999999</v>
+      </c>
+      <c r="D43" s="27">
+        <v>934.00999999999999</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" s="5" customFormat="1" ht="16.5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>268</v>
       </c>
+      <c r="C45" s="30">
+        <f>SUM(C26:C43)</f>
+        <v>964694.19999999984</v>
+      </c>
+      <c r="D45" s="30">
+        <f>SUM(D26:D43)</f>
+        <v>801489.19999999984</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="47" ht="16.5">
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="48" ht="16.5">
-      <c r="A48" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="B48" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="4">
+    </row>
+    <row r="50" ht="14.25">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="B51" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="A52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="4">
         <v>138.86000000000001</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D52" s="4">
         <v>1921.73</v>
       </c>
     </row>
-    <row r="49" ht="16.5">
-      <c r="A49" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="4">
+    <row r="53" ht="16.5">
+      <c r="A53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" s="4">
         <f>7.68+1381.23</f>
         <v>1388.9100000000001</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D53" s="4">
         <f>7.2+871.23</f>
         <v>878.43000000000006</v>
       </c>
     </row>
-    <row r="50" ht="16.5">
-      <c r="B50" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="4">
+    <row r="54" ht="16.5">
+      <c r="B54" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="4">
         <f>1280.7</f>
         <v>1280.7</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D54" s="4">
         <f>871.23</f>
         <v>871.23000000000002</v>
       </c>
     </row>
-    <row r="51" ht="16.5">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C51" s="4">
+    <row r="55" ht="16.5">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="4">
         <v>174762.20000000001</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D55" s="4">
         <v>146045.79000000001</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5">
-      <c r="B52" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C52" s="4">
-        <v>500519.53000000003</v>
-      </c>
-      <c r="D52" s="4">
-        <v>405974.58000000002</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5">
-      <c r="B53" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C53" s="4">
-        <v>4018.2600000000002</v>
-      </c>
-      <c r="D53" s="4">
-        <v>3314.7600000000002</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5">
-      <c r="B54" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C54" s="4">
-        <v>3309.73</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2546.5500000000002</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5">
-      <c r="B55" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C55" s="4">
-        <v>125.91</v>
-      </c>
-      <c r="D55" s="4">
-        <v>155.56999999999999</v>
       </c>
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="4">
+        <v>500519.53000000003</v>
+      </c>
+      <c r="D56" s="4">
+        <v>405974.58000000002</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5">
+      <c r="B57" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C56" s="4">
-        <v>16014.9</v>
-      </c>
-      <c r="D56" s="4">
-        <v>12638.76</v>
+      <c r="C57" s="4">
+        <v>4018.2600000000002</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3314.7600000000002</v>
       </c>
     </row>
     <row r="58" ht="16.5">
@@ -6288,10 +6297,10 @@
         <v>281</v>
       </c>
       <c r="C58" s="4">
-        <v>551.67999999999995</v>
+        <v>3309.73</v>
       </c>
       <c r="D58" s="4">
-        <v>811.91999999999996</v>
+        <v>2546.5500000000002</v>
       </c>
     </row>
     <row r="59" ht="16.5">
@@ -6299,10 +6308,10 @@
         <v>282</v>
       </c>
       <c r="C59" s="4">
-        <v>3733.27</v>
+        <v>125.91</v>
       </c>
       <c r="D59" s="4">
-        <v>3618.9200000000001</v>
+        <v>155.56999999999999</v>
       </c>
     </row>
     <row r="60" ht="16.5">
@@ -6310,128 +6319,165 @@
         <v>283</v>
       </c>
       <c r="C60" s="4">
+        <v>16014.9</v>
+      </c>
+      <c r="D60" s="4">
+        <v>12638.76</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5">
+      <c r="B62" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" s="4">
+        <v>551.67999999999995</v>
+      </c>
+      <c r="D62" s="4">
+        <v>811.91999999999996</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5">
+      <c r="B63" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="4">
+        <v>3733.27</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3618.9200000000001</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5">
+      <c r="B64" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="4">
         <v>167.62</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D64" s="4">
         <v>152.86000000000001</v>
       </c>
     </row>
-    <row r="61" ht="16.5">
-      <c r="B61" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C61" s="4">
+    <row r="65" ht="16.5">
+      <c r="B65" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="4">
         <v>11142.16</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D65" s="4">
         <v>781.58000000000004</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" ht="16.5">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C62" s="5">
-        <f>SUM(C48:C61)</f>
+    <row r="66" s="5" customFormat="1" ht="16.5">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="5">
+        <f>SUM(C52:C65)</f>
         <v>717153.73000000021</v>
       </c>
-      <c r="D62" s="5">
-        <f>SUM(D48:D61)</f>
+      <c r="D66" s="5">
+        <f>SUM(D52:D65)</f>
         <v>579712.68000000005</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" ht="16.5">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" ht="16.5">
-      <c r="B65" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" ht="16.5">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" ht="16.5">
+      <c r="B69" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C70" s="4">
         <v>4014.6199999999999</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D70" s="4">
         <v>4014.48</v>
       </c>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="B67" s="4" t="s">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="B71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C71" s="4">
         <v>247057.45000000001</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D71" s="4">
         <v>212643.04000000001</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" ht="14.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C68" s="5">
-        <f>SUM(C66:C67)</f>
+    <row r="72" s="5" customFormat="1" ht="14.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="5">
+        <f>SUM(C70:C71)</f>
         <v>251072.07000000001</v>
       </c>
-      <c r="D68" s="5">
-        <f>SUM(D66:D67)</f>
+      <c r="D72" s="5">
+        <f>SUM(D70:D71)</f>
         <v>216657.52000000002</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="70" s="5" customFormat="1" ht="14.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="5">
-        <f>C68+C62</f>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" s="5" customFormat="1" ht="14.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="5">
+        <f>C72+C66</f>
         <v>968225.80000000028</v>
       </c>
-      <c r="D70" s="5">
-        <f>D68+D62</f>
+      <c r="D74" s="5">
+        <f>D72+D66</f>
         <v>796370.20000000007</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="B73" s="4"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="B77" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D19"/>
+    <hyperlink r:id="rId1" ref="D23"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -6460,21 +6506,21 @@
         <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="C2" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="16.5">
@@ -6491,7 +6537,7 @@
         <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>118</v>
@@ -6500,10 +6546,10 @@
         <v>184</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>C3</f>
@@ -6824,27 +6870,27 @@
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="31">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="27">
         <v>115555.35000000001</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="27">
         <v>119251.52</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="27">
         <v>112102.78999999999</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="27">
         <v>94177.360000000001</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="27">
         <v>74160.100000000006</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="30">
+      <c r="K5" s="31">
         <f t="shared" ref="K5:K9" si="6">C5</f>
         <v>145457.01000000001</v>
       </c>
@@ -6853,32 +6899,32 @@
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="31">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <v>9.4100000000000001</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <v>0.089999999999999997</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>0.13</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <v>9.1899999999999995</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="27">
         <v>0</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="30">
+      <c r="K6" s="31">
         <f t="shared" si="6"/>
         <v>48.100000000000001</v>
       </c>
@@ -6887,29 +6933,29 @@
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="30">
+        <v>301</v>
+      </c>
+      <c r="C7" s="31">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="27">
         <v>524.13999999999999</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="27">
         <v>488.74000000000001</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="27">
         <v>1648.3699999999999</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="27">
         <v>739.78999999999996</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="27">
         <v>554.88</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="30">
+      <c r="K7" s="31">
         <f t="shared" si="6"/>
         <v>640.05999999999995</v>
       </c>
@@ -6920,27 +6966,27 @@
       <c r="B8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="31">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="27">
         <v>1403.1199999999999</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <v>847.74000000000001</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="27">
         <v>487.93000000000001</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="27">
         <v>779.29999999999995</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="27">
         <v>118.51000000000001</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="30">
+      <c r="K8" s="31">
         <f t="shared" si="6"/>
         <v>1723.3399999999999</v>
       </c>
@@ -6949,32 +6995,32 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="30">
+        <v>303</v>
+      </c>
+      <c r="C9" s="31">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="27">
         <v>90.700000000000003</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="27">
         <v>139.69</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="27">
         <v>120.33</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="27">
         <v>191.13999999999999</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="27">
         <v>229.50999999999999</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="30">
+      <c r="K9" s="31">
         <f t="shared" si="6"/>
         <v>88.870000000000005</v>
       </c>
@@ -6984,29 +7030,29 @@
     <row r="10" ht="16.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="31">
+        <v>304</v>
+      </c>
+      <c r="C10" s="32">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="27">
         <v>1393.9100000000001</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="27">
         <v>1121.3099999999999</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="27">
         <v>986.08000000000004</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="27">
         <v>943.01999999999998</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="27">
         <v>881.32000000000005</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="30">
+      <c r="K10" s="31">
         <f t="shared" ref="K10:K47" si="7">C10</f>
         <v>2659.1900000000001</v>
       </c>
@@ -7016,104 +7062,104 @@
     <row r="11" s="5" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="32">
+        <v>305</v>
+      </c>
+      <c r="C11" s="33">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="30">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <f>SUM(E5:E10)</f>
         <v>121849.09000000001</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <f>SUM(F5:F10)</f>
         <v>115345.62999999999</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <f>SUM(G5:G10)</f>
         <v>96839.800000000003</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="30">
         <f>SUM(H5:H10)</f>
         <v>75944.320000000007</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <v>66075</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="34">
         <v>59108</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="31">
         <f t="shared" si="7"/>
         <v>150616.57000000001</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="32">
+        <v>306</v>
+      </c>
+      <c r="C12" s="33">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="33">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <f>E5+E9+E10</f>
         <v>120512.52</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="33">
         <f>F5+F9+F10</f>
         <v>113209.2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="33">
         <f>G5+G9+G10</f>
         <v>95311.520000000004</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="33">
         <f>H5+H9+H10</f>
         <v>75270.930000000008</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <v>66075</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="34">
         <v>59108</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="31">
         <f t="shared" si="7"/>
         <v>148205.07000000001</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" ht="16.5">
       <c r="B13" s="4" t="s">
@@ -7137,13 +7183,13 @@
       <c r="H13" s="8">
         <v>66.170000000000002</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="37">
         <v>973.57000000000005</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="34">
         <v>275.90199999999999</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="31">
         <f t="shared" si="7"/>
         <v>1010.85</v>
       </c>
@@ -7157,90 +7203,90 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="36"/>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="34">
+        <v>307</v>
+      </c>
+      <c r="C14" s="35">
         <f>C11+C13</f>
         <v>151627.42000000001</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="35">
         <f>D11+D13</f>
         <v>119750.05</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="35">
         <f>E11+E13</f>
         <v>122374.63</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="35">
         <f>F11+F13</f>
         <v>115701.95999999999</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="35">
         <f>G11+G13</f>
         <v>97072.669999999998</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="35">
         <f>H11+H13</f>
         <v>76010.490000000005</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="36">
         <f>I11+I13</f>
         <v>67048.570000000007</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="36">
         <f>J11+J13</f>
         <v>59383.902000000002</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="31">
         <f t="shared" si="7"/>
         <v>151627.42000000001</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="38">
         <f>K14*1.1</f>
         <v>166790.16200000004</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="38">
         <f>L14*1.1</f>
         <v>183469.17820000005</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="38">
         <f>M14*1.1</f>
         <v>201816.09602000008</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="38">
         <f>N14*1.1</f>
         <v>221997.70562200013</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="38">
         <f>O14*1.1</f>
         <v>244197.47618420015</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="38">
         <f>P14*1.1</f>
         <v>268617.2238026202</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="35">
         <f>Q14*1.08</f>
         <v>290106.60170682985</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="35">
         <f>R14*1.08</f>
         <v>313315.12984337629</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="35">
         <f>S14*1.08</f>
         <v>338380.34023084643</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="35">
         <f>T14*1.08</f>
         <v>365450.76744931418</v>
       </c>
-      <c r="V14" s="35">
+      <c r="V14" s="36">
         <f>U14*1.08</f>
         <v>394686.82884525933</v>
       </c>
@@ -7248,55 +7294,55 @@
     <row r="15" s="5" customFormat="1" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="34">
+        <v>308</v>
+      </c>
+      <c r="C15" s="35">
         <f>C64</f>
         <v>682609.71999999997</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <f>D64</f>
         <v>557881.68000000005</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <f>E64</f>
         <v>545526.17999999993</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <f>F64</f>
         <v>409208.94</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <f>G64</f>
         <v>405502.04999999999</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <f>H64</f>
         <v>375613.03000000003</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="36">
         <f>I64</f>
         <v>307669.04000000004</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="36">
         <f>J64</f>
         <v>307669.04000000004</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="31">
         <f t="shared" si="7"/>
         <v>682609.71999999997</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
     </row>
     <row r="16" ht="16.5">
       <c r="C16" s="8"/>
@@ -7305,9 +7351,9 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="30">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7321,14 +7367,14 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="36"/>
+      <c r="V16" s="37"/>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C17" s="8">
         <v>54300.779999999999</v>
@@ -7348,67 +7394,67 @@
       <c r="H17" s="8">
         <v>25354.650000000001</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="37">
         <v>21323.75</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="37">
         <v>23685.924999999999</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="31">
         <f t="shared" si="7"/>
         <v>54300.779999999999</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="35">
         <f>L14*0.35</f>
         <v>58376.556700000008</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="35">
         <f>M14*0.35</f>
         <v>64214.212370000016</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="35">
         <f>N14*0.35</f>
         <v>70635.633607000025</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="35">
         <f>O14*0.35</f>
         <v>77699.196967700045</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="35">
         <f>P14*0.35</f>
         <v>85469.116664470042</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="35">
         <f>Q14*0.35</f>
         <v>94016.028330917063</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="35">
         <f>R14*0.35</f>
         <v>101537.31059739045</v>
       </c>
-      <c r="S17" s="34">
+      <c r="S17" s="35">
         <f>S14*0.35</f>
         <v>109660.29544518169</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="35">
         <f>T14*0.35</f>
         <v>118433.11908079624</v>
       </c>
-      <c r="U17" s="34">
+      <c r="U17" s="35">
         <f>U14*0.35</f>
         <v>127907.76860725996</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="36">
         <f>V14*0.35</f>
         <v>138140.39009584076</v>
       </c>
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C18" s="8">
         <v>5538.21</v>
@@ -7430,13 +7476,13 @@
       <c r="H18" s="8">
         <v>678.50999999999999</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="37">
         <v>0</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="37">
         <v>0</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="31">
         <f t="shared" si="7"/>
         <v>5538.21</v>
       </c>
@@ -7479,14 +7525,14 @@
         <f t="shared" ref="U18:U19" si="11">T18*1.06</f>
         <v>3378.9579180053856</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="37">
         <f t="shared" ref="V18:V19" si="12">U18*1.06</f>
         <v>3581.6953930857089</v>
       </c>
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>139</v>
@@ -7509,13 +7555,13 @@
       <c r="H19" s="8">
         <v>10133.43</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="37">
         <v>8334.7399999999998</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="37">
         <v>7603.6199999999999</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="31">
         <f t="shared" si="7"/>
         <v>18282.060000000001</v>
       </c>
@@ -7559,7 +7605,7 @@
         <f t="shared" si="11"/>
         <v>50661.459713126002</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="37">
         <f t="shared" si="12"/>
         <v>53701.147295913564</v>
       </c>
@@ -7586,13 +7632,13 @@
       <c r="H20" s="8">
         <v>516.92999999999995</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="37">
         <v>500.26999999999998</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="37">
         <v>519.20000000000005</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="31">
         <f t="shared" si="7"/>
         <v>921.05999999999995</v>
       </c>
@@ -7636,12 +7682,12 @@
         <f>T20*1.07</f>
         <v>1811.8644291451274</v>
       </c>
-      <c r="V20" s="36">
+      <c r="V20" s="37">
         <f>U20*1.07</f>
         <v>1938.6949391852863</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" ht="16.5">
@@ -7666,15 +7712,15 @@
       <c r="H21" s="8">
         <v>6731.6899999999996</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="37">
         <f>2711+5455</f>
         <v>8166</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="37">
         <f>5022.81+2966.49</f>
         <v>7989.3000000000002</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="31">
         <f t="shared" si="7"/>
         <v>12620.27</v>
       </c>
@@ -7718,7 +7764,7 @@
         <f>U17/(T17/T21)</f>
         <v>29727.576195427482</v>
       </c>
-      <c r="V21" s="36">
+      <c r="V21" s="37">
         <f>V17/(U17/U21)</f>
         <v>32105.782291061681</v>
       </c>
@@ -7726,85 +7772,85 @@
     <row r="22" s="5" customFormat="1" ht="16.5">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="34">
+        <v>315</v>
+      </c>
+      <c r="C22" s="35">
         <f>SUM(C17:C21)</f>
         <v>91662.380000000005</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="35">
         <f>SUM(D17:D21)</f>
         <v>70522.25</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="35">
         <f>SUM(E17:E21)</f>
         <v>68272.75</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="35">
         <f>SUM(F17:F21)</f>
         <v>64387.159999999996</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="35">
         <f>SUM(G17:G21)</f>
         <v>54468.760000000002</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="35">
         <f>SUM(H17:H21)</f>
         <v>43415.209999999999</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="36">
         <f>SUM(I17:I21)</f>
         <v>38324.759999999995</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="36">
         <f>SUM(J17:J21)</f>
         <v>39798.044999999998</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="31">
         <f t="shared" si="7"/>
         <v>91662.380000000005</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="36">
         <f>SUM(L17:L21)</f>
         <v>95771.177505239582</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="36">
         <f>SUM(M17:M21)</f>
         <v>106072.39116576356</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22" s="36">
         <f>SUM(N17:N21)</f>
         <v>117513.56924155992</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="36">
         <f>SUM(O17:O21)</f>
         <v>130224.61507457413</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="36">
         <f>SUM(P17:P21)</f>
         <v>144350.68248815159</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="36">
         <f>SUM(Q17:Q21)</f>
         <v>160054.01934806688</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="36">
         <f>SUM(R17:R21)</f>
         <v>171988.41682164639</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="36">
         <f>SUM(S17:S21)</f>
         <v>184825.23242238653</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="36">
         <f>SUM(T17:T21)</f>
         <v>198633.50990437774</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="36">
         <f>SUM(U17:U21)</f>
         <v>213487.62686296395</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22" s="36">
         <f>SUM(V17:V21)</f>
         <v>229467.71001508701</v>
       </c>
@@ -7837,59 +7883,59 @@
         <f>H14-H22</f>
         <v>32595.280000000006</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="37">
         <f>I14-I22</f>
         <v>28723.810000000012</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="37">
         <f>J14-J22</f>
         <v>19585.857000000004</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="31">
         <f t="shared" si="7"/>
         <v>59965.040000000008</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="37">
         <f>L14-L22</f>
         <v>71018.984494760458</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="37">
         <f>M14-M22</f>
         <v>77396.787034236491</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="37">
         <f>N14-N22</f>
         <v>84302.526778440166</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="37">
         <f>O14-O22</f>
         <v>91773.090547425993</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="37">
         <f>P14-P22</f>
         <v>99846.793696048553</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="37">
         <f>Q14-Q22</f>
         <v>108563.20445455331</v>
       </c>
-      <c r="R23" s="36">
+      <c r="R23" s="37">
         <f>R14-R22</f>
         <v>118118.18488518347</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="37">
         <f>S14-S22</f>
         <v>128489.89742098976</v>
       </c>
-      <c r="T23" s="36">
+      <c r="T23" s="37">
         <f>T14-T22</f>
         <v>139746.83032646868</v>
       </c>
-      <c r="U23" s="36">
+      <c r="U23" s="37">
         <f>U14-U22</f>
         <v>151963.14058635023</v>
       </c>
-      <c r="V23" s="36">
+      <c r="V23" s="37">
         <f>V14-V22</f>
         <v>165219.11883017232</v>
       </c>
@@ -7922,59 +7968,59 @@
         <f>-11466.73+138.82-237.76</f>
         <v>-11565.67</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="37">
         <f>-10414.38-219-101</f>
         <v>-10734.379999999999</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="37">
         <f>-7569.92+54.94+1.74</f>
         <v>-7513.2400000000007</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="31">
         <f t="shared" si="7"/>
         <v>-15289.1</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="35">
         <f>C24*1.12</f>
         <v>-17123.792000000001</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="35">
         <f>D24*1.12</f>
         <v>-14033.756800000003</v>
       </c>
-      <c r="N24" s="34">
+      <c r="N24" s="35">
         <f>E24*1.12</f>
         <v>-15443.2768</v>
       </c>
-      <c r="O24" s="34">
+      <c r="O24" s="35">
         <f>F24*1.12</f>
         <v>-14701.736000000003</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="35">
         <f>G24*1.12</f>
         <v>-12227.152000000002</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="35">
         <f>H24*1.12</f>
         <v>-12953.550400000002</v>
       </c>
-      <c r="R24" s="34">
+      <c r="R24" s="35">
         <f>I24*1.12</f>
         <v>-12022.5056</v>
       </c>
-      <c r="S24" s="34">
+      <c r="S24" s="35">
         <f>J24*1.12</f>
         <v>-8414.8288000000011</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24" s="35">
         <f>K24*1.12</f>
         <v>-17123.792000000001</v>
       </c>
-      <c r="U24" s="34">
+      <c r="U24" s="35">
         <f>L24*1.12</f>
         <v>-19178.647040000003</v>
       </c>
-      <c r="V24" s="35">
+      <c r="V24" s="36">
         <f>M24*1.12</f>
         <v>-15717.807616000006</v>
       </c>
@@ -7984,90 +8030,90 @@
       <c r="B25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="35">
         <f>C23+C24</f>
         <v>44675.94000000001</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="35">
         <f>D23+D24</f>
         <v>36697.660000000003</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="35">
         <f>E23+E24</f>
         <v>40313.240000000005</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="35">
         <f>F23+F24</f>
         <v>38188.249999999993</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="35">
         <f>G23+G24</f>
         <v>31686.809999999998</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="35">
         <f>H23+H24</f>
         <v>21029.610000000008</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="36">
         <f>I23+I24</f>
         <v>17989.430000000015</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="36">
         <f>J23+J24</f>
         <v>12072.617000000002</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="31">
         <f t="shared" si="7"/>
         <v>44675.94000000001</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="36">
         <f>L23+L24</f>
         <v>53895.192494760457</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="36">
         <f>M23+M24</f>
         <v>63363.030234236488</v>
       </c>
-      <c r="N25" s="35">
+      <c r="N25" s="36">
         <f>N23+N24</f>
         <v>68859.249978440173</v>
       </c>
-      <c r="O25" s="35">
+      <c r="O25" s="36">
         <f>O23+O24</f>
         <v>77071.354547425988</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25" s="36">
         <f>P23+P24</f>
         <v>87619.641696048551</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="36">
         <f>Q23+Q24</f>
         <v>95609.654054553306</v>
       </c>
-      <c r="R25" s="35">
+      <c r="R25" s="36">
         <f>R23+R24</f>
         <v>106095.67928518346</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25" s="36">
         <f>S23+S24</f>
         <v>120075.06862098975</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25" s="36">
         <f>T23+T24</f>
         <v>122623.03832646868</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="36">
         <f>U23+U24</f>
         <v>132784.49354635022</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25" s="36">
         <f>V23+V24</f>
         <v>149501.31121417231</v>
       </c>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>149</v>
@@ -8091,13 +8137,13 @@
       <c r="H26" s="8">
         <v>-24.23</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="37">
         <v>-24.23</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="37">
         <v>-24.23</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="31">
         <f t="shared" si="7"/>
         <v>704.13</v>
       </c>
@@ -8123,12 +8169,12 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="36"/>
+      <c r="V26" s="37"/>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C27" s="8">
         <f>C28/10</f>
@@ -8154,11 +8200,11 @@
         <f>H28/10</f>
         <v>2100.5380000000009</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="37">
         <f>I28/10</f>
         <v>1784</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="37">
         <f>J28/10</f>
         <v>1199.7850000000001</v>
       </c>
@@ -8176,88 +8222,88 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="36"/>
+      <c r="V27" s="37"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="38">
+        <v>318</v>
+      </c>
+      <c r="C28" s="39">
         <f>SUM(C25:C26)</f>
         <v>45380.070000000007</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="39">
         <f>SUM(D25:D26)</f>
         <v>37126.330000000002</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="39">
         <f>SUM(E25:E26)</f>
         <v>39528.440000000002</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="39">
         <f>SUM(F25:F26)</f>
         <v>37566.80999999999</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="39">
         <f>SUM(G25:G26)</f>
         <v>32273.169999999998</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="39">
         <f>SUM(H25:H26)</f>
         <v>21005.380000000008</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="40">
         <v>17840</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="41">
         <v>11997.85</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="31">
         <f t="shared" si="7"/>
         <v>45380.070000000007</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="35">
         <f>L25</f>
         <v>53895.192494760457</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="35">
         <f>M25</f>
         <v>63363.030234236488</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="35">
         <f>N25</f>
         <v>68859.249978440173</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="35">
         <f>O25</f>
         <v>77071.354547425988</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="35">
         <f>P25</f>
         <v>87619.641696048551</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="35">
         <f>Q25</f>
         <v>95609.654054553306</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="35">
         <f>R25</f>
         <v>106095.67928518346</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28" s="35">
         <f>S25</f>
         <v>120075.06862098975</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="35">
         <f>T25</f>
         <v>122623.03832646868</v>
       </c>
-      <c r="U28" s="34">
+      <c r="U28" s="35">
         <f>U25</f>
         <v>132784.49354635022</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="36">
         <f>V25</f>
         <v>149501.31121417231</v>
       </c>
@@ -8330,348 +8376,348 @@
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C29" s="41">
+        <v>319</v>
+      </c>
+      <c r="C29" s="42">
         <v>43242.879999999997</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="42">
         <v>36122.980000000003</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="42">
         <v>39468.040000000001</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="42">
         <v>37436.18</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="42">
         <v>31973.650000000001</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="42">
         <v>20769.02</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="40">
         <v>17840</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="41">
         <v>11997.85</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="31">
         <f t="shared" si="7"/>
         <v>43242.879999999997</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="35">
         <f>L28*0.98</f>
         <v>52817.28864486525</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="35">
         <f>M28*0.98</f>
         <v>62095.76962955176</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N29" s="35">
         <f>N28*0.98</f>
         <v>67482.064978871364</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="35">
         <f>O28*0.98</f>
         <v>75529.927456477468</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="35">
         <f>P28*0.98</f>
         <v>85867.248862127584</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="35">
         <f>Q28*0.98</f>
         <v>93697.460973462235</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="35">
         <f>R28*0.98</f>
         <v>103973.76569947979</v>
       </c>
-      <c r="S29" s="34">
+      <c r="S29" s="35">
         <f>S28*0.98</f>
         <v>117673.56724856996</v>
       </c>
-      <c r="T29" s="34">
+      <c r="T29" s="35">
         <f>T28*0.98</f>
         <v>120170.57755993931</v>
       </c>
-      <c r="U29" s="34">
+      <c r="U29" s="35">
         <f>U28*0.98</f>
         <v>130128.80367542322</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V29" s="36">
         <f>V28*0.98</f>
         <v>146511.28498988887</v>
       </c>
-      <c r="W29" s="41">
+      <c r="W29" s="42">
         <f>V29*$V$40+V29</f>
         <v>149441.51068968663</v>
       </c>
-      <c r="X29" s="41">
+      <c r="X29" s="42">
         <f>W29*$V$40+W29</f>
         <v>152430.34090348036</v>
       </c>
-      <c r="Y29" s="41">
+      <c r="Y29" s="42">
         <f>X29*$V$40+X29</f>
         <v>155478.94772154998</v>
       </c>
-      <c r="Z29" s="41">
+      <c r="Z29" s="42">
         <f>Y29*$V$40+Y29</f>
         <v>158588.52667598097</v>
       </c>
-      <c r="AA29" s="41">
+      <c r="AA29" s="42">
         <f>Z29*$V$40+Z29</f>
         <v>161760.2972095006</v>
       </c>
-      <c r="AB29" s="41">
+      <c r="AB29" s="42">
         <f>AA29*$V$40+AA29</f>
         <v>164995.5031536906</v>
       </c>
-      <c r="AC29" s="41">
+      <c r="AC29" s="42">
         <f>AB29*$V$40+AB29</f>
         <v>168295.41321676443</v>
       </c>
-      <c r="AD29" s="41">
+      <c r="AD29" s="42">
         <f>AC29*$V$40+AC29</f>
         <v>171661.3214810997</v>
       </c>
-      <c r="AE29" s="41">
+      <c r="AE29" s="42">
         <f>AD29*$V$40+AD29</f>
         <v>175094.54791072168</v>
       </c>
-      <c r="AF29" s="41">
+      <c r="AF29" s="42">
         <f>AE29*$V$40+AE29</f>
         <v>178596.43886893612</v>
       </c>
-      <c r="AG29" s="41">
+      <c r="AG29" s="42">
         <f>AF29*$V$40+AF29</f>
         <v>182168.36764631484</v>
       </c>
-      <c r="AH29" s="41">
+      <c r="AH29" s="42">
         <f>AG29*$V$40+AG29</f>
         <v>185811.73499924113</v>
       </c>
-      <c r="AI29" s="41">
+      <c r="AI29" s="42">
         <f>AH29*$V$40+AH29</f>
         <v>189527.96969922594</v>
       </c>
-      <c r="AJ29" s="41">
+      <c r="AJ29" s="42">
         <f>AI29*$V$40+AI29</f>
         <v>193318.52909321047</v>
       </c>
-      <c r="AK29" s="41">
+      <c r="AK29" s="42">
         <f>AJ29*$V$40+AJ29</f>
         <v>197184.89967507467</v>
       </c>
-      <c r="AL29" s="41">
+      <c r="AL29" s="42">
         <f>AK29*$V$40+AK29</f>
         <v>201128.59766857617</v>
       </c>
-      <c r="AM29" s="41">
+      <c r="AM29" s="42">
         <f>AL29*$V$40+AL29</f>
         <v>205151.16962194769</v>
       </c>
-      <c r="AN29" s="41">
+      <c r="AN29" s="42">
         <f>AM29*$V$40+AM29</f>
         <v>209254.19301438663</v>
       </c>
-      <c r="AO29" s="41">
+      <c r="AO29" s="42">
         <f>AN29*$V$40+AN29</f>
         <v>213439.27687467437</v>
       </c>
-      <c r="AP29" s="41">
+      <c r="AP29" s="42">
         <f>AO29*$V$40+AO29</f>
         <v>217708.06241216784</v>
       </c>
-      <c r="AQ29" s="41">
+      <c r="AQ29" s="42">
         <f>AP29*$V$40+AP29</f>
         <v>222062.2236604112</v>
       </c>
-      <c r="AR29" s="41">
+      <c r="AR29" s="42">
         <f>AQ29*$V$40+AQ29</f>
         <v>226503.46813361943</v>
       </c>
-      <c r="AS29" s="41">
+      <c r="AS29" s="42">
         <f>AR29*$V$40+AR29</f>
         <v>231033.53749629183</v>
       </c>
-      <c r="AT29" s="41">
+      <c r="AT29" s="42">
         <f>AS29*$V$40+AS29</f>
         <v>235654.20824621766</v>
       </c>
-      <c r="AU29" s="41">
+      <c r="AU29" s="42">
         <f>AT29*$V$40+AT29</f>
         <v>240367.29241114203</v>
       </c>
-      <c r="AV29" s="41">
+      <c r="AV29" s="42">
         <f>AU29*$V$40+AU29</f>
         <v>245174.63825936487</v>
       </c>
-      <c r="AW29" s="41">
+      <c r="AW29" s="42">
         <f>AV29*$V$40+AV29</f>
         <v>250078.13102455216</v>
       </c>
-      <c r="AX29" s="41">
+      <c r="AX29" s="42">
         <f>AW29*$V$40+AW29</f>
         <v>255079.69364504321</v>
       </c>
-      <c r="AY29" s="41">
+      <c r="AY29" s="42">
         <f>AX29*$V$40+AX29</f>
         <v>260181.28751794409</v>
       </c>
-      <c r="AZ29" s="41">
+      <c r="AZ29" s="42">
         <f>AY29*$V$40+AY29</f>
         <v>265384.91326830297</v>
       </c>
-      <c r="BA29" s="41">
+      <c r="BA29" s="42">
         <f>AZ29*$V$40+AZ29</f>
         <v>270692.61153366906</v>
       </c>
-      <c r="BB29" s="41">
+      <c r="BB29" s="42">
         <f>BA29*$V$40+BA29</f>
         <v>276106.46376434242</v>
       </c>
-      <c r="BC29" s="41">
+      <c r="BC29" s="42">
         <f>BB29*$V$40+BB29</f>
         <v>281628.59303962928</v>
       </c>
-      <c r="BD29" s="41">
+      <c r="BD29" s="42">
         <f>BC29*$V$40+BC29</f>
         <v>287261.16490042186</v>
       </c>
-      <c r="BE29" s="41">
+      <c r="BE29" s="42">
         <f>BD29*$V$40+BD29</f>
         <v>293006.3881984303</v>
       </c>
-      <c r="BF29" s="41">
+      <c r="BF29" s="42">
         <f>BE29*$V$40+BE29</f>
         <v>298866.5159623989</v>
       </c>
-      <c r="BG29" s="41">
+      <c r="BG29" s="42">
         <f>BF29*$V$40+BF29</f>
         <v>304843.84628164687</v>
       </c>
-      <c r="BH29" s="41">
+      <c r="BH29" s="42">
         <f>BG29*$V$40+BG29</f>
         <v>310940.72320727981</v>
       </c>
-      <c r="BI29" s="41">
+      <c r="BI29" s="42">
         <f>BH29*$V$40+BH29</f>
         <v>317159.53767142538</v>
       </c>
-      <c r="BJ29" s="41">
+      <c r="BJ29" s="42">
         <f>BI29*$V$40+BI29</f>
         <v>323502.72842485388</v>
       </c>
-      <c r="BK29" s="41">
+      <c r="BK29" s="42">
         <f>BJ29*$V$40+BJ29</f>
         <v>329972.78299335093</v>
       </c>
-      <c r="BL29" s="41">
+      <c r="BL29" s="42">
         <f>BK29*$V$40+BK29</f>
         <v>336572.23865321797</v>
       </c>
-      <c r="BM29" s="41">
+      <c r="BM29" s="42">
         <f>BL29*$V$40+BL29</f>
         <v>343303.68342628231</v>
       </c>
-      <c r="BN29" s="41">
+      <c r="BN29" s="42">
         <f>BM29*$V$40+BM29</f>
         <v>350169.75709480798</v>
       </c>
-      <c r="BO29" s="41">
+      <c r="BO29" s="42">
         <f>BN29*$V$40+BN29</f>
         <v>357173.15223670413</v>
       </c>
-      <c r="BP29" s="41">
+      <c r="BP29" s="42">
         <f>BO29*$V$40+BO29</f>
         <v>364316.61528143822</v>
       </c>
-      <c r="BQ29" s="41">
+      <c r="BQ29" s="42">
         <f>BP29*$V$40+BP29</f>
         <v>371602.94758706697</v>
       </c>
-      <c r="BR29" s="41">
+      <c r="BR29" s="42">
         <f>BQ29*$V$40+BQ29</f>
         <v>379035.00653880829</v>
       </c>
-      <c r="BS29" s="41">
+      <c r="BS29" s="42">
         <f>BR29*$V$40+BR29</f>
         <v>386615.70666958444</v>
       </c>
-      <c r="BT29" s="41">
+      <c r="BT29" s="42">
         <f>BS29*$V$40+BS29</f>
         <v>394348.02080297616</v>
       </c>
-      <c r="BU29" s="41">
+      <c r="BU29" s="42">
         <f>BT29*$V$40+BT29</f>
         <v>402234.98121903569</v>
       </c>
-      <c r="BV29" s="41">
+      <c r="BV29" s="42">
         <f>BU29*$V$40+BU29</f>
         <v>410279.68084341643</v>
       </c>
-      <c r="BW29" s="41">
+      <c r="BW29" s="42">
         <f>BV29*$V$40+BV29</f>
         <v>418485.27446028474</v>
       </c>
-      <c r="BX29" s="41">
+      <c r="BX29" s="42">
         <f>BW29*$V$40+BW29</f>
         <v>426854.97994949046</v>
       </c>
-      <c r="BY29" s="41">
+      <c r="BY29" s="42">
         <f>BX29*$V$40+BX29</f>
         <v>435392.07954848028</v>
       </c>
-      <c r="BZ29" s="41">
+      <c r="BZ29" s="42">
         <f>BY29*$V$40+BY29</f>
         <v>444099.92113944987</v>
       </c>
-      <c r="CA29" s="41">
+      <c r="CA29" s="42">
         <f>BZ29*$V$40+BZ29</f>
         <v>452981.91956223885</v>
       </c>
-      <c r="CB29" s="41">
+      <c r="CB29" s="42">
         <f>CA29*$V$40+CA29</f>
         <v>462041.5579534836</v>
       </c>
-      <c r="CC29" s="41">
+      <c r="CC29" s="42">
         <f>CB29*$V$40+CB29</f>
         <v>471282.38911255327</v>
       </c>
-      <c r="CD29" s="41">
+      <c r="CD29" s="42">
         <f>CC29*$V$40+CC29</f>
         <v>480708.03689480433</v>
       </c>
-      <c r="CE29" s="41">
+      <c r="CE29" s="42">
         <f>CD29*$V$40+CD29</f>
         <v>490322.19763270044</v>
       </c>
-      <c r="CF29" s="41">
+      <c r="CF29" s="42">
         <f>CE29*$V$40+CE29</f>
         <v>500128.64158535446</v>
       </c>
-      <c r="CG29" s="41">
+      <c r="CG29" s="42">
         <f>CF29*$V$40+CF29</f>
         <v>510131.21441706154</v>
       </c>
-      <c r="CH29" s="41">
+      <c r="CH29" s="42">
         <f>CG29*$V$40+CG29</f>
         <v>520333.83870540274</v>
       </c>
-      <c r="CI29" s="41">
+      <c r="CI29" s="42">
         <f>CH29*$V$40+CH29</f>
         <v>530740.51547951077</v>
       </c>
-      <c r="CJ29" s="41">
+      <c r="CJ29" s="42">
         <f>CI29*$V$40+CI29</f>
         <v>541355.32578910096</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C30" s="7">
         <f>C28/C29-1</f>
@@ -8697,34 +8743,34 @@
         <f>H28/H29-1</f>
         <v>0.011380411786401368</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="30">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="31">
         <f t="shared" si="7"/>
         <v>0.049422933902645072</v>
       </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
       <c r="V30" s="12"/>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="30">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8733,9 +8779,9 @@
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C32" s="41">
+        <v>321</v>
+      </c>
+      <c r="C32" s="42">
         <v>251072.07000000001</v>
       </c>
       <c r="D32" s="10">
@@ -8759,7 +8805,7 @@
       <c r="J32" s="16">
         <v>216657.51999999999</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="31">
         <f t="shared" si="7"/>
         <v>251072.07000000001</v>
       </c>
@@ -8788,13 +8834,13 @@
       <c r="H33" s="8">
         <v>401397883</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="37">
         <v>400041239</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="37">
         <v>400041239</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="31">
         <f t="shared" si="7"/>
         <v>401453679</v>
       </c>
@@ -8803,7 +8849,7 @@
     <row r="34" ht="16.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C34" s="4">
         <f>C29*1000000/D33</f>
@@ -8837,7 +8883,7 @@
         <f>J29*1000000/I33</f>
         <v>29.991532947931901</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="31">
         <f t="shared" si="7"/>
         <v>107.73071267045023</v>
       </c>
@@ -8845,7 +8891,7 @@
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8856,7 +8902,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="30">
+      <c r="K35" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8865,7 +8911,7 @@
     <row r="36" ht="16.5">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C36" s="17">
         <f>C11/D11-1</f>
@@ -8896,20 +8942,20 @@
         <v>0.11786898558570758</v>
       </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="42">
+      <c r="K36" s="43">
         <f t="shared" si="7"/>
         <v>0.26593407461616625</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="V36" s="43">
+        <v>324</v>
+      </c>
+      <c r="V36" s="44">
         <v>0.11</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C37" s="17">
         <f>C14/D14-1</f>
@@ -8943,74 +8989,74 @@
         <f>J14/K14-1</f>
         <v>-0.60835644370919195</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="43">
         <f t="shared" si="7"/>
         <v>0.26619922079364478</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="V37" s="16">
         <f>NPV(V36,L29:CJ29)</f>
         <v>1063414.9765110707</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C38" s="41">
+        <v>328</v>
+      </c>
+      <c r="C38" s="42">
         <f>C14-C17</f>
         <v>97326.640000000014</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <f>D14-D17</f>
         <v>77658.270000000004</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <f>E14-E17</f>
         <v>79816.110000000015</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="42">
         <f>F14-F17</f>
         <v>74702.669999999984</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="42">
         <f>G14-G17</f>
         <v>65344.269999999997</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="42">
         <f>H14-H17</f>
         <v>50655.840000000004</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="40">
         <f>I14-I17</f>
         <v>45724.820000000007</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="40">
         <f>J14-J17</f>
         <v>35697.976999999999</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="31">
         <f t="shared" si="7"/>
         <v>97326.640000000014</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="V38" s="44">
+        <v>329</v>
+      </c>
+      <c r="V38" s="45">
         <v>2228.0999999999999</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C39" s="17">
         <f>C17/C14</f>
@@ -9044,22 +9090,22 @@
         <f>J17/J14</f>
         <v>0.39886104149909174</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="43">
         <f t="shared" si="7"/>
         <v>0.35811979126202897</v>
       </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="U39" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="V39" s="45">
+        <v>332</v>
+      </c>
+      <c r="V39" s="46">
         <v>401452876</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="19" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C40" s="17">
         <f>C29/D29-1</f>
@@ -9093,20 +9139,20 @@
         <f>J29/K29-1</f>
         <v>-0.72254738814806041</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="43">
         <f t="shared" si="7"/>
         <v>0.19710167876515161</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="V40" s="43">
+        <v>334</v>
+      </c>
+      <c r="V40" s="44">
         <v>0.02</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="19" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C41" s="17">
         <f>(C24-D24)/D24</f>
@@ -9140,21 +9186,21 @@
         <f>(J24-K24)/K24</f>
         <v>-0.50858847152546582</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="43">
         <f t="shared" si="7"/>
         <v>0.220185887787367</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="V41" s="46">
+        <v>336</v>
+      </c>
+      <c r="V41" s="47">
         <f>V37*1000000/V39</f>
         <v>2648.916074799949</v>
       </c>
     </row>
     <row r="42" ht="16.5">
       <c r="B42" s="19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C42" s="17">
         <f>(C22-D22)/D22</f>
@@ -9188,7 +9234,7 @@
         <f>(J22-K22)/K22</f>
         <v>-0.56581920521810591</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="43">
         <f t="shared" si="7"/>
         <v>0.29976539319151052</v>
       </c>
@@ -9196,7 +9242,7 @@
     </row>
     <row r="43" ht="16.5">
       <c r="B43" s="19" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C43" s="17">
         <f>C17/D17-1</f>
@@ -9230,7 +9276,7 @@
         <f>J17/K17-1</f>
         <v>-0.56380138554179149</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="43">
         <f t="shared" si="7"/>
         <v>0.29005663338542576</v>
       </c>
@@ -9240,7 +9286,7 @@
     </row>
     <row r="44" ht="16.5">
       <c r="A44" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>160</v>
@@ -9277,7 +9323,7 @@
         <f>J28/K28-1</f>
         <v>-0.73561411430171875</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="43">
         <f t="shared" si="7"/>
         <v>0.22231499854685355</v>
       </c>
@@ -9287,7 +9333,7 @@
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C45" s="17">
         <f>C34/D34-1</f>
@@ -9321,17 +9367,17 @@
         <f>J34/K34-1</f>
         <v>-0.72160647410106327</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="43">
         <f t="shared" si="7"/>
         <v>0.19726808095135451</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="19" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C46" s="17">
         <f>C26/D26-1</f>
@@ -9362,14 +9408,14 @@
         <v>0</v>
       </c>
       <c r="J46" s="17"/>
-      <c r="K46" s="42">
+      <c r="K46" s="43">
         <f t="shared" si="7"/>
         <v>0.64259220379312754</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="19" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C47" s="17">
         <f>C29/D29-1</f>
@@ -9400,7 +9446,7 @@
         <v>0.48693307550936216</v>
       </c>
       <c r="J47" s="17"/>
-      <c r="K47" s="42">
+      <c r="K47" s="43">
         <f t="shared" si="7"/>
         <v>0.19710167876515161</v>
       </c>
@@ -9489,7 +9535,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C50" s="7">
         <f>C17/C15</f>
@@ -9523,14 +9569,14 @@
         <f>J17/J15</f>
         <v>0.076985077861587883</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="43">
         <f t="shared" ref="K50:K51" si="22">C50</f>
         <v>0.079548794001937151</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C51" s="7">
         <f>C5/C15</f>
@@ -9564,7 +9610,7 @@
         <f>J5/J15</f>
         <v>0</v>
       </c>
-      <c r="K51" s="42">
+      <c r="K51" s="43">
         <f t="shared" si="22"/>
         <v>0.21308956749106944</v>
       </c>
@@ -9576,8 +9622,8 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" ht="16.5">
-      <c r="A53" s="27" t="s">
-        <v>343</v>
+      <c r="A53" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -9602,7 +9648,7 @@
     </row>
     <row r="55" ht="16.5">
       <c r="A55" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -9617,7 +9663,7 @@
     <row r="56" ht="16.5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C56" s="8">
         <v>4014.6199999999999</v>
@@ -9647,7 +9693,7 @@
     </row>
     <row r="57" ht="16.5">
       <c r="B57" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C57" s="8">
         <v>247057.45000000001</v>
@@ -9677,7 +9723,7 @@
     </row>
     <row r="58" ht="16.5">
       <c r="B58" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C58" s="8">
         <f>C57+C56</f>
@@ -9714,7 +9760,7 @@
     </row>
     <row r="59" ht="16.5">
       <c r="A59" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9728,7 +9774,7 @@
     </row>
     <row r="60" ht="16.5">
       <c r="B60" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C60" s="8">
         <v>174762.20000000001</v>
@@ -9757,7 +9803,7 @@
     </row>
     <row r="61" ht="16.5">
       <c r="B61" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C61" s="8">
         <v>500519.53000000003</v>
@@ -9786,7 +9832,7 @@
     </row>
     <row r="62" ht="16.5">
       <c r="B62" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C62" s="8">
         <v>4018.2600000000002</v>
@@ -9815,7 +9861,7 @@
     </row>
     <row r="63" ht="16.5">
       <c r="B63" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C63" s="8">
         <v>3309.73</v>
@@ -9836,7 +9882,7 @@
     </row>
     <row r="64" ht="16.5">
       <c r="B64" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C64" s="8">
         <f>SUM(C60:C63)</f>
@@ -9874,37 +9920,37 @@
     <row r="65" s="5" customFormat="1" ht="16.5">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="34">
+        <v>356</v>
+      </c>
+      <c r="C65" s="35">
         <f>C64+C58</f>
         <v>933681.79000000004</v>
       </c>
-      <c r="D65" s="34">
+      <c r="D65" s="35">
         <f>D64+D58</f>
         <v>774539.20000000007</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="35">
         <f>E64+E58</f>
         <v>733383.41999999993</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="35">
         <f>F64+F58</f>
         <v>564959.18999999994</v>
       </c>
-      <c r="G65" s="34">
+      <c r="G65" s="35">
         <f>G64+G58</f>
         <v>523794.14999999997</v>
       </c>
-      <c r="H65" s="34">
+      <c r="H65" s="35">
         <f>H64+H58</f>
         <v>474925.03000000003</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="35">
         <f>I64+I58</f>
         <v>386092.32200000004</v>
       </c>
-      <c r="J65" s="34">
+      <c r="J65" s="35">
         <f>J64+J58</f>
         <v>386092.32200000004</v>
       </c>
@@ -9915,74 +9961,74 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" ht="16.5">
-      <c r="A67" s="27" t="s">
-        <v>354</v>
+      <c r="A67" s="28" t="s">
+        <v>357</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" ht="16.5">
       <c r="A68" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" ht="16.5">
       <c r="B69" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="41">
+        <v>359</v>
+      </c>
+      <c r="C69" s="42">
         <f>C23</f>
         <v>59965.040000000008</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="42">
         <f>D23</f>
         <v>49227.800000000003</v>
       </c>
     </row>
     <row r="70" ht="16.5">
       <c r="A70" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <f>C20</f>
         <v>921.05999999999995</v>
       </c>
     </row>
     <row r="71" ht="16.5">
       <c r="A71" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="42">
         <f>C18</f>
         <v>5538.21</v>
       </c>
     </row>
     <row r="72" ht="16.5">
       <c r="A72" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C72" s="41">
+        <v>363</v>
+      </c>
+      <c r="C72" s="42">
         <f>C17</f>
         <v>54300.779999999999</v>
       </c>
     </row>
     <row r="73" ht="16.5">
       <c r="A73" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C73" s="4">
         <v>-6.3899999999999997</v>
@@ -9990,7 +10036,7 @@
     </row>
     <row r="74" ht="16.5">
       <c r="B74" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C74" s="4">
         <v>161.02000000000001</v>
@@ -9998,10 +10044,10 @@
     </row>
     <row r="75" ht="16.5">
       <c r="A75" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C75" s="4">
         <v>-13.550000000000001</v>
@@ -10009,10 +10055,10 @@
     </row>
     <row r="76" ht="16.5">
       <c r="A76" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C76" s="4">
         <v>-3369.0799999999999</v>
@@ -10020,7 +10066,7 @@
     </row>
     <row r="77" ht="16.5">
       <c r="A77" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>130</v>
@@ -10031,7 +10077,7 @@
     </row>
     <row r="78" ht="16.5">
       <c r="B78" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C78" s="4">
         <v>-1022.58</v>
@@ -10039,7 +10085,7 @@
     </row>
     <row r="79" ht="16.5">
       <c r="B79" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C79" s="4">
         <v>388.77999999999997</v>
@@ -10048,9 +10094,9 @@
     <row r="80" s="5" customFormat="1" ht="16.5">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C80" s="38">
+        <v>373</v>
+      </c>
+      <c r="C80" s="39">
         <f>SUM(C69:C79)</f>
         <v>116815.19</v>
       </c>
@@ -10059,22 +10105,22 @@
     <row r="81" s="5" customFormat="1" ht="16.5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="38"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C83" s="4">
         <v>-79.409999999999997</v>
@@ -10082,10 +10128,10 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C84" s="4">
         <v>307.81</v>
@@ -10093,7 +10139,7 @@
     </row>
     <row r="85" ht="14.25">
       <c r="B85" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C85" s="4">
         <v>-179256.51000000001</v>
@@ -10101,27 +10147,27 @@
     </row>
     <row r="86" ht="14.25">
       <c r="B86" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="B87" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="B88" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="B89" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="B90" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" ht="14.25">
@@ -10133,15 +10179,15 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" ht="14.25">
@@ -10149,7 +10195,7 @@
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -10182,7 +10228,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -10190,29 +10236,29 @@
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C7" s="47">
+        <v>390</v>
+      </c>
+      <c r="C7" s="48">
         <v>0.39000000000000001</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C8" s="7">
         <v>0.34000000000000002</v>
@@ -10220,10 +10266,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C9" s="7">
         <v>0.51000000000000001</v>
@@ -10247,10 +10293,10 @@
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C14" s="7">
         <v>0.51390000000000002</v>
@@ -10259,7 +10305,7 @@
     <row r="15" ht="16.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C15" s="7">
         <v>0.73999999999999999</v>
@@ -10267,7 +10313,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="B16" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C16" s="7">
         <v>0.73999999999999999</v>
@@ -10275,7 +10321,7 @@
     </row>
     <row r="17" ht="16.5">
       <c r="B17" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C17" s="7">
         <v>0.80100000000000005</v>
@@ -10283,7 +10329,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -10304,10 +10350,10 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C22" s="7">
         <v>0.88749999999999996</v>
@@ -10315,226 +10361,226 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="47"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="48">
+        <v>401</v>
+      </c>
+      <c r="C29" s="49">
         <v>49500</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C30" s="48">
+        <v>403</v>
+      </c>
+      <c r="C30" s="49">
         <v>62700</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31" s="48">
+        <v>404</v>
+      </c>
+      <c r="C31" s="49">
         <v>46250</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="48">
+        <v>405</v>
+      </c>
+      <c r="C32" s="49">
         <v>21250</v>
       </c>
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C33" s="48">
+        <v>406</v>
+      </c>
+      <c r="C33" s="49">
         <v>30700</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C34" s="48">
+        <v>407</v>
+      </c>
+      <c r="C34" s="49">
         <v>550</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C35" s="48">
+        <v>408</v>
+      </c>
+      <c r="C35" s="49">
         <v>8900</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C36" s="48">
+        <v>409</v>
+      </c>
+      <c r="C36" s="49">
         <v>2300</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C37" s="48">
+        <v>410</v>
+      </c>
+      <c r="C37" s="49">
         <v>100</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="48">
+        <v>411</v>
+      </c>
+      <c r="C38" s="49">
         <v>850</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C39" s="48">
+        <v>412</v>
+      </c>
+      <c r="C39" s="49">
         <v>9200</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C40" s="48">
+        <v>413</v>
+      </c>
+      <c r="C40" s="49">
         <v>232200</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C41" s="48">
+        <v>414</v>
+      </c>
+      <c r="C41" s="49">
         <v>7500</v>
       </c>
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C45" s="48">
+        <v>416</v>
+      </c>
+      <c r="C45" s="49">
         <v>17319</v>
       </c>
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C46" s="48">
+        <v>417</v>
+      </c>
+      <c r="C46" s="49">
         <v>29109</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C47" s="48">
+        <v>418</v>
+      </c>
+      <c r="C47" s="49">
         <v>87696</v>
       </c>
     </row>
     <row r="48" ht="16.5">
       <c r="B48" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="48">
+        <v>419</v>
+      </c>
+      <c r="C48" s="49">
         <v>7944</v>
       </c>
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="48">
+        <v>420</v>
+      </c>
+      <c r="C49" s="49">
         <v>21467</v>
       </c>
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C50" s="48">
+        <v>421</v>
+      </c>
+      <c r="C50" s="49">
         <v>8307</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C51" s="48">
+        <v>422</v>
+      </c>
+      <c r="C51" s="49">
         <v>50345</v>
       </c>
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" s="48">
+        <v>423</v>
+      </c>
+      <c r="C52" s="49">
         <v>11876</v>
       </c>
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C53" s="48">
+        <v>424</v>
+      </c>
+      <c r="C53" s="49">
         <v>27760</v>
       </c>
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C54" s="48">
+        <v>425</v>
+      </c>
+      <c r="C54" s="49">
         <v>25377</v>
       </c>
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C55" s="48">
+        <v>426</v>
+      </c>
+      <c r="C55" s="49">
         <v>129461</v>
       </c>
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C56" s="49">
+        <v>427</v>
+      </c>
+      <c r="C56" s="50">
         <f>SUM(C45:C55)</f>
         <v>416661</v>
       </c>
@@ -10571,21 +10617,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
         <v>184</v>
@@ -10606,7 +10652,7 @@
         <v>122</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K2">
         <v>2025</v>
@@ -10615,584 +10661,584 @@
         <f>K2+1</f>
         <v>2026</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="51">
         <f>L2+1</f>
         <v>2027</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="51">
         <f>M2+1</f>
         <v>2028</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="51">
         <f>N2+1</f>
         <v>2029</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="51">
         <f>O2+1</f>
         <v>2030</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="51">
         <f>P2+1</f>
         <v>2031</v>
       </c>
-      <c r="R2" s="50">
+      <c r="R2" s="51">
         <f>Q2+1</f>
         <v>2032</v>
       </c>
-      <c r="S2" s="50">
+      <c r="S2" s="51">
         <f>R2+1</f>
         <v>2033</v>
       </c>
-      <c r="T2" s="50">
+      <c r="T2" s="51">
         <f>S2+1</f>
         <v>2034</v>
       </c>
-      <c r="U2" s="51">
+      <c r="U2" s="52">
         <f>T2+1</f>
         <v>2035</v>
       </c>
-      <c r="V2" s="51">
+      <c r="V2" s="52">
         <f>U2+1</f>
         <v>2036</v>
       </c>
-      <c r="W2" s="51">
+      <c r="W2" s="52">
         <f>V2+1</f>
         <v>2037</v>
       </c>
-      <c r="X2" s="51">
+      <c r="X2" s="52">
         <f>W2+1</f>
         <v>2038</v>
       </c>
-      <c r="Y2" s="51">
+      <c r="Y2" s="52">
         <f>X2+1</f>
         <v>2039</v>
       </c>
-      <c r="Z2" s="51">
+      <c r="Z2" s="52">
         <f>Y2+1</f>
         <v>2040</v>
       </c>
-      <c r="AA2" s="51">
+      <c r="AA2" s="52">
         <f>Z2+1</f>
         <v>2041</v>
       </c>
-      <c r="AB2" s="51">
+      <c r="AB2" s="52">
         <f>AA2+1</f>
         <v>2042</v>
       </c>
-      <c r="AC2" s="51">
+      <c r="AC2" s="52">
         <f>AB2+1</f>
         <v>2043</v>
       </c>
-      <c r="AD2" s="51">
+      <c r="AD2" s="52">
         <f>AC2+1</f>
         <v>2044</v>
       </c>
-      <c r="AE2" s="51">
+      <c r="AE2" s="52">
         <f>AD2+1</f>
         <v>2045</v>
       </c>
-      <c r="AF2" s="51">
+      <c r="AF2" s="52">
         <f>AE2+1</f>
         <v>2046</v>
       </c>
-      <c r="AG2" s="51">
+      <c r="AG2" s="52">
         <f>AF2+1</f>
         <v>2047</v>
       </c>
-      <c r="AH2" s="51">
+      <c r="AH2" s="52">
         <f>AG2+1</f>
         <v>2048</v>
       </c>
-      <c r="AI2" s="51">
+      <c r="AI2" s="52">
         <f>AH2+1</f>
         <v>2049</v>
       </c>
-      <c r="AJ2" s="51">
+      <c r="AJ2" s="52">
         <f>AI2+1</f>
         <v>2050</v>
       </c>
-      <c r="AK2" s="51">
+      <c r="AK2" s="52">
         <f>AJ2+1</f>
         <v>2051</v>
       </c>
-      <c r="AL2" s="51">
+      <c r="AL2" s="52">
         <f>AK2+1</f>
         <v>2052</v>
       </c>
-      <c r="AM2" s="51">
+      <c r="AM2" s="52">
         <f>AL2+1</f>
         <v>2053</v>
       </c>
-      <c r="AN2" s="51">
+      <c r="AN2" s="52">
         <f>AM2+1</f>
         <v>2054</v>
       </c>
-      <c r="AO2" s="51">
+      <c r="AO2" s="52">
         <f>AN2+1</f>
         <v>2055</v>
       </c>
-      <c r="AP2" s="51">
+      <c r="AP2" s="52">
         <f>AO2+1</f>
         <v>2056</v>
       </c>
-      <c r="AQ2" s="51">
+      <c r="AQ2" s="52">
         <f>AP2+1</f>
         <v>2057</v>
       </c>
-      <c r="AR2" s="51">
+      <c r="AR2" s="52">
         <f>AQ2+1</f>
         <v>2058</v>
       </c>
-      <c r="AS2" s="51">
+      <c r="AS2" s="52">
         <f>AR2+1</f>
         <v>2059</v>
       </c>
-      <c r="AT2" s="51">
+      <c r="AT2" s="52">
         <f>AS2+1</f>
         <v>2060</v>
       </c>
-      <c r="AU2" s="51">
+      <c r="AU2" s="52">
         <f>AT2+1</f>
         <v>2061</v>
       </c>
-      <c r="AV2" s="51">
+      <c r="AV2" s="52">
         <f>AU2+1</f>
         <v>2062</v>
       </c>
-      <c r="AW2" s="51">
+      <c r="AW2" s="52">
         <f>AV2+1</f>
         <v>2063</v>
       </c>
-      <c r="AX2" s="51">
+      <c r="AX2" s="52">
         <f>AW2+1</f>
         <v>2064</v>
       </c>
-      <c r="AY2" s="51">
+      <c r="AY2" s="52">
         <f>AX2+1</f>
         <v>2065</v>
       </c>
-      <c r="AZ2" s="51">
+      <c r="AZ2" s="52">
         <f>AY2+1</f>
         <v>2066</v>
       </c>
-      <c r="BA2" s="51">
+      <c r="BA2" s="52">
         <f>AZ2+1</f>
         <v>2067</v>
       </c>
-      <c r="BB2" s="51">
+      <c r="BB2" s="52">
         <f>BA2+1</f>
         <v>2068</v>
       </c>
-      <c r="BC2" s="51">
+      <c r="BC2" s="52">
         <f>BB2+1</f>
         <v>2069</v>
       </c>
-      <c r="BD2" s="51">
+      <c r="BD2" s="52">
         <f>BC2+1</f>
         <v>2070</v>
       </c>
-      <c r="BE2" s="51">
+      <c r="BE2" s="52">
         <f>BD2+1</f>
         <v>2071</v>
       </c>
-      <c r="BF2" s="51">
+      <c r="BF2" s="52">
         <f>BE2+1</f>
         <v>2072</v>
       </c>
-      <c r="BG2" s="51">
+      <c r="BG2" s="52">
         <f>BF2+1</f>
         <v>2073</v>
       </c>
-      <c r="BH2" s="51">
+      <c r="BH2" s="52">
         <f>BG2+1</f>
         <v>2074</v>
       </c>
-      <c r="BI2" s="51">
+      <c r="BI2" s="52">
         <f>BH2+1</f>
         <v>2075</v>
       </c>
-      <c r="BJ2" s="51">
+      <c r="BJ2" s="52">
         <f>BI2+1</f>
         <v>2076</v>
       </c>
-      <c r="BK2" s="51">
+      <c r="BK2" s="52">
         <f>BJ2+1</f>
         <v>2077</v>
       </c>
-      <c r="BL2" s="51">
+      <c r="BL2" s="52">
         <f>BK2+1</f>
         <v>2078</v>
       </c>
-      <c r="BM2" s="51">
+      <c r="BM2" s="52">
         <f>BL2+1</f>
         <v>2079</v>
       </c>
-      <c r="BN2" s="51">
+      <c r="BN2" s="52">
         <f>BM2+1</f>
         <v>2080</v>
       </c>
-      <c r="BO2" s="51">
+      <c r="BO2" s="52">
         <f>BN2+1</f>
         <v>2081</v>
       </c>
-      <c r="BP2" s="51">
+      <c r="BP2" s="52">
         <f>BO2+1</f>
         <v>2082</v>
       </c>
-      <c r="BQ2" s="51">
+      <c r="BQ2" s="52">
         <f>BP2+1</f>
         <v>2083</v>
       </c>
-      <c r="BR2" s="51">
+      <c r="BR2" s="52">
         <f>BQ2+1</f>
         <v>2084</v>
       </c>
-      <c r="BS2" s="51">
+      <c r="BS2" s="52">
         <f>BR2+1</f>
         <v>2085</v>
       </c>
-      <c r="BT2" s="51">
+      <c r="BT2" s="52">
         <f>BS2+1</f>
         <v>2086</v>
       </c>
-      <c r="BU2" s="51">
+      <c r="BU2" s="52">
         <f>BT2+1</f>
         <v>2087</v>
       </c>
-      <c r="BV2" s="51">
+      <c r="BV2" s="52">
         <f>BU2+1</f>
         <v>2088</v>
       </c>
-      <c r="BW2" s="51">
+      <c r="BW2" s="52">
         <f>BV2+1</f>
         <v>2089</v>
       </c>
-      <c r="BX2" s="51">
+      <c r="BX2" s="52">
         <f>BW2+1</f>
         <v>2090</v>
       </c>
-      <c r="BY2" s="51">
+      <c r="BY2" s="52">
         <f>BX2+1</f>
         <v>2091</v>
       </c>
-      <c r="BZ2" s="51">
+      <c r="BZ2" s="52">
         <f>BY2+1</f>
         <v>2092</v>
       </c>
-      <c r="CA2" s="51">
+      <c r="CA2" s="52">
         <f>BZ2+1</f>
         <v>2093</v>
       </c>
-      <c r="CB2" s="51">
+      <c r="CB2" s="52">
         <f>CA2+1</f>
         <v>2094</v>
       </c>
-      <c r="CC2" s="51">
+      <c r="CC2" s="52">
         <f>CB2+1</f>
         <v>2095</v>
       </c>
-      <c r="CD2" s="51">
+      <c r="CD2" s="52">
         <f>CC2+1</f>
         <v>2096</v>
       </c>
-      <c r="CE2" s="51">
+      <c r="CE2" s="52">
         <f>CD2+1</f>
         <v>2097</v>
       </c>
-      <c r="CF2" s="51">
+      <c r="CF2" s="52">
         <f>CE2+1</f>
         <v>2098</v>
       </c>
-      <c r="CG2" s="51">
+      <c r="CG2" s="52">
         <f>CF2+1</f>
         <v>2099</v>
       </c>
-      <c r="CH2" s="51">
+      <c r="CH2" s="52">
         <f>CG2+1</f>
         <v>2100</v>
       </c>
-      <c r="CI2" s="51">
+      <c r="CI2" s="52">
         <f>CH2+1</f>
         <v>2101</v>
       </c>
-      <c r="CJ2" s="51">
+      <c r="CJ2" s="52">
         <f>CI2+1</f>
         <v>2102</v>
       </c>
-      <c r="CK2" s="51">
+      <c r="CK2" s="52">
         <f>CJ2+1</f>
         <v>2103</v>
       </c>
-      <c r="CL2" s="51">
+      <c r="CL2" s="52">
         <f>CK2+1</f>
         <v>2104</v>
       </c>
-      <c r="CM2" s="51">
+      <c r="CM2" s="52">
         <f>CL2+1</f>
         <v>2105</v>
       </c>
-      <c r="CN2" s="51">
+      <c r="CN2" s="52">
         <f>CM2+1</f>
         <v>2106</v>
       </c>
-      <c r="CO2" s="51">
+      <c r="CO2" s="52">
         <f>CN2+1</f>
         <v>2107</v>
       </c>
-      <c r="CP2" s="51">
+      <c r="CP2" s="52">
         <f>CO2+1</f>
         <v>2108</v>
       </c>
-      <c r="CQ2" s="51">
+      <c r="CQ2" s="52">
         <f>CP2+1</f>
         <v>2109</v>
       </c>
-      <c r="CR2" s="51">
+      <c r="CR2" s="52">
         <f>CQ2+1</f>
         <v>2110</v>
       </c>
-      <c r="CS2" s="51">
+      <c r="CS2" s="52">
         <f>CR2+1</f>
         <v>2111</v>
       </c>
-      <c r="CT2" s="51">
+      <c r="CT2" s="52">
         <f>CS2+1</f>
         <v>2112</v>
       </c>
-      <c r="CU2" s="51">
+      <c r="CU2" s="52">
         <f>CT2+1</f>
         <v>2113</v>
       </c>
-      <c r="CV2" s="51">
+      <c r="CV2" s="52">
         <f>CU2+1</f>
         <v>2114</v>
       </c>
-      <c r="CW2" s="51">
+      <c r="CW2" s="52">
         <f>CV2+1</f>
         <v>2115</v>
       </c>
-      <c r="CX2" s="51">
+      <c r="CX2" s="52">
         <f>CW2+1</f>
         <v>2116</v>
       </c>
-      <c r="CY2" s="51">
+      <c r="CY2" s="52">
         <f>CX2+1</f>
         <v>2117</v>
       </c>
-      <c r="CZ2" s="51">
+      <c r="CZ2" s="52">
         <f>CY2+1</f>
         <v>2118</v>
       </c>
-      <c r="DA2" s="51">
+      <c r="DA2" s="52">
         <f>CZ2+1</f>
         <v>2119</v>
       </c>
-      <c r="DB2" s="51">
+      <c r="DB2" s="52">
         <f>DA2+1</f>
         <v>2120</v>
       </c>
-      <c r="DC2" s="51">
+      <c r="DC2" s="52">
         <f>DB2+1</f>
         <v>2121</v>
       </c>
-      <c r="DD2" s="51">
+      <c r="DD2" s="52">
         <f>DC2+1</f>
         <v>2122</v>
       </c>
-      <c r="DE2" s="51">
+      <c r="DE2" s="52">
         <f>DD2+1</f>
         <v>2123</v>
       </c>
-      <c r="DF2" s="51">
+      <c r="DF2" s="52">
         <f>DE2+1</f>
         <v>2124</v>
       </c>
-      <c r="DG2" s="51">
+      <c r="DG2" s="52">
         <f>DF2+1</f>
         <v>2125</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53">
+        <v>433</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54">
         <v>23303.380000000001</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="54">
         <v>27269.759999999998</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="54">
         <v>35548.57</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="54">
         <v>48306.599999999999</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="55">
         <f t="shared" ref="J3:J9" si="23">I3</f>
         <v>48306.599999999999</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="U3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="U3" s="56"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53">
+        <v>434</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54">
         <v>2452.3899999999999</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="54">
         <v>3066.6900000000001</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="54">
         <v>4355.6300000000001</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="54">
         <v>5267.1700000000001</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="55">
         <f t="shared" si="23"/>
         <v>5267.1700000000001</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="U4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="U4" s="56"/>
     </row>
     <row r="5" s="1" customFormat="1">
       <c r="B5" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="53">
+        <v>435</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="54">
         <v>591.20000000000005</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="54">
         <v>327.74000000000001</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="54">
         <v>334.31999999999999</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="54">
         <v>308.29000000000002</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="55">
         <f t="shared" si="23"/>
         <v>308.29000000000002</v>
       </c>
-      <c r="P5" s="57"/>
-      <c r="U5" s="57"/>
+      <c r="P5" s="58"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53">
+        <v>303</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54">
         <v>157.53</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="54">
         <v>74.959999999999994</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="54">
         <v>38.18</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="54">
         <v>49.969999999999999</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="55">
         <f t="shared" si="23"/>
         <v>49.969999999999999</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="U6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="U6" s="56"/>
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="53">
+        <v>436</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="54">
         <v>0</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="54">
         <v>0</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="54">
         <v>23.170000000000002</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="54">
         <v>13.33</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="55">
         <f t="shared" si="23"/>
         <v>13.33</v>
       </c>
-      <c r="P7" s="57"/>
-      <c r="U7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="U7" s="58"/>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53">
+        <v>437</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54">
         <v>163.58000000000001</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="54">
         <v>893.26999999999998</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="54">
         <v>1110.29</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="54">
         <v>1024.1300000000001</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="55">
         <f t="shared" si="23"/>
         <v>1024.1300000000001</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="U8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="U8" s="56"/>
     </row>
     <row r="9" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59">
+        <v>438</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60">
         <f>SUM(F3:F8)</f>
         <v>26668.080000000002</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="60">
         <f>SUM(G3:G8)</f>
         <v>31632.419999999998</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="60">
         <f>SUM(H3:H8)</f>
         <v>41410.159999999996</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="60">
         <f>SUM(I3:I8)</f>
         <v>54969.489999999998</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="55">
         <f t="shared" si="23"/>
         <v>54969.489999999998</v>
       </c>
@@ -11201,107 +11247,107 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="57"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="58"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54">
         <v>14.949999999999999</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="54">
         <v>7.9900000000000002</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="54">
         <v>8.0999999999999996</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="54">
         <v>13.02</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="55">
         <f t="shared" ref="J10:J49" si="24">I10</f>
         <v>13.02</v>
       </c>
-      <c r="P10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="U10" s="56"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61">
+        <v>307</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62">
         <f>F9+F10</f>
         <v>26683.030000000002</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="62">
         <f>G9+G10</f>
         <v>31640.41</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="62">
         <f>H9+H10</f>
         <v>41418.259999999995</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="62">
         <f>I9+I10</f>
         <v>54982.509999999995</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="55">
         <f t="shared" si="24"/>
         <v>54982.509999999995</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="63">
         <f>J11*(1+$L$40)</f>
         <v>63779.711599999988</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="63">
         <f>K11*(1+$L$40)</f>
         <v>73984.465455999976</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="63">
         <f>L11*(1+$L$40)</f>
         <v>85821.979928959961</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="63">
         <f>M11*(1+$L$40)</f>
         <v>99553.496717593545</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="63">
         <f>N11*(1+$L$40)</f>
         <v>115482.05619240851</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="64">
         <f>O11*(1+$L$40)</f>
         <v>133959.18518319385</v>
       </c>
-      <c r="Q11" s="62">
+      <c r="Q11" s="63">
         <f>P11*(1+$Q$40)</f>
         <v>150034.28740517714</v>
       </c>
-      <c r="R11" s="62">
+      <c r="R11" s="63">
         <f>Q11*(1+$Q$40)</f>
         <v>168038.40189379841</v>
       </c>
-      <c r="S11" s="62">
+      <c r="S11" s="63">
         <f>R11*(1+$Q$40)</f>
         <v>188203.01012105422</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T11" s="63">
         <f>S11*(1+$Q$40)</f>
         <v>210787.37133558074</v>
       </c>
-      <c r="U11" s="63">
+      <c r="U11" s="64">
         <f>T11*(1+$Q$40)</f>
         <v>236081.85589585046</v>
       </c>
@@ -11309,236 +11355,236 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="54"/>
-      <c r="P12" s="55"/>
-      <c r="U12" s="55"/>
+        <v>308</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="U12" s="56"/>
     </row>
     <row r="13">
-      <c r="C13" s="52"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="54"/>
-      <c r="P13" s="55"/>
-      <c r="U13" s="55"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="U13" s="56"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="B14" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="64">
+        <v>363</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="65">
         <v>9414</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="65">
         <v>9748.2399999999998</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="65">
         <v>12559.889999999999</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="65">
         <v>18724.689999999999</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="55">
         <f t="shared" si="24"/>
         <v>18724.689999999999</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="65">
         <f>K11*0.35</f>
         <v>22322.899059999996</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="65">
         <f>L11*0.35</f>
         <v>25894.56290959999</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="65">
         <f>M11*0.35</f>
         <v>30037.692975135986</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="65">
         <f>N11*0.35</f>
         <v>34843.723851157738</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="65">
         <f>O11*0.35</f>
         <v>40418.719667342972</v>
       </c>
-      <c r="P14" s="65">
+      <c r="P14" s="66">
         <f>P11*0.35</f>
         <v>46885.714814117848</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="65">
         <f>Q11*0.35</f>
         <v>52512.000591811993</v>
       </c>
-      <c r="R14" s="64">
+      <c r="R14" s="65">
         <f>R11*0.35</f>
         <v>58813.440662829438</v>
       </c>
-      <c r="S14" s="64">
+      <c r="S14" s="65">
         <f>S11*0.35</f>
         <v>65871.053542368973</v>
       </c>
-      <c r="T14" s="64">
+      <c r="T14" s="65">
         <f>T11*0.35</f>
         <v>73775.579967453261</v>
       </c>
-      <c r="U14" s="65">
+      <c r="U14" s="66">
         <f>U11*0.35</f>
         <v>82628.64956354766</v>
       </c>
-      <c r="DI14" s="66">
+      <c r="DI14" s="67">
         <f>DI11*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>436</v>
-      </c>
-      <c r="F15" s="53">
+        <v>439</v>
+      </c>
+      <c r="F15" s="54">
         <v>1246.48</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="54">
         <v>1745.55</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="54">
         <v>1891.47</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="54">
         <v>1931.5</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="55">
         <f t="shared" si="24"/>
         <v>1931.5</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="54">
         <f>J15*1.06</f>
         <v>2047.3900000000001</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="62">
         <f>K15*1.06</f>
         <v>2170.2334000000001</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="62">
         <f>L15*1.06</f>
         <v>2300.447404</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="62">
         <f>M15*1.06</f>
         <v>2438.4742482400002</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15" s="62">
         <f>N15*1.06</f>
         <v>2584.7827031344004</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="68">
         <f>O15*1.06</f>
         <v>2739.8696653224647</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="69">
         <f>P15*1.05</f>
         <v>2876.863148588588</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="69">
         <f>Q15*1.05</f>
         <v>3020.7063060180176</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="69">
         <f>R15*1.05</f>
         <v>3171.7416213189185</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="69">
         <f>S15*1.05</f>
         <v>3330.3287023848648</v>
       </c>
-      <c r="U15" s="69">
+      <c r="U15" s="70">
         <f>T15*1.05</f>
         <v>3496.8451375041082</v>
       </c>
-      <c r="DI15" s="70">
+      <c r="DI15" s="71">
         <f>DH15*1.06</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
-      </c>
-      <c r="F16" s="53">
+        <v>441</v>
+      </c>
+      <c r="F16" s="54">
         <v>5968.5799999999999</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="54">
         <v>4803.3999999999996</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="54">
         <v>3189.6500000000001</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="54">
         <v>4630.6999999999998</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="55">
         <f t="shared" si="24"/>
         <v>4630.6999999999998</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="69">
         <f>J16*1.1</f>
         <v>5093.7700000000004</v>
       </c>
-      <c r="L16" s="71">
+      <c r="L16" s="72">
         <f>K16*1.1</f>
         <v>5603.1470000000008</v>
       </c>
-      <c r="M16" s="71">
+      <c r="M16" s="72">
         <f>L16*1.1</f>
         <v>6163.4617000000017</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="72">
         <f>M16*1.1</f>
         <v>6779.8078700000024</v>
       </c>
-      <c r="O16" s="71">
+      <c r="O16" s="72">
         <f>N16*1.1</f>
         <v>7457.7886570000028</v>
       </c>
-      <c r="P16" s="72">
+      <c r="P16" s="73">
         <f>O16*1.1</f>
         <v>8203.5675227000029</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="69">
         <f>P16*1.08</f>
         <v>8859.8529245160044</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="69">
         <f>Q16*1.08</f>
         <v>9568.641158477285</v>
       </c>
-      <c r="S16" s="68">
+      <c r="S16" s="69">
         <f>R16*1.08</f>
         <v>10334.132451155469</v>
       </c>
-      <c r="T16" s="68">
+      <c r="T16" s="69">
         <f>S16*1.08</f>
         <v>11160.863047247907</v>
       </c>
-      <c r="U16" s="69">
+      <c r="U16" s="70">
         <f>T16*1.08</f>
         <v>12053.732091027741</v>
       </c>
@@ -11547,63 +11593,63 @@
       <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="54">
         <v>2498.6700000000001</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="54">
         <v>3589.6599999999999</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="54">
         <v>5100.1899999999996</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="54">
         <v>6396.0100000000002</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="55">
         <f t="shared" si="24"/>
         <v>6396.0100000000002</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="69">
         <f t="shared" ref="K17:K18" si="25">J17*1.15</f>
         <v>7355.4114999999993</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="72">
         <f t="shared" ref="L17:L18" si="26">K17*1.15</f>
         <v>8458.7232249999979</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="72">
         <f t="shared" ref="M17:M18" si="27">L17*1.15</f>
         <v>9727.5317087499971</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="72">
         <f t="shared" ref="N17:N18" si="28">M17*1.15</f>
         <v>11186.661465062496</v>
       </c>
-      <c r="O17" s="71">
+      <c r="O17" s="72">
         <f t="shared" ref="O17:O18" si="29">N17*1.15</f>
         <v>12864.660684821869</v>
       </c>
-      <c r="P17" s="72">
+      <c r="P17" s="73">
         <f t="shared" ref="P17:P18" si="30">O17*1.15</f>
         <v>14794.359787545149</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="69">
         <f>P17*1.06</f>
         <v>15682.021374797858</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="69">
         <f>Q17*1.06</f>
         <v>16622.94265728573</v>
       </c>
-      <c r="S17" s="68">
+      <c r="S17" s="69">
         <f>R17*1.06</f>
         <v>17620.319216722874</v>
       </c>
-      <c r="T17" s="68">
+      <c r="T17" s="69">
         <f>S17*1.06</f>
         <v>18677.538369726248</v>
       </c>
-      <c r="U17" s="69">
+      <c r="U17" s="70">
         <f>T17*1.06</f>
         <v>19798.190671909822</v>
       </c>
@@ -11612,65 +11658,65 @@
       <c r="B18" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="53">
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="54">
         <v>325.26999999999998</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="54">
         <v>384.56999999999999</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="54">
         <v>485.38</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="54">
         <v>683.32000000000005</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="55">
         <f t="shared" si="24"/>
         <v>683.32000000000005</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="69">
         <f t="shared" si="25"/>
         <v>785.81799999999998</v>
       </c>
-      <c r="L18" s="71">
+      <c r="L18" s="72">
         <f t="shared" si="26"/>
         <v>903.69069999999988</v>
       </c>
-      <c r="M18" s="71">
+      <c r="M18" s="72">
         <f t="shared" si="27"/>
         <v>1039.2443049999997</v>
       </c>
-      <c r="N18" s="71">
+      <c r="N18" s="72">
         <f t="shared" si="28"/>
         <v>1195.1309507499996</v>
       </c>
-      <c r="O18" s="71">
+      <c r="O18" s="72">
         <f t="shared" si="29"/>
         <v>1374.4005933624994</v>
       </c>
-      <c r="P18" s="72">
+      <c r="P18" s="73">
         <f t="shared" si="30"/>
         <v>1580.5606823668743</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="69">
         <f>P18*1.1</f>
         <v>1738.616750603562</v>
       </c>
-      <c r="R18" s="68">
+      <c r="R18" s="69">
         <f>Q18*1.1</f>
         <v>1912.4784256639184</v>
       </c>
-      <c r="S18" s="68">
+      <c r="S18" s="69">
         <f>R18*1.1</f>
         <v>2103.7262682303103</v>
       </c>
-      <c r="T18" s="68">
+      <c r="T18" s="69">
         <f>S18*1.1</f>
         <v>2314.0988950533415</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="70">
         <f>T18*1.1</f>
         <v>2545.5087845586759</v>
       </c>
@@ -11679,269 +11725,269 @@
       <c r="B19" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="53">
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="54">
         <v>1237.79</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="54">
         <v>1865.21</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="54">
         <v>2665.4899999999998</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="54">
         <v>3314.3600000000001</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="55">
         <f t="shared" si="24"/>
         <v>3314.3600000000001</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="69">
         <f>J19*1.2</f>
         <v>3977.232</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="72">
         <f>K19*1.2</f>
         <v>4772.6783999999998</v>
       </c>
-      <c r="M19" s="71">
+      <c r="M19" s="72">
         <f>L19*1.2</f>
         <v>5727.2140799999997</v>
       </c>
-      <c r="N19" s="71">
+      <c r="N19" s="72">
         <f>M19*1.2</f>
         <v>6872.6568959999995</v>
       </c>
-      <c r="O19" s="71">
+      <c r="O19" s="72">
         <f>N19*1.2</f>
         <v>8247.1882751999983</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="73">
         <f>O19*1.2</f>
         <v>9896.6259302399976</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="69">
         <f>P19*1.14</f>
         <v>11282.153560473596</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="69">
         <f>Q19*1.14</f>
         <v>12861.655058939899</v>
       </c>
-      <c r="S19" s="68">
+      <c r="S19" s="69">
         <f>R19*1.14</f>
         <v>14662.286767191485</v>
       </c>
-      <c r="T19" s="68">
+      <c r="T19" s="69">
         <f>S19*1.14</f>
         <v>16715.006914598292</v>
       </c>
-      <c r="U19" s="69">
+      <c r="U19" s="70">
         <f>T19*1.14</f>
         <v>19055.107882642053</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="B20" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="64">
+        <v>442</v>
+      </c>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="65">
         <f>SUM(F14:F19)</f>
         <v>20690.789999999997</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="65">
         <f>SUM(G14:G19)</f>
         <v>22136.629999999997</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="65">
         <f>SUM(H14:H19)</f>
         <v>25892.07</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="65">
         <f>SUM(I14:I19)</f>
         <v>35680.580000000002</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="55">
         <f t="shared" si="24"/>
         <v>35680.580000000002</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="65">
         <f>SUM(K14:K19)</f>
         <v>41582.52055999999</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="65">
         <f>SUM(L14:L19)</f>
         <v>47803.03563459999</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M20" s="65">
         <f>SUM(M14:M19)</f>
         <v>54995.592172885976</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="65">
         <f>SUM(N14:N19)</f>
         <v>63316.455281210241</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="65">
         <f>SUM(O14:O19)</f>
         <v>72947.540580861736</v>
       </c>
-      <c r="P20" s="65">
+      <c r="P20" s="66">
         <f>SUM(P14:P19)</f>
         <v>84100.698402292343</v>
       </c>
-      <c r="Q20" s="64">
+      <c r="Q20" s="65">
         <f>SUM(Q14:Q19)</f>
         <v>92951.508350791599</v>
       </c>
-      <c r="R20" s="64">
+      <c r="R20" s="65">
         <f>SUM(R14:R19)</f>
         <v>102799.86426921429</v>
       </c>
-      <c r="S20" s="64">
+      <c r="S20" s="65">
         <f>SUM(S14:S19)</f>
         <v>113763.25986698802</v>
       </c>
-      <c r="T20" s="64">
+      <c r="T20" s="65">
         <f>SUM(T14:T19)</f>
         <v>125973.41589646391</v>
       </c>
-      <c r="U20" s="65">
+      <c r="U20" s="66">
         <f>SUM(U14:U19)</f>
         <v>139578.03413119007</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="69"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="70"/>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>440</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="53">
+        <v>443</v>
+      </c>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="54">
         <v>0</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="54">
         <v>0</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="54">
         <v>1.6699999999999999</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="54">
         <v>7.6399999999999997</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="55">
         <f t="shared" si="24"/>
         <v>7.6399999999999997</v>
       </c>
-      <c r="K22" s="68">
+      <c r="K22" s="69">
         <v>0</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="72">
         <v>0</v>
       </c>
-      <c r="M22" s="71">
+      <c r="M22" s="72">
         <v>0</v>
       </c>
-      <c r="N22" s="71">
+      <c r="N22" s="72">
         <v>0</v>
       </c>
-      <c r="O22" s="71">
+      <c r="O22" s="72">
         <v>0</v>
       </c>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="70"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="54">
         <f>F11-F20+F22</f>
         <v>5992.2400000000052</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="54">
         <f>G11-G20+G22</f>
         <v>9503.7800000000025</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="54">
         <f>H11-H20+H22</f>
         <v>15527.859999999995</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="54">
         <f>I11-I20+I22</f>
         <v>19309.569999999992</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="55">
         <f t="shared" si="24"/>
         <v>19309.569999999992</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="54">
         <f>K11-K20+K22</f>
         <v>22197.191039999998</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="54">
         <f>L11-L20+L22</f>
         <v>26181.429821399986</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="54">
         <f>M11-M20+M22</f>
         <v>30826.387756073986</v>
       </c>
-      <c r="N23" s="53">
+      <c r="N23" s="54">
         <f>N11-N20+N22</f>
         <v>36237.041436383304</v>
       </c>
-      <c r="O23" s="53">
+      <c r="O23" s="54">
         <f>O11-O20+O22</f>
         <v>42534.515611546769</v>
       </c>
-      <c r="P23" s="75">
+      <c r="P23" s="76">
         <f>P11-P20+P22</f>
         <v>49858.486780901512</v>
       </c>
-      <c r="Q23" s="53">
+      <c r="Q23" s="54">
         <f>Q11-Q20+Q22</f>
         <v>57082.779054385537</v>
       </c>
-      <c r="R23" s="53">
+      <c r="R23" s="54">
         <f>R11-R20+R22</f>
         <v>65238.537624584118</v>
       </c>
-      <c r="S23" s="53">
+      <c r="S23" s="54">
         <f>S11-S20+S22</f>
         <v>74439.750254066195</v>
       </c>
-      <c r="T23" s="53">
+      <c r="T23" s="54">
         <f>T11-T20+T22</f>
         <v>84813.955439116835</v>
       </c>
-      <c r="U23" s="75">
+      <c r="U23" s="76">
         <f>U11-U20+U22</f>
         <v>96503.821764660388</v>
       </c>
@@ -11950,67 +11996,67 @@
       <c r="B24" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="54">
         <f>-1660.26+87.82</f>
         <v>-1572.4400000000001</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="54">
         <f>-2497.45+21.9</f>
         <v>-2475.5499999999997</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="54">
         <f>-3998.18-21.99</f>
         <v>-4020.1699999999996</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="54">
         <f>-4957.72+99.32</f>
         <v>-4858.4000000000005</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="55">
         <f t="shared" si="24"/>
         <v>-4858.4000000000005</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="69">
         <f ca="1">-K23*$L$49</f>
         <v>-5549.2977599999995</v>
       </c>
-      <c r="L24" s="68">
+      <c r="L24" s="69">
         <f>-L23*$L$49</f>
         <v>-6545.3574553499966</v>
       </c>
-      <c r="M24" s="68">
+      <c r="M24" s="69">
         <f>-M23*$L$49</f>
         <v>-7706.5969390184964</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="69">
         <f>-N23*$L$49</f>
         <v>-9059.2603590958261</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O24" s="69">
         <f>-O23*$L$49</f>
         <v>-10633.628902886692</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P24" s="70">
         <f>-P23*$L$49</f>
         <v>-12464.621695225378</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="69">
         <f ca="1">-Q23*$L$49</f>
         <v>-14270.694763596384</v>
       </c>
-      <c r="R24" s="68">
+      <c r="R24" s="69">
         <f>-R23*$L$49</f>
         <v>-16309.63440614603</v>
       </c>
-      <c r="S24" s="68">
+      <c r="S24" s="69">
         <f>-S23*$L$49</f>
         <v>-18609.937563516549</v>
       </c>
-      <c r="T24" s="68">
+      <c r="T24" s="69">
         <f>-T23*$L$49</f>
         <v>-21203.488859779209</v>
       </c>
-      <c r="U24" s="69">
+      <c r="U24" s="70">
         <f>-U23*$L$49</f>
         <v>-24125.955441165097</v>
       </c>
@@ -12019,67 +12065,67 @@
       <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="65">
         <f>F23+F24</f>
         <v>4419.8000000000047</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="65">
         <f>G23+G24</f>
         <v>7028.2300000000032</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="65">
         <f>H23+H24</f>
         <v>11507.689999999995</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="65">
         <f>I23+I24</f>
         <v>14451.169999999991</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="55">
         <f t="shared" si="24"/>
         <v>14451.169999999991</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="65">
         <f>K23+K24</f>
         <v>16647.893279999997</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="65">
         <f>L23+L24</f>
         <v>19636.07236604999</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="65">
         <f>M23+M24</f>
         <v>23119.790817055487</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N25" s="65">
         <f>N23+N24</f>
         <v>27177.78107728748</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="65">
         <f>O23+O24</f>
         <v>31900.886708660077</v>
       </c>
-      <c r="P25" s="65">
+      <c r="P25" s="66">
         <f>P23+P24</f>
         <v>37393.865085676138</v>
       </c>
-      <c r="Q25" s="64">
+      <c r="Q25" s="65">
         <f>Q23+Q24</f>
         <v>42812.084290789149</v>
       </c>
-      <c r="R25" s="64">
+      <c r="R25" s="65">
         <f>R23+R24</f>
         <v>48928.903218438092</v>
       </c>
-      <c r="S25" s="64">
+      <c r="S25" s="65">
         <f>S23+S24</f>
         <v>55829.812690549647</v>
       </c>
-      <c r="T25" s="64">
+      <c r="T25" s="65">
         <f>T23+T24</f>
         <v>63610.466579337626</v>
       </c>
-      <c r="U25" s="65">
+      <c r="U25" s="66">
         <f>U23+U24</f>
         <v>72377.866323495284</v>
       </c>
@@ -12088,503 +12134,503 @@
       <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="54">
         <v>0</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="54">
         <v>34.270000000000003</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="54">
         <v>-22.84</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="54">
         <v>89.540000000000006</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="55">
         <f t="shared" si="24"/>
         <v>89.540000000000006</v>
       </c>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="51"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="52"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54">
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="51"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="52"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25">
       <c r="B28" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="64">
+        <v>444</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="65">
         <f>F25+F26</f>
         <v>4419.8000000000047</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="65">
         <f>G25+G26</f>
         <v>7062.5000000000036</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="65">
         <f>H25+H26</f>
         <v>11484.849999999995</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="65">
         <f>I25+I26</f>
         <v>14540.709999999992</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="55">
         <f t="shared" si="24"/>
         <v>14540.709999999992</v>
       </c>
-      <c r="K28" s="77">
+      <c r="K28" s="78">
         <f>K25</f>
         <v>16647.893279999997</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="78">
         <f>L25</f>
         <v>19636.07236604999</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="78">
         <f>M25</f>
         <v>23119.790817055487</v>
       </c>
-      <c r="N28" s="77">
+      <c r="N28" s="78">
         <f>N25</f>
         <v>27177.78107728748</v>
       </c>
-      <c r="O28" s="77">
+      <c r="O28" s="78">
         <f>O25</f>
         <v>31900.886708660077</v>
       </c>
-      <c r="P28" s="78">
+      <c r="P28" s="79">
         <f>P25</f>
         <v>37393.865085676138</v>
       </c>
-      <c r="Q28" s="77">
+      <c r="Q28" s="78">
         <f>Q25</f>
         <v>42812.084290789149</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="78">
         <f>R25</f>
         <v>48928.903218438092</v>
       </c>
-      <c r="S28" s="77">
+      <c r="S28" s="78">
         <f>S25</f>
         <v>55829.812690549647</v>
       </c>
-      <c r="T28" s="77">
+      <c r="T28" s="78">
         <f>T25</f>
         <v>63610.466579337626</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="79">
         <f>U25</f>
         <v>72377.866323495284</v>
       </c>
-      <c r="V28" s="77">
+      <c r="V28" s="78">
         <f>U28+U28*$W$32</f>
         <v>73825.423649965189</v>
       </c>
-      <c r="W28" s="77">
+      <c r="W28" s="78">
         <f>V28+V28*$W$32</f>
         <v>75301.932122964499</v>
       </c>
-      <c r="X28" s="77">
+      <c r="X28" s="78">
         <f>W28+W28*$W$32</f>
         <v>76807.970765423786</v>
       </c>
-      <c r="Y28" s="77">
+      <c r="Y28" s="78">
         <f>X28+X28*$W$32</f>
         <v>78344.13018073226</v>
       </c>
-      <c r="Z28" s="77">
+      <c r="Z28" s="78">
         <f>Y28+Y28*$W$32</f>
         <v>79911.012784346909</v>
       </c>
-      <c r="AA28" s="77">
+      <c r="AA28" s="78">
         <f>Z28+Z28*$W$32</f>
         <v>81509.233040033854</v>
       </c>
-      <c r="AB28" s="77">
+      <c r="AB28" s="78">
         <f>AA28+AA28*$W$32</f>
         <v>83139.417700834529</v>
       </c>
-      <c r="AC28" s="77">
+      <c r="AC28" s="78">
         <f>AB28+AB28*$W$32</f>
         <v>84802.206054851224</v>
       </c>
-      <c r="AD28" s="77">
+      <c r="AD28" s="78">
         <f>AC28+AC28*$W$32</f>
         <v>86498.250175948255</v>
       </c>
-      <c r="AE28" s="77">
+      <c r="AE28" s="78">
         <f>AD28+AD28*$W$32</f>
         <v>88228.215179467225</v>
       </c>
-      <c r="AF28" s="77">
+      <c r="AF28" s="78">
         <f>AE28+AE28*$W$32</f>
         <v>89992.779483056569</v>
       </c>
-      <c r="AG28" s="77">
+      <c r="AG28" s="78">
         <f>AF28+AF28*$W$32</f>
         <v>91792.635072717705</v>
       </c>
-      <c r="AH28" s="77">
+      <c r="AH28" s="78">
         <f>AG28+AG28*$W$32</f>
         <v>93628.487774172056</v>
       </c>
-      <c r="AI28" s="77">
+      <c r="AI28" s="78">
         <f>AH28+AH28*$W$32</f>
         <v>95501.057529655503</v>
       </c>
-      <c r="AJ28" s="77">
+      <c r="AJ28" s="78">
         <f>AI28+AI28*$W$32</f>
         <v>97411.078680248611</v>
       </c>
-      <c r="AK28" s="77">
+      <c r="AK28" s="78">
         <f>AJ28+AJ28*$W$32</f>
         <v>99359.30025385358</v>
       </c>
-      <c r="AL28" s="77">
+      <c r="AL28" s="78">
         <f>AK28+AK28*$W$32</f>
         <v>101346.48625893066</v>
       </c>
-      <c r="AM28" s="77">
+      <c r="AM28" s="78">
         <f>AL28+AL28*$W$32</f>
         <v>103373.41598410928</v>
       </c>
-      <c r="AN28" s="77">
+      <c r="AN28" s="78">
         <f>AM28+AM28*$W$32</f>
         <v>105440.88430379146</v>
       </c>
-      <c r="AO28" s="77">
+      <c r="AO28" s="78">
         <f>AN28+AN28*$W$32</f>
         <v>107549.70198986729</v>
       </c>
-      <c r="AP28" s="77">
+      <c r="AP28" s="78">
         <f>AO28+AO28*$W$32</f>
         <v>109700.69602966463</v>
       </c>
-      <c r="AQ28" s="77">
+      <c r="AQ28" s="78">
         <f>AP28+AP28*$W$32</f>
         <v>111894.70995025792</v>
       </c>
-      <c r="AR28" s="77">
+      <c r="AR28" s="78">
         <f>AQ28+AQ28*$W$32</f>
         <v>114132.60414926308</v>
       </c>
-      <c r="AS28" s="77">
+      <c r="AS28" s="78">
         <f>AR28+AR28*$W$32</f>
         <v>116415.25623224834</v>
       </c>
-      <c r="AT28" s="77">
+      <c r="AT28" s="78">
         <f>AS28+AS28*$W$32</f>
         <v>118743.5613568933</v>
       </c>
-      <c r="AU28" s="77">
+      <c r="AU28" s="78">
         <f>AT28+AT28*$W$32</f>
         <v>121118.43258403116</v>
       </c>
-      <c r="AV28" s="77">
+      <c r="AV28" s="78">
         <f>AU28+AU28*$W$32</f>
         <v>123540.80123571178</v>
       </c>
-      <c r="AW28" s="77">
+      <c r="AW28" s="78">
         <f>AV28+AV28*$W$32</f>
         <v>126011.61726042602</v>
       </c>
-      <c r="AX28" s="77">
+      <c r="AX28" s="78">
         <f>AW28+AW28*$W$32</f>
         <v>128531.84960563455</v>
       </c>
-      <c r="AY28" s="77">
+      <c r="AY28" s="78">
         <f>AX28+AX28*$W$32</f>
         <v>131102.48659774725</v>
       </c>
-      <c r="AZ28" s="77">
+      <c r="AZ28" s="78">
         <f>AY28+AY28*$W$32</f>
         <v>133724.53632970218</v>
       </c>
-      <c r="BA28" s="77">
+      <c r="BA28" s="78">
         <f>AZ28+AZ28*$W$32</f>
         <v>136399.02705629624</v>
       </c>
-      <c r="BB28" s="77">
+      <c r="BB28" s="78">
         <f>BA28+BA28*$W$32</f>
         <v>139127.00759742217</v>
       </c>
-      <c r="BC28" s="77">
+      <c r="BC28" s="78">
         <f>BB28+BB28*$W$32</f>
         <v>141909.5477493706</v>
       </c>
-      <c r="BD28" s="77">
+      <c r="BD28" s="78">
         <f>BC28+BC28*$W$32</f>
         <v>144747.73870435802</v>
       </c>
-      <c r="BE28" s="77">
+      <c r="BE28" s="78">
         <f>BD28+BD28*$W$32</f>
         <v>147642.69347844517</v>
       </c>
-      <c r="BF28" s="77">
+      <c r="BF28" s="78">
         <f>BE28+BE28*$W$32</f>
         <v>150595.54734801408</v>
       </c>
-      <c r="BG28" s="77">
+      <c r="BG28" s="78">
         <f>BF28+BF28*$W$32</f>
         <v>153607.45829497435</v>
       </c>
-      <c r="BH28" s="77">
+      <c r="BH28" s="78">
         <f>BG28+BG28*$W$32</f>
         <v>156679.60746087384</v>
       </c>
-      <c r="BI28" s="77">
+      <c r="BI28" s="78">
         <f>BH28+BH28*$W$32</f>
         <v>159813.19961009131</v>
       </c>
-      <c r="BJ28" s="77">
+      <c r="BJ28" s="78">
         <f>BI28+BI28*$W$32</f>
         <v>163009.46360229314</v>
       </c>
-      <c r="BK28" s="77">
+      <c r="BK28" s="78">
         <f>BJ28+BJ28*$W$32</f>
         <v>166269.65287433899</v>
       </c>
-      <c r="BL28" s="77">
+      <c r="BL28" s="78">
         <f>BK28+BK28*$W$32</f>
         <v>169595.04593182576</v>
       </c>
-      <c r="BM28" s="77">
+      <c r="BM28" s="78">
         <f>BL28+BL28*$W$32</f>
         <v>172986.94685046229</v>
       </c>
-      <c r="BN28" s="77">
+      <c r="BN28" s="78">
         <f>BM28+BM28*$W$32</f>
         <v>176446.68578747154</v>
       </c>
-      <c r="BO28" s="77">
+      <c r="BO28" s="78">
         <f>BN28+BN28*$W$32</f>
         <v>179975.61950322098</v>
       </c>
-      <c r="BP28" s="77">
+      <c r="BP28" s="78">
         <f>BO28+BO28*$W$32</f>
         <v>183575.1318932854</v>
       </c>
-      <c r="BQ28" s="77">
+      <c r="BQ28" s="78">
         <f>BP28+BP28*$W$32</f>
         <v>187246.63453115112</v>
       </c>
-      <c r="BR28" s="77">
+      <c r="BR28" s="78">
         <f>BQ28+BQ28*$W$32</f>
         <v>190991.56722177414</v>
       </c>
-      <c r="BS28" s="77">
+      <c r="BS28" s="78">
         <f>BR28+BR28*$W$32</f>
         <v>194811.39856620962</v>
       </c>
-      <c r="BT28" s="77">
+      <c r="BT28" s="78">
         <f>BS28+BS28*$W$32</f>
         <v>198707.62653753383</v>
       </c>
-      <c r="BU28" s="77">
+      <c r="BU28" s="78">
         <f>BT28+BT28*$W$32</f>
         <v>202681.77906828449</v>
       </c>
-      <c r="BV28" s="77">
+      <c r="BV28" s="78">
         <f>BU28+BU28*$W$32</f>
         <v>206735.41464965019</v>
       </c>
-      <c r="BW28" s="77">
+      <c r="BW28" s="78">
         <f>BV28+BV28*$W$32</f>
         <v>210870.12294264318</v>
       </c>
-      <c r="BX28" s="77">
+      <c r="BX28" s="78">
         <f>BW28+BW28*$W$32</f>
         <v>215087.52540149604</v>
       </c>
-      <c r="BY28" s="77">
+      <c r="BY28" s="78">
         <f>BX28+BX28*$W$32</f>
         <v>219389.27590952595</v>
       </c>
-      <c r="BZ28" s="77">
+      <c r="BZ28" s="78">
         <f>BY28+BY28*$W$32</f>
         <v>223777.06142771649</v>
       </c>
-      <c r="CA28" s="77">
+      <c r="CA28" s="78">
         <f>BZ28+BZ28*$W$32</f>
         <v>228252.60265627081</v>
       </c>
-      <c r="CB28" s="77">
+      <c r="CB28" s="78">
         <f>CA28+CA28*$W$32</f>
         <v>232817.65470939624</v>
       </c>
-      <c r="CC28" s="77">
+      <c r="CC28" s="78">
         <f>CB28+CB28*$W$32</f>
         <v>237474.00780358416</v>
       </c>
-      <c r="CD28" s="77">
+      <c r="CD28" s="78">
         <f>CC28+CC28*$W$32</f>
         <v>242223.48795965585</v>
       </c>
-      <c r="CE28" s="77">
+      <c r="CE28" s="78">
         <f>CD28+CD28*$W$32</f>
         <v>247067.95771884895</v>
       </c>
-      <c r="CF28" s="77">
+      <c r="CF28" s="78">
         <f>CE28+CE28*$W$32</f>
         <v>252009.31687322594</v>
       </c>
-      <c r="CG28" s="77">
+      <c r="CG28" s="78">
         <f>CF28+CF28*$W$32</f>
         <v>257049.50321069045</v>
       </c>
-      <c r="CH28" s="77">
+      <c r="CH28" s="78">
         <f>CG28+CG28*$W$32</f>
         <v>262190.49327490426</v>
       </c>
-      <c r="CI28" s="77">
+      <c r="CI28" s="78">
         <f>CH28+CH28*$W$32</f>
         <v>267434.30314040236</v>
       </c>
-      <c r="CJ28" s="77">
+      <c r="CJ28" s="78">
         <f>CI28+CI28*$W$32</f>
         <v>272782.9892032104</v>
       </c>
-      <c r="CK28" s="77">
+      <c r="CK28" s="78">
         <f>CJ28+CJ28*$W$32</f>
         <v>278238.64898727462</v>
       </c>
-      <c r="CL28" s="77">
+      <c r="CL28" s="78">
         <f>CK28+CK28*$W$32</f>
         <v>283803.42196702008</v>
       </c>
-      <c r="CM28" s="77">
+      <c r="CM28" s="78">
         <f>CL28+CL28*$W$32</f>
         <v>289479.49040636048</v>
       </c>
-      <c r="CN28" s="77">
+      <c r="CN28" s="78">
         <f>CM28+CM28*$W$32</f>
         <v>295269.08021448768</v>
       </c>
-      <c r="CO28" s="77">
+      <c r="CO28" s="78">
         <f>CN28+CN28*$W$32</f>
         <v>301174.46181877743</v>
       </c>
-      <c r="CP28" s="77">
+      <c r="CP28" s="78">
         <f>CO28+CO28*$W$32</f>
         <v>307197.95105515298</v>
       </c>
-      <c r="CQ28" s="77">
+      <c r="CQ28" s="78">
         <f>CP28+CP28*$W$32</f>
         <v>313341.91007625603</v>
       </c>
-      <c r="CR28" s="77">
+      <c r="CR28" s="78">
         <f>CQ28+CQ28*$W$32</f>
         <v>319608.74827778112</v>
       </c>
-      <c r="CS28" s="77">
+      <c r="CS28" s="78">
         <f>CR28+CR28*$W$32</f>
         <v>326000.92324333673</v>
       </c>
-      <c r="CT28" s="77">
+      <c r="CT28" s="78">
         <f>CS28+CS28*$W$32</f>
         <v>332520.94170820346</v>
       </c>
-      <c r="CU28" s="77">
+      <c r="CU28" s="78">
         <f>CT28+CT28*$W$32</f>
         <v>339171.36054236756</v>
       </c>
-      <c r="CV28" s="77">
+      <c r="CV28" s="78">
         <f>CU28+CU28*$W$32</f>
         <v>345954.78775321489</v>
       </c>
-      <c r="CW28" s="77">
+      <c r="CW28" s="78">
         <f>CV28+CV28*$W$32</f>
         <v>352873.88350827916</v>
       </c>
-      <c r="CX28" s="77">
+      <c r="CX28" s="78">
         <f>CW28+CW28*$W$32</f>
         <v>359931.36117844476</v>
       </c>
-      <c r="CY28" s="77">
+      <c r="CY28" s="78">
         <f>CX28+CX28*$W$32</f>
         <v>367129.98840201367</v>
       </c>
-      <c r="CZ28" s="77">
+      <c r="CZ28" s="78">
         <f>CY28+CY28*$W$32</f>
         <v>374472.58817005396</v>
       </c>
-      <c r="DA28" s="77">
+      <c r="DA28" s="78">
         <f>CZ28+CZ28*$W$32</f>
         <v>381962.03993345506</v>
       </c>
-      <c r="DB28" s="77">
+      <c r="DB28" s="78">
         <f>DA28+DA28*$W$32</f>
         <v>389601.28073212417</v>
       </c>
-      <c r="DC28" s="77">
+      <c r="DC28" s="78">
         <f>DB28+DB28*$W$32</f>
         <v>397393.30634676665</v>
       </c>
-      <c r="DD28" s="77">
+      <c r="DD28" s="78">
         <f>DC28+DC28*$W$32</f>
         <v>405341.172473702</v>
       </c>
-      <c r="DE28" s="77">
+      <c r="DE28" s="78">
         <f>DD28+DD28*$W$32</f>
         <v>413447.99592317606</v>
       </c>
-      <c r="DF28" s="77">
+      <c r="DF28" s="78">
         <f>DE28+DE28*$W$32</f>
         <v>421716.9558416396</v>
       </c>
-      <c r="DG28" s="77">
+      <c r="DG28" s="78">
         <f>DF28+DF28*$W$32</f>
         <v>430151.29495847237</v>
       </c>
-      <c r="DH28" s="77"/>
-      <c r="DI28" s="77"/>
-      <c r="DJ28" s="77"/>
-      <c r="DK28" s="77"/>
-      <c r="DL28" s="77"/>
-      <c r="DM28" s="77"/>
-      <c r="DN28" s="77"/>
-      <c r="DO28" s="77"/>
-      <c r="DP28" s="77"/>
-      <c r="DQ28" s="77"/>
-      <c r="DR28" s="77"/>
-      <c r="DS28" s="77"/>
-      <c r="DT28" s="77"/>
-      <c r="DU28" s="77"/>
-      <c r="DV28" s="77"/>
-      <c r="DW28" s="77"/>
-      <c r="DX28" s="77"/>
-      <c r="DY28" s="77"/>
-      <c r="DZ28" s="77"/>
-      <c r="EA28" s="77"/>
-      <c r="EB28" s="77"/>
-      <c r="EC28" s="77"/>
-      <c r="ED28" s="77"/>
+      <c r="DH28" s="78"/>
+      <c r="DI28" s="78"/>
+      <c r="DJ28" s="78"/>
+      <c r="DK28" s="78"/>
+      <c r="DL28" s="78"/>
+      <c r="DM28" s="78"/>
+      <c r="DN28" s="78"/>
+      <c r="DO28" s="78"/>
+      <c r="DP28" s="78"/>
+      <c r="DQ28" s="78"/>
+      <c r="DR28" s="78"/>
+      <c r="DS28" s="78"/>
+      <c r="DT28" s="78"/>
+      <c r="DU28" s="78"/>
+      <c r="DV28" s="78"/>
+      <c r="DW28" s="78"/>
+      <c r="DX28" s="78"/>
+      <c r="DY28" s="78"/>
+      <c r="DZ28" s="78"/>
+      <c r="EA28" s="78"/>
+      <c r="EB28" s="78"/>
+      <c r="EC28" s="78"/>
+      <c r="ED28" s="78"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
-        <v>442</v>
-      </c>
-      <c r="E29" s="79"/>
+        <v>445</v>
+      </c>
+      <c r="E29" s="80"/>
       <c r="F29">
         <v>4419.8199999999997</v>
       </c>
@@ -12594,44 +12640,44 @@
       <c r="H29">
         <v>10289.74</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="80">
         <v>12644.110000000001</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="55">
         <f t="shared" si="24"/>
         <v>12644.110000000001</v>
       </c>
-      <c r="P29" s="55"/>
-      <c r="U29" s="55"/>
+      <c r="P29" s="56"/>
+      <c r="U29" s="56"/>
     </row>
     <row r="30" ht="14.25">
       <c r="B30" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80">
+        <v>446</v>
+      </c>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81">
         <f>F28/F29-1</f>
         <v>-4.5250711555588907e-06</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="81">
         <f>G28/G29-1</f>
         <v>0.0048760498731550417</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="81">
         <f>H28/H29-1</f>
         <v>0.116145791827587</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="81">
         <f>I28/I29-1</f>
         <v>0.14999869504456953</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="55">
         <f t="shared" si="24"/>
         <v>0.14999869504456953</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="P30" s="55"/>
-      <c r="U30" s="55"/>
+      <c r="P30" s="56"/>
+      <c r="U30" s="56"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="14.25">
       <c r="A31" s="4"/>
@@ -12640,7 +12686,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="54">
+      <c r="J31" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -12649,32 +12695,32 @@
     </row>
     <row r="32" s="4" customFormat="1" ht="16.5">
       <c r="A32" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="48">
+      <c r="G32" s="49">
         <v>605429233</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="49">
         <v>605429233</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="49">
         <v>618996320</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="55">
         <f t="shared" si="24"/>
         <v>618996320</v>
       </c>
       <c r="P32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="W32" s="81">
+        <v>334</v>
+      </c>
+      <c r="W32" s="82">
         <v>0.02</v>
       </c>
     </row>
@@ -12682,60 +12728,60 @@
       <c r="B33" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="79"/>
+      <c r="E33" s="80"/>
       <c r="F33">
         <v>600670592</v>
       </c>
       <c r="G33">
         <v>602574303</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="53">
         <v>603976750</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="53">
         <v>610032743</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="55">
         <f t="shared" si="24"/>
         <v>610032743</v>
       </c>
-      <c r="P33" s="55"/>
-      <c r="U33" s="55"/>
+      <c r="P33" s="56"/>
+      <c r="U33" s="56"/>
       <c r="V33" t="s">
-        <v>446</v>
-      </c>
-      <c r="W33" s="82">
+        <v>449</v>
+      </c>
+      <c r="W33" s="83">
         <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B34" t="s">
-        <v>448</v>
-      </c>
-      <c r="E34" s="79"/>
+        <v>451</v>
+      </c>
+      <c r="E34" s="80"/>
       <c r="F34">
         <v>5149.8500000000004</v>
       </c>
       <c r="G34">
         <v>7259.9499999999998</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="53">
         <v>5616.75</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="53">
         <v>7110</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="55">
         <f t="shared" si="24"/>
         <v>7110</v>
       </c>
-      <c r="P34" s="55"/>
-      <c r="U34" s="55"/>
+      <c r="P34" s="56"/>
+      <c r="U34" s="56"/>
       <c r="V34" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="W34">
         <f>NPV(W33,K28:DG28)</f>
@@ -12744,79 +12790,79 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="54">
+      <c r="E35" s="80"/>
+      <c r="F35" s="55">
         <f>F29*10000000/F33</f>
         <v>73.581428138236546</v>
       </c>
-      <c r="G35" s="54">
+      <c r="G35" s="55">
         <f>G29*10000000/G33</f>
         <v>116.63673616695866</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="55">
         <f>H29*10000000/H33</f>
         <v>170.36649175651215</v>
       </c>
-      <c r="I35" s="54">
+      <c r="I35" s="55">
         <f>I29*10000000/I33</f>
         <v>207.26936619531585</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="55">
         <f t="shared" si="24"/>
         <v>207.26936619531585</v>
       </c>
-      <c r="P35" s="55"/>
-      <c r="U35" s="55"/>
+      <c r="P35" s="56"/>
+      <c r="U35" s="56"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="54">
+        <v>453</v>
+      </c>
+      <c r="E36" s="80"/>
+      <c r="F36" s="55">
         <f>F34/F35</f>
         <v>69.988448584132385</v>
       </c>
-      <c r="G36" s="54">
+      <c r="G36" s="55">
         <f>G34/G35</f>
         <v>62.244111405927946</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="55">
         <f>H34/H35</f>
         <v>32.968630991283554</v>
       </c>
-      <c r="I36" s="54">
+      <c r="I36" s="55">
         <f>I34/I35</f>
         <v>34.30318782998566</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="55">
         <f t="shared" si="24"/>
         <v>34.30318782998566</v>
       </c>
-      <c r="P36" s="55"/>
-      <c r="U36" s="55"/>
+      <c r="P36" s="56"/>
+      <c r="U36" s="56"/>
       <c r="V36" t="s">
-        <v>451</v>
-      </c>
-      <c r="W36" s="83">
+        <v>454</v>
+      </c>
+      <c r="W36" s="84">
         <f>J32</f>
         <v>618996320</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="J37" s="54">
+      <c r="J37" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P37" s="55"/>
-      <c r="U37" s="55"/>
+      <c r="P37" s="56"/>
+      <c r="U37" s="56"/>
       <c r="V37" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="W37">
         <v>8994.5</v>
@@ -12824,343 +12870,343 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P38" s="55"/>
-      <c r="U38" s="55"/>
+      <c r="P38" s="56"/>
+      <c r="U38" s="56"/>
       <c r="V38" t="s">
-        <v>454</v>
-      </c>
-      <c r="W38" s="53">
+        <v>457</v>
+      </c>
+      <c r="W38" s="54">
         <f>W34*10000000/W36</f>
         <v>8879.8038491862535</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="J39" s="54">
+      <c r="J39" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P39" s="55"/>
-      <c r="U39" s="55"/>
+      <c r="P39" s="56"/>
+      <c r="U39" s="56"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="84">
+      <c r="F40" s="85">
         <f>G11/F11-1</f>
         <v>0.18578774599436398</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="85">
         <f>H11/G11-1</f>
         <v>0.30903044555996573</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="85">
         <f>I11/H11-1</f>
         <v>0.32749444327212207</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="54">
+      <c r="I40" s="85"/>
+      <c r="J40" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>455</v>
-      </c>
-      <c r="L40" s="82">
+        <v>458</v>
+      </c>
+      <c r="L40" s="83">
         <v>0.16</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="82">
+      <c r="P40" s="56"/>
+      <c r="Q40" s="83">
         <v>0.12</v>
       </c>
-      <c r="U40" s="55"/>
+      <c r="U40" s="56"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" t="s">
-        <v>456</v>
-      </c>
-      <c r="F41" s="80">
+        <v>459</v>
+      </c>
+      <c r="F41" s="81">
         <f>G14/F14-1</f>
         <v>0.035504567665179509</v>
       </c>
-      <c r="G41" s="80">
+      <c r="G41" s="81">
         <f>H14/G14-1</f>
         <v>0.28842642364160098</v>
       </c>
-      <c r="H41" s="80">
+      <c r="H41" s="81">
         <f>I14/H14-1</f>
         <v>0.49083232416844402</v>
       </c>
-      <c r="J41" s="54">
+      <c r="J41" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P41" s="55"/>
-      <c r="U41" s="55"/>
+      <c r="P41" s="56"/>
+      <c r="U41" s="56"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" t="s">
-        <v>457</v>
-      </c>
-      <c r="F42" s="84">
+        <v>460</v>
+      </c>
+      <c r="F42" s="85">
         <f>F14/F11</f>
         <v>0.35280850787935247</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="85">
         <f>G14/G11</f>
         <v>0.3080946169787307</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="85">
         <f>H14/H11</f>
         <v>0.30324523531408615</v>
       </c>
-      <c r="I42" s="84">
+      <c r="I42" s="85">
         <f>I14/I11</f>
         <v>0.34055720628250696</v>
       </c>
-      <c r="J42" s="54">
+      <c r="J42" s="55">
         <f t="shared" si="24"/>
         <v>0.34055720628250696</v>
       </c>
-      <c r="L42" s="82">
+      <c r="L42" s="83">
         <f>35%</f>
         <v>0.34999999999999998</v>
       </c>
-      <c r="P42" s="55"/>
-      <c r="U42" s="55"/>
+      <c r="P42" s="56"/>
+      <c r="U42" s="56"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" t="s">
-        <v>458</v>
-      </c>
-      <c r="F43" s="84">
+        <v>461</v>
+      </c>
+      <c r="F43" s="85">
         <f t="shared" ref="F43:F47" si="31">G15/F15-1</f>
         <v>0.4003834798793402</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="85">
         <f t="shared" ref="G43:G47" si="32">H15/G15-1</f>
         <v>0.083595428375010883</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="85">
         <f t="shared" ref="H43:H47" si="33">I15/H15-1</f>
         <v>0.021163433731436365</v>
       </c>
-      <c r="J43" s="54">
+      <c r="J43" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L43" s="82">
+      <c r="L43" s="83">
         <v>0.059999999999999998</v>
       </c>
-      <c r="Q43" s="82">
+      <c r="Q43" s="83">
         <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" t="s">
-        <v>459</v>
-      </c>
-      <c r="F44" s="84">
+        <v>462</v>
+      </c>
+      <c r="F44" s="85">
         <f t="shared" si="31"/>
         <v>-0.19521896330450461</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="85">
         <f t="shared" si="32"/>
         <v>-0.33595994503893067</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="85">
         <f t="shared" si="33"/>
         <v>0.45178938128007773</v>
       </c>
-      <c r="J44" s="54">
+      <c r="J44" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L44" s="82">
+      <c r="L44" s="83">
         <v>0.10000000000000001</v>
       </c>
-      <c r="Q44" s="82">
+      <c r="Q44" s="83">
         <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" t="s">
-        <v>460</v>
-      </c>
-      <c r="F45" s="84">
+        <v>463</v>
+      </c>
+      <c r="F45" s="85">
         <f t="shared" si="31"/>
         <v>0.43662828624828398</v>
       </c>
-      <c r="G45" s="84">
+      <c r="G45" s="85">
         <f t="shared" si="32"/>
         <v>0.42080029863552526</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="85">
         <f t="shared" si="33"/>
         <v>0.25407288748066259</v>
       </c>
-      <c r="J45" s="54">
+      <c r="J45" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L45" s="82">
+      <c r="L45" s="83">
         <v>0.14999999999999999</v>
       </c>
-      <c r="Q45" s="82">
+      <c r="Q45" s="83">
         <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" t="s">
-        <v>461</v>
-      </c>
-      <c r="F46" s="84">
+        <v>464</v>
+      </c>
+      <c r="F46" s="85">
         <f t="shared" si="31"/>
         <v>0.18231008085590439</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="85">
         <f t="shared" si="32"/>
         <v>0.26213693215799472</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="85">
         <f t="shared" si="33"/>
         <v>0.40780419465161333</v>
       </c>
-      <c r="J46" s="54">
+      <c r="J46" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L46" s="82">
+      <c r="L46" s="83">
         <v>0.14999999999999999</v>
       </c>
-      <c r="Q46" s="82">
+      <c r="Q46" s="83">
         <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" t="s">
-        <v>462</v>
-      </c>
-      <c r="F47" s="84">
+        <v>465</v>
+      </c>
+      <c r="F47" s="85">
         <f t="shared" si="31"/>
         <v>0.50688727490123542</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="85">
         <f t="shared" si="32"/>
         <v>0.42905624567743028</v>
       </c>
-      <c r="H47" s="84">
+      <c r="H47" s="85">
         <f t="shared" si="33"/>
         <v>0.24343366510472753</v>
       </c>
-      <c r="J47" s="54">
+      <c r="J47" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L47" s="82">
+      <c r="L47" s="83">
         <v>0.20000000000000001</v>
       </c>
-      <c r="Q47" s="82">
+      <c r="Q47" s="83">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="48" s="85" customFormat="1" ht="14.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85" t="s">
-        <v>463</v>
-      </c>
-      <c r="F48" s="86">
+    <row r="48" s="86" customFormat="1" ht="14.25">
+      <c r="A48" s="86"/>
+      <c r="B48" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="F48" s="87">
         <f>G24/F24-1</f>
         <v>0.57433669965149692</v>
       </c>
-      <c r="G48" s="86">
+      <c r="G48" s="87">
         <f>H24/G24-1</f>
         <v>0.62395023328149302</v>
       </c>
-      <c r="H48" s="86">
+      <c r="H48" s="87">
         <f>I24/H24-1</f>
         <v>0.20850610795065916</v>
       </c>
-      <c r="J48" s="54">
+      <c r="J48" s="55">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" t="s">
-        <v>464</v>
-      </c>
-      <c r="F49" s="84">
+        <v>467</v>
+      </c>
+      <c r="F49" s="85">
         <f>-F24/F23</f>
         <v>0.2624127204517841</v>
       </c>
-      <c r="G49" s="84">
+      <c r="G49" s="85">
         <f>-G24/G23</f>
         <v>0.26048056667978414</v>
       </c>
-      <c r="H49" s="84">
+      <c r="H49" s="85">
         <f>-H24/H23</f>
         <v>0.25890045376503917</v>
       </c>
-      <c r="I49" s="84">
+      <c r="I49" s="85">
         <f>-I24/I23</f>
         <v>0.25160580996883941</v>
       </c>
-      <c r="J49" s="54">
+      <c r="J49" s="55">
         <f t="shared" si="24"/>
         <v>0.25160580996883941</v>
       </c>
-      <c r="L49" s="82">
+      <c r="L49" s="83">
         <v>0.25</v>
       </c>
-      <c r="Q49" s="82">
+      <c r="Q49" s="83">
         <v>0.25</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" t="s">
-        <v>465</v>
-      </c>
-      <c r="F50" s="73">
+        <v>468</v>
+      </c>
+      <c r="F50" s="74">
         <f>F16/F11</f>
         <v>0.22368449160383957</v>
       </c>
-      <c r="G50" s="87">
+      <c r="G50" s="88">
         <f>G16/G11</f>
         <v>0.15181219206704336</v>
       </c>
-      <c r="H50" s="87">
+      <c r="H50" s="88">
         <f>H16/H11</f>
         <v>0.077010719426649027</v>
       </c>
-      <c r="I50" s="87">
+      <c r="I50" s="88">
         <f>I16/I11</f>
         <v>0.08422132783679756</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
     <row r="53" ht="14.25">
       <c r="B53" t="s">
-        <v>467</v>
-      </c>
-      <c r="H53" s="53">
+        <v>470</v>
+      </c>
+      <c r="H53" s="54">
         <v>120.89</v>
       </c>
-      <c r="I53" s="53">
+      <c r="I53" s="54">
         <v>123.59999999999999</v>
       </c>
     </row>
@@ -13168,22 +13214,22 @@
       <c r="B54" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="53">
+      <c r="H54" s="54">
         <v>51372.239999999998</v>
       </c>
-      <c r="I54" s="53">
+      <c r="I54" s="54">
         <v>71886.929999999993</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" t="s">
-        <v>468</v>
-      </c>
-      <c r="H55" s="53">
+        <v>471</v>
+      </c>
+      <c r="H55" s="54">
         <f>H54+H53</f>
         <v>51493.129999999997</v>
       </c>
-      <c r="I55" s="61">
+      <c r="I55" s="62">
         <f>I54+I53</f>
         <v>72010.529999999999</v>
       </c>
@@ -13191,57 +13237,57 @@
     <row r="56" ht="14.25"/>
     <row r="57" ht="14.25">
       <c r="B57" t="s">
-        <v>469</v>
-      </c>
-      <c r="H57" s="53">
+        <v>472</v>
+      </c>
+      <c r="H57" s="54">
         <v>87596.089999999997</v>
       </c>
-      <c r="I57" s="53">
+      <c r="I57" s="54">
         <v>65669.850000000006</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" t="s">
-        <v>470</v>
-      </c>
-      <c r="H58" s="53">
+        <v>473</v>
+      </c>
+      <c r="H58" s="54">
         <v>69238</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="54">
         <v>47894.699999999997</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" t="s">
-        <v>277</v>
-      </c>
-      <c r="H59" s="53">
+        <v>280</v>
+      </c>
+      <c r="H59" s="54">
         <v>59966.660000000003</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="54">
         <v>44489.790000000001</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" t="s">
-        <v>471</v>
-      </c>
-      <c r="H60" s="53">
+        <v>474</v>
+      </c>
+      <c r="H60" s="54">
         <v>3577.9000000000001</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="54">
         <v>3630.29</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" t="s">
-        <v>472</v>
-      </c>
-      <c r="H61" s="53">
+        <v>475</v>
+      </c>
+      <c r="H61" s="54">
         <f>SUM(H57:H60)</f>
         <v>220378.64999999999</v>
       </c>
-      <c r="I61" s="61">
+      <c r="I61" s="62">
         <f>SUM(I57:I60)</f>
         <v>161684.63</v>
       </c>

--- a/sheets/NBFC.xlsx
+++ b/sheets/NBFC.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>NBFC</t>
   </si>
@@ -686,6 +686,18 @@
   </si>
   <si>
     <t xml:space="preserve">Loan to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upto 2.5 lakh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 to 5 lakh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">above 5 lakh </t>
   </si>
   <si>
     <t xml:space="preserve">Cash Inputs </t>
@@ -1793,6 +1805,7 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="169" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1880,7 +1893,6 @@
     <xf fontId="1" fillId="0" borderId="2" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="2" applyNumberFormat="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="172" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="2" applyNumberFormat="1"/>
@@ -2791,7 +2803,7 @@
     <row r="1" ht="16.5">
       <c r="A1" s="89"/>
       <c r="B1" s="90" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
@@ -2809,10 +2821,10 @@
     <row r="3" ht="15">
       <c r="A3" s="89"/>
       <c r="B3" s="92" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -2820,10 +2832,10 @@
     </row>
     <row r="4" ht="15">
       <c r="A4" s="94" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C4" s="95">
         <v>52.700000000000003</v>
@@ -2835,7 +2847,7 @@
     <row r="5" ht="15">
       <c r="A5" s="89"/>
       <c r="B5" s="94" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C5" s="95">
         <v>16.300000000000001</v>
@@ -2847,7 +2859,7 @@
     <row r="6" ht="15">
       <c r="A6" s="89"/>
       <c r="B6" s="94" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C6" s="95">
         <v>31</v>
@@ -2875,13 +2887,13 @@
     <row r="9" ht="15">
       <c r="A9" s="89"/>
       <c r="B9" s="92" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
@@ -2889,7 +2901,7 @@
     <row r="10" ht="15">
       <c r="A10" s="89"/>
       <c r="B10" s="94" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C10" s="95">
         <v>100</v>
@@ -2903,29 +2915,29 @@
     <row r="11" ht="15">
       <c r="A11" s="89"/>
       <c r="B11" s="94" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C11" s="95">
         <v>100</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="94" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C12" s="95">
         <v>74</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="89"/>
@@ -2933,13 +2945,13 @@
     <row r="13" ht="15">
       <c r="A13" s="89"/>
       <c r="B13" s="94" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C13" s="95">
         <v>50</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
@@ -2947,29 +2959,29 @@
     <row r="14" ht="15">
       <c r="A14" s="89"/>
       <c r="B14" s="94" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C14" s="95">
         <v>51</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="94" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C15" s="95">
         <v>45</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="89"/>
@@ -2977,13 +2989,13 @@
     <row r="16" ht="15">
       <c r="A16" s="89"/>
       <c r="B16" s="94" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C16" s="95">
         <v>46</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="89"/>
@@ -2991,13 +3003,13 @@
     <row r="17" ht="15">
       <c r="A17" s="89"/>
       <c r="B17" s="94" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C17" s="95">
         <v>100</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="89"/>
@@ -3046,7 +3058,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
@@ -3060,23 +3072,23 @@
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C4" s="53">
+        <v>506</v>
+      </c>
+      <c r="C4" s="54">
         <v>4410</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="54">
         <v>6296</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C5" s="53">
+        <v>507</v>
+      </c>
+      <c r="C5" s="54">
         <v>1417</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="54">
         <v>1957</v>
       </c>
     </row>
@@ -3088,28 +3100,28 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="57">
+        <v>310</v>
+      </c>
+      <c r="C7" s="58">
         <f>C4-C5</f>
         <v>2993</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="58">
         <f>D4-D5</f>
         <v>4339</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="53">
+        <v>509</v>
+      </c>
+      <c r="C8" s="54">
         <v>903</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="54">
         <v>1352</v>
       </c>
     </row>
@@ -3117,11 +3129,11 @@
       <c r="B9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="58">
         <f>C4-C5-C8</f>
         <v>2090</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="58">
         <f>D4-D5-D8</f>
         <v>2987</v>
       </c>
@@ -3130,54 +3142,54 @@
       <c r="B10" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="54">
         <v>536</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="54">
         <v>766</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" s="57">
+        <v>510</v>
+      </c>
+      <c r="C11" s="58">
         <f>C9-C10</f>
         <v>1554</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="58">
         <f>D9-D10</f>
         <v>2221</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
-        <v>507</v>
-      </c>
-      <c r="C12" s="53">
+        <v>511</v>
+      </c>
+      <c r="C12" s="54">
         <v>11426</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="54">
         <v>15224</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>508</v>
-      </c>
-      <c r="C13" s="53">
+        <v>512</v>
+      </c>
+      <c r="C13" s="54">
         <v>70771</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="54">
         <v>92292</v>
       </c>
     </row>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25">
       <c r="B15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" s="74">
+        <v>513</v>
+      </c>
+      <c r="C15" s="75">
         <f>C11/C12</f>
         <v>0.13600560126028358</v>
       </c>
@@ -3188,9 +3200,9 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C16" s="80">
+        <v>514</v>
+      </c>
+      <c r="C16" s="81">
         <f>C13/C12</f>
         <v>6.1938561176264662</v>
       </c>
@@ -3201,9 +3213,9 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="74">
+        <v>515</v>
+      </c>
+      <c r="C17" s="75">
         <f>C5/C4</f>
         <v>0.32131519274376419</v>
       </c>
@@ -3214,9 +3226,9 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>512</v>
-      </c>
-      <c r="C18" s="74">
+        <v>516</v>
+      </c>
+      <c r="C18" s="75">
         <f>C8/C7</f>
         <v>0.30170397594386905</v>
       </c>
@@ -3227,10 +3239,10 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5726,758 +5738,780 @@
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="4"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.84999999999999998</v>
+      </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
-    </row>
-    <row r="7">
+      <c r="B6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.75</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" ht="16.5">
-      <c r="A8" s="5" t="s">
-        <v>220</v>
-      </c>
+    <row r="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="26"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>2088.9000000000001</v>
       </c>
     </row>
-    <row r="10" ht="16.5">
-      <c r="G10" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="4">
+    <row r="11" ht="16.5">
+      <c r="G11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="4">
         <v>401461676</v>
       </c>
     </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="4" t="s">
+    <row r="12" ht="16.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="23">
-        <f>H9*H10/1000000</f>
+      <c r="H12" s="23">
+        <f>H10*H11/1000000</f>
         <v>838613.29499640001</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="A12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="4">
-        <f>50365.46+93.14</f>
-        <v>50458.599999999999</v>
-      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" ht="16.5">
       <c r="A13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H13" s="4">
-        <f>163714.7+423613.13</f>
-        <v>587327.83000000007</v>
+        <f>50365.46+93.14</f>
+        <v>50458.599999999999</v>
       </c>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H14" s="23">
-        <f>H11+H13-H12</f>
+        <v>229</v>
+      </c>
+      <c r="H14" s="4">
+        <f>163714.7+423613.13</f>
+        <v>587327.83000000007</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="A15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="23">
+        <f>H12+H14-H13</f>
         <v>1375482.5249963999</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="17" ht="16.5">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="A18" s="4"/>
     </row>
     <row r="20" ht="14.25">
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="22" ht="16.5">
-      <c r="A22" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="D23" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5">
-      <c r="C24" s="5" t="s">
+    <row r="21" ht="14.25">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="A23" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="D24" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="C25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" ht="16.5">
-      <c r="B25" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" ht="16.5">
-      <c r="B26" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="27">
-        <v>60373.449999999997</v>
-      </c>
-      <c r="D26" s="27">
-        <v>77701.830000000002</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="28" t="s">
+      <c r="B26" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="G26" s="5" t="s">
         <v>234</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" s="27">
+        <v>236</v>
+      </c>
+      <c r="C27" s="28">
+        <v>60373.449999999997</v>
+      </c>
+      <c r="D27" s="28">
+        <v>77701.830000000002</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="B28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="28">
         <v>2346.5700000000002</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D28" s="28">
         <v>2654.7600000000002</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H27" s="29">
+      <c r="G28" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="30">
         <v>599079.01000000001</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I28" s="30">
         <v>599079.01000000001</v>
       </c>
     </row>
-    <row r="28" ht="16.5">
-      <c r="A28" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="27">
+    <row r="29" ht="16.5">
+      <c r="A29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="28">
         <v>178.36000000000001</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D29" s="28">
         <v>98.950000000000003</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="29">
+      <c r="G29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="30">
         <v>206.81</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I29" s="30">
         <v>206.81</v>
       </c>
     </row>
-    <row r="29" ht="16.5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="27">
+    <row r="30" ht="16.5">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="28">
         <v>0</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D30" s="28">
         <v>0</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="G30" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="30">
         <v>3745.7600000000002</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" ht="16.5">
-      <c r="A30" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="27">
-        <v>881871.70999999996</v>
-      </c>
-      <c r="D30" s="27">
-        <v>705543.83999999997</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H30" s="29">
-        <v>26.379999999999999</v>
-      </c>
-      <c r="I30" s="29"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31" s="27">
+        <v>247</v>
+      </c>
+      <c r="C31" s="28">
+        <v>881871.70999999996</v>
+      </c>
+      <c r="D31" s="28">
+        <v>705543.83999999997</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="30">
+        <v>26.379999999999999</v>
+      </c>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="A32" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="28">
         <v>7124.7200000000003</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D32" s="28">
         <v>5457.1199999999999</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" s="29">
+      <c r="G32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="30">
         <v>9202.5699999999997</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I32" s="30">
         <v>9202.5699999999997</v>
       </c>
     </row>
-    <row r="32" ht="16.5">
-      <c r="B32" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" s="27">
+    <row r="33" ht="16.5">
+      <c r="B33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="28">
         <v>4136.1199999999999</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D33" s="28">
         <v>3453</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="29">
+      <c r="G33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H33" s="30">
         <v>1.0600000000000001</v>
       </c>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" ht="16.5">
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="G33" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" s="29">
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="G34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="30">
         <v>371.29000000000002</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I34" s="30">
         <v>371.29000000000002</v>
       </c>
-    </row>
-    <row r="34" ht="16.5">
-      <c r="B34" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="27">
-        <v>724.86000000000001</v>
-      </c>
-      <c r="D34" s="27">
-        <v>474.56999999999999</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H34" s="29">
-        <v>27.059999999999999</v>
-      </c>
-      <c r="I34" s="29"/>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="27">
-        <v>975.77999999999997</v>
-      </c>
-      <c r="D35" s="27">
-        <v>640.98000000000002</v>
+        <v>255</v>
+      </c>
+      <c r="C35" s="28">
+        <v>724.86000000000001</v>
+      </c>
+      <c r="D35" s="28">
+        <v>474.56999999999999</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="29">
-        <v>1058.5699999999999</v>
-      </c>
-      <c r="I35" s="4">
-        <v>31.75</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="H35" s="30">
+        <v>27.059999999999999</v>
+      </c>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="27">
-        <v>91.069999999999993</v>
-      </c>
-      <c r="D36" s="27">
-        <v>82.019999999999996</v>
+        <v>257</v>
+      </c>
+      <c r="C36" s="28">
+        <v>975.77999999999997</v>
+      </c>
+      <c r="D36" s="28">
+        <v>640.98000000000002</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H36" s="29">
-        <v>1868.26</v>
-      </c>
-      <c r="I36" s="29">
-        <v>1868.26</v>
+        <v>258</v>
+      </c>
+      <c r="H36" s="30">
+        <v>1058.5699999999999</v>
+      </c>
+      <c r="I36" s="4">
+        <v>31.75</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="27">
-        <v>4255.2399999999998</v>
-      </c>
-      <c r="D37" s="27">
-        <v>3272.3699999999999</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="C37" s="28">
+        <v>91.069999999999993</v>
+      </c>
+      <c r="D37" s="28">
+        <v>82.019999999999996</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="29">
-        <v>37963.510000000002</v>
-      </c>
-      <c r="I37" s="29">
-        <v>12.06</v>
+        <v>260</v>
+      </c>
+      <c r="H37" s="30">
+        <v>1868.26</v>
+      </c>
+      <c r="I37" s="30">
+        <v>1868.26</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="27">
-        <v>111.11</v>
-      </c>
-      <c r="D38" s="27">
-        <v>142.22999999999999</v>
+        <v>261</v>
+      </c>
+      <c r="C38" s="28">
+        <v>4255.2399999999998</v>
+      </c>
+      <c r="D38" s="28">
+        <v>3272.3699999999999</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="29">
-        <v>1894.0899999999999</v>
-      </c>
-      <c r="I38" s="29"/>
+        <v>263</v>
+      </c>
+      <c r="H38" s="30">
+        <v>37963.510000000002</v>
+      </c>
+      <c r="I38" s="30">
+        <v>12.06</v>
+      </c>
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="27">
-        <v>883.15999999999997</v>
-      </c>
-      <c r="D39" s="27">
-        <v>674.26999999999998</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C39" s="28">
+        <v>111.11</v>
+      </c>
+      <c r="D39" s="28">
+        <v>142.22999999999999</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H39" s="30">
+        <v>1894.0899999999999</v>
+      </c>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C40" s="27">
-        <v>299.95999999999998</v>
-      </c>
-      <c r="D40" s="27">
-        <v>299.95999999999998</v>
+        <v>266</v>
+      </c>
+      <c r="C40" s="28">
+        <v>883.15999999999997</v>
+      </c>
+      <c r="D40" s="28">
+        <v>674.26999999999998</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C41" s="27">
-        <v>58.350000000000001</v>
-      </c>
-      <c r="D41" s="27">
-        <v>58.850000000000001</v>
+        <v>267</v>
+      </c>
+      <c r="C41" s="28">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="D41" s="28">
+        <v>299.95999999999998</v>
       </c>
     </row>
     <row r="42" ht="16.5">
       <c r="B42" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="27">
+        <v>268</v>
+      </c>
+      <c r="C42" s="28">
+        <v>58.350000000000001</v>
+      </c>
+      <c r="D42" s="28">
+        <v>58.850000000000001</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="B43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="28">
         <v>3.6499999999999999</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D43" s="28">
         <v>0.44</v>
       </c>
     </row>
-    <row r="43" ht="16.5">
-      <c r="A43" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C43" s="27">
+    <row r="44" ht="16.5">
+      <c r="A44" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="28">
         <v>1260.0899999999999</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D44" s="28">
         <v>934.00999999999999</v>
       </c>
     </row>
-    <row r="44" ht="14.25">
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-    </row>
-    <row r="45" s="5" customFormat="1" ht="16.5">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C45" s="30">
-        <f>SUM(C26:C43)</f>
+    <row r="45" ht="14.25">
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="16.5">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="31">
+        <f>SUM(C27:C44)</f>
         <v>964694.19999999984</v>
       </c>
-      <c r="D45" s="30">
-        <f>SUM(D26:D43)</f>
+      <c r="D46" s="31">
+        <f>SUM(D27:D44)</f>
         <v>801489.19999999984</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="47" ht="16.5">
-      <c r="A47" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="E46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="48" ht="16.5">
+      <c r="A48" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="B48" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" ht="16.5">
-      <c r="B51" s="5" t="s">
-        <v>272</v>
-      </c>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="B49" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" ht="16.5">
-      <c r="A52" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="4">
-        <v>138.86000000000001</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1921.73</v>
-      </c>
+      <c r="B52" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" ht="16.5">
       <c r="A53" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C53" s="4">
+        <v>138.86000000000001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1921.73</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="A54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="4">
         <f>7.68+1381.23</f>
         <v>1388.9100000000001</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D54" s="4">
         <f>7.2+871.23</f>
         <v>878.43000000000006</v>
       </c>
     </row>
-    <row r="54" ht="16.5">
-      <c r="B54" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="4">
+    <row r="55" ht="16.5">
+      <c r="B55" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="4">
         <f>1280.7</f>
         <v>1280.7</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D55" s="4">
         <f>871.23</f>
         <v>871.23000000000002</v>
       </c>
     </row>
-    <row r="55" ht="16.5">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C55" s="4">
+    <row r="56" ht="16.5">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="4">
         <v>174762.20000000001</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D56" s="4">
         <v>146045.79000000001</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5">
-      <c r="B56" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" s="4">
-        <v>500519.53000000003</v>
-      </c>
-      <c r="D56" s="4">
-        <v>405974.58000000002</v>
       </c>
     </row>
     <row r="57" ht="16.5">
       <c r="B57" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C57" s="4">
-        <v>4018.2600000000002</v>
+        <v>500519.53000000003</v>
       </c>
       <c r="D57" s="4">
-        <v>3314.7600000000002</v>
+        <v>405974.58000000002</v>
       </c>
     </row>
     <row r="58" ht="16.5">
       <c r="B58" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C58" s="4">
-        <v>3309.73</v>
+        <v>4018.2600000000002</v>
       </c>
       <c r="D58" s="4">
-        <v>2546.5500000000002</v>
+        <v>3314.7600000000002</v>
       </c>
     </row>
     <row r="59" ht="16.5">
       <c r="B59" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C59" s="4">
-        <v>125.91</v>
+        <v>3309.73</v>
       </c>
       <c r="D59" s="4">
-        <v>155.56999999999999</v>
+        <v>2546.5500000000002</v>
       </c>
     </row>
     <row r="60" ht="16.5">
       <c r="B60" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C60" s="4">
+        <v>125.91</v>
+      </c>
+      <c r="D60" s="4">
+        <v>155.56999999999999</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="B61" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="4">
         <v>16014.9</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D61" s="4">
         <v>12638.76</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5">
-      <c r="B62" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="4">
-        <v>551.67999999999995</v>
-      </c>
-      <c r="D62" s="4">
-        <v>811.91999999999996</v>
       </c>
     </row>
     <row r="63" ht="16.5">
       <c r="B63" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C63" s="4">
-        <v>3733.27</v>
+        <v>551.67999999999995</v>
       </c>
       <c r="D63" s="4">
-        <v>3618.9200000000001</v>
+        <v>811.91999999999996</v>
       </c>
     </row>
     <row r="64" ht="16.5">
       <c r="B64" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C64" s="4">
-        <v>167.62</v>
+        <v>3733.27</v>
       </c>
       <c r="D64" s="4">
-        <v>152.86000000000001</v>
+        <v>3618.9200000000001</v>
       </c>
     </row>
     <row r="65" ht="16.5">
       <c r="B65" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C65" s="4">
+        <v>167.62</v>
+      </c>
+      <c r="D65" s="4">
+        <v>152.86000000000001</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5">
+      <c r="B66" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="4">
         <v>11142.16</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D66" s="4">
         <v>781.58000000000004</v>
       </c>
     </row>
-    <row r="66" s="5" customFormat="1" ht="16.5">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C66" s="5">
-        <f>SUM(C52:C65)</f>
+    <row r="67" s="5" customFormat="1" ht="16.5">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="5">
+        <f>SUM(C53:C66)</f>
         <v>717153.73000000021</v>
       </c>
-      <c r="D66" s="5">
-        <f>SUM(D52:D65)</f>
+      <c r="D67" s="5">
+        <f>SUM(D53:D66)</f>
         <v>579712.68000000005</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" ht="16.5">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" ht="14.25">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" ht="16.5">
       <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" ht="16.5">
-      <c r="B69" s="5" t="s">
-        <v>289</v>
-      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="70" ht="16.5">
+      <c r="B70" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <v>4014.6199999999999</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D71" s="4">
         <v>4014.48</v>
       </c>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="B71" s="4" t="s">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="B72" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <v>247057.45000000001</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D72" s="4">
         <v>212643.04000000001</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" ht="14.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" s="5">
-        <f>SUM(C70:C71)</f>
+    <row r="73" s="5" customFormat="1" ht="14.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="5">
+        <f>SUM(C71:C72)</f>
         <v>251072.07000000001</v>
       </c>
-      <c r="D72" s="5">
-        <f>SUM(D70:D71)</f>
+      <c r="D73" s="5">
+        <f>SUM(D71:D72)</f>
         <v>216657.52000000002</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" s="5" customFormat="1" ht="14.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C74" s="5">
-        <f>C72+C66</f>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" s="5" customFormat="1" ht="14.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="5">
+        <f>C73+C67</f>
         <v>968225.80000000028</v>
       </c>
-      <c r="D74" s="5">
-        <f>D72+D66</f>
+      <c r="D75" s="5">
+        <f>D73+D67</f>
         <v>796370.20000000007</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" ht="14.25">
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" ht="14.25">
-      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="B78" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D23"/>
+    <hyperlink r:id="rId1" ref="D24"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -6506,21 +6540,21 @@
         <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="C2" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="16.5">
@@ -6537,7 +6571,7 @@
         <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>118</v>
@@ -6546,10 +6580,10 @@
         <v>184</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>C3</f>
@@ -6870,27 +6904,27 @@
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="32">
         <v>145457.01000000001</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="28">
         <v>115555.35000000001</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="28">
         <v>119251.52</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>112102.78999999999</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="28">
         <v>94177.360000000001</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="28">
         <v>74160.100000000006</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="31">
+      <c r="K5" s="32">
         <f t="shared" ref="K5:K9" si="6">C5</f>
         <v>145457.01000000001</v>
       </c>
@@ -6899,32 +6933,32 @@
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="32">
         <v>48.100000000000001</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="28">
         <v>9.4100000000000001</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <v>0.089999999999999997</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="28">
         <v>0.13</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="28">
         <v>9.1899999999999995</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="28">
         <v>0</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="31">
+      <c r="K6" s="32">
         <f t="shared" si="6"/>
         <v>48.100000000000001</v>
       </c>
@@ -6933,29 +6967,29 @@
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="31">
+        <v>305</v>
+      </c>
+      <c r="C7" s="32">
         <v>640.05999999999995</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="28">
         <v>524.13999999999999</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="28">
         <v>488.74000000000001</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <v>1648.3699999999999</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="28">
         <v>739.78999999999996</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="28">
         <v>554.88</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="31">
+      <c r="K7" s="32">
         <f t="shared" si="6"/>
         <v>640.05999999999995</v>
       </c>
@@ -6966,27 +7000,27 @@
       <c r="B8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="32">
         <v>1723.3399999999999</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="28">
         <v>1403.1199999999999</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="28">
         <v>847.74000000000001</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="28">
         <v>487.93000000000001</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="28">
         <v>779.29999999999995</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="28">
         <v>118.51000000000001</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="31">
+      <c r="K8" s="32">
         <f t="shared" si="6"/>
         <v>1723.3399999999999</v>
       </c>
@@ -6995,32 +7029,32 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="31">
+        <v>307</v>
+      </c>
+      <c r="C9" s="32">
         <v>88.870000000000005</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28">
         <v>90.700000000000003</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="28">
         <v>139.69</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>120.33</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="28">
         <v>191.13999999999999</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="28">
         <v>229.50999999999999</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="31">
+      <c r="K9" s="32">
         <f t="shared" si="6"/>
         <v>88.870000000000005</v>
       </c>
@@ -7030,29 +7064,29 @@
     <row r="10" ht="16.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="32">
+        <v>308</v>
+      </c>
+      <c r="C10" s="33">
         <v>2659.1900000000001</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="28">
         <v>1393.9100000000001</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <v>1121.3099999999999</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="28">
         <v>986.08000000000004</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="28">
         <v>943.01999999999998</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="28">
         <v>881.32000000000005</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="31">
+      <c r="K10" s="32">
         <f t="shared" ref="K10:K47" si="7">C10</f>
         <v>2659.1900000000001</v>
       </c>
@@ -7062,104 +7096,104 @@
     <row r="11" s="5" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="33">
+        <v>309</v>
+      </c>
+      <c r="C11" s="34">
         <f>SUM(C5:C10)</f>
         <v>150616.57000000001</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="31">
         <f>SUM(D5:D10)</f>
         <v>118976.63</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="31">
         <f>SUM(E5:E10)</f>
         <v>121849.09000000001</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="31">
         <f>SUM(F5:F10)</f>
         <v>115345.62999999999</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <f>SUM(G5:G10)</f>
         <v>96839.800000000003</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <f>SUM(H5:H10)</f>
         <v>75944.320000000007</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="35">
         <v>66075</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="35">
         <v>59108</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="32">
         <f t="shared" si="7"/>
         <v>150616.57000000001</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="33">
+        <v>310</v>
+      </c>
+      <c r="C12" s="34">
         <f>C5+C9+C10</f>
         <v>148205.07000000001</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="34">
         <f>D5+D9+D10</f>
         <v>117039.96000000001</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="34">
         <f>E5+E9+E10</f>
         <v>120512.52</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="34">
         <f>F5+F9+F10</f>
         <v>113209.2</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="34">
         <f>G5+G9+G10</f>
         <v>95311.520000000004</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="34">
         <f>H5+H9+H10</f>
         <v>75270.930000000008</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="35">
         <v>66075</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="35">
         <v>59108</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="32">
         <f t="shared" si="7"/>
         <v>148205.07000000001</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37"/>
     </row>
     <row r="13" ht="16.5">
       <c r="B13" s="4" t="s">
@@ -7183,13 +7217,13 @@
       <c r="H13" s="8">
         <v>66.170000000000002</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="38">
         <v>973.57000000000005</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="35">
         <v>275.90199999999999</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="32">
         <f t="shared" si="7"/>
         <v>1010.85</v>
       </c>
@@ -7203,90 +7237,90 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="37"/>
+      <c r="V13" s="38"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="35">
+        <v>311</v>
+      </c>
+      <c r="C14" s="36">
         <f>C11+C13</f>
         <v>151627.42000000001</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="36">
         <f>D11+D13</f>
         <v>119750.05</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="36">
         <f>E11+E13</f>
         <v>122374.63</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="36">
         <f>F11+F13</f>
         <v>115701.95999999999</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="36">
         <f>G11+G13</f>
         <v>97072.669999999998</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="36">
         <f>H11+H13</f>
         <v>76010.490000000005</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="37">
         <f>I11+I13</f>
         <v>67048.570000000007</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="37">
         <f>J11+J13</f>
         <v>59383.902000000002</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="32">
         <f t="shared" si="7"/>
         <v>151627.42000000001</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="39">
         <f>K14*1.1</f>
         <v>166790.16200000004</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="39">
         <f>L14*1.1</f>
         <v>183469.17820000005</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="39">
         <f>M14*1.1</f>
         <v>201816.09602000008</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="39">
         <f>N14*1.1</f>
         <v>221997.70562200013</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="39">
         <f>O14*1.1</f>
         <v>244197.47618420015</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="39">
         <f>P14*1.1</f>
         <v>268617.2238026202</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="36">
         <f>Q14*1.08</f>
         <v>290106.60170682985</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="36">
         <f>R14*1.08</f>
         <v>313315.12984337629</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="36">
         <f>S14*1.08</f>
         <v>338380.34023084643</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="36">
         <f>T14*1.08</f>
         <v>365450.76744931418</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="37">
         <f>U14*1.08</f>
         <v>394686.82884525933</v>
       </c>
@@ -7294,55 +7328,55 @@
     <row r="15" s="5" customFormat="1" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="35">
+        <v>312</v>
+      </c>
+      <c r="C15" s="36">
         <f>C64</f>
         <v>682609.71999999997</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="36">
         <f>D64</f>
         <v>557881.68000000005</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="36">
         <f>E64</f>
         <v>545526.17999999993</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="36">
         <f>F64</f>
         <v>409208.94</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="36">
         <f>G64</f>
         <v>405502.04999999999</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="36">
         <f>H64</f>
         <v>375613.03000000003</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
         <f>I64</f>
         <v>307669.04000000004</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="37">
         <f>J64</f>
         <v>307669.04000000004</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="32">
         <f t="shared" si="7"/>
         <v>682609.71999999997</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" ht="16.5">
       <c r="C16" s="8"/>
@@ -7351,9 +7385,9 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="31">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7367,14 +7401,14 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="37"/>
+      <c r="V16" s="38"/>
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C17" s="8">
         <v>54300.779999999999</v>
@@ -7394,67 +7428,67 @@
       <c r="H17" s="8">
         <v>25354.650000000001</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="38">
         <v>21323.75</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="38">
         <v>23685.924999999999</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="32">
         <f t="shared" si="7"/>
         <v>54300.779999999999</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="36">
         <f>L14*0.35</f>
         <v>58376.556700000008</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="36">
         <f>M14*0.35</f>
         <v>64214.212370000016</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="36">
         <f>N14*0.35</f>
         <v>70635.633607000025</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="36">
         <f>O14*0.35</f>
         <v>77699.196967700045</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="36">
         <f>P14*0.35</f>
         <v>85469.116664470042</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="36">
         <f>Q14*0.35</f>
         <v>94016.028330917063</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="36">
         <f>R14*0.35</f>
         <v>101537.31059739045</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="36">
         <f>S14*0.35</f>
         <v>109660.29544518169</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="36">
         <f>T14*0.35</f>
         <v>118433.11908079624</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="36">
         <f>U14*0.35</f>
         <v>127907.76860725996</v>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="37">
         <f>V14*0.35</f>
         <v>138140.39009584076</v>
       </c>
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C18" s="8">
         <v>5538.21</v>
@@ -7476,13 +7510,13 @@
       <c r="H18" s="8">
         <v>678.50999999999999</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="38">
         <v>0</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="38">
         <v>0</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="32">
         <f t="shared" si="7"/>
         <v>5538.21</v>
       </c>
@@ -7525,14 +7559,14 @@
         <f t="shared" ref="U18:U19" si="11">T18*1.06</f>
         <v>3378.9579180053856</v>
       </c>
-      <c r="V18" s="37">
+      <c r="V18" s="38">
         <f t="shared" ref="V18:V19" si="12">U18*1.06</f>
         <v>3581.6953930857089</v>
       </c>
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>139</v>
@@ -7555,13 +7589,13 @@
       <c r="H19" s="8">
         <v>10133.43</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="38">
         <v>8334.7399999999998</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="38">
         <v>7603.6199999999999</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="32">
         <f t="shared" si="7"/>
         <v>18282.060000000001</v>
       </c>
@@ -7605,7 +7639,7 @@
         <f t="shared" si="11"/>
         <v>50661.459713126002</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="38">
         <f t="shared" si="12"/>
         <v>53701.147295913564</v>
       </c>
@@ -7632,13 +7666,13 @@
       <c r="H20" s="8">
         <v>516.92999999999995</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="38">
         <v>500.26999999999998</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="38">
         <v>519.20000000000005</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="32">
         <f t="shared" si="7"/>
         <v>921.05999999999995</v>
       </c>
@@ -7682,12 +7716,12 @@
         <f>T20*1.07</f>
         <v>1811.8644291451274</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="38">
         <f>U20*1.07</f>
         <v>1938.6949391852863</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" ht="16.5">
@@ -7712,15 +7746,15 @@
       <c r="H21" s="8">
         <v>6731.6899999999996</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="38">
         <f>2711+5455</f>
         <v>8166</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="38">
         <f>5022.81+2966.49</f>
         <v>7989.3000000000002</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="32">
         <f t="shared" si="7"/>
         <v>12620.27</v>
       </c>
@@ -7764,7 +7798,7 @@
         <f>U17/(T17/T21)</f>
         <v>29727.576195427482</v>
       </c>
-      <c r="V21" s="37">
+      <c r="V21" s="38">
         <f>V17/(U17/U21)</f>
         <v>32105.782291061681</v>
       </c>
@@ -7772,85 +7806,85 @@
     <row r="22" s="5" customFormat="1" ht="16.5">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="35">
+        <v>319</v>
+      </c>
+      <c r="C22" s="36">
         <f>SUM(C17:C21)</f>
         <v>91662.380000000005</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="36">
         <f>SUM(D17:D21)</f>
         <v>70522.25</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="36">
         <f>SUM(E17:E21)</f>
         <v>68272.75</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="36">
         <f>SUM(F17:F21)</f>
         <v>64387.159999999996</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="36">
         <f>SUM(G17:G21)</f>
         <v>54468.760000000002</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="36">
         <f>SUM(H17:H21)</f>
         <v>43415.209999999999</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="37">
         <f>SUM(I17:I21)</f>
         <v>38324.759999999995</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="37">
         <f>SUM(J17:J21)</f>
         <v>39798.044999999998</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="32">
         <f t="shared" si="7"/>
         <v>91662.380000000005</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="37">
         <f>SUM(L17:L21)</f>
         <v>95771.177505239582</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="37">
         <f>SUM(M17:M21)</f>
         <v>106072.39116576356</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="37">
         <f>SUM(N17:N21)</f>
         <v>117513.56924155992</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="37">
         <f>SUM(O17:O21)</f>
         <v>130224.61507457413</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="37">
         <f>SUM(P17:P21)</f>
         <v>144350.68248815159</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="37">
         <f>SUM(Q17:Q21)</f>
         <v>160054.01934806688</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="37">
         <f>SUM(R17:R21)</f>
         <v>171988.41682164639</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="37">
         <f>SUM(S17:S21)</f>
         <v>184825.23242238653</v>
       </c>
-      <c r="T22" s="36">
+      <c r="T22" s="37">
         <f>SUM(T17:T21)</f>
         <v>198633.50990437774</v>
       </c>
-      <c r="U22" s="36">
+      <c r="U22" s="37">
         <f>SUM(U17:U21)</f>
         <v>213487.62686296395</v>
       </c>
-      <c r="V22" s="36">
+      <c r="V22" s="37">
         <f>SUM(V17:V21)</f>
         <v>229467.71001508701</v>
       </c>
@@ -7883,59 +7917,59 @@
         <f>H14-H22</f>
         <v>32595.280000000006</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="38">
         <f>I14-I22</f>
         <v>28723.810000000012</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="38">
         <f>J14-J22</f>
         <v>19585.857000000004</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="32">
         <f t="shared" si="7"/>
         <v>59965.040000000008</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="38">
         <f>L14-L22</f>
         <v>71018.984494760458</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="38">
         <f>M14-M22</f>
         <v>77396.787034236491</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="38">
         <f>N14-N22</f>
         <v>84302.526778440166</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="38">
         <f>O14-O22</f>
         <v>91773.090547425993</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="38">
         <f>P14-P22</f>
         <v>99846.793696048553</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="38">
         <f>Q14-Q22</f>
         <v>108563.20445455331</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="38">
         <f>R14-R22</f>
         <v>118118.18488518347</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="38">
         <f>S14-S22</f>
         <v>128489.89742098976</v>
       </c>
-      <c r="T23" s="37">
+      <c r="T23" s="38">
         <f>T14-T22</f>
         <v>139746.83032646868</v>
       </c>
-      <c r="U23" s="37">
+      <c r="U23" s="38">
         <f>U14-U22</f>
         <v>151963.14058635023</v>
       </c>
-      <c r="V23" s="37">
+      <c r="V23" s="38">
         <f>V14-V22</f>
         <v>165219.11883017232</v>
       </c>
@@ -7968,59 +8002,59 @@
         <f>-11466.73+138.82-237.76</f>
         <v>-11565.67</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="38">
         <f>-10414.38-219-101</f>
         <v>-10734.379999999999</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="38">
         <f>-7569.92+54.94+1.74</f>
         <v>-7513.2400000000007</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="32">
         <f t="shared" si="7"/>
         <v>-15289.1</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="36">
         <f>C24*1.12</f>
         <v>-17123.792000000001</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="36">
         <f>D24*1.12</f>
         <v>-14033.756800000003</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="36">
         <f>E24*1.12</f>
         <v>-15443.2768</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="36">
         <f>F24*1.12</f>
         <v>-14701.736000000003</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24" s="36">
         <f>G24*1.12</f>
         <v>-12227.152000000002</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="36">
         <f>H24*1.12</f>
         <v>-12953.550400000002</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="36">
         <f>I24*1.12</f>
         <v>-12022.5056</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="36">
         <f>J24*1.12</f>
         <v>-8414.8288000000011</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24" s="36">
         <f>K24*1.12</f>
         <v>-17123.792000000001</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24" s="36">
         <f>L24*1.12</f>
         <v>-19178.647040000003</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="37">
         <f>M24*1.12</f>
         <v>-15717.807616000006</v>
       </c>
@@ -8030,90 +8064,90 @@
       <c r="B25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="36">
         <f>C23+C24</f>
         <v>44675.94000000001</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="36">
         <f>D23+D24</f>
         <v>36697.660000000003</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="36">
         <f>E23+E24</f>
         <v>40313.240000000005</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="36">
         <f>F23+F24</f>
         <v>38188.249999999993</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="36">
         <f>G23+G24</f>
         <v>31686.809999999998</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="36">
         <f>H23+H24</f>
         <v>21029.610000000008</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="37">
         <f>I23+I24</f>
         <v>17989.430000000015</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="37">
         <f>J23+J24</f>
         <v>12072.617000000002</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="32">
         <f t="shared" si="7"/>
         <v>44675.94000000001</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="37">
         <f>L23+L24</f>
         <v>53895.192494760457</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="37">
         <f>M23+M24</f>
         <v>63363.030234236488</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="37">
         <f>N23+N24</f>
         <v>68859.249978440173</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="37">
         <f>O23+O24</f>
         <v>77071.354547425988</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="37">
         <f>P23+P24</f>
         <v>87619.641696048551</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="37">
         <f>Q23+Q24</f>
         <v>95609.654054553306</v>
       </c>
-      <c r="R25" s="36">
+      <c r="R25" s="37">
         <f>R23+R24</f>
         <v>106095.67928518346</v>
       </c>
-      <c r="S25" s="36">
+      <c r="S25" s="37">
         <f>S23+S24</f>
         <v>120075.06862098975</v>
       </c>
-      <c r="T25" s="36">
+      <c r="T25" s="37">
         <f>T23+T24</f>
         <v>122623.03832646868</v>
       </c>
-      <c r="U25" s="36">
+      <c r="U25" s="37">
         <f>U23+U24</f>
         <v>132784.49354635022</v>
       </c>
-      <c r="V25" s="36">
+      <c r="V25" s="37">
         <f>V23+V24</f>
         <v>149501.31121417231</v>
       </c>
     </row>
     <row r="26" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>149</v>
@@ -8137,13 +8171,13 @@
       <c r="H26" s="8">
         <v>-24.23</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="38">
         <v>-24.23</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="38">
         <v>-24.23</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="32">
         <f t="shared" si="7"/>
         <v>704.13</v>
       </c>
@@ -8169,12 +8203,12 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="37"/>
+      <c r="V26" s="38"/>
     </row>
     <row r="27" ht="16.5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C27" s="8">
         <f>C28/10</f>
@@ -8200,11 +8234,11 @@
         <f>H28/10</f>
         <v>2100.5380000000009</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="38">
         <f>I28/10</f>
         <v>1784</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="38">
         <f>J28/10</f>
         <v>1199.7850000000001</v>
       </c>
@@ -8222,88 +8256,88 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="37"/>
+      <c r="V27" s="38"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="16.5">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="39">
+        <v>322</v>
+      </c>
+      <c r="C28" s="40">
         <f>SUM(C25:C26)</f>
         <v>45380.070000000007</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="40">
         <f>SUM(D25:D26)</f>
         <v>37126.330000000002</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="40">
         <f>SUM(E25:E26)</f>
         <v>39528.440000000002</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="40">
         <f>SUM(F25:F26)</f>
         <v>37566.80999999999</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="40">
         <f>SUM(G25:G26)</f>
         <v>32273.169999999998</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="40">
         <f>SUM(H25:H26)</f>
         <v>21005.380000000008</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="41">
         <v>17840</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="42">
         <v>11997.85</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="32">
         <f t="shared" si="7"/>
         <v>45380.070000000007</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="36">
         <f>L25</f>
         <v>53895.192494760457</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="36">
         <f>M25</f>
         <v>63363.030234236488</v>
       </c>
-      <c r="N28" s="35">
+      <c r="N28" s="36">
         <f>N25</f>
         <v>68859.249978440173</v>
       </c>
-      <c r="O28" s="35">
+      <c r="O28" s="36">
         <f>O25</f>
         <v>77071.354547425988</v>
       </c>
-      <c r="P28" s="35">
+      <c r="P28" s="36">
         <f>P25</f>
         <v>87619.641696048551</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="36">
         <f>Q25</f>
         <v>95609.654054553306</v>
       </c>
-      <c r="R28" s="35">
+      <c r="R28" s="36">
         <f>R25</f>
         <v>106095.67928518346</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="36">
         <f>S25</f>
         <v>120075.06862098975</v>
       </c>
-      <c r="T28" s="35">
+      <c r="T28" s="36">
         <f>T25</f>
         <v>122623.03832646868</v>
       </c>
-      <c r="U28" s="35">
+      <c r="U28" s="36">
         <f>U25</f>
         <v>132784.49354635022</v>
       </c>
-      <c r="V28" s="36">
+      <c r="V28" s="37">
         <f>V25</f>
         <v>149501.31121417231</v>
       </c>
@@ -8376,348 +8410,348 @@
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C29" s="42">
+        <v>323</v>
+      </c>
+      <c r="C29" s="43">
         <v>43242.879999999997</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="43">
         <v>36122.980000000003</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="43">
         <v>39468.040000000001</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="43">
         <v>37436.18</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="43">
         <v>31973.650000000001</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="43">
         <v>20769.02</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="41">
         <v>17840</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="42">
         <v>11997.85</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="32">
         <f t="shared" si="7"/>
         <v>43242.879999999997</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="36">
         <f>L28*0.98</f>
         <v>52817.28864486525</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="36">
         <f>M28*0.98</f>
         <v>62095.76962955176</v>
       </c>
-      <c r="N29" s="35">
+      <c r="N29" s="36">
         <f>N28*0.98</f>
         <v>67482.064978871364</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="36">
         <f>O28*0.98</f>
         <v>75529.927456477468</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="36">
         <f>P28*0.98</f>
         <v>85867.248862127584</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="36">
         <f>Q28*0.98</f>
         <v>93697.460973462235</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="36">
         <f>R28*0.98</f>
         <v>103973.76569947979</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="36">
         <f>S28*0.98</f>
         <v>117673.56724856996</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="36">
         <f>T28*0.98</f>
         <v>120170.57755993931</v>
       </c>
-      <c r="U29" s="35">
+      <c r="U29" s="36">
         <f>U28*0.98</f>
         <v>130128.80367542322</v>
       </c>
-      <c r="V29" s="36">
+      <c r="V29" s="37">
         <f>V28*0.98</f>
         <v>146511.28498988887</v>
       </c>
-      <c r="W29" s="42">
+      <c r="W29" s="43">
         <f>V29*$V$40+V29</f>
         <v>149441.51068968663</v>
       </c>
-      <c r="X29" s="42">
+      <c r="X29" s="43">
         <f>W29*$V$40+W29</f>
         <v>152430.34090348036</v>
       </c>
-      <c r="Y29" s="42">
+      <c r="Y29" s="43">
         <f>X29*$V$40+X29</f>
         <v>155478.94772154998</v>
       </c>
-      <c r="Z29" s="42">
+      <c r="Z29" s="43">
         <f>Y29*$V$40+Y29</f>
         <v>158588.52667598097</v>
       </c>
-      <c r="AA29" s="42">
+      <c r="AA29" s="43">
         <f>Z29*$V$40+Z29</f>
         <v>161760.2972095006</v>
       </c>
-      <c r="AB29" s="42">
+      <c r="AB29" s="43">
         <f>AA29*$V$40+AA29</f>
         <v>164995.5031536906</v>
       </c>
-      <c r="AC29" s="42">
+      <c r="AC29" s="43">
         <f>AB29*$V$40+AB29</f>
         <v>168295.41321676443</v>
       </c>
-      <c r="AD29" s="42">
+      <c r="AD29" s="43">
         <f>AC29*$V$40+AC29</f>
         <v>171661.3214810997</v>
       </c>
-      <c r="AE29" s="42">
+      <c r="AE29" s="43">
         <f>AD29*$V$40+AD29</f>
         <v>175094.54791072168</v>
       </c>
-      <c r="AF29" s="42">
+      <c r="AF29" s="43">
         <f>AE29*$V$40+AE29</f>
         <v>178596.43886893612</v>
       </c>
-      <c r="AG29" s="42">
+      <c r="AG29" s="43">
         <f>AF29*$V$40+AF29</f>
         <v>182168.36764631484</v>
       </c>
-      <c r="AH29" s="42">
+      <c r="AH29" s="43">
         <f>AG29*$V$40+AG29</f>
         <v>185811.73499924113</v>
       </c>
-      <c r="AI29" s="42">
+      <c r="AI29" s="43">
         <f>AH29*$V$40+AH29</f>
         <v>189527.96969922594</v>
       </c>
-      <c r="AJ29" s="42">
+      <c r="AJ29" s="43">
         <f>AI29*$V$40+AI29</f>
         <v>193318.52909321047</v>
       </c>
-      <c r="AK29" s="42">
+      <c r="AK29" s="43">
         <f>AJ29*$V$40+AJ29</f>
         <v>197184.89967507467</v>
       </c>
-      <c r="AL29" s="42">
+      <c r="AL29" s="43">
         <f>AK29*$V$40+AK29</f>
         <v>201128.59766857617</v>
       </c>
-      <c r="AM29" s="42">
+      <c r="AM29" s="43">
         <f>AL29*$V$40+AL29</f>
         <v>205151.16962194769</v>
       </c>
-      <c r="AN29" s="42">
+      <c r="AN29" s="43">
         <f>AM29*$V$40+AM29</f>
         <v>209254.19301438663</v>
       </c>
-      <c r="AO29" s="42">
+      <c r="AO29" s="43">
         <f>AN29*$V$40+AN29</f>
         <v>213439.27687467437</v>
       </c>
-      <c r="AP29" s="42">
+      <c r="AP29" s="43">
         <f>AO29*$V$40+AO29</f>
         <v>217708.06241216784</v>
       </c>
-      <c r="AQ29" s="42">
+      <c r="AQ29" s="43">
         <f>AP29*$V$40+AP29</f>
         <v>222062.2236604112</v>
       </c>
-      <c r="AR29" s="42">
+      <c r="AR29" s="43">
         <f>AQ29*$V$40+AQ29</f>
         <v>226503.46813361943</v>
       </c>
-      <c r="AS29" s="42">
+      <c r="AS29" s="43">
         <f>AR29*$V$40+AR29</f>
         <v>231033.53749629183</v>
       </c>
-      <c r="AT29" s="42">
+      <c r="AT29" s="43">
         <f>AS29*$V$40+AS29</f>
         <v>235654.20824621766</v>
       </c>
-      <c r="AU29" s="42">
+      <c r="AU29" s="43">
         <f>AT29*$V$40+AT29</f>
         <v>240367.29241114203</v>
       </c>
-      <c r="AV29" s="42">
+      <c r="AV29" s="43">
         <f>AU29*$V$40+AU29</f>
         <v>245174.63825936487</v>
       </c>
-      <c r="AW29" s="42">
+      <c r="AW29" s="43">
         <f>AV29*$V$40+AV29</f>
         <v>250078.13102455216</v>
       </c>
-      <c r="AX29" s="42">
+      <c r="AX29" s="43">
         <f>AW29*$V$40+AW29</f>
         <v>255079.69364504321</v>
       </c>
-      <c r="AY29" s="42">
+      <c r="AY29" s="43">
         <f>AX29*$V$40+AX29</f>
         <v>260181.28751794409</v>
       </c>
-      <c r="AZ29" s="42">
+      <c r="AZ29" s="43">
         <f>AY29*$V$40+AY29</f>
         <v>265384.91326830297</v>
       </c>
-      <c r="BA29" s="42">
+      <c r="BA29" s="43">
         <f>AZ29*$V$40+AZ29</f>
         <v>270692.61153366906</v>
       </c>
-      <c r="BB29" s="42">
+      <c r="BB29" s="43">
         <f>BA29*$V$40+BA29</f>
         <v>276106.46376434242</v>
       </c>
-      <c r="BC29" s="42">
+      <c r="BC29" s="43">
         <f>BB29*$V$40+BB29</f>
         <v>281628.59303962928</v>
       </c>
-      <c r="BD29" s="42">
+      <c r="BD29" s="43">
         <f>BC29*$V$40+BC29</f>
         <v>287261.16490042186</v>
       </c>
-      <c r="BE29" s="42">
+      <c r="BE29" s="43">
         <f>BD29*$V$40+BD29</f>
         <v>293006.3881984303</v>
       </c>
-      <c r="BF29" s="42">
+      <c r="BF29" s="43">
         <f>BE29*$V$40+BE29</f>
         <v>298866.5159623989</v>
       </c>
-      <c r="BG29" s="42">
+      <c r="BG29" s="43">
         <f>BF29*$V$40+BF29</f>
         <v>304843.84628164687</v>
       </c>
-      <c r="BH29" s="42">
+      <c r="BH29" s="43">
         <f>BG29*$V$40+BG29</f>
         <v>310940.72320727981</v>
       </c>
-      <c r="BI29" s="42">
+      <c r="BI29" s="43">
         <f>BH29*$V$40+BH29</f>
         <v>317159.53767142538</v>
       </c>
-      <c r="BJ29" s="42">
+      <c r="BJ29" s="43">
         <f>BI29*$V$40+BI29</f>
         <v>323502.72842485388</v>
       </c>
-      <c r="BK29" s="42">
+      <c r="BK29" s="43">
         <f>BJ29*$V$40+BJ29</f>
         <v>329972.78299335093</v>
       </c>
-      <c r="BL29" s="42">
+      <c r="BL29" s="43">
         <f>BK29*$V$40+BK29</f>
         <v>336572.23865321797</v>
       </c>
-      <c r="BM29" s="42">
+      <c r="BM29" s="43">
         <f>BL29*$V$40+BL29</f>
         <v>343303.68342628231</v>
       </c>
-      <c r="BN29" s="42">
+      <c r="BN29" s="43">
         <f>BM29*$V$40+BM29</f>
         <v>350169.75709480798</v>
       </c>
-      <c r="BO29" s="42">
+      <c r="BO29" s="43">
         <f>BN29*$V$40+BN29</f>
         <v>357173.15223670413</v>
       </c>
-      <c r="BP29" s="42">
+      <c r="BP29" s="43">
         <f>BO29*$V$40+BO29</f>
         <v>364316.61528143822</v>
       </c>
-      <c r="BQ29" s="42">
+      <c r="BQ29" s="43">
         <f>BP29*$V$40+BP29</f>
         <v>371602.94758706697</v>
       </c>
-      <c r="BR29" s="42">
+      <c r="BR29" s="43">
         <f>BQ29*$V$40+BQ29</f>
         <v>379035.00653880829</v>
       </c>
-      <c r="BS29" s="42">
+      <c r="BS29" s="43">
         <f>BR29*$V$40+BR29</f>
         <v>386615.70666958444</v>
       </c>
-      <c r="BT29" s="42">
+      <c r="BT29" s="43">
         <f>BS29*$V$40+BS29</f>
         <v>394348.02080297616</v>
       </c>
-      <c r="BU29" s="42">
+      <c r="BU29" s="43">
         <f>BT29*$V$40+BT29</f>
         <v>402234.98121903569</v>
       </c>
-      <c r="BV29" s="42">
+      <c r="BV29" s="43">
         <f>BU29*$V$40+BU29</f>
         <v>410279.68084341643</v>
       </c>
-      <c r="BW29" s="42">
+      <c r="BW29" s="43">
         <f>BV29*$V$40+BV29</f>
         <v>418485.27446028474</v>
       </c>
-      <c r="BX29" s="42">
+      <c r="BX29" s="43">
         <f>BW29*$V$40+BW29</f>
         <v>426854.97994949046</v>
       </c>
-      <c r="BY29" s="42">
+      <c r="BY29" s="43">
         <f>BX29*$V$40+BX29</f>
         <v>435392.07954848028</v>
       </c>
-      <c r="BZ29" s="42">
+      <c r="BZ29" s="43">
         <f>BY29*$V$40+BY29</f>
         <v>444099.92113944987</v>
       </c>
-      <c r="CA29" s="42">
+      <c r="CA29" s="43">
         <f>BZ29*$V$40+BZ29</f>
         <v>452981.91956223885</v>
       </c>
-      <c r="CB29" s="42">
+      <c r="CB29" s="43">
         <f>CA29*$V$40+CA29</f>
         <v>462041.5579534836</v>
       </c>
-      <c r="CC29" s="42">
+      <c r="CC29" s="43">
         <f>CB29*$V$40+CB29</f>
         <v>471282.38911255327</v>
       </c>
-      <c r="CD29" s="42">
+      <c r="CD29" s="43">
         <f>CC29*$V$40+CC29</f>
         <v>480708.03689480433</v>
       </c>
-      <c r="CE29" s="42">
+      <c r="CE29" s="43">
         <f>CD29*$V$40+CD29</f>
         <v>490322.19763270044</v>
       </c>
-      <c r="CF29" s="42">
+      <c r="CF29" s="43">
         <f>CE29*$V$40+CE29</f>
         <v>500128.64158535446</v>
       </c>
-      <c r="CG29" s="42">
+      <c r="CG29" s="43">
         <f>CF29*$V$40+CF29</f>
         <v>510131.21441706154</v>
       </c>
-      <c r="CH29" s="42">
+      <c r="CH29" s="43">
         <f>CG29*$V$40+CG29</f>
         <v>520333.83870540274</v>
       </c>
-      <c r="CI29" s="42">
+      <c r="CI29" s="43">
         <f>CH29*$V$40+CH29</f>
         <v>530740.51547951077</v>
       </c>
-      <c r="CJ29" s="42">
+      <c r="CJ29" s="43">
         <f>CI29*$V$40+CI29</f>
         <v>541355.32578910096</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="B30" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C30" s="7">
         <f>C28/C29-1</f>
@@ -8743,34 +8777,34 @@
         <f>H28/H29-1</f>
         <v>0.011380411786401368</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="31">
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="32">
         <f t="shared" si="7"/>
         <v>0.049422933902645072</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
       <c r="V30" s="12"/>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="31">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8779,9 +8813,9 @@
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32" s="42">
+        <v>325</v>
+      </c>
+      <c r="C32" s="43">
         <v>251072.07000000001</v>
       </c>
       <c r="D32" s="10">
@@ -8805,7 +8839,7 @@
       <c r="J32" s="16">
         <v>216657.51999999999</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="32">
         <f t="shared" si="7"/>
         <v>251072.07000000001</v>
       </c>
@@ -8834,13 +8868,13 @@
       <c r="H33" s="8">
         <v>401397883</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="38">
         <v>400041239</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="38">
         <v>400041239</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="32">
         <f t="shared" si="7"/>
         <v>401453679</v>
       </c>
@@ -8849,7 +8883,7 @@
     <row r="34" ht="16.5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C34" s="4">
         <f>C29*1000000/D33</f>
@@ -8883,7 +8917,7 @@
         <f>J29*1000000/I33</f>
         <v>29.991532947931901</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="32">
         <f t="shared" si="7"/>
         <v>107.73071267045023</v>
       </c>
@@ -8891,7 +8925,7 @@
     </row>
     <row r="35" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8902,7 +8936,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="31">
+      <c r="K35" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -8911,7 +8945,7 @@
     <row r="36" ht="16.5">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C36" s="17">
         <f>C11/D11-1</f>
@@ -8942,20 +8976,20 @@
         <v>0.11786898558570758</v>
       </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="43">
+      <c r="K36" s="44">
         <f t="shared" si="7"/>
         <v>0.26593407461616625</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="V36" s="44">
+        <v>328</v>
+      </c>
+      <c r="V36" s="45">
         <v>0.11</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="19" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C37" s="17">
         <f>C14/D14-1</f>
@@ -8989,74 +9023,74 @@
         <f>J14/K14-1</f>
         <v>-0.60835644370919195</v>
       </c>
-      <c r="K37" s="43">
+      <c r="K37" s="44">
         <f t="shared" si="7"/>
         <v>0.26619922079364478</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="V37" s="16">
         <f>NPV(V36,L29:CJ29)</f>
         <v>1063414.9765110707</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" s="42">
+        <v>332</v>
+      </c>
+      <c r="C38" s="43">
         <f>C14-C17</f>
         <v>97326.640000000014</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="43">
         <f>D14-D17</f>
         <v>77658.270000000004</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="43">
         <f>E14-E17</f>
         <v>79816.110000000015</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="43">
         <f>F14-F17</f>
         <v>74702.669999999984</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="43">
         <f>G14-G17</f>
         <v>65344.269999999997</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="43">
         <f>H14-H17</f>
         <v>50655.840000000004</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="41">
         <f>I14-I17</f>
         <v>45724.820000000007</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="41">
         <f>J14-J17</f>
         <v>35697.976999999999</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="32">
         <f t="shared" si="7"/>
         <v>97326.640000000014</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="V38" s="45">
+        <v>333</v>
+      </c>
+      <c r="V38" s="46">
         <v>2228.0999999999999</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C39" s="17">
         <f>C17/C14</f>
@@ -9090,22 +9124,22 @@
         <f>J17/J14</f>
         <v>0.39886104149909174</v>
       </c>
-      <c r="K39" s="43">
+      <c r="K39" s="44">
         <f t="shared" si="7"/>
         <v>0.35811979126202897</v>
       </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="U39" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="V39" s="46">
+        <v>336</v>
+      </c>
+      <c r="V39" s="47">
         <v>401452876</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C40" s="17">
         <f>C29/D29-1</f>
@@ -9139,20 +9173,20 @@
         <f>J29/K29-1</f>
         <v>-0.72254738814806041</v>
       </c>
-      <c r="K40" s="43">
+      <c r="K40" s="44">
         <f t="shared" si="7"/>
         <v>0.19710167876515161</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V40" s="44">
+        <v>338</v>
+      </c>
+      <c r="V40" s="45">
         <v>0.02</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C41" s="17">
         <f>(C24-D24)/D24</f>
@@ -9186,21 +9220,21 @@
         <f>(J24-K24)/K24</f>
         <v>-0.50858847152546582</v>
       </c>
-      <c r="K41" s="43">
+      <c r="K41" s="44">
         <f t="shared" si="7"/>
         <v>0.220185887787367</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="V41" s="47">
+        <v>340</v>
+      </c>
+      <c r="V41" s="48">
         <f>V37*1000000/V39</f>
         <v>2648.916074799949</v>
       </c>
     </row>
     <row r="42" ht="16.5">
       <c r="B42" s="19" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C42" s="17">
         <f>(C22-D22)/D22</f>
@@ -9234,7 +9268,7 @@
         <f>(J22-K22)/K22</f>
         <v>-0.56581920521810591</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="44">
         <f t="shared" si="7"/>
         <v>0.29976539319151052</v>
       </c>
@@ -9242,7 +9276,7 @@
     </row>
     <row r="43" ht="16.5">
       <c r="B43" s="19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C43" s="17">
         <f>C17/D17-1</f>
@@ -9276,7 +9310,7 @@
         <f>J17/K17-1</f>
         <v>-0.56380138554179149</v>
       </c>
-      <c r="K43" s="43">
+      <c r="K43" s="44">
         <f t="shared" si="7"/>
         <v>0.29005663338542576</v>
       </c>
@@ -9286,7 +9320,7 @@
     </row>
     <row r="44" ht="16.5">
       <c r="A44" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>160</v>
@@ -9323,7 +9357,7 @@
         <f>J28/K28-1</f>
         <v>-0.73561411430171875</v>
       </c>
-      <c r="K44" s="43">
+      <c r="K44" s="44">
         <f t="shared" si="7"/>
         <v>0.22231499854685355</v>
       </c>
@@ -9333,7 +9367,7 @@
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="19" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C45" s="17">
         <f>C34/D34-1</f>
@@ -9367,17 +9401,17 @@
         <f>J34/K34-1</f>
         <v>-0.72160647410106327</v>
       </c>
-      <c r="K45" s="43">
+      <c r="K45" s="44">
         <f t="shared" si="7"/>
         <v>0.19726808095135451</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C46" s="17">
         <f>C26/D26-1</f>
@@ -9408,14 +9442,14 @@
         <v>0</v>
       </c>
       <c r="J46" s="17"/>
-      <c r="K46" s="43">
+      <c r="K46" s="44">
         <f t="shared" si="7"/>
         <v>0.64259220379312754</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="19" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C47" s="17">
         <f>C29/D29-1</f>
@@ -9446,7 +9480,7 @@
         <v>0.48693307550936216</v>
       </c>
       <c r="J47" s="17"/>
-      <c r="K47" s="43">
+      <c r="K47" s="44">
         <f t="shared" si="7"/>
         <v>0.19710167876515161</v>
       </c>
@@ -9535,7 +9569,7 @@
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C50" s="7">
         <f>C17/C15</f>
@@ -9569,14 +9603,14 @@
         <f>J17/J15</f>
         <v>0.076985077861587883</v>
       </c>
-      <c r="K50" s="43">
+      <c r="K50" s="44">
         <f t="shared" ref="K50:K51" si="22">C50</f>
         <v>0.079548794001937151</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C51" s="7">
         <f>C5/C15</f>
@@ -9610,7 +9644,7 @@
         <f>J5/J15</f>
         <v>0</v>
       </c>
-      <c r="K51" s="43">
+      <c r="K51" s="44">
         <f t="shared" si="22"/>
         <v>0.21308956749106944</v>
       </c>
@@ -9622,8 +9656,8 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" ht="16.5">
-      <c r="A53" s="28" t="s">
-        <v>346</v>
+      <c r="A53" s="29" t="s">
+        <v>350</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -9648,7 +9682,7 @@
     </row>
     <row r="55" ht="16.5">
       <c r="A55" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -9663,7 +9697,7 @@
     <row r="56" ht="16.5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C56" s="8">
         <v>4014.6199999999999</v>
@@ -9693,7 +9727,7 @@
     </row>
     <row r="57" ht="16.5">
       <c r="B57" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C57" s="8">
         <v>247057.45000000001</v>
@@ -9723,7 +9757,7 @@
     </row>
     <row r="58" ht="16.5">
       <c r="B58" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C58" s="8">
         <f>C57+C56</f>
@@ -9760,7 +9794,7 @@
     </row>
     <row r="59" ht="16.5">
       <c r="A59" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9774,7 +9808,7 @@
     </row>
     <row r="60" ht="16.5">
       <c r="B60" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C60" s="8">
         <v>174762.20000000001</v>
@@ -9803,7 +9837,7 @@
     </row>
     <row r="61" ht="16.5">
       <c r="B61" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C61" s="8">
         <v>500519.53000000003</v>
@@ -9832,7 +9866,7 @@
     </row>
     <row r="62" ht="16.5">
       <c r="B62" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C62" s="8">
         <v>4018.2600000000002</v>
@@ -9861,7 +9895,7 @@
     </row>
     <row r="63" ht="16.5">
       <c r="B63" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C63" s="8">
         <v>3309.73</v>
@@ -9882,7 +9916,7 @@
     </row>
     <row r="64" ht="16.5">
       <c r="B64" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C64" s="8">
         <f>SUM(C60:C63)</f>
@@ -9920,37 +9954,37 @@
     <row r="65" s="5" customFormat="1" ht="16.5">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="C65" s="35">
+        <v>360</v>
+      </c>
+      <c r="C65" s="36">
         <f>C64+C58</f>
         <v>933681.79000000004</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="36">
         <f>D64+D58</f>
         <v>774539.20000000007</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="36">
         <f>E64+E58</f>
         <v>733383.41999999993</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="36">
         <f>F64+F58</f>
         <v>564959.18999999994</v>
       </c>
-      <c r="G65" s="35">
+      <c r="G65" s="36">
         <f>G64+G58</f>
         <v>523794.14999999997</v>
       </c>
-      <c r="H65" s="35">
+      <c r="H65" s="36">
         <f>H64+H58</f>
         <v>474925.03000000003</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="36">
         <f>I64+I58</f>
         <v>386092.32200000004</v>
       </c>
-      <c r="J65" s="35">
+      <c r="J65" s="36">
         <f>J64+J58</f>
         <v>386092.32200000004</v>
       </c>
@@ -9961,74 +9995,74 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" ht="16.5">
-      <c r="A67" s="28" t="s">
-        <v>357</v>
+      <c r="A67" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" ht="16.5">
       <c r="A68" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" ht="16.5">
       <c r="B69" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C69" s="42">
+        <v>363</v>
+      </c>
+      <c r="C69" s="43">
         <f>C23</f>
         <v>59965.040000000008</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D69" s="43">
         <f>D23</f>
         <v>49227.800000000003</v>
       </c>
     </row>
     <row r="70" ht="16.5">
       <c r="A70" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="43">
         <f>C20</f>
         <v>921.05999999999995</v>
       </c>
     </row>
     <row r="71" ht="16.5">
       <c r="A71" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="42">
+      <c r="C71" s="43">
         <f>C18</f>
         <v>5538.21</v>
       </c>
     </row>
     <row r="72" ht="16.5">
       <c r="A72" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C72" s="42">
+        <v>367</v>
+      </c>
+      <c r="C72" s="43">
         <f>C17</f>
         <v>54300.779999999999</v>
       </c>
     </row>
     <row r="73" ht="16.5">
       <c r="A73" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C73" s="4">
         <v>-6.3899999999999997</v>
@@ -10036,7 +10070,7 @@
     </row>
     <row r="74" ht="16.5">
       <c r="B74" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C74" s="4">
         <v>161.02000000000001</v>
@@ -10044,10 +10078,10 @@
     </row>
     <row r="75" ht="16.5">
       <c r="A75" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C75" s="4">
         <v>-13.550000000000001</v>
@@ -10055,10 +10089,10 @@
     </row>
     <row r="76" ht="16.5">
       <c r="A76" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C76" s="4">
         <v>-3369.0799999999999</v>
@@ -10066,7 +10100,7 @@
     </row>
     <row r="77" ht="16.5">
       <c r="A77" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>130</v>
@@ -10077,7 +10111,7 @@
     </row>
     <row r="78" ht="16.5">
       <c r="B78" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C78" s="4">
         <v>-1022.58</v>
@@ -10085,7 +10119,7 @@
     </row>
     <row r="79" ht="16.5">
       <c r="B79" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C79" s="4">
         <v>388.77999999999997</v>
@@ -10094,9 +10128,9 @@
     <row r="80" s="5" customFormat="1" ht="16.5">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C80" s="39">
+        <v>377</v>
+      </c>
+      <c r="C80" s="40">
         <f>SUM(C69:C79)</f>
         <v>116815.19</v>
       </c>
@@ -10105,22 +10139,22 @@
     <row r="81" s="5" customFormat="1" ht="16.5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="39"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="5"/>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C83" s="4">
         <v>-79.409999999999997</v>
@@ -10128,10 +10162,10 @@
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C84" s="4">
         <v>307.81</v>
@@ -10139,7 +10173,7 @@
     </row>
     <row r="85" ht="14.25">
       <c r="B85" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C85" s="4">
         <v>-179256.51000000001</v>
@@ -10147,27 +10181,27 @@
     </row>
     <row r="86" ht="14.25">
       <c r="B86" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="B87" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="B88" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="B89" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="B90" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" ht="14.25">
@@ -10179,15 +10213,15 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" ht="14.25">
@@ -10195,7 +10229,7 @@
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -10228,7 +10262,7 @@
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -10236,29 +10270,29 @@
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C7" s="48">
+        <v>394</v>
+      </c>
+      <c r="C7" s="49">
         <v>0.39000000000000001</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C8" s="7">
         <v>0.34000000000000002</v>
@@ -10266,10 +10300,10 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C9" s="7">
         <v>0.51000000000000001</v>
@@ -10293,10 +10327,10 @@
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C14" s="7">
         <v>0.51390000000000002</v>
@@ -10305,7 +10339,7 @@
     <row r="15" ht="16.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C15" s="7">
         <v>0.73999999999999999</v>
@@ -10313,7 +10347,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="B16" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C16" s="7">
         <v>0.73999999999999999</v>
@@ -10321,7 +10355,7 @@
     </row>
     <row r="17" ht="16.5">
       <c r="B17" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C17" s="7">
         <v>0.80100000000000005</v>
@@ -10329,7 +10363,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -10350,10 +10384,10 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C22" s="7">
         <v>0.88749999999999996</v>
@@ -10361,226 +10395,226 @@
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="48"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="27" ht="16.5">
       <c r="B27" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="B29" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C29" s="49">
+        <v>405</v>
+      </c>
+      <c r="C29" s="50">
         <v>49500</v>
       </c>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C30" s="49">
+        <v>407</v>
+      </c>
+      <c r="C30" s="50">
         <v>62700</v>
       </c>
     </row>
     <row r="31" ht="16.5">
       <c r="B31" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C31" s="49">
+        <v>408</v>
+      </c>
+      <c r="C31" s="50">
         <v>46250</v>
       </c>
     </row>
     <row r="32" ht="16.5">
       <c r="B32" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" s="49">
+        <v>409</v>
+      </c>
+      <c r="C32" s="50">
         <v>21250</v>
       </c>
     </row>
     <row r="33" ht="16.5">
       <c r="B33" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C33" s="49">
+        <v>410</v>
+      </c>
+      <c r="C33" s="50">
         <v>30700</v>
       </c>
     </row>
     <row r="34" ht="16.5">
       <c r="B34" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C34" s="49">
+        <v>411</v>
+      </c>
+      <c r="C34" s="50">
         <v>550</v>
       </c>
     </row>
     <row r="35" ht="16.5">
       <c r="B35" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C35" s="49">
+        <v>412</v>
+      </c>
+      <c r="C35" s="50">
         <v>8900</v>
       </c>
     </row>
     <row r="36" ht="16.5">
       <c r="B36" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C36" s="49">
+        <v>413</v>
+      </c>
+      <c r="C36" s="50">
         <v>2300</v>
       </c>
     </row>
     <row r="37" ht="16.5">
       <c r="B37" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C37" s="49">
+        <v>414</v>
+      </c>
+      <c r="C37" s="50">
         <v>100</v>
       </c>
     </row>
     <row r="38" ht="16.5">
       <c r="B38" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="49">
+        <v>415</v>
+      </c>
+      <c r="C38" s="50">
         <v>850</v>
       </c>
     </row>
     <row r="39" ht="16.5">
       <c r="B39" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C39" s="49">
+        <v>416</v>
+      </c>
+      <c r="C39" s="50">
         <v>9200</v>
       </c>
     </row>
     <row r="40" ht="16.5">
       <c r="B40" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C40" s="49">
+        <v>417</v>
+      </c>
+      <c r="C40" s="50">
         <v>232200</v>
       </c>
     </row>
     <row r="41" ht="16.5">
       <c r="B41" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C41" s="49">
+        <v>418</v>
+      </c>
+      <c r="C41" s="50">
         <v>7500</v>
       </c>
     </row>
     <row r="44" ht="16.5">
       <c r="B44" s="5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="B45" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C45" s="49">
+        <v>420</v>
+      </c>
+      <c r="C45" s="50">
         <v>17319</v>
       </c>
     </row>
     <row r="46" ht="16.5">
       <c r="B46" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C46" s="49">
+        <v>421</v>
+      </c>
+      <c r="C46" s="50">
         <v>29109</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="B47" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" s="49">
+        <v>422</v>
+      </c>
+      <c r="C47" s="50">
         <v>87696</v>
       </c>
     </row>
     <row r="48" ht="16.5">
       <c r="B48" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C48" s="49">
+        <v>423</v>
+      </c>
+      <c r="C48" s="50">
         <v>7944</v>
       </c>
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C49" s="49">
+        <v>424</v>
+      </c>
+      <c r="C49" s="50">
         <v>21467</v>
       </c>
     </row>
     <row r="50" ht="16.5">
       <c r="B50" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C50" s="49">
+        <v>425</v>
+      </c>
+      <c r="C50" s="50">
         <v>8307</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="B51" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C51" s="49">
+        <v>426</v>
+      </c>
+      <c r="C51" s="50">
         <v>50345</v>
       </c>
     </row>
     <row r="52" ht="16.5">
       <c r="B52" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C52" s="49">
+        <v>427</v>
+      </c>
+      <c r="C52" s="50">
         <v>11876</v>
       </c>
     </row>
     <row r="53" ht="16.5">
       <c r="B53" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C53" s="49">
+        <v>428</v>
+      </c>
+      <c r="C53" s="50">
         <v>27760</v>
       </c>
     </row>
     <row r="54" ht="16.5">
       <c r="B54" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C54" s="49">
+        <v>429</v>
+      </c>
+      <c r="C54" s="50">
         <v>25377</v>
       </c>
     </row>
     <row r="55" ht="16.5">
       <c r="B55" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C55" s="49">
+        <v>430</v>
+      </c>
+      <c r="C55" s="50">
         <v>129461</v>
       </c>
     </row>
     <row r="56" ht="16.5">
       <c r="B56" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C56" s="50">
+        <v>431</v>
+      </c>
+      <c r="C56" s="51">
         <f>SUM(C45:C55)</f>
         <v>416661</v>
       </c>
@@ -10617,21 +10651,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
         <v>184</v>
@@ -10652,7 +10686,7 @@
         <v>122</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K2">
         <v>2025</v>
@@ -10661,584 +10695,584 @@
         <f>K2+1</f>
         <v>2026</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="52">
         <f>L2+1</f>
         <v>2027</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="52">
         <f>M2+1</f>
         <v>2028</v>
       </c>
-      <c r="O2" s="51">
+      <c r="O2" s="52">
         <f>N2+1</f>
         <v>2029</v>
       </c>
-      <c r="P2" s="51">
+      <c r="P2" s="52">
         <f>O2+1</f>
         <v>2030</v>
       </c>
-      <c r="Q2" s="51">
+      <c r="Q2" s="52">
         <f>P2+1</f>
         <v>2031</v>
       </c>
-      <c r="R2" s="51">
+      <c r="R2" s="52">
         <f>Q2+1</f>
         <v>2032</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="52">
         <f>R2+1</f>
         <v>2033</v>
       </c>
-      <c r="T2" s="51">
+      <c r="T2" s="52">
         <f>S2+1</f>
         <v>2034</v>
       </c>
-      <c r="U2" s="52">
+      <c r="U2" s="53">
         <f>T2+1</f>
         <v>2035</v>
       </c>
-      <c r="V2" s="52">
+      <c r="V2" s="53">
         <f>U2+1</f>
         <v>2036</v>
       </c>
-      <c r="W2" s="52">
+      <c r="W2" s="53">
         <f>V2+1</f>
         <v>2037</v>
       </c>
-      <c r="X2" s="52">
+      <c r="X2" s="53">
         <f>W2+1</f>
         <v>2038</v>
       </c>
-      <c r="Y2" s="52">
+      <c r="Y2" s="53">
         <f>X2+1</f>
         <v>2039</v>
       </c>
-      <c r="Z2" s="52">
+      <c r="Z2" s="53">
         <f>Y2+1</f>
         <v>2040</v>
       </c>
-      <c r="AA2" s="52">
+      <c r="AA2" s="53">
         <f>Z2+1</f>
         <v>2041</v>
       </c>
-      <c r="AB2" s="52">
+      <c r="AB2" s="53">
         <f>AA2+1</f>
         <v>2042</v>
       </c>
-      <c r="AC2" s="52">
+      <c r="AC2" s="53">
         <f>AB2+1</f>
         <v>2043</v>
       </c>
-      <c r="AD2" s="52">
+      <c r="AD2" s="53">
         <f>AC2+1</f>
         <v>2044</v>
       </c>
-      <c r="AE2" s="52">
+      <c r="AE2" s="53">
         <f>AD2+1</f>
         <v>2045</v>
       </c>
-      <c r="AF2" s="52">
+      <c r="AF2" s="53">
         <f>AE2+1</f>
         <v>2046</v>
       </c>
-      <c r="AG2" s="52">
+      <c r="AG2" s="53">
         <f>AF2+1</f>
         <v>2047</v>
       </c>
-      <c r="AH2" s="52">
+      <c r="AH2" s="53">
         <f>AG2+1</f>
         <v>2048</v>
       </c>
-      <c r="AI2" s="52">
+      <c r="AI2" s="53">
         <f>AH2+1</f>
         <v>2049</v>
       </c>
-      <c r="AJ2" s="52">
+      <c r="AJ2" s="53">
         <f>AI2+1</f>
         <v>2050</v>
       </c>
-      <c r="AK2" s="52">
+      <c r="AK2" s="53">
         <f>AJ2+1</f>
         <v>2051</v>
       </c>
-      <c r="AL2" s="52">
+      <c r="AL2" s="53">
         <f>AK2+1</f>
         <v>2052</v>
       </c>
-      <c r="AM2" s="52">
+      <c r="AM2" s="53">
         <f>AL2+1</f>
         <v>2053</v>
       </c>
-      <c r="AN2" s="52">
+      <c r="AN2" s="53">
         <f>AM2+1</f>
         <v>2054</v>
       </c>
-      <c r="AO2" s="52">
+      <c r="AO2" s="53">
         <f>AN2+1</f>
         <v>2055</v>
       </c>
-      <c r="AP2" s="52">
+      <c r="AP2" s="53">
         <f>AO2+1</f>
         <v>2056</v>
       </c>
-      <c r="AQ2" s="52">
+      <c r="AQ2" s="53">
         <f>AP2+1</f>
         <v>2057</v>
       </c>
-      <c r="AR2" s="52">
+      <c r="AR2" s="53">
         <f>AQ2+1</f>
         <v>2058</v>
       </c>
-      <c r="AS2" s="52">
+      <c r="AS2" s="53">
         <f>AR2+1</f>
         <v>2059</v>
       </c>
-      <c r="AT2" s="52">
+      <c r="AT2" s="53">
         <f>AS2+1</f>
         <v>2060</v>
       </c>
-      <c r="AU2" s="52">
+      <c r="AU2" s="53">
         <f>AT2+1</f>
         <v>2061</v>
       </c>
-      <c r="AV2" s="52">
+      <c r="AV2" s="53">
         <f>AU2+1</f>
         <v>2062</v>
       </c>
-      <c r="AW2" s="52">
+      <c r="AW2" s="53">
         <f>AV2+1</f>
         <v>2063</v>
       </c>
-      <c r="AX2" s="52">
+      <c r="AX2" s="53">
         <f>AW2+1</f>
         <v>2064</v>
       </c>
-      <c r="AY2" s="52">
+      <c r="AY2" s="53">
         <f>AX2+1</f>
         <v>2065</v>
       </c>
-      <c r="AZ2" s="52">
+      <c r="AZ2" s="53">
         <f>AY2+1</f>
         <v>2066</v>
       </c>
-      <c r="BA2" s="52">
+      <c r="BA2" s="53">
         <f>AZ2+1</f>
         <v>2067</v>
       </c>
-      <c r="BB2" s="52">
+      <c r="BB2" s="53">
         <f>BA2+1</f>
         <v>2068</v>
       </c>
-      <c r="BC2" s="52">
+      <c r="BC2" s="53">
         <f>BB2+1</f>
         <v>2069</v>
       </c>
-      <c r="BD2" s="52">
+      <c r="BD2" s="53">
         <f>BC2+1</f>
         <v>2070</v>
       </c>
-      <c r="BE2" s="52">
+      <c r="BE2" s="53">
         <f>BD2+1</f>
         <v>2071</v>
       </c>
-      <c r="BF2" s="52">
+      <c r="BF2" s="53">
         <f>BE2+1</f>
         <v>2072</v>
       </c>
-      <c r="BG2" s="52">
+      <c r="BG2" s="53">
         <f>BF2+1</f>
         <v>2073</v>
       </c>
-      <c r="BH2" s="52">
+      <c r="BH2" s="53">
         <f>BG2+1</f>
         <v>2074</v>
       </c>
-      <c r="BI2" s="52">
+      <c r="BI2" s="53">
         <f>BH2+1</f>
         <v>2075</v>
       </c>
-      <c r="BJ2" s="52">
+      <c r="BJ2" s="53">
         <f>BI2+1</f>
         <v>2076</v>
       </c>
-      <c r="BK2" s="52">
+      <c r="BK2" s="53">
         <f>BJ2+1</f>
         <v>2077</v>
       </c>
-      <c r="BL2" s="52">
+      <c r="BL2" s="53">
         <f>BK2+1</f>
         <v>2078</v>
       </c>
-      <c r="BM2" s="52">
+      <c r="BM2" s="53">
         <f>BL2+1</f>
         <v>2079</v>
       </c>
-      <c r="BN2" s="52">
+      <c r="BN2" s="53">
         <f>BM2+1</f>
         <v>2080</v>
       </c>
-      <c r="BO2" s="52">
+      <c r="BO2" s="53">
         <f>BN2+1</f>
         <v>2081</v>
       </c>
-      <c r="BP2" s="52">
+      <c r="BP2" s="53">
         <f>BO2+1</f>
         <v>2082</v>
       </c>
-      <c r="BQ2" s="52">
+      <c r="BQ2" s="53">
         <f>BP2+1</f>
         <v>2083</v>
       </c>
-      <c r="BR2" s="52">
+      <c r="BR2" s="53">
         <f>BQ2+1</f>
         <v>2084</v>
       </c>
-      <c r="BS2" s="52">
+      <c r="BS2" s="53">
         <f>BR2+1</f>
         <v>2085</v>
       </c>
-      <c r="BT2" s="52">
+      <c r="BT2" s="53">
         <f>BS2+1</f>
         <v>2086</v>
       </c>
-      <c r="BU2" s="52">
+      <c r="BU2" s="53">
         <f>BT2+1</f>
         <v>2087</v>
       </c>
-      <c r="BV2" s="52">
+      <c r="BV2" s="53">
         <f>BU2+1</f>
         <v>2088</v>
       </c>
-      <c r="BW2" s="52">
+      <c r="BW2" s="53">
         <f>BV2+1</f>
         <v>2089</v>
       </c>
-      <c r="BX2" s="52">
+      <c r="BX2" s="53">
         <f>BW2+1</f>
         <v>2090</v>
       </c>
-      <c r="BY2" s="52">
+      <c r="BY2" s="53">
         <f>BX2+1</f>
         <v>2091</v>
       </c>
-      <c r="BZ2" s="52">
+      <c r="BZ2" s="53">
         <f>BY2+1</f>
         <v>2092</v>
       </c>
-      <c r="CA2" s="52">
+      <c r="CA2" s="53">
         <f>BZ2+1</f>
         <v>2093</v>
       </c>
-      <c r="CB2" s="52">
+      <c r="CB2" s="53">
         <f>CA2+1</f>
         <v>2094</v>
       </c>
-      <c r="CC2" s="52">
+      <c r="CC2" s="53">
         <f>CB2+1</f>
         <v>2095</v>
       </c>
-      <c r="CD2" s="52">
+      <c r="CD2" s="53">
         <f>CC2+1</f>
         <v>2096</v>
       </c>
-      <c r="CE2" s="52">
+      <c r="CE2" s="53">
         <f>CD2+1</f>
         <v>2097</v>
       </c>
-      <c r="CF2" s="52">
+      <c r="CF2" s="53">
         <f>CE2+1</f>
         <v>2098</v>
       </c>
-      <c r="CG2" s="52">
+      <c r="CG2" s="53">
         <f>CF2+1</f>
         <v>2099</v>
       </c>
-      <c r="CH2" s="52">
+      <c r="CH2" s="53">
         <f>CG2+1</f>
         <v>2100</v>
       </c>
-      <c r="CI2" s="52">
+      <c r="CI2" s="53">
         <f>CH2+1</f>
         <v>2101</v>
       </c>
-      <c r="CJ2" s="52">
+      <c r="CJ2" s="53">
         <f>CI2+1</f>
         <v>2102</v>
       </c>
-      <c r="CK2" s="52">
+      <c r="CK2" s="53">
         <f>CJ2+1</f>
         <v>2103</v>
       </c>
-      <c r="CL2" s="52">
+      <c r="CL2" s="53">
         <f>CK2+1</f>
         <v>2104</v>
       </c>
-      <c r="CM2" s="52">
+      <c r="CM2" s="53">
         <f>CL2+1</f>
         <v>2105</v>
       </c>
-      <c r="CN2" s="52">
+      <c r="CN2" s="53">
         <f>CM2+1</f>
         <v>2106</v>
       </c>
-      <c r="CO2" s="52">
+      <c r="CO2" s="53">
         <f>CN2+1</f>
         <v>2107</v>
       </c>
-      <c r="CP2" s="52">
+      <c r="CP2" s="53">
         <f>CO2+1</f>
         <v>2108</v>
       </c>
-      <c r="CQ2" s="52">
+      <c r="CQ2" s="53">
         <f>CP2+1</f>
         <v>2109</v>
       </c>
-      <c r="CR2" s="52">
+      <c r="CR2" s="53">
         <f>CQ2+1</f>
         <v>2110</v>
       </c>
-      <c r="CS2" s="52">
+      <c r="CS2" s="53">
         <f>CR2+1</f>
         <v>2111</v>
       </c>
-      <c r="CT2" s="52">
+      <c r="CT2" s="53">
         <f>CS2+1</f>
         <v>2112</v>
       </c>
-      <c r="CU2" s="52">
+      <c r="CU2" s="53">
         <f>CT2+1</f>
         <v>2113</v>
       </c>
-      <c r="CV2" s="52">
+      <c r="CV2" s="53">
         <f>CU2+1</f>
         <v>2114</v>
       </c>
-      <c r="CW2" s="52">
+      <c r="CW2" s="53">
         <f>CV2+1</f>
         <v>2115</v>
       </c>
-      <c r="CX2" s="52">
+      <c r="CX2" s="53">
         <f>CW2+1</f>
         <v>2116</v>
       </c>
-      <c r="CY2" s="52">
+      <c r="CY2" s="53">
         <f>CX2+1</f>
         <v>2117</v>
       </c>
-      <c r="CZ2" s="52">
+      <c r="CZ2" s="53">
         <f>CY2+1</f>
         <v>2118</v>
       </c>
-      <c r="DA2" s="52">
+      <c r="DA2" s="53">
         <f>CZ2+1</f>
         <v>2119</v>
       </c>
-      <c r="DB2" s="52">
+      <c r="DB2" s="53">
         <f>DA2+1</f>
         <v>2120</v>
       </c>
-      <c r="DC2" s="52">
+      <c r="DC2" s="53">
         <f>DB2+1</f>
         <v>2121</v>
       </c>
-      <c r="DD2" s="52">
+      <c r="DD2" s="53">
         <f>DC2+1</f>
         <v>2122</v>
       </c>
-      <c r="DE2" s="52">
+      <c r="DE2" s="53">
         <f>DD2+1</f>
         <v>2123</v>
       </c>
-      <c r="DF2" s="52">
+      <c r="DF2" s="53">
         <f>DE2+1</f>
         <v>2124</v>
       </c>
-      <c r="DG2" s="52">
+      <c r="DG2" s="53">
         <f>DF2+1</f>
         <v>2125</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54">
+        <v>437</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55">
         <v>23303.380000000001</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="55">
         <v>27269.759999999998</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="55">
         <v>35548.57</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="55">
         <v>48306.599999999999</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="56">
         <f t="shared" ref="J3:J9" si="23">I3</f>
         <v>48306.599999999999</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54">
+        <v>438</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55">
         <v>2452.3899999999999</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="55">
         <v>3066.6900000000001</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="55">
         <v>4355.6300000000001</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="55">
         <v>5267.1700000000001</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="56">
         <f t="shared" si="23"/>
         <v>5267.1700000000001</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="U4" s="56"/>
+      <c r="P4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" s="1" customFormat="1">
       <c r="B5" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="54">
+        <v>439</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="55">
         <v>591.20000000000005</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="55">
         <v>327.74000000000001</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="55">
         <v>334.31999999999999</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="55">
         <v>308.29000000000002</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="56">
         <f t="shared" si="23"/>
         <v>308.29000000000002</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="U5" s="58"/>
+      <c r="P5" s="59"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54">
+        <v>307</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55">
         <v>157.53</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="55">
         <v>74.959999999999994</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="55">
         <v>38.18</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="55">
         <v>49.969999999999999</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="56">
         <f t="shared" si="23"/>
         <v>49.969999999999999</v>
       </c>
-      <c r="P6" s="56"/>
-      <c r="U6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="U6" s="57"/>
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="54">
+        <v>440</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="55">
         <v>0</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="55">
         <v>0</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="55">
         <v>23.170000000000002</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="55">
         <v>13.33</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="56">
         <f t="shared" si="23"/>
         <v>13.33</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="U7" s="58"/>
+      <c r="P7" s="59"/>
+      <c r="U7" s="59"/>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54">
+        <v>441</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55">
         <v>163.58000000000001</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="55">
         <v>893.26999999999998</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="55">
         <v>1110.29</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="55">
         <v>1024.1300000000001</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="56">
         <f t="shared" si="23"/>
         <v>1024.1300000000001</v>
       </c>
-      <c r="P8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="P8" s="57"/>
+      <c r="U8" s="57"/>
     </row>
     <row r="9" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60">
+        <v>442</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61">
         <f>SUM(F3:F8)</f>
         <v>26668.080000000002</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="61">
         <f>SUM(G3:G8)</f>
         <v>31632.419999999998</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="61">
         <f>SUM(H3:H8)</f>
         <v>41410.159999999996</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="61">
         <f>SUM(I3:I8)</f>
         <v>54969.489999999998</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="56">
         <f t="shared" si="23"/>
         <v>54969.489999999998</v>
       </c>
@@ -11247,107 +11281,107 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="58"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55">
         <v>14.949999999999999</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="55">
         <v>7.9900000000000002</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="55">
         <v>8.0999999999999996</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="55">
         <v>13.02</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="56">
         <f t="shared" ref="J10:J49" si="24">I10</f>
         <v>13.02</v>
       </c>
-      <c r="P10" s="56"/>
-      <c r="U10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="U10" s="57"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62">
+        <v>311</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63">
         <f>F9+F10</f>
         <v>26683.030000000002</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="63">
         <f>G9+G10</f>
         <v>31640.41</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="63">
         <f>H9+H10</f>
         <v>41418.259999999995</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="63">
         <f>I9+I10</f>
         <v>54982.509999999995</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="56">
         <f t="shared" si="24"/>
         <v>54982.509999999995</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="64">
         <f>J11*(1+$L$40)</f>
         <v>63779.711599999988</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="64">
         <f>K11*(1+$L$40)</f>
         <v>73984.465455999976</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="64">
         <f>L11*(1+$L$40)</f>
         <v>85821.979928959961</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="64">
         <f>M11*(1+$L$40)</f>
         <v>99553.496717593545</v>
       </c>
-      <c r="O11" s="63">
+      <c r="O11" s="64">
         <f>N11*(1+$L$40)</f>
         <v>115482.05619240851</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="65">
         <f>O11*(1+$L$40)</f>
         <v>133959.18518319385</v>
       </c>
-      <c r="Q11" s="63">
+      <c r="Q11" s="64">
         <f>P11*(1+$Q$40)</f>
         <v>150034.28740517714</v>
       </c>
-      <c r="R11" s="63">
+      <c r="R11" s="64">
         <f>Q11*(1+$Q$40)</f>
         <v>168038.40189379841</v>
       </c>
-      <c r="S11" s="63">
+      <c r="S11" s="64">
         <f>R11*(1+$Q$40)</f>
         <v>188203.01012105422</v>
       </c>
-      <c r="T11" s="63">
+      <c r="T11" s="64">
         <f>S11*(1+$Q$40)</f>
         <v>210787.37133558074</v>
       </c>
-      <c r="U11" s="64">
+      <c r="U11" s="65">
         <f>T11*(1+$Q$40)</f>
         <v>236081.85589585046</v>
       </c>
@@ -11355,236 +11389,236 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="U12" s="56"/>
+        <v>312</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="56"/>
+      <c r="P12" s="57"/>
+      <c r="U12" s="57"/>
     </row>
     <row r="13">
-      <c r="C13" s="53"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="U13" s="57"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="B14" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="65">
+        <v>367</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="66">
         <v>9414</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="66">
         <v>9748.2399999999998</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="66">
         <v>12559.889999999999</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="66">
         <v>18724.689999999999</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="56">
         <f t="shared" si="24"/>
         <v>18724.689999999999</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="66">
         <f>K11*0.35</f>
         <v>22322.899059999996</v>
       </c>
-      <c r="L14" s="65">
+      <c r="L14" s="66">
         <f>L11*0.35</f>
         <v>25894.56290959999</v>
       </c>
-      <c r="M14" s="65">
+      <c r="M14" s="66">
         <f>M11*0.35</f>
         <v>30037.692975135986</v>
       </c>
-      <c r="N14" s="65">
+      <c r="N14" s="66">
         <f>N11*0.35</f>
         <v>34843.723851157738</v>
       </c>
-      <c r="O14" s="65">
+      <c r="O14" s="66">
         <f>O11*0.35</f>
         <v>40418.719667342972</v>
       </c>
-      <c r="P14" s="66">
+      <c r="P14" s="67">
         <f>P11*0.35</f>
         <v>46885.714814117848</v>
       </c>
-      <c r="Q14" s="65">
+      <c r="Q14" s="66">
         <f>Q11*0.35</f>
         <v>52512.000591811993</v>
       </c>
-      <c r="R14" s="65">
+      <c r="R14" s="66">
         <f>R11*0.35</f>
         <v>58813.440662829438</v>
       </c>
-      <c r="S14" s="65">
+      <c r="S14" s="66">
         <f>S11*0.35</f>
         <v>65871.053542368973</v>
       </c>
-      <c r="T14" s="65">
+      <c r="T14" s="66">
         <f>T11*0.35</f>
         <v>73775.579967453261</v>
       </c>
-      <c r="U14" s="66">
+      <c r="U14" s="67">
         <f>U11*0.35</f>
         <v>82628.64956354766</v>
       </c>
-      <c r="DI14" s="67">
+      <c r="DI14" s="68">
         <f>DI11*0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F15" s="54">
+        <v>443</v>
+      </c>
+      <c r="F15" s="55">
         <v>1246.48</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="55">
         <v>1745.55</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="55">
         <v>1891.47</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="55">
         <v>1931.5</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="56">
         <f t="shared" si="24"/>
         <v>1931.5</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="55">
         <f>J15*1.06</f>
         <v>2047.3900000000001</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="63">
         <f>K15*1.06</f>
         <v>2170.2334000000001</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="63">
         <f>L15*1.06</f>
         <v>2300.447404</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="63">
         <f>M15*1.06</f>
         <v>2438.4742482400002</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="63">
         <f>N15*1.06</f>
         <v>2584.7827031344004</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="69">
         <f>O15*1.06</f>
         <v>2739.8696653224647</v>
       </c>
-      <c r="Q15" s="69">
+      <c r="Q15" s="70">
         <f>P15*1.05</f>
         <v>2876.863148588588</v>
       </c>
-      <c r="R15" s="69">
+      <c r="R15" s="70">
         <f>Q15*1.05</f>
         <v>3020.7063060180176</v>
       </c>
-      <c r="S15" s="69">
+      <c r="S15" s="70">
         <f>R15*1.05</f>
         <v>3171.7416213189185</v>
       </c>
-      <c r="T15" s="69">
+      <c r="T15" s="70">
         <f>S15*1.05</f>
         <v>3330.3287023848648</v>
       </c>
-      <c r="U15" s="70">
+      <c r="U15" s="71">
         <f>T15*1.05</f>
         <v>3496.8451375041082</v>
       </c>
-      <c r="DI15" s="71">
+      <c r="DI15" s="72">
         <f>DH15*1.06</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="54">
+        <v>445</v>
+      </c>
+      <c r="F16" s="55">
         <v>5968.5799999999999</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="55">
         <v>4803.3999999999996</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="55">
         <v>3189.6500000000001</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="55">
         <v>4630.6999999999998</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="56">
         <f t="shared" si="24"/>
         <v>4630.6999999999998</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="70">
         <f>J16*1.1</f>
         <v>5093.7700000000004</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="73">
         <f>K16*1.1</f>
         <v>5603.1470000000008</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M16" s="73">
         <f>L16*1.1</f>
         <v>6163.4617000000017</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="73">
         <f>M16*1.1</f>
         <v>6779.8078700000024</v>
       </c>
-      <c r="O16" s="72">
+      <c r="O16" s="73">
         <f>N16*1.1</f>
         <v>7457.7886570000028</v>
       </c>
-      <c r="P16" s="73">
+      <c r="P16" s="74">
         <f>O16*1.1</f>
         <v>8203.5675227000029</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="70">
         <f>P16*1.08</f>
         <v>8859.8529245160044</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="70">
         <f>Q16*1.08</f>
         <v>9568.641158477285</v>
       </c>
-      <c r="S16" s="69">
+      <c r="S16" s="70">
         <f>R16*1.08</f>
         <v>10334.132451155469</v>
       </c>
-      <c r="T16" s="69">
+      <c r="T16" s="70">
         <f>S16*1.08</f>
         <v>11160.863047247907</v>
       </c>
-      <c r="U16" s="70">
+      <c r="U16" s="71">
         <f>T16*1.08</f>
         <v>12053.732091027741</v>
       </c>
@@ -11593,63 +11627,63 @@
       <c r="B17" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="55">
         <v>2498.6700000000001</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="55">
         <v>3589.6599999999999</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="55">
         <v>5100.1899999999996</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="55">
         <v>6396.0100000000002</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="56">
         <f t="shared" si="24"/>
         <v>6396.0100000000002</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="70">
         <f t="shared" ref="K17:K18" si="25">J17*1.15</f>
         <v>7355.4114999999993</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="73">
         <f t="shared" ref="L17:L18" si="26">K17*1.15</f>
         <v>8458.7232249999979</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="73">
         <f t="shared" ref="M17:M18" si="27">L17*1.15</f>
         <v>9727.5317087499971</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="73">
         <f t="shared" ref="N17:N18" si="28">M17*1.15</f>
         <v>11186.661465062496</v>
       </c>
-      <c r="O17" s="72">
+      <c r="O17" s="73">
         <f t="shared" ref="O17:O18" si="29">N17*1.15</f>
         <v>12864.660684821869</v>
       </c>
-      <c r="P17" s="73">
+      <c r="P17" s="74">
         <f t="shared" ref="P17:P18" si="30">O17*1.15</f>
         <v>14794.359787545149</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="70">
         <f>P17*1.06</f>
         <v>15682.021374797858</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="70">
         <f>Q17*1.06</f>
         <v>16622.94265728573</v>
       </c>
-      <c r="S17" s="69">
+      <c r="S17" s="70">
         <f>R17*1.06</f>
         <v>17620.319216722874</v>
       </c>
-      <c r="T17" s="69">
+      <c r="T17" s="70">
         <f>S17*1.06</f>
         <v>18677.538369726248</v>
       </c>
-      <c r="U17" s="70">
+      <c r="U17" s="71">
         <f>T17*1.06</f>
         <v>19798.190671909822</v>
       </c>
@@ -11658,65 +11692,65 @@
       <c r="B18" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="54">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="55">
         <v>325.26999999999998</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="55">
         <v>384.56999999999999</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="55">
         <v>485.38</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="55">
         <v>683.32000000000005</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="56">
         <f t="shared" si="24"/>
         <v>683.32000000000005</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="70">
         <f t="shared" si="25"/>
         <v>785.81799999999998</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="73">
         <f t="shared" si="26"/>
         <v>903.69069999999988</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="73">
         <f t="shared" si="27"/>
         <v>1039.2443049999997</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="73">
         <f t="shared" si="28"/>
         <v>1195.1309507499996</v>
       </c>
-      <c r="O18" s="72">
+      <c r="O18" s="73">
         <f t="shared" si="29"/>
         <v>1374.4005933624994</v>
       </c>
-      <c r="P18" s="73">
+      <c r="P18" s="74">
         <f t="shared" si="30"/>
         <v>1580.5606823668743</v>
       </c>
-      <c r="Q18" s="69">
+      <c r="Q18" s="70">
         <f>P18*1.1</f>
         <v>1738.616750603562</v>
       </c>
-      <c r="R18" s="69">
+      <c r="R18" s="70">
         <f>Q18*1.1</f>
         <v>1912.4784256639184</v>
       </c>
-      <c r="S18" s="69">
+      <c r="S18" s="70">
         <f>R18*1.1</f>
         <v>2103.7262682303103</v>
       </c>
-      <c r="T18" s="69">
+      <c r="T18" s="70">
         <f>S18*1.1</f>
         <v>2314.0988950533415</v>
       </c>
-      <c r="U18" s="70">
+      <c r="U18" s="71">
         <f>T18*1.1</f>
         <v>2545.5087845586759</v>
       </c>
@@ -11725,269 +11759,269 @@
       <c r="B19" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="54">
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="55">
         <v>1237.79</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="55">
         <v>1865.21</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="55">
         <v>2665.4899999999998</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="55">
         <v>3314.3600000000001</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="56">
         <f t="shared" si="24"/>
         <v>3314.3600000000001</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="70">
         <f>J19*1.2</f>
         <v>3977.232</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="73">
         <f>K19*1.2</f>
         <v>4772.6783999999998</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="73">
         <f>L19*1.2</f>
         <v>5727.2140799999997</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="73">
         <f>M19*1.2</f>
         <v>6872.6568959999995</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="73">
         <f>N19*1.2</f>
         <v>8247.1882751999983</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="74">
         <f>O19*1.2</f>
         <v>9896.6259302399976</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q19" s="70">
         <f>P19*1.14</f>
         <v>11282.153560473596</v>
       </c>
-      <c r="R19" s="69">
+      <c r="R19" s="70">
         <f>Q19*1.14</f>
         <v>12861.655058939899</v>
       </c>
-      <c r="S19" s="69">
+      <c r="S19" s="70">
         <f>R19*1.14</f>
         <v>14662.286767191485</v>
       </c>
-      <c r="T19" s="69">
+      <c r="T19" s="70">
         <f>S19*1.14</f>
         <v>16715.006914598292</v>
       </c>
-      <c r="U19" s="70">
+      <c r="U19" s="71">
         <f>T19*1.14</f>
         <v>19055.107882642053</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="B20" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="65">
+        <v>446</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="66">
         <f>SUM(F14:F19)</f>
         <v>20690.789999999997</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="66">
         <f>SUM(G14:G19)</f>
         <v>22136.629999999997</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="66">
         <f>SUM(H14:H19)</f>
         <v>25892.07</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="66">
         <f>SUM(I14:I19)</f>
         <v>35680.580000000002</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="56">
         <f t="shared" si="24"/>
         <v>35680.580000000002</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="66">
         <f>SUM(K14:K19)</f>
         <v>41582.52055999999</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="66">
         <f>SUM(L14:L19)</f>
         <v>47803.03563459999</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="66">
         <f>SUM(M14:M19)</f>
         <v>54995.592172885976</v>
       </c>
-      <c r="N20" s="65">
+      <c r="N20" s="66">
         <f>SUM(N14:N19)</f>
         <v>63316.455281210241</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O20" s="66">
         <f>SUM(O14:O19)</f>
         <v>72947.540580861736</v>
       </c>
-      <c r="P20" s="66">
+      <c r="P20" s="67">
         <f>SUM(P14:P19)</f>
         <v>84100.698402292343</v>
       </c>
-      <c r="Q20" s="65">
+      <c r="Q20" s="66">
         <f>SUM(Q14:Q19)</f>
         <v>92951.508350791599</v>
       </c>
-      <c r="R20" s="65">
+      <c r="R20" s="66">
         <f>SUM(R14:R19)</f>
         <v>102799.86426921429</v>
       </c>
-      <c r="S20" s="65">
+      <c r="S20" s="66">
         <f>SUM(S14:S19)</f>
         <v>113763.25986698802</v>
       </c>
-      <c r="T20" s="65">
+      <c r="T20" s="66">
         <f>SUM(T14:T19)</f>
         <v>125973.41589646391</v>
       </c>
-      <c r="U20" s="66">
+      <c r="U20" s="67">
         <f>SUM(U14:U19)</f>
         <v>139578.03413119007</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="70"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="71"/>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>443</v>
-      </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="54">
+        <v>447</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="55">
         <v>0</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="55">
         <v>0</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="55">
         <v>1.6699999999999999</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="55">
         <v>7.6399999999999997</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="56">
         <f t="shared" si="24"/>
         <v>7.6399999999999997</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="70">
         <v>0</v>
       </c>
-      <c r="L22" s="72">
+      <c r="L22" s="73">
         <v>0</v>
       </c>
-      <c r="M22" s="72">
+      <c r="M22" s="73">
         <v>0</v>
       </c>
-      <c r="N22" s="72">
+      <c r="N22" s="73">
         <v>0</v>
       </c>
-      <c r="O22" s="72">
+      <c r="O22" s="73">
         <v>0</v>
       </c>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="70"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="71"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="55">
         <f>F11-F20+F22</f>
         <v>5992.2400000000052</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="55">
         <f>G11-G20+G22</f>
         <v>9503.7800000000025</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="55">
         <f>H11-H20+H22</f>
         <v>15527.859999999995</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="55">
         <f>I11-I20+I22</f>
         <v>19309.569999999992</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="56">
         <f t="shared" si="24"/>
         <v>19309.569999999992</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="55">
         <f>K11-K20+K22</f>
         <v>22197.191039999998</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="55">
         <f>L11-L20+L22</f>
         <v>26181.429821399986</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M23" s="55">
         <f>M11-M20+M22</f>
         <v>30826.387756073986</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="55">
         <f>N11-N20+N22</f>
         <v>36237.041436383304</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="55">
         <f>O11-O20+O22</f>
         <v>42534.515611546769</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="77">
         <f>P11-P20+P22</f>
         <v>49858.486780901512</v>
       </c>
-      <c r="Q23" s="54">
+      <c r="Q23" s="55">
         <f>Q11-Q20+Q22</f>
         <v>57082.779054385537</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="55">
         <f>R11-R20+R22</f>
         <v>65238.537624584118</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="55">
         <f>S11-S20+S22</f>
         <v>74439.750254066195</v>
       </c>
-      <c r="T23" s="54">
+      <c r="T23" s="55">
         <f>T11-T20+T22</f>
         <v>84813.955439116835</v>
       </c>
-      <c r="U23" s="76">
+      <c r="U23" s="77">
         <f>U11-U20+U22</f>
         <v>96503.821764660388</v>
       </c>
@@ -11996,67 +12030,67 @@
       <c r="B24" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="55">
         <f>-1660.26+87.82</f>
         <v>-1572.4400000000001</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="55">
         <f>-2497.45+21.9</f>
         <v>-2475.5499999999997</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="55">
         <f>-3998.18-21.99</f>
         <v>-4020.1699999999996</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="55">
         <f>-4957.72+99.32</f>
         <v>-4858.4000000000005</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="56">
         <f t="shared" si="24"/>
         <v>-4858.4000000000005</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="70">
         <f ca="1">-K23*$L$49</f>
         <v>-5549.2977599999995</v>
       </c>
-      <c r="L24" s="69">
+      <c r="L24" s="70">
         <f>-L23*$L$49</f>
         <v>-6545.3574553499966</v>
       </c>
-      <c r="M24" s="69">
+      <c r="M24" s="70">
         <f>-M23*$L$49</f>
         <v>-7706.5969390184964</v>
       </c>
-      <c r="N24" s="69">
+      <c r="N24" s="70">
         <f>-N23*$L$49</f>
         <v>-9059.2603590958261</v>
       </c>
-      <c r="O24" s="69">
+      <c r="O24" s="70">
         <f>-O23*$L$49</f>
         <v>-10633.628902886692</v>
       </c>
-      <c r="P24" s="70">
+      <c r="P24" s="71">
         <f>-P23*$L$49</f>
         <v>-12464.621695225378</v>
       </c>
-      <c r="Q24" s="69">
+      <c r="Q24" s="70">
         <f ca="1">-Q23*$L$49</f>
         <v>-14270.694763596384</v>
       </c>
-      <c r="R24" s="69">
+      <c r="R24" s="70">
         <f>-R23*$L$49</f>
         <v>-16309.63440614603</v>
       </c>
-      <c r="S24" s="69">
+      <c r="S24" s="70">
         <f>-S23*$L$49</f>
         <v>-18609.937563516549</v>
       </c>
-      <c r="T24" s="69">
+      <c r="T24" s="70">
         <f>-T23*$L$49</f>
         <v>-21203.488859779209</v>
       </c>
-      <c r="U24" s="70">
+      <c r="U24" s="71">
         <f>-U23*$L$49</f>
         <v>-24125.955441165097</v>
       </c>
@@ -12065,67 +12099,67 @@
       <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="66">
         <f>F23+F24</f>
         <v>4419.8000000000047</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="66">
         <f>G23+G24</f>
         <v>7028.2300000000032</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="66">
         <f>H23+H24</f>
         <v>11507.689999999995</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="66">
         <f>I23+I24</f>
         <v>14451.169999999991</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="56">
         <f t="shared" si="24"/>
         <v>14451.169999999991</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="66">
         <f>K23+K24</f>
         <v>16647.893279999997</v>
       </c>
-      <c r="L25" s="65">
+      <c r="L25" s="66">
         <f>L23+L24</f>
         <v>19636.07236604999</v>
       </c>
-      <c r="M25" s="65">
+      <c r="M25" s="66">
         <f>M23+M24</f>
         <v>23119.790817055487</v>
       </c>
-      <c r="N25" s="65">
+      <c r="N25" s="66">
         <f>N23+N24</f>
         <v>27177.78107728748</v>
       </c>
-      <c r="O25" s="65">
+      <c r="O25" s="66">
         <f>O23+O24</f>
         <v>31900.886708660077</v>
       </c>
-      <c r="P25" s="66">
+      <c r="P25" s="67">
         <f>P23+P24</f>
         <v>37393.865085676138</v>
       </c>
-      <c r="Q25" s="65">
+      <c r="Q25" s="66">
         <f>Q23+Q24</f>
         <v>42812.084290789149</v>
       </c>
-      <c r="R25" s="65">
+      <c r="R25" s="66">
         <f>R23+R24</f>
         <v>48928.903218438092</v>
       </c>
-      <c r="S25" s="65">
+      <c r="S25" s="66">
         <f>S23+S24</f>
         <v>55829.812690549647</v>
       </c>
-      <c r="T25" s="65">
+      <c r="T25" s="66">
         <f>T23+T24</f>
         <v>63610.466579337626</v>
       </c>
-      <c r="U25" s="66">
+      <c r="U25" s="67">
         <f>U23+U24</f>
         <v>72377.866323495284</v>
       </c>
@@ -12134,503 +12168,503 @@
       <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="55">
         <v>0</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="55">
         <v>34.270000000000003</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="55">
         <v>-22.84</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="55">
         <v>89.540000000000006</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="56">
         <f t="shared" si="24"/>
         <v>89.540000000000006</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="52"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55">
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25">
       <c r="B28" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="65">
+        <v>448</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="66">
         <f>F25+F26</f>
         <v>4419.8000000000047</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="66">
         <f>G25+G26</f>
         <v>7062.5000000000036</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="66">
         <f>H25+H26</f>
         <v>11484.849999999995</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="66">
         <f>I25+I26</f>
         <v>14540.709999999992</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="56">
         <f t="shared" si="24"/>
         <v>14540.709999999992</v>
       </c>
-      <c r="K28" s="78">
+      <c r="K28" s="79">
         <f>K25</f>
         <v>16647.893279999997</v>
       </c>
-      <c r="L28" s="78">
+      <c r="L28" s="79">
         <f>L25</f>
         <v>19636.07236604999</v>
       </c>
-      <c r="M28" s="78">
+      <c r="M28" s="79">
         <f>M25</f>
         <v>23119.790817055487</v>
       </c>
-      <c r="N28" s="78">
+      <c r="N28" s="79">
         <f>N25</f>
         <v>27177.78107728748</v>
       </c>
-      <c r="O28" s="78">
+      <c r="O28" s="79">
         <f>O25</f>
         <v>31900.886708660077</v>
       </c>
-      <c r="P28" s="79">
+      <c r="P28" s="80">
         <f>P25</f>
         <v>37393.865085676138</v>
       </c>
-      <c r="Q28" s="78">
+      <c r="Q28" s="79">
         <f>Q25</f>
         <v>42812.084290789149</v>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="79">
         <f>R25</f>
         <v>48928.903218438092</v>
       </c>
-      <c r="S28" s="78">
+      <c r="S28" s="79">
         <f>S25</f>
         <v>55829.812690549647</v>
       </c>
-      <c r="T28" s="78">
+      <c r="T28" s="79">
         <f>T25</f>
         <v>63610.466579337626</v>
       </c>
-      <c r="U28" s="79">
+      <c r="U28" s="80">
         <f>U25</f>
         <v>72377.866323495284</v>
       </c>
-      <c r="V28" s="78">
+      <c r="V28" s="79">
         <f>U28+U28*$W$32</f>
         <v>73825.423649965189</v>
       </c>
-      <c r="W28" s="78">
+      <c r="W28" s="79">
         <f>V28+V28*$W$32</f>
         <v>75301.932122964499</v>
       </c>
-      <c r="X28" s="78">
+      <c r="X28" s="79">
         <f>W28+W28*$W$32</f>
         <v>76807.970765423786</v>
       </c>
-      <c r="Y28" s="78">
+      <c r="Y28" s="79">
         <f>X28+X28*$W$32</f>
         <v>78344.13018073226</v>
       </c>
-      <c r="Z28" s="78">
+      <c r="Z28" s="79">
         <f>Y28+Y28*$W$32</f>
         <v>79911.012784346909</v>
       </c>
-      <c r="AA28" s="78">
+      <c r="AA28" s="79">
         <f>Z28+Z28*$W$32</f>
         <v>81509.233040033854</v>
       </c>
-      <c r="AB28" s="78">
+      <c r="AB28" s="79">
         <f>AA28+AA28*$W$32</f>
         <v>83139.417700834529</v>
       </c>
-      <c r="AC28" s="78">
+      <c r="AC28" s="79">
         <f>AB28+AB28*$W$32</f>
         <v>84802.206054851224</v>
       </c>
-      <c r="AD28" s="78">
+      <c r="AD28" s="79">
         <f>AC28+AC28*$W$32</f>
         <v>86498.250175948255</v>
       </c>
-      <c r="AE28" s="78">
+      <c r="AE28" s="79">
         <f>AD28+AD28*$W$32</f>
         <v>88228.215179467225</v>
       </c>
-      <c r="AF28" s="78">
+      <c r="AF28" s="79">
         <f>AE28+AE28*$W$32</f>
         <v>89992.779483056569</v>
       </c>
-      <c r="AG28" s="78">
+      <c r="AG28" s="79">
         <f>AF28+AF28*$W$32</f>
         <v>91792.635072717705</v>
       </c>
-      <c r="AH28" s="78">
+      <c r="AH28" s="79">
         <f>AG28+AG28*$W$32</f>
         <v>93628.487774172056</v>
       </c>
-      <c r="AI28" s="78">
+      <c r="AI28" s="79">
         <f>AH28+AH28*$W$32</f>
         <v>95501.057529655503</v>
       </c>
-      <c r="AJ28" s="78">
+      <c r="AJ28" s="79">
         <f>AI28+AI28*$W$32</f>
         <v>97411.078680248611</v>
       </c>
-      <c r="AK28" s="78">
+      <c r="AK28" s="79">
         <f>AJ28+AJ28*$W$32</f>
         <v>99359.30025385358</v>
       </c>
-      <c r="AL28" s="78">
+      <c r="AL28" s="79">
         <f>AK28+AK28*$W$32</f>
         <v>101346.48625893066</v>
       </c>
-      <c r="AM28" s="78">
+      <c r="AM28" s="79">
         <f>AL28+AL28*$W$32</f>
         <v>103373.41598410928</v>
       </c>
-      <c r="AN28" s="78">
+      <c r="AN28" s="79">
         <f>AM28+AM28*$W$32</f>
         <v>105440.88430379146</v>
       </c>
-      <c r="AO28" s="78">
+      <c r="AO28" s="79">
         <f>AN28+AN28*$W$32</f>
         <v>107549.70198986729</v>
       </c>
-      <c r="AP28" s="78">
+      <c r="AP28" s="79">
         <f>AO28+AO28*$W$32</f>
         <v>109700.69602966463</v>
       </c>
-      <c r="AQ28" s="78">
+      <c r="AQ28" s="79">
         <f>AP28+AP28*$W$32</f>
         <v>111894.70995025792</v>
       </c>
-      <c r="AR28" s="78">
+      <c r="AR28" s="79">
         <f>AQ28+AQ28*$W$32</f>
         <v>114132.60414926308</v>
       </c>
-      <c r="AS28" s="78">
+      <c r="AS28" s="79">
         <f>AR28+AR28*$W$32</f>
         <v>116415.25623224834</v>
       </c>
-      <c r="AT28" s="78">
+      <c r="AT28" s="79">
         <f>AS28+AS28*$W$32</f>
         <v>118743.5613568933</v>
       </c>
-      <c r="AU28" s="78">
+      <c r="AU28" s="79">
         <f>AT28+AT28*$W$32</f>
         <v>121118.43258403116</v>
       </c>
-      <c r="AV28" s="78">
+      <c r="AV28" s="79">
         <f>AU28+AU28*$W$32</f>
         <v>123540.80123571178</v>
       </c>
-      <c r="AW28" s="78">
+      <c r="AW28" s="79">
         <f>AV28+AV28*$W$32</f>
         <v>126011.61726042602</v>
       </c>
-      <c r="AX28" s="78">
+      <c r="AX28" s="79">
         <f>AW28+AW28*$W$32</f>
         <v>128531.84960563455</v>
       </c>
-      <c r="AY28" s="78">
+      <c r="AY28" s="79">
         <f>AX28+AX28*$W$32</f>
         <v>131102.48659774725</v>
       </c>
-      <c r="AZ28" s="78">
+      <c r="AZ28" s="79">
         <f>AY28+AY28*$W$32</f>
         <v>133724.53632970218</v>
       </c>
-      <c r="BA28" s="78">
+      <c r="BA28" s="79">
         <f>AZ28+AZ28*$W$32</f>
         <v>136399.02705629624</v>
       </c>
-      <c r="BB28" s="78">
+      <c r="BB28" s="79">
         <f>BA28+BA28*$W$32</f>
         <v>139127.00759742217</v>
       </c>
-      <c r="BC28" s="78">
+      <c r="BC28" s="79">
         <f>BB28+BB28*$W$32</f>
         <v>141909.5477493706</v>
       </c>
-      <c r="BD28" s="78">
+      <c r="BD28" s="79">
         <f>BC28+BC28*$W$32</f>
         <v>144747.73870435802</v>
       </c>
-      <c r="BE28" s="78">
+      <c r="BE28" s="79">
         <f>BD28+BD28*$W$32</f>
         <v>147642.69347844517</v>
       </c>
-      <c r="BF28" s="78">
+      <c r="BF28" s="79">
         <f>BE28+BE28*$W$32</f>
         <v>150595.54734801408</v>
       </c>
-      <c r="BG28" s="78">
+      <c r="BG28" s="79">
         <f>BF28+BF28*$W$32</f>
         <v>153607.45829497435</v>
       </c>
-      <c r="BH28" s="78">
+      <c r="BH28" s="79">
         <f>BG28+BG28*$W$32</f>
         <v>156679.60746087384</v>
       </c>
-      <c r="BI28" s="78">
+      <c r="BI28" s="79">
         <f>BH28+BH28*$W$32</f>
         <v>159813.19961009131</v>
       </c>
-      <c r="BJ28" s="78">
+      <c r="BJ28" s="79">
         <f>BI28+BI28*$W$32</f>
         <v>163009.46360229314</v>
       </c>
-      <c r="BK28" s="78">
+      <c r="BK28" s="79">
         <f>BJ28+BJ28*$W$32</f>
         <v>166269.65287433899</v>
       </c>
-      <c r="BL28" s="78">
+      <c r="BL28" s="79">
         <f>BK28+BK28*$W$32</f>
         <v>169595.04593182576</v>
       </c>
-      <c r="BM28" s="78">
+      <c r="BM28" s="79">
         <f>BL28+BL28*$W$32</f>
         <v>172986.94685046229</v>
       </c>
-      <c r="BN28" s="78">
+      <c r="BN28" s="79">
         <f>BM28+BM28*$W$32</f>
         <v>176446.68578747154</v>
       </c>
-      <c r="BO28" s="78">
+      <c r="BO28" s="79">
         <f>BN28+BN28*$W$32</f>
         <v>179975.61950322098</v>
       </c>
-      <c r="BP28" s="78">
+      <c r="BP28" s="79">
         <f>BO28+BO28*$W$32</f>
         <v>183575.1318932854</v>
       </c>
-      <c r="BQ28" s="78">
+      <c r="BQ28" s="79">
         <f>BP28+BP28*$W$32</f>
         <v>187246.63453115112</v>
       </c>
-      <c r="BR28" s="78">
+      <c r="BR28" s="79">
         <f>BQ28+BQ28*$W$32</f>
         <v>190991.56722177414</v>
       </c>
-      <c r="BS28" s="78">
+      <c r="BS28" s="79">
         <f>BR28+BR28*$W$32</f>
         <v>194811.39856620962</v>
       </c>
-      <c r="BT28" s="78">
+      <c r="BT28" s="79">
         <f>BS28+BS28*$W$32</f>
         <v>198707.62653753383</v>
       </c>
-      <c r="BU28" s="78">
+      <c r="BU28" s="79">
         <f>BT28+BT28*$W$32</f>
         <v>202681.77906828449</v>
       </c>
-      <c r="BV28" s="78">
+      <c r="BV28" s="79">
         <f>BU28+BU28*$W$32</f>
         <v>206735.41464965019</v>
       </c>
-      <c r="BW28" s="78">
+      <c r="BW28" s="79">
         <f>BV28+BV28*$W$32</f>
         <v>210870.12294264318</v>
       </c>
-      <c r="BX28" s="78">
+      <c r="BX28" s="79">
         <f>BW28+BW28*$W$32</f>
         <v>215087.52540149604</v>
       </c>
-      <c r="BY28" s="78">
+      <c r="BY28" s="79">
         <f>BX28+BX28*$W$32</f>
         <v>219389.27590952595</v>
       </c>
-      <c r="BZ28" s="78">
+      <c r="BZ28" s="79">
         <f>BY28+BY28*$W$32</f>
         <v>223777.06142771649</v>
       </c>
-      <c r="CA28" s="78">
+      <c r="CA28" s="79">
         <f>BZ28+BZ28*$W$32</f>
         <v>228252.60265627081</v>
       </c>
-      <c r="CB28" s="78">
+      <c r="CB28" s="79">
         <f>CA28+CA28*$W$32</f>
         <v>232817.65470939624</v>
       </c>
-      <c r="CC28" s="78">
+      <c r="CC28" s="79">
         <f>CB28+CB28*$W$32</f>
         <v>237474.00780358416</v>
       </c>
-      <c r="CD28" s="78">
+      <c r="CD28" s="79">
         <f>CC28+CC28*$W$32</f>
         <v>242223.48795965585</v>
       </c>
-      <c r="CE28" s="78">
+      <c r="CE28" s="79">
         <f>CD28+CD28*$W$32</f>
         <v>247067.95771884895</v>
       </c>
-      <c r="CF28" s="78">
+      <c r="CF28" s="79">
         <f>CE28+CE28*$W$32</f>
         <v>252009.31687322594</v>
       </c>
-      <c r="CG28" s="78">
+      <c r="CG28" s="79">
         <f>CF28+CF28*$W$32</f>
         <v>257049.50321069045</v>
       </c>
-      <c r="CH28" s="78">
+      <c r="CH28" s="79">
         <f>CG28+CG28*$W$32</f>
         <v>262190.49327490426</v>
       </c>
-      <c r="CI28" s="78">
+      <c r="CI28" s="79">
         <f>CH28+CH28*$W$32</f>
         <v>267434.30314040236</v>
       </c>
-      <c r="CJ28" s="78">
+      <c r="CJ28" s="79">
         <f>CI28+CI28*$W$32</f>
         <v>272782.9892032104</v>
       </c>
-      <c r="CK28" s="78">
+      <c r="CK28" s="79">
         <f>CJ28+CJ28*$W$32</f>
         <v>278238.64898727462</v>
       </c>
-      <c r="CL28" s="78">
+      <c r="CL28" s="79">
         <f>CK28+CK28*$W$32</f>
         <v>283803.42196702008</v>
       </c>
-      <c r="CM28" s="78">
+      <c r="CM28" s="79">
         <f>CL28+CL28*$W$32</f>
         <v>289479.49040636048</v>
       </c>
-      <c r="CN28" s="78">
+      <c r="CN28" s="79">
         <f>CM28+CM28*$W$32</f>
         <v>295269.08021448768</v>
       </c>
-      <c r="CO28" s="78">
+      <c r="CO28" s="79">
         <f>CN28+CN28*$W$32</f>
         <v>301174.46181877743</v>
       </c>
-      <c r="CP28" s="78">
+      <c r="CP28" s="79">
         <f>CO28+CO28*$W$32</f>
         <v>307197.95105515298</v>
       </c>
-      <c r="CQ28" s="78">
+      <c r="CQ28" s="79">
         <f>CP28+CP28*$W$32</f>
         <v>313341.91007625603</v>
       </c>
-      <c r="CR28" s="78">
+      <c r="CR28" s="79">
         <f>CQ28+CQ28*$W$32</f>
         <v>319608.74827778112</v>
       </c>
-      <c r="CS28" s="78">
+      <c r="CS28" s="79">
         <f>CR28+CR28*$W$32</f>
         <v>326000.92324333673</v>
       </c>
-      <c r="CT28" s="78">
+      <c r="CT28" s="79">
         <f>CS28+CS28*$W$32</f>
         <v>332520.94170820346</v>
       </c>
-      <c r="CU28" s="78">
+      <c r="CU28" s="79">
         <f>CT28+CT28*$W$32</f>
         <v>339171.36054236756</v>
       </c>
-      <c r="CV28" s="78">
+      <c r="CV28" s="79">
         <f>CU28+CU28*$W$32</f>
         <v>345954.78775321489</v>
       </c>
-      <c r="CW28" s="78">
+      <c r="CW28" s="79">
         <f>CV28+CV28*$W$32</f>
         <v>352873.88350827916</v>
       </c>
-      <c r="CX28" s="78">
+      <c r="CX28" s="79">
         <f>CW28+CW28*$W$32</f>
         <v>359931.36117844476</v>
       </c>
-      <c r="CY28" s="78">
+      <c r="CY28" s="79">
         <f>CX28+CX28*$W$32</f>
         <v>367129.98840201367</v>
       </c>
-      <c r="CZ28" s="78">
+      <c r="CZ28" s="79">
         <f>CY28+CY28*$W$32</f>
         <v>374472.58817005396</v>
       </c>
-      <c r="DA28" s="78">
+      <c r="DA28" s="79">
         <f>CZ28+CZ28*$W$32</f>
         <v>381962.03993345506</v>
       </c>
-      <c r="DB28" s="78">
+      <c r="DB28" s="79">
         <f>DA28+DA28*$W$32</f>
         <v>389601.28073212417</v>
       </c>
-      <c r="DC28" s="78">
+      <c r="DC28" s="79">
         <f>DB28+DB28*$W$32</f>
         <v>397393.30634676665</v>
       </c>
-      <c r="DD28" s="78">
+      <c r="DD28" s="79">
         <f>DC28+DC28*$W$32</f>
         <v>405341.172473702</v>
       </c>
-      <c r="DE28" s="78">
+      <c r="DE28" s="79">
         <f>DD28+DD28*$W$32</f>
         <v>413447.99592317606</v>
       </c>
-      <c r="DF28" s="78">
+      <c r="DF28" s="79">
         <f>DE28+DE28*$W$32</f>
         <v>421716.9558416396</v>
       </c>
-      <c r="DG28" s="78">
+      <c r="DG28" s="79">
         <f>DF28+DF28*$W$32</f>
         <v>430151.29495847237</v>
       </c>
-      <c r="DH28" s="78"/>
-      <c r="DI28" s="78"/>
-      <c r="DJ28" s="78"/>
-      <c r="DK28" s="78"/>
-      <c r="DL28" s="78"/>
-      <c r="DM28" s="78"/>
-      <c r="DN28" s="78"/>
-      <c r="DO28" s="78"/>
-      <c r="DP28" s="78"/>
-      <c r="DQ28" s="78"/>
-      <c r="DR28" s="78"/>
-      <c r="DS28" s="78"/>
-      <c r="DT28" s="78"/>
-      <c r="DU28" s="78"/>
-      <c r="DV28" s="78"/>
-      <c r="DW28" s="78"/>
-      <c r="DX28" s="78"/>
-      <c r="DY28" s="78"/>
-      <c r="DZ28" s="78"/>
-      <c r="EA28" s="78"/>
-      <c r="EB28" s="78"/>
-      <c r="EC28" s="78"/>
-      <c r="ED28" s="78"/>
+      <c r="DH28" s="79"/>
+      <c r="DI28" s="79"/>
+      <c r="DJ28" s="79"/>
+      <c r="DK28" s="79"/>
+      <c r="DL28" s="79"/>
+      <c r="DM28" s="79"/>
+      <c r="DN28" s="79"/>
+      <c r="DO28" s="79"/>
+      <c r="DP28" s="79"/>
+      <c r="DQ28" s="79"/>
+      <c r="DR28" s="79"/>
+      <c r="DS28" s="79"/>
+      <c r="DT28" s="79"/>
+      <c r="DU28" s="79"/>
+      <c r="DV28" s="79"/>
+      <c r="DW28" s="79"/>
+      <c r="DX28" s="79"/>
+      <c r="DY28" s="79"/>
+      <c r="DZ28" s="79"/>
+      <c r="EA28" s="79"/>
+      <c r="EB28" s="79"/>
+      <c r="EC28" s="79"/>
+      <c r="ED28" s="79"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
-        <v>445</v>
-      </c>
-      <c r="E29" s="80"/>
+        <v>449</v>
+      </c>
+      <c r="E29" s="81"/>
       <c r="F29">
         <v>4419.8199999999997</v>
       </c>
@@ -12640,44 +12674,44 @@
       <c r="H29">
         <v>10289.74</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="81">
         <v>12644.110000000001</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="56">
         <f t="shared" si="24"/>
         <v>12644.110000000001</v>
       </c>
-      <c r="P29" s="56"/>
-      <c r="U29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="U29" s="57"/>
     </row>
     <row r="30" ht="14.25">
       <c r="B30" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81">
+        <v>450</v>
+      </c>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82">
         <f>F28/F29-1</f>
         <v>-4.5250711555588907e-06</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="82">
         <f>G28/G29-1</f>
         <v>0.0048760498731550417</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="82">
         <f>H28/H29-1</f>
         <v>0.116145791827587</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="82">
         <f>I28/I29-1</f>
         <v>0.14999869504456953</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="56">
         <f t="shared" si="24"/>
         <v>0.14999869504456953</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="P30" s="56"/>
-      <c r="U30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="U30" s="57"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="14.25">
       <c r="A31" s="4"/>
@@ -12686,7 +12720,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="55">
+      <c r="J31" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -12695,32 +12729,32 @@
     </row>
     <row r="32" s="4" customFormat="1" ht="16.5">
       <c r="A32" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="49">
+      <c r="G32" s="50">
         <v>605429233</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="50">
         <v>605429233</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="50">
         <v>618996320</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="56">
         <f t="shared" si="24"/>
         <v>618996320</v>
       </c>
       <c r="P32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="W32" s="82">
+        <v>338</v>
+      </c>
+      <c r="W32" s="25">
         <v>0.02</v>
       </c>
     </row>
@@ -12728,27 +12762,27 @@
       <c r="B33" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="81"/>
       <c r="F33">
         <v>600670592</v>
       </c>
       <c r="G33">
         <v>602574303</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="54">
         <v>603976750</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="54">
         <v>610032743</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="56">
         <f t="shared" si="24"/>
         <v>610032743</v>
       </c>
-      <c r="P33" s="56"/>
-      <c r="U33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="U33" s="57"/>
       <c r="V33" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="W33" s="83">
         <v>0.10000000000000001</v>
@@ -12756,32 +12790,32 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
-      </c>
-      <c r="E34" s="80"/>
+        <v>455</v>
+      </c>
+      <c r="E34" s="81"/>
       <c r="F34">
         <v>5149.8500000000004</v>
       </c>
       <c r="G34">
         <v>7259.9499999999998</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="54">
         <v>5616.75</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="54">
         <v>7110</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="56">
         <f t="shared" si="24"/>
         <v>7110</v>
       </c>
-      <c r="P34" s="56"/>
-      <c r="U34" s="56"/>
+      <c r="P34" s="57"/>
+      <c r="U34" s="57"/>
       <c r="V34" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="W34">
         <f>NPV(W33,K28:DG28)</f>
@@ -12790,64 +12824,64 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="55">
+      <c r="E35" s="81"/>
+      <c r="F35" s="56">
         <f>F29*10000000/F33</f>
         <v>73.581428138236546</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="56">
         <f>G29*10000000/G33</f>
         <v>116.63673616695866</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="56">
         <f>H29*10000000/H33</f>
         <v>170.36649175651215</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="56">
         <f>I29*10000000/I33</f>
         <v>207.26936619531585</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="56">
         <f t="shared" si="24"/>
         <v>207.26936619531585</v>
       </c>
-      <c r="P35" s="56"/>
-      <c r="U35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="U35" s="57"/>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="55">
+        <v>457</v>
+      </c>
+      <c r="E36" s="81"/>
+      <c r="F36" s="56">
         <f>F34/F35</f>
         <v>69.988448584132385</v>
       </c>
-      <c r="G36" s="55">
+      <c r="G36" s="56">
         <f>G34/G35</f>
         <v>62.244111405927946</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="56">
         <f>H34/H35</f>
         <v>32.968630991283554</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="56">
         <f>I34/I35</f>
         <v>34.30318782998566</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="56">
         <f t="shared" si="24"/>
         <v>34.30318782998566</v>
       </c>
-      <c r="P36" s="56"/>
-      <c r="U36" s="56"/>
+      <c r="P36" s="57"/>
+      <c r="U36" s="57"/>
       <c r="V36" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="W36" s="84">
         <f>J32</f>
@@ -12855,14 +12889,14 @@
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="J37" s="55">
+      <c r="J37" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P37" s="56"/>
-      <c r="U37" s="56"/>
+      <c r="P37" s="57"/>
+      <c r="U37" s="57"/>
       <c r="V37" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="W37">
         <v>8994.5</v>
@@ -12870,32 +12904,32 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P38" s="56"/>
-      <c r="U38" s="56"/>
+      <c r="P38" s="57"/>
+      <c r="U38" s="57"/>
       <c r="V38" t="s">
-        <v>457</v>
-      </c>
-      <c r="W38" s="54">
+        <v>461</v>
+      </c>
+      <c r="W38" s="55">
         <f>W34*10000000/W36</f>
         <v>8879.8038491862535</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="J39" s="55">
+      <c r="J39" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P39" s="56"/>
-      <c r="U39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="U39" s="57"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" t="s">
@@ -12914,48 +12948,48 @@
         <v>0.32749444327212207</v>
       </c>
       <c r="I40" s="85"/>
-      <c r="J40" s="55">
+      <c r="J40" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L40" s="83">
         <v>0.16</v>
       </c>
-      <c r="P40" s="56"/>
+      <c r="P40" s="57"/>
       <c r="Q40" s="83">
         <v>0.12</v>
       </c>
-      <c r="U40" s="56"/>
+      <c r="U40" s="57"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" t="s">
-        <v>459</v>
-      </c>
-      <c r="F41" s="81">
+        <v>463</v>
+      </c>
+      <c r="F41" s="82">
         <f>G14/F14-1</f>
         <v>0.035504567665179509</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="82">
         <f>H14/G14-1</f>
         <v>0.28842642364160098</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="82">
         <f>I14/H14-1</f>
         <v>0.49083232416844402</v>
       </c>
-      <c r="J41" s="55">
+      <c r="J41" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P41" s="56"/>
-      <c r="U41" s="56"/>
+      <c r="P41" s="57"/>
+      <c r="U41" s="57"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F42" s="85">
         <f>F14/F11</f>
@@ -12973,7 +13007,7 @@
         <f>I14/I11</f>
         <v>0.34055720628250696</v>
       </c>
-      <c r="J42" s="55">
+      <c r="J42" s="56">
         <f t="shared" si="24"/>
         <v>0.34055720628250696</v>
       </c>
@@ -12981,12 +13015,12 @@
         <f>35%</f>
         <v>0.34999999999999998</v>
       </c>
-      <c r="P42" s="56"/>
-      <c r="U42" s="56"/>
+      <c r="P42" s="57"/>
+      <c r="U42" s="57"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F43" s="85">
         <f t="shared" ref="F43:F47" si="31">G15/F15-1</f>
@@ -13000,7 +13034,7 @@
         <f t="shared" ref="H43:H47" si="33">I15/H15-1</f>
         <v>0.021163433731436365</v>
       </c>
-      <c r="J43" s="55">
+      <c r="J43" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -13013,7 +13047,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="B44" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F44" s="85">
         <f t="shared" si="31"/>
@@ -13027,7 +13061,7 @@
         <f t="shared" si="33"/>
         <v>0.45178938128007773</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -13040,7 +13074,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="B45" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F45" s="85">
         <f t="shared" si="31"/>
@@ -13054,7 +13088,7 @@
         <f t="shared" si="33"/>
         <v>0.25407288748066259</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -13067,7 +13101,7 @@
     </row>
     <row r="46" ht="14.25">
       <c r="B46" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F46" s="85">
         <f t="shared" si="31"/>
@@ -13081,7 +13115,7 @@
         <f t="shared" si="33"/>
         <v>0.40780419465161333</v>
       </c>
-      <c r="J46" s="55">
+      <c r="J46" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -13094,7 +13128,7 @@
     </row>
     <row r="47" ht="14.25">
       <c r="B47" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F47" s="85">
         <f t="shared" si="31"/>
@@ -13108,7 +13142,7 @@
         <f t="shared" si="33"/>
         <v>0.24343366510472753</v>
       </c>
-      <c r="J47" s="55">
+      <c r="J47" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -13122,7 +13156,7 @@
     <row r="48" s="86" customFormat="1" ht="14.25">
       <c r="A48" s="86"/>
       <c r="B48" s="86" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F48" s="87">
         <f>G24/F24-1</f>
@@ -13136,14 +13170,14 @@
         <f>I24/H24-1</f>
         <v>0.20850610795065916</v>
       </c>
-      <c r="J48" s="55">
+      <c r="J48" s="56">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F49" s="85">
         <f>-F24/F23</f>
@@ -13161,7 +13195,7 @@
         <f>-I24/I23</f>
         <v>0.25160580996883941</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="56">
         <f t="shared" si="24"/>
         <v>0.25160580996883941</v>
       </c>
@@ -13174,9 +13208,9 @@
     </row>
     <row r="50" ht="14.25">
       <c r="B50" t="s">
-        <v>468</v>
-      </c>
-      <c r="F50" s="74">
+        <v>472</v>
+      </c>
+      <c r="F50" s="75">
         <f>F16/F11</f>
         <v>0.22368449160383957</v>
       </c>
@@ -13195,18 +13229,18 @@
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
     <row r="53" ht="14.25">
       <c r="B53" t="s">
-        <v>470</v>
-      </c>
-      <c r="H53" s="54">
+        <v>474</v>
+      </c>
+      <c r="H53" s="55">
         <v>120.89</v>
       </c>
-      <c r="I53" s="54">
+      <c r="I53" s="55">
         <v>123.59999999999999</v>
       </c>
     </row>
@@ -13214,22 +13248,22 @@
       <c r="B54" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="54">
+      <c r="H54" s="55">
         <v>51372.239999999998</v>
       </c>
-      <c r="I54" s="54">
+      <c r="I54" s="55">
         <v>71886.929999999993</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" t="s">
-        <v>471</v>
-      </c>
-      <c r="H55" s="54">
+        <v>475</v>
+      </c>
+      <c r="H55" s="55">
         <f>H54+H53</f>
         <v>51493.129999999997</v>
       </c>
-      <c r="I55" s="62">
+      <c r="I55" s="63">
         <f>I54+I53</f>
         <v>72010.529999999999</v>
       </c>
@@ -13237,57 +13271,57 @@
     <row r="56" ht="14.25"/>
     <row r="57" ht="14.25">
       <c r="B57" t="s">
-        <v>472</v>
-      </c>
-      <c r="H57" s="54">
+        <v>476</v>
+      </c>
+      <c r="H57" s="55">
         <v>87596.089999999997</v>
       </c>
-      <c r="I57" s="54">
+      <c r="I57" s="55">
         <v>65669.850000000006</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" t="s">
-        <v>473</v>
-      </c>
-      <c r="H58" s="54">
+        <v>477</v>
+      </c>
+      <c r="H58" s="55">
         <v>69238</v>
       </c>
-      <c r="I58" s="54">
+      <c r="I58" s="55">
         <v>47894.699999999997</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" t="s">
-        <v>280</v>
-      </c>
-      <c r="H59" s="54">
+        <v>284</v>
+      </c>
+      <c r="H59" s="55">
         <v>59966.660000000003</v>
       </c>
-      <c r="I59" s="54">
+      <c r="I59" s="55">
         <v>44489.790000000001</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" t="s">
-        <v>474</v>
-      </c>
-      <c r="H60" s="54">
+        <v>478</v>
+      </c>
+      <c r="H60" s="55">
         <v>3577.9000000000001</v>
       </c>
-      <c r="I60" s="54">
+      <c r="I60" s="55">
         <v>3630.29</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" t="s">
-        <v>475</v>
-      </c>
-      <c r="H61" s="54">
+        <v>479</v>
+      </c>
+      <c r="H61" s="55">
         <f>SUM(H57:H60)</f>
         <v>220378.64999999999</v>
       </c>
-      <c r="I61" s="62">
+      <c r="I61" s="63">
         <f>SUM(I57:I60)</f>
         <v>161684.63</v>
       </c>
